--- a/resources/Dose_Response_Library.xlsx
+++ b/resources/Dose_Response_Library.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbaker\OneDrive - SC&amp;A, Inc\HEM4Python\Version1.0\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris Stolte\IdeaProjects\HEM\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_14ED69E09B4E56E2D09CB444C9BFC9F83D54072A" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91CBEC9C-E26D-4CB7-AEB8-02E976B081BD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="24480" windowHeight="11130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24480" windowHeight="11136" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dose Response Value Library" sheetId="1" r:id="rId1"/>
@@ -40,12 +40,19 @@
     <definedName name="Z_E392D6CB_6FB5_47D6_BFF9_30F47B865CA7_.wvu.PrintArea" localSheetId="0" hidden="1">'Dose Response Value Library'!$A$1:$U$469</definedName>
     <definedName name="Z_E392D6CB_6FB5_47D6_BFF9_30F47B865CA7_.wvu.PrintTitles" localSheetId="0" hidden="1">'Dose Response Value Library'!$A:$A,'Dose Response Value Library'!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1745" uniqueCount="848">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1745" uniqueCount="847">
   <si>
     <t>Pollutant</t>
   </si>
@@ -1165,9 +1172,6 @@
   </si>
   <si>
     <t>added 7/23/09 for NATA2005</t>
-  </si>
-  <si>
-    <t>Glycol ethers</t>
   </si>
   <si>
     <t>Methoxytriglycol</t>
@@ -3604,34 +3608,34 @@
   <dimension ref="A1:U497"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A482" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O483" sqref="O483"/>
+      <pane ySplit="1" topLeftCell="A485" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A493" sqref="A493"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="33.44140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="30.44140625" style="7" customWidth="1"/>
     <col min="3" max="3" width="14" style="2" customWidth="1"/>
     <col min="4" max="5" width="11" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" style="8" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="8" customWidth="1"/>
-    <col min="10" max="11" width="9.7109375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" style="8" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" style="8" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" style="8" customWidth="1"/>
+    <col min="10" max="11" width="9.6640625" style="8" customWidth="1"/>
     <col min="12" max="12" width="10" style="8" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" style="8" customWidth="1"/>
-    <col min="14" max="15" width="9.28515625" style="8" customWidth="1"/>
+    <col min="13" max="13" width="9.44140625" style="8" customWidth="1"/>
+    <col min="14" max="15" width="9.33203125" style="8" customWidth="1"/>
     <col min="16" max="16" width="11" style="8" customWidth="1"/>
     <col min="17" max="17" width="24" style="9" customWidth="1"/>
-    <col min="18" max="18" width="34.7109375" style="9" customWidth="1"/>
-    <col min="19" max="19" width="10.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="34.6640625" style="9" customWidth="1"/>
+    <col min="19" max="19" width="10.88671875" style="1" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="7" style="1" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="9.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="21" max="21" width="9.109375" style="1" hidden="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="4" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="4" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3696,7 +3700,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
         <v>330</v>
       </c>
@@ -3725,14 +3729,14 @@
         <v>220</v>
       </c>
       <c r="R2" s="13" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="U2" s="1">
         <f t="shared" ref="U2:U31" si="0">MIN(F2:P2)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>21</v>
       </c>
@@ -3776,7 +3780,7 @@
       <c r="O3" s="12"/>
       <c r="P3" s="12"/>
       <c r="Q3" s="13" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="R3" s="13" t="s">
         <v>22</v>
@@ -3786,7 +3790,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>23</v>
       </c>
@@ -3820,7 +3824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>25</v>
       </c>
@@ -3854,7 +3858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>26</v>
       </c>
@@ -3886,7 +3890,7 @@
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
       <c r="Q6" s="13" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="R6" s="13"/>
       <c r="U6" s="1">
@@ -3894,12 +3898,12 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>294</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C7" s="11">
         <v>39001020</v>
@@ -3925,7 +3929,7 @@
         <v>293</v>
       </c>
       <c r="R7" s="13" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="S7" s="1">
         <v>33</v>
@@ -3938,12 +3942,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>292</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C8" s="11">
         <v>3268879</v>
@@ -3969,7 +3973,7 @@
         <v>293</v>
       </c>
       <c r="R8" s="13" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="S8" s="1">
         <v>33</v>
@@ -3982,12 +3986,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>296</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C9" s="11">
         <v>67562394</v>
@@ -4011,7 +4015,7 @@
       <c r="P9" s="12"/>
       <c r="Q9" s="13"/>
       <c r="R9" s="13" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="S9" s="1">
         <v>33</v>
@@ -4024,12 +4028,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>295</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C10" s="11">
         <v>35822469</v>
@@ -4053,7 +4057,7 @@
       <c r="P10" s="12"/>
       <c r="Q10" s="13"/>
       <c r="R10" s="13" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="S10" s="1">
         <v>33</v>
@@ -4066,12 +4070,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>297</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C11" s="11">
         <v>55673897</v>
@@ -4095,7 +4099,7 @@
       <c r="P11" s="12"/>
       <c r="Q11" s="13"/>
       <c r="R11" s="13" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="S11" s="1">
         <v>33</v>
@@ -4108,12 +4112,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>299</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C12" s="11">
         <v>70648269</v>
@@ -4137,7 +4141,7 @@
       <c r="P12" s="12"/>
       <c r="Q12" s="13"/>
       <c r="R12" s="13" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="S12" s="1">
         <v>33</v>
@@ -4150,12 +4154,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>298</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C13" s="11">
         <v>39227286</v>
@@ -4179,7 +4183,7 @@
       <c r="P13" s="12"/>
       <c r="Q13" s="13"/>
       <c r="R13" s="13" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="S13" s="1">
         <v>33</v>
@@ -4192,12 +4196,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>301</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C14" s="11">
         <v>57117449</v>
@@ -4221,7 +4225,7 @@
       <c r="P14" s="12"/>
       <c r="Q14" s="13"/>
       <c r="R14" s="13" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="S14" s="1">
         <v>33</v>
@@ -4234,12 +4238,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>300</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C15" s="11">
         <v>57653857</v>
@@ -4263,7 +4267,7 @@
       <c r="P15" s="12"/>
       <c r="Q15" s="13"/>
       <c r="R15" s="13" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="S15" s="1">
         <v>33</v>
@@ -4276,12 +4280,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>303</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C16" s="11">
         <v>72918219</v>
@@ -4305,7 +4309,7 @@
       <c r="P16" s="12"/>
       <c r="Q16" s="13"/>
       <c r="R16" s="13" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="S16" s="1">
         <v>33</v>
@@ -4318,12 +4322,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>302</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C17" s="11">
         <v>19408743</v>
@@ -4347,7 +4351,7 @@
       <c r="P17" s="12"/>
       <c r="Q17" s="13"/>
       <c r="R17" s="13" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="S17" s="1">
         <v>33</v>
@@ -4360,12 +4364,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>305</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C18" s="11">
         <v>57117416</v>
@@ -4391,7 +4395,7 @@
         <v>293</v>
       </c>
       <c r="R18" s="13" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="S18" s="1">
         <v>33</v>
@@ -4404,12 +4408,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>304</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C19" s="11">
         <v>40321764</v>
@@ -4433,7 +4437,7 @@
       <c r="P19" s="12"/>
       <c r="Q19" s="13"/>
       <c r="R19" s="13" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="S19" s="1">
         <v>33</v>
@@ -4446,7 +4450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>32</v>
       </c>
@@ -4480,7 +4484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>33</v>
       </c>
@@ -4514,7 +4518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
         <v>333</v>
       </c>
@@ -4554,7 +4558,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>35</v>
       </c>
@@ -4588,7 +4592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>36</v>
       </c>
@@ -4624,7 +4628,7 @@
       <c r="O24" s="12"/>
       <c r="P24" s="12"/>
       <c r="Q24" s="13" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="R24" s="13"/>
       <c r="U24" s="1">
@@ -4632,7 +4636,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>37</v>
       </c>
@@ -4664,7 +4668,7 @@
       <c r="O25" s="12"/>
       <c r="P25" s="12"/>
       <c r="Q25" s="13" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="R25" s="13"/>
       <c r="U25" s="1">
@@ -4672,7 +4676,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>38</v>
       </c>
@@ -4712,17 +4716,17 @@
       <c r="O26" s="12"/>
       <c r="P26" s="12"/>
       <c r="Q26" s="13" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="R26" s="13" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="U26" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>39</v>
       </c>
@@ -4756,7 +4760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>40</v>
       </c>
@@ -4790,7 +4794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>45</v>
       </c>
@@ -4830,7 +4834,7 @@
       <c r="O29" s="12"/>
       <c r="P29" s="12"/>
       <c r="Q29" s="13" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="R29" s="13" t="s">
         <v>46</v>
@@ -4840,12 +4844,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
+        <v>578</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>579</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>580</v>
       </c>
       <c r="C30" s="11">
         <v>42397648</v>
@@ -4869,19 +4873,19 @@
       <c r="P30" s="12"/>
       <c r="Q30" s="13"/>
       <c r="R30" s="13" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="U30" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
+        <v>587</v>
+      </c>
+      <c r="B31" s="10" t="s">
         <v>588</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>589</v>
       </c>
       <c r="C31" s="11">
         <v>42397659</v>
@@ -4905,19 +4909,19 @@
       <c r="P31" s="12"/>
       <c r="Q31" s="13"/>
       <c r="R31" s="13" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="U31" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A32" s="25" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C32" s="26">
         <v>2422799</v>
@@ -4941,15 +4945,15 @@
         <v>340</v>
       </c>
       <c r="R32" s="13" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="B33" s="10" t="s">
         <v>528</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>529</v>
       </c>
       <c r="C33" s="24">
         <v>40</v>
@@ -4973,14 +4977,14 @@
         <v>48</v>
       </c>
       <c r="R33" s="13" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="U33" s="1">
         <f>MIN(F33:P33)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
         <v>334</v>
       </c>
@@ -5007,19 +5011,19 @@
         <v>336</v>
       </c>
       <c r="R34" s="13" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="U34" s="1">
         <f>MIN(F34:P34)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
+        <v>534</v>
+      </c>
+      <c r="B35" s="10" t="s">
         <v>535</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>536</v>
       </c>
       <c r="C35" s="11">
         <v>90120</v>
@@ -5043,19 +5047,19 @@
       <c r="P35" s="12"/>
       <c r="Q35" s="13"/>
       <c r="R35" s="13" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="U35" s="1">
         <f>MIN(F35:P35)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C36" s="11">
         <v>832699</v>
@@ -5079,15 +5083,15 @@
         <v>340</v>
       </c>
       <c r="R36" s="13" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C37" s="11">
         <v>2381217</v>
@@ -5111,15 +5115,15 @@
         <v>340</v>
       </c>
       <c r="R37" s="13" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
+        <v>603</v>
+      </c>
+      <c r="B38" s="10" t="s">
         <v>604</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>605</v>
       </c>
       <c r="C38" s="11">
         <v>5522430</v>
@@ -5143,14 +5147,14 @@
       <c r="P38" s="12"/>
       <c r="Q38" s="13"/>
       <c r="R38" s="13" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="U38" s="1">
         <f t="shared" ref="U38:U44" si="1">MIN(F38:P38)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="s">
         <v>337</v>
       </c>
@@ -5190,7 +5194,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="25" t="s">
         <v>47</v>
       </c>
@@ -5222,12 +5226,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>306</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C41" s="11">
         <v>60851345</v>
@@ -5251,7 +5255,7 @@
       <c r="P41" s="12"/>
       <c r="Q41" s="13"/>
       <c r="R41" s="13" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="S41" s="1">
         <v>33</v>
@@ -5264,12 +5268,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>307</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C42" s="11">
         <v>57117314</v>
@@ -5295,7 +5299,7 @@
         <v>293</v>
       </c>
       <c r="R42" s="13" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="S42" s="1">
         <v>33</v>
@@ -5308,12 +5312,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>309</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C43" s="11">
         <v>51207319</v>
@@ -5337,7 +5341,7 @@
       <c r="P43" s="12"/>
       <c r="Q43" s="13"/>
       <c r="R43" s="13" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="S43" s="1">
         <v>33</v>
@@ -5350,12 +5354,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>308</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C44" s="11">
         <v>1746016</v>
@@ -5379,7 +5383,7 @@
       <c r="P44" s="12"/>
       <c r="Q44" s="13"/>
       <c r="R44" s="13" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="S44" s="1">
         <v>33</v>
@@ -5392,12 +5396,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C45" s="11"/>
       <c r="D45" s="12">
@@ -5416,13 +5420,13 @@
       <c r="O45" s="12"/>
       <c r="P45" s="12"/>
       <c r="Q45" s="13" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="R45" s="13" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>49</v>
       </c>
@@ -5456,7 +5460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>50</v>
       </c>
@@ -5490,7 +5494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>54</v>
       </c>
@@ -5524,7 +5528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>58</v>
       </c>
@@ -5567,14 +5571,14 @@
       <c r="P49" s="12"/>
       <c r="Q49" s="13"/>
       <c r="R49" s="13" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="U49" s="1">
         <f t="shared" si="2"/>
         <v>7.1000000000000005E-5</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
         <v>51</v>
       </c>
@@ -5608,7 +5612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
         <v>53</v>
       </c>
@@ -5642,7 +5646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>55</v>
       </c>
@@ -5676,7 +5680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
         <v>57</v>
       </c>
@@ -5710,7 +5714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:21" ht="66" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
         <v>59</v>
       </c>
@@ -5752,25 +5756,25 @@
       <c r="O54" s="12"/>
       <c r="P54" s="12"/>
       <c r="Q54" s="13" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="R54" s="13" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="U54" s="1">
         <f t="shared" si="2"/>
         <v>7.1000000000000005E-5</v>
       </c>
     </row>
-    <row r="55" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
+        <v>589</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>588</v>
+      </c>
+      <c r="C55" s="11" t="s">
         <v>590</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>589</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>591</v>
       </c>
       <c r="D55" s="12">
         <v>2.0799999999999998E-3</v>
@@ -5791,22 +5795,22 @@
         <v>94</v>
       </c>
       <c r="R55" s="13" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="U55" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
+        <v>622</v>
+      </c>
+      <c r="B56" s="10" t="s">
         <v>623</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="C56" s="11" t="s">
         <v>624</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>625</v>
       </c>
       <c r="D56" s="15">
         <v>1.504E-5</v>
@@ -5827,14 +5831,14 @@
         <v>94</v>
       </c>
       <c r="R56" s="13" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="U56" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" s="25" t="s">
         <v>338</v>
       </c>
@@ -5863,14 +5867,14 @@
         <v>48</v>
       </c>
       <c r="R57" s="13" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="U57" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
         <v>60</v>
       </c>
@@ -5902,12 +5906,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C59" s="11">
         <v>91576</v>
@@ -5931,22 +5935,22 @@
       <c r="P59" s="12"/>
       <c r="Q59" s="13"/>
       <c r="R59" s="13" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="U59" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A60" s="25" t="s">
+        <v>539</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="C60" s="26" t="s">
         <v>540</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>536</v>
-      </c>
-      <c r="C60" s="26" t="s">
-        <v>541</v>
       </c>
       <c r="D60" s="12">
         <v>4.8000000000000001E-5</v>
@@ -5967,19 +5971,19 @@
         <v>94</v>
       </c>
       <c r="R60" s="13" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="U60" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C61" s="11">
         <v>607578</v>
@@ -6003,14 +6007,14 @@
       <c r="P61" s="12"/>
       <c r="Q61" s="13"/>
       <c r="R61" s="13" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="U61" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
         <v>61</v>
       </c>
@@ -6044,7 +6048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" s="25" t="s">
         <v>339</v>
       </c>
@@ -6071,10 +6075,10 @@
         <v>340</v>
       </c>
       <c r="R63" s="13" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>62</v>
       </c>
@@ -6108,7 +6112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:21" s="19" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:21" s="19" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
         <v>63</v>
       </c>
@@ -6144,7 +6148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
         <v>64</v>
       </c>
@@ -6178,7 +6182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:21" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:21" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
         <v>341</v>
       </c>
@@ -6205,19 +6209,19 @@
         <v>91</v>
       </c>
       <c r="R67" s="13" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="U67" s="1">
         <f>MIN(F67:P67)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C68" s="11">
         <v>56495</v>
@@ -6241,19 +6245,19 @@
       <c r="P68" s="12"/>
       <c r="Q68" s="13"/>
       <c r="R68" s="13" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="U68" s="1">
         <f>MIN(F68:P68)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C69" s="11"/>
       <c r="D69" s="12">
@@ -6272,13 +6276,13 @@
       <c r="O69" s="12"/>
       <c r="P69" s="12"/>
       <c r="Q69" s="13" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="R69" s="13" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
         <v>65</v>
       </c>
@@ -6312,7 +6316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
         <v>66</v>
       </c>
@@ -6346,7 +6350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
         <v>70</v>
       </c>
@@ -6380,7 +6384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73" s="25" t="s">
         <v>72</v>
       </c>
@@ -6412,7 +6416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74" s="25" t="s">
         <v>73</v>
       </c>
@@ -6444,7 +6448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
         <v>74</v>
       </c>
@@ -6478,12 +6482,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C76" s="11">
         <v>57835924</v>
@@ -6507,19 +6511,19 @@
       <c r="P76" s="12"/>
       <c r="Q76" s="13"/>
       <c r="R76" s="13" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="U76" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C77" s="11">
         <v>3697243</v>
@@ -6543,19 +6547,19 @@
       <c r="P77" s="12"/>
       <c r="Q77" s="13"/>
       <c r="R77" s="13" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="U77" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C78" s="11">
         <v>602879</v>
@@ -6579,19 +6583,19 @@
       <c r="P78" s="12"/>
       <c r="Q78" s="13"/>
       <c r="R78" s="13" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="U78" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C79" s="11">
         <v>7496028</v>
@@ -6615,19 +6619,19 @@
       <c r="P79" s="12"/>
       <c r="Q79" s="13"/>
       <c r="R79" s="13" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="U79" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A80" s="10" t="s">
+        <v>573</v>
+      </c>
+      <c r="B80" s="10" t="s">
         <v>574</v>
-      </c>
-      <c r="B80" s="10" t="s">
-        <v>575</v>
       </c>
       <c r="C80" s="11">
         <v>57976</v>
@@ -6650,22 +6654,22 @@
       <c r="O80" s="12"/>
       <c r="P80" s="12"/>
       <c r="Q80" s="13" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="R80" s="13" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="U80" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C81" s="11">
         <v>194592</v>
@@ -6689,19 +6693,19 @@
       <c r="P81" s="12"/>
       <c r="Q81" s="13"/>
       <c r="R81" s="13" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="U81" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A82" s="10" t="s">
+        <v>631</v>
+      </c>
+      <c r="B82" s="10" t="s">
         <v>632</v>
-      </c>
-      <c r="B82" s="10" t="s">
-        <v>633</v>
       </c>
       <c r="C82" s="21">
         <v>75</v>
@@ -6725,22 +6729,22 @@
         <v>48</v>
       </c>
       <c r="R82" s="13" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="U82" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A83" s="10" t="s">
+        <v>796</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="C83" s="11" t="s">
         <v>797</v>
-      </c>
-      <c r="B83" s="10" t="s">
-        <v>536</v>
-      </c>
-      <c r="C83" s="11" t="s">
-        <v>798</v>
       </c>
       <c r="D83" s="12">
         <v>4.8000000000000001E-5</v>
@@ -6758,18 +6762,18 @@
       <c r="O83" s="12"/>
       <c r="P83" s="12"/>
       <c r="Q83" s="13" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="R83" s="13" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="84" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A84" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="B84" s="10" t="s">
         <v>544</v>
-      </c>
-      <c r="B84" s="10" t="s">
-        <v>545</v>
       </c>
       <c r="C84" s="11">
         <v>83329</v>
@@ -6793,19 +6797,19 @@
       <c r="P84" s="12"/>
       <c r="Q84" s="13"/>
       <c r="R84" s="13" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="U84" s="1">
         <f t="shared" ref="U84:U122" si="4">MIN(F84:P84)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C85" s="11">
         <v>208968</v>
@@ -6829,14 +6833,14 @@
       <c r="P85" s="12"/>
       <c r="Q85" s="13"/>
       <c r="R85" s="13" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="U85" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A86" s="10" t="s">
         <v>75</v>
       </c>
@@ -6878,7 +6882,7 @@
       <c r="O86" s="12"/>
       <c r="P86" s="12"/>
       <c r="Q86" s="13" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="R86" s="13" t="s">
         <v>22</v>
@@ -6888,7 +6892,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87" s="10" t="s">
         <v>76</v>
       </c>
@@ -6922,7 +6926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88" s="10" t="s">
         <v>235</v>
       </c>
@@ -6958,7 +6962,7 @@
       <c r="O88" s="12"/>
       <c r="P88" s="12"/>
       <c r="Q88" s="13" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="R88" s="13"/>
       <c r="U88" s="1">
@@ -6966,7 +6970,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89" s="10" t="s">
         <v>77</v>
       </c>
@@ -7000,17 +7004,17 @@
       <c r="O89" s="12"/>
       <c r="P89" s="12"/>
       <c r="Q89" s="13" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="R89" s="13" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="U89" s="1">
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90" s="10" t="s">
         <v>78</v>
       </c>
@@ -7044,7 +7048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
         <v>79</v>
       </c>
@@ -7088,7 +7092,7 @@
       <c r="O91" s="12"/>
       <c r="P91" s="12"/>
       <c r="Q91" s="13" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="R91" s="13" t="s">
         <v>22</v>
@@ -7098,7 +7102,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A92" s="10" t="s">
         <v>80</v>
       </c>
@@ -7134,7 +7138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A93" s="10" t="s">
         <v>82</v>
       </c>
@@ -7176,7 +7180,7 @@
       <c r="O93" s="12"/>
       <c r="P93" s="12"/>
       <c r="Q93" s="13" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="R93" s="13" t="s">
         <v>22</v>
@@ -7186,7 +7190,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="94" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A94" s="10" t="s">
         <v>83</v>
       </c>
@@ -7224,17 +7228,17 @@
       <c r="O94" s="12"/>
       <c r="P94" s="12"/>
       <c r="Q94" s="13" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="R94" s="13" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="U94" s="1">
         <f t="shared" si="4"/>
         <v>0.22</v>
       </c>
     </row>
-    <row r="95" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
         <v>84</v>
       </c>
@@ -7274,7 +7278,7 @@
       <c r="O95" s="12"/>
       <c r="P95" s="12"/>
       <c r="Q95" s="13" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="R95" s="13"/>
       <c r="U95" s="1">
@@ -7282,7 +7286,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A96" s="10" t="s">
         <v>27</v>
       </c>
@@ -7316,7 +7320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A97" s="25" t="s">
         <v>168</v>
       </c>
@@ -7354,7 +7358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A98" s="25" t="s">
         <v>171</v>
       </c>
@@ -7392,7 +7396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A99" s="10" t="s">
         <v>85</v>
       </c>
@@ -7428,7 +7432,7 @@
       <c r="O99" s="12"/>
       <c r="P99" s="12"/>
       <c r="Q99" s="13" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="R99" s="13"/>
       <c r="U99" s="1">
@@ -7436,7 +7440,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A100" s="10" t="s">
         <v>86</v>
       </c>
@@ -7472,12 +7476,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A101" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="B101" s="10" t="s">
         <v>547</v>
-      </c>
-      <c r="B101" s="10" t="s">
-        <v>548</v>
       </c>
       <c r="C101" s="11">
         <v>120127</v>
@@ -7499,14 +7503,14 @@
       <c r="P101" s="12"/>
       <c r="Q101" s="13"/>
       <c r="R101" s="13" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="U101" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A102" s="10" t="s">
         <v>88</v>
       </c>
@@ -7542,7 +7546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A103" s="10" t="s">
         <v>90</v>
       </c>
@@ -7578,7 +7582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A104" s="10" t="s">
         <v>92</v>
       </c>
@@ -7614,7 +7618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A105" s="10" t="s">
         <v>95</v>
       </c>
@@ -7650,7 +7654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A106" s="10" t="s">
         <v>96</v>
       </c>
@@ -7686,7 +7690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A107" s="10" t="s">
         <v>97</v>
       </c>
@@ -7722,7 +7726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A108" s="10" t="s">
         <v>98</v>
       </c>
@@ -7754,17 +7758,17 @@
       <c r="O108" s="12"/>
       <c r="P108" s="12"/>
       <c r="Q108" s="13" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="R108" s="13" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="U108" s="1">
         <f t="shared" si="4"/>
         <v>0.92</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
         <v>100</v>
       </c>
@@ -7798,12 +7802,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A110" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="B110" s="10" t="s">
         <v>506</v>
-      </c>
-      <c r="B110" s="10" t="s">
-        <v>507</v>
       </c>
       <c r="C110" s="11">
         <v>12674112</v>
@@ -7827,22 +7831,22 @@
       <c r="P110" s="12"/>
       <c r="Q110" s="13"/>
       <c r="R110" s="13" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="U110" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="C111" s="11" t="s">
         <v>508</v>
-      </c>
-      <c r="B111" s="10" t="s">
-        <v>507</v>
-      </c>
-      <c r="C111" s="11" t="s">
-        <v>509</v>
       </c>
       <c r="D111" s="12">
         <v>1E-4</v>
@@ -7863,22 +7867,22 @@
         <v>94</v>
       </c>
       <c r="R111" s="13" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="U111" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="C112" s="11" t="s">
         <v>510</v>
-      </c>
-      <c r="B112" s="10" t="s">
-        <v>507</v>
-      </c>
-      <c r="C112" s="11" t="s">
-        <v>511</v>
       </c>
       <c r="D112" s="12">
         <v>1E-4</v>
@@ -7899,22 +7903,22 @@
         <v>94</v>
       </c>
       <c r="R112" s="13" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="U112" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A113" s="10" t="s">
+        <v>511</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="C113" s="11" t="s">
         <v>512</v>
-      </c>
-      <c r="B113" s="10" t="s">
-        <v>507</v>
-      </c>
-      <c r="C113" s="11" t="s">
-        <v>513</v>
       </c>
       <c r="D113" s="12">
         <v>1E-4</v>
@@ -7935,19 +7939,19 @@
         <v>94</v>
       </c>
       <c r="R113" s="13" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="U113" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A114" s="10" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C114" s="11">
         <v>11097691</v>
@@ -7971,22 +7975,22 @@
       <c r="P114" s="12"/>
       <c r="Q114" s="13"/>
       <c r="R114" s="13" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="U114" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A115" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="B115" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="C115" s="11" t="s">
         <v>515</v>
-      </c>
-      <c r="B115" s="10" t="s">
-        <v>507</v>
-      </c>
-      <c r="C115" s="11" t="s">
-        <v>516</v>
       </c>
       <c r="D115" s="12">
         <v>1E-4</v>
@@ -8007,14 +8011,14 @@
         <v>94</v>
       </c>
       <c r="R115" s="13" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="U115" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A116" s="10" t="s">
         <v>101</v>
       </c>
@@ -8054,7 +8058,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="117" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A117" s="25" t="s">
         <v>104</v>
       </c>
@@ -8094,7 +8098,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="118" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A118" s="25" t="s">
         <v>106</v>
       </c>
@@ -8134,7 +8138,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A119" s="35" t="s">
         <v>108</v>
       </c>
@@ -8174,7 +8178,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="120" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A120" s="10" t="s">
         <v>111</v>
       </c>
@@ -8214,7 +8218,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="121" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A121" s="10" t="s">
         <v>114</v>
       </c>
@@ -8248,17 +8252,17 @@
       <c r="O121" s="12"/>
       <c r="P121" s="12"/>
       <c r="Q121" s="13" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="R121" s="13" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="U121" s="1">
         <f t="shared" si="4"/>
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="122" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A122" s="10" t="s">
         <v>115</v>
       </c>
@@ -8292,7 +8296,7 @@
       <c r="O122" s="12"/>
       <c r="P122" s="12"/>
       <c r="Q122" s="13" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="R122" s="13" t="s">
         <v>116</v>
@@ -8302,9 +8306,9 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A123" s="10" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B123" s="10"/>
       <c r="C123" s="11"/>
@@ -8322,11 +8326,11 @@
       <c r="O123" s="33"/>
       <c r="P123" s="33"/>
       <c r="Q123" s="13" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="R123" s="13"/>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A124" s="25" t="s">
         <v>172</v>
       </c>
@@ -8364,7 +8368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A125" s="25" t="s">
         <v>237</v>
       </c>
@@ -8400,12 +8404,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A126" s="10" t="s">
+        <v>607</v>
+      </c>
+      <c r="B126" s="10" t="s">
         <v>608</v>
-      </c>
-      <c r="B126" s="10" t="s">
-        <v>609</v>
       </c>
       <c r="C126" s="11">
         <v>56553</v>
@@ -8428,17 +8432,17 @@
       <c r="O126" s="12"/>
       <c r="P126" s="12"/>
       <c r="Q126" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="R126" s="13" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="U126" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A127" s="10" t="s">
         <v>117</v>
       </c>
@@ -8482,7 +8486,7 @@
       <c r="O127" s="12"/>
       <c r="P127" s="12"/>
       <c r="Q127" s="13" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="R127" s="13" t="s">
         <v>22</v>
@@ -8492,7 +8496,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A128" s="10" t="s">
         <v>222</v>
       </c>
@@ -8528,7 +8532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A129" s="10" t="s">
         <v>118</v>
       </c>
@@ -8564,12 +8568,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A130" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C130" s="11">
         <v>203338</v>
@@ -8590,22 +8594,22 @@
       <c r="O130" s="12"/>
       <c r="P130" s="12"/>
       <c r="Q130" s="13" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R130" s="13" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="U130" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A131" s="25" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C131" s="37">
         <v>195197</v>
@@ -8629,19 +8633,19 @@
         <v>48</v>
       </c>
       <c r="R131" s="13" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="U131" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A132" s="10" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C132" s="11">
         <v>192972</v>
@@ -8665,22 +8669,22 @@
       <c r="P132" s="12"/>
       <c r="Q132" s="13"/>
       <c r="R132" s="13" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="U132" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A133" s="10" t="s">
+        <v>611</v>
+      </c>
+      <c r="B133" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="C133" s="24" t="s">
         <v>612</v>
-      </c>
-      <c r="B133" s="10" t="s">
-        <v>536</v>
-      </c>
-      <c r="C133" s="24" t="s">
-        <v>613</v>
       </c>
       <c r="D133" s="12">
         <v>4.8000000000000001E-5</v>
@@ -8698,18 +8702,18 @@
       <c r="O133" s="12"/>
       <c r="P133" s="12"/>
       <c r="Q133" s="14" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="R133" s="13" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="134" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="134" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A134" s="10" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C134" s="11">
         <v>191242</v>
@@ -8733,19 +8737,19 @@
       <c r="P134" s="12"/>
       <c r="Q134" s="13"/>
       <c r="R134" s="13" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="U134" s="1">
         <f t="shared" ref="U134:U156" si="6">MIN(F134:P134)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A135" s="10" t="s">
+        <v>593</v>
+      </c>
+      <c r="B135" s="10" t="s">
         <v>594</v>
-      </c>
-      <c r="B135" s="10" t="s">
-        <v>595</v>
       </c>
       <c r="C135" s="11">
         <v>50328</v>
@@ -8768,22 +8772,22 @@
       <c r="O135" s="12"/>
       <c r="P135" s="12"/>
       <c r="Q135" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="R135" s="13" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="U135" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A136" s="10" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C136" s="11">
         <v>205992</v>
@@ -8806,22 +8810,22 @@
       <c r="O136" s="12"/>
       <c r="P136" s="12"/>
       <c r="Q136" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="R136" s="13" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="U136" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A137" s="10" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C137" s="24">
         <v>102</v>
@@ -8845,19 +8849,19 @@
         <v>48</v>
       </c>
       <c r="R137" s="13" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="U137" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A138" s="10" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C138" s="11">
         <v>205823</v>
@@ -8881,19 +8885,19 @@
       <c r="P138" s="12"/>
       <c r="Q138" s="13"/>
       <c r="R138" s="13" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="U138" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:21" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:21" ht="66" x14ac:dyDescent="0.25">
       <c r="A139" s="10" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C139" s="11">
         <v>207089</v>
@@ -8916,22 +8920,22 @@
       <c r="O139" s="12"/>
       <c r="P139" s="12"/>
       <c r="Q139" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="R139" s="13" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="U139" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="10" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C140" s="11">
         <v>56832736</v>
@@ -8943,7 +8947,7 @@
       <c r="F140" s="12"/>
       <c r="G140" s="12"/>
       <c r="H140" s="12" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I140" s="12"/>
       <c r="J140" s="12"/>
@@ -8954,17 +8958,17 @@
       <c r="O140" s="12"/>
       <c r="P140" s="12"/>
       <c r="Q140" s="14" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R140" s="13" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="U140" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A141" s="10" t="s">
         <v>120</v>
       </c>
@@ -8998,7 +9002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A142" s="10" t="s">
         <v>121</v>
       </c>
@@ -9038,7 +9042,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="143" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A143" s="10" t="s">
         <v>122</v>
       </c>
@@ -9076,7 +9080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A144" s="10" t="s">
         <v>123</v>
       </c>
@@ -9112,7 +9116,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A145" s="10" t="s">
         <v>126</v>
       </c>
@@ -9150,7 +9154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A146" s="10" t="s">
         <v>128</v>
       </c>
@@ -9188,7 +9192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A147" s="10" t="s">
         <v>130</v>
       </c>
@@ -9226,12 +9230,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A148" s="10" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C148" s="11">
         <v>91587</v>
@@ -9255,14 +9259,14 @@
       <c r="P148" s="12"/>
       <c r="Q148" s="13"/>
       <c r="R148" s="13" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="U148" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A149" s="10" t="s">
         <v>29</v>
       </c>
@@ -9296,7 +9300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A150" s="10" t="s">
         <v>134</v>
       </c>
@@ -9328,7 +9332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A151" s="10" t="s">
         <v>135</v>
       </c>
@@ -9360,7 +9364,7 @@
       <c r="O151" s="12"/>
       <c r="P151" s="12"/>
       <c r="Q151" s="13" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="R151" s="13"/>
       <c r="U151" s="1">
@@ -9368,7 +9372,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A152" s="10" t="s">
         <v>136</v>
       </c>
@@ -9402,7 +9406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A153" s="10" t="s">
         <v>137</v>
       </c>
@@ -9436,7 +9440,7 @@
       <c r="O153" s="12"/>
       <c r="P153" s="12"/>
       <c r="Q153" s="13" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="R153" s="13"/>
       <c r="U153" s="1">
@@ -9444,7 +9448,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A154" s="10" t="s">
         <v>138</v>
       </c>
@@ -9478,7 +9482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A155" s="25" t="s">
         <v>342</v>
       </c>
@@ -9518,7 +9522,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A156" s="25" t="s">
         <v>139</v>
       </c>
@@ -9556,7 +9560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A157" s="10" t="s">
         <v>142</v>
       </c>
@@ -9588,7 +9592,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="158" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A158" s="10" t="s">
         <v>140</v>
       </c>
@@ -9626,17 +9630,17 @@
       <c r="O158" s="12"/>
       <c r="P158" s="12"/>
       <c r="Q158" s="13" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="R158" s="13" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="U158" s="1">
         <f t="shared" ref="U158:U189" si="7">MIN(F158:P158)</f>
         <v>3.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A159" s="10" t="s">
         <v>144</v>
       </c>
@@ -9674,7 +9678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A160" s="25" t="s">
         <v>145</v>
       </c>
@@ -9712,7 +9716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A161" s="25" t="s">
         <v>146</v>
       </c>
@@ -9750,7 +9754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A162" s="38" t="s">
         <v>174</v>
       </c>
@@ -9788,7 +9792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A163" s="10" t="s">
         <v>241</v>
       </c>
@@ -9824,7 +9828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A164" s="10" t="s">
         <v>244</v>
       </c>
@@ -9860,7 +9864,7 @@
       <c r="O164" s="12"/>
       <c r="P164" s="12"/>
       <c r="Q164" s="13" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="R164" s="13" t="s">
         <v>240</v>
@@ -9870,7 +9874,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="165" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A165" s="10" t="s">
         <v>148</v>
       </c>
@@ -9904,7 +9908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A166" s="10" t="s">
         <v>149</v>
       </c>
@@ -9938,12 +9942,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A167" s="10" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B167" s="10" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C167" s="11">
         <v>86748</v>
@@ -9967,14 +9971,14 @@
       <c r="P167" s="12"/>
       <c r="Q167" s="13"/>
       <c r="R167" s="13" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="U167" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A168" s="10" t="s">
         <v>343</v>
       </c>
@@ -10010,7 +10014,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A169" s="10" t="s">
         <v>150</v>
       </c>
@@ -10052,7 +10056,7 @@
       <c r="O169" s="12"/>
       <c r="P169" s="12"/>
       <c r="Q169" s="13" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="R169" s="13" t="s">
         <v>22</v>
@@ -10062,7 +10066,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="170" spans="1:21" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:21" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="10" t="s">
         <v>151</v>
       </c>
@@ -10100,17 +10104,17 @@
       <c r="O170" s="12"/>
       <c r="P170" s="12"/>
       <c r="Q170" s="13" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="R170" s="13" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="U170" s="1">
         <f t="shared" si="7"/>
         <v>1.9</v>
       </c>
     </row>
-    <row r="171" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A171" s="25" t="s">
         <v>152</v>
       </c>
@@ -10140,7 +10144,7 @@
       <c r="O171" s="12"/>
       <c r="P171" s="12"/>
       <c r="Q171" s="14" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="R171" s="13" t="s">
         <v>154</v>
@@ -10150,7 +10154,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A172" s="25" t="s">
         <v>155</v>
       </c>
@@ -10182,7 +10186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A173" s="10" t="s">
         <v>156</v>
       </c>
@@ -10216,7 +10220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A174" s="10" t="s">
         <v>157</v>
       </c>
@@ -10250,7 +10254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A175" s="10" t="s">
         <v>158</v>
       </c>
@@ -10294,17 +10298,17 @@
       <c r="O175" s="12"/>
       <c r="P175" s="12"/>
       <c r="Q175" s="13" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="R175" s="13" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="U175" s="1">
         <f t="shared" si="7"/>
         <v>0.17</v>
       </c>
     </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A176" s="10" t="s">
         <v>159</v>
       </c>
@@ -10336,7 +10340,7 @@
       <c r="O176" s="12"/>
       <c r="P176" s="12"/>
       <c r="Q176" s="13" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="R176" s="13"/>
       <c r="U176" s="1">
@@ -10344,7 +10348,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A177" s="10" t="s">
         <v>160</v>
       </c>
@@ -10380,7 +10384,7 @@
       <c r="O177" s="12"/>
       <c r="P177" s="12"/>
       <c r="Q177" s="13" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="R177" s="13"/>
       <c r="U177" s="1">
@@ -10388,7 +10392,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A178" s="10" t="s">
         <v>161</v>
       </c>
@@ -10422,7 +10426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A179" s="10" t="s">
         <v>162</v>
       </c>
@@ -10460,7 +10464,7 @@
       <c r="O179" s="12"/>
       <c r="P179" s="12"/>
       <c r="Q179" s="13" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="R179" s="13" t="s">
         <v>163</v>
@@ -10470,7 +10474,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="180" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A180" s="10" t="s">
         <v>164</v>
       </c>
@@ -10504,17 +10508,17 @@
       <c r="O180" s="12"/>
       <c r="P180" s="12"/>
       <c r="Q180" s="13" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="R180" s="13" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="U180" s="1">
         <f t="shared" si="7"/>
         <v>0.72</v>
       </c>
     </row>
-    <row r="181" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A181" s="10" t="s">
         <v>165</v>
       </c>
@@ -10552,7 +10556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A182" s="38" t="s">
         <v>175</v>
       </c>
@@ -10590,7 +10594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A183" s="10" t="s">
         <v>178</v>
       </c>
@@ -10624,7 +10628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A184" s="10" t="s">
         <v>180</v>
       </c>
@@ -10658,7 +10662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A185" s="10" t="s">
         <v>181</v>
       </c>
@@ -10696,7 +10700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A186" s="10" t="s">
         <v>182</v>
       </c>
@@ -10730,7 +10734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A187" s="25" t="s">
         <v>183</v>
       </c>
@@ -10768,7 +10772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A188" s="38" t="s">
         <v>185</v>
       </c>
@@ -10806,7 +10810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A189" s="10" t="s">
         <v>186</v>
       </c>
@@ -10840,7 +10844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A190" s="10" t="s">
         <v>187</v>
       </c>
@@ -10876,7 +10880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A191" s="10" t="s">
         <v>189</v>
       </c>
@@ -10910,7 +10914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A192" s="10" t="s">
         <v>169</v>
       </c>
@@ -10946,7 +10950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A193" s="10" t="s">
         <v>191</v>
       </c>
@@ -10984,7 +10988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A194" s="10" t="s">
         <v>192</v>
       </c>
@@ -11016,12 +11020,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A195" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="B195" s="10" t="s">
         <v>628</v>
-      </c>
-      <c r="B195" s="10" t="s">
-        <v>629</v>
       </c>
       <c r="C195" s="11">
         <v>218019</v>
@@ -11045,19 +11049,19 @@
       <c r="P195" s="12"/>
       <c r="Q195" s="13"/>
       <c r="R195" s="13" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="U195" s="1">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:21" ht="66" x14ac:dyDescent="0.25">
       <c r="A196" s="10" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B196" s="10" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C196" s="11">
         <v>8007452</v>
@@ -11079,14 +11083,14 @@
       <c r="P196" s="12"/>
       <c r="Q196" s="13"/>
       <c r="R196" s="13" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="U196" s="1">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A197" s="10" t="s">
         <v>201</v>
       </c>
@@ -11122,7 +11126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A198" s="10" t="s">
         <v>204</v>
       </c>
@@ -11158,7 +11162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A199" s="10" t="s">
         <v>206</v>
       </c>
@@ -11194,7 +11198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A200" s="10" t="s">
         <v>208</v>
       </c>
@@ -11230,7 +11234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A201" s="10" t="s">
         <v>210</v>
       </c>
@@ -11266,7 +11270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A202" s="10" t="s">
         <v>202</v>
       </c>
@@ -11300,7 +11304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A203" s="10" t="s">
         <v>212</v>
       </c>
@@ -11338,7 +11342,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="204" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A204" s="10" t="s">
         <v>215</v>
       </c>
@@ -11374,7 +11378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A205" s="10" t="s">
         <v>216</v>
       </c>
@@ -11410,7 +11414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A206" s="10" t="s">
         <v>218</v>
       </c>
@@ -11446,7 +11450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A207" s="10" t="s">
         <v>219</v>
       </c>
@@ -11482,7 +11486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A208" s="10" t="s">
         <v>225</v>
       </c>
@@ -11518,7 +11522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A209" s="10" t="s">
         <v>246</v>
       </c>
@@ -11556,15 +11560,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A210" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="B210" s="10" t="s">
+        <v>533</v>
+      </c>
+      <c r="C210" s="11" t="s">
         <v>558</v>
-      </c>
-      <c r="B210" s="10" t="s">
-        <v>534</v>
-      </c>
-      <c r="C210" s="11" t="s">
-        <v>559</v>
       </c>
       <c r="D210" s="12">
         <v>4.8000000000000001E-5</v>
@@ -11583,10 +11587,10 @@
       <c r="P210" s="12"/>
       <c r="Q210" s="13"/>
       <c r="R210" s="13" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.2">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="211" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A211" s="10" t="s">
         <v>228</v>
       </c>
@@ -11620,7 +11624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A212" s="10" t="s">
         <v>234</v>
       </c>
@@ -11656,7 +11660,7 @@
       <c r="O212" s="12"/>
       <c r="P212" s="12"/>
       <c r="Q212" s="13" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="R212" s="13"/>
       <c r="U212" s="1">
@@ -11664,7 +11668,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="213" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A213" s="10" t="s">
         <v>247</v>
       </c>
@@ -11700,7 +11704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A214" s="10" t="s">
         <v>250</v>
       </c>
@@ -11730,7 +11734,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="215" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A215" s="10" t="s">
         <v>236</v>
       </c>
@@ -11768,7 +11772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A216" s="10" t="s">
         <v>252</v>
       </c>
@@ -11804,7 +11808,7 @@
       <c r="O216" s="12"/>
       <c r="P216" s="12"/>
       <c r="Q216" s="13" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="R216" s="13"/>
       <c r="U216" s="1">
@@ -11812,7 +11816,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="217" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A217" s="10" t="s">
         <v>253</v>
       </c>
@@ -11850,7 +11854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A218" s="10" t="s">
         <v>254</v>
       </c>
@@ -11883,14 +11887,14 @@
         <v>245</v>
       </c>
       <c r="R218" s="13" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="U218" s="1">
         <f t="shared" si="9"/>
         <v>0.13</v>
       </c>
     </row>
-    <row r="219" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A219" s="10" t="s">
         <v>255</v>
       </c>
@@ -11926,7 +11930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A220" s="10" t="s">
         <v>257</v>
       </c>
@@ -11962,7 +11966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A221" s="10" t="s">
         <v>259</v>
       </c>
@@ -11998,7 +12002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A222" s="10" t="s">
         <v>274</v>
       </c>
@@ -12034,12 +12038,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A223" s="10" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B223" s="10" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C223" s="11"/>
       <c r="D223" s="12">
@@ -12058,13 +12062,13 @@
       <c r="O223" s="12"/>
       <c r="P223" s="12"/>
       <c r="Q223" s="13" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="R223" s="13" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="224" spans="1:21" x14ac:dyDescent="0.2">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="224" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A224" s="10" t="s">
         <v>344</v>
       </c>
@@ -12091,14 +12095,14 @@
         <v>91</v>
       </c>
       <c r="R224" s="13" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="U224" s="1">
         <f t="shared" ref="U224:U238" si="10">MIN(F224:P224)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A225" s="10" t="s">
         <v>276</v>
       </c>
@@ -12130,12 +12134,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A226" s="10" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B226" s="10" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C226" s="11">
         <v>226368</v>
@@ -12159,19 +12163,19 @@
       <c r="P226" s="12"/>
       <c r="Q226" s="13"/>
       <c r="R226" s="13" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="U226" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A227" s="10" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B227" s="10" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C227" s="11">
         <v>224420</v>
@@ -12195,19 +12199,19 @@
       <c r="P227" s="12"/>
       <c r="Q227" s="13"/>
       <c r="R227" s="13" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="U227" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A228" s="10" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B228" s="10" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C228" s="11">
         <v>192654</v>
@@ -12231,19 +12235,19 @@
       <c r="P228" s="12"/>
       <c r="Q228" s="13"/>
       <c r="R228" s="13" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="U228" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A229" s="10" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B229" s="10" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C229" s="11">
         <v>53703</v>
@@ -12266,22 +12270,22 @@
       <c r="O229" s="12"/>
       <c r="P229" s="12"/>
       <c r="Q229" s="13" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="R229" s="13" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="U229" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A230" s="10" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B230" s="10" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C230" s="11">
         <v>189640</v>
@@ -12305,19 +12309,19 @@
       <c r="P230" s="12"/>
       <c r="Q230" s="13"/>
       <c r="R230" s="13" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="U230" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A231" s="10" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B231" s="10" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C231" s="11">
         <v>189559</v>
@@ -12341,19 +12345,19 @@
       <c r="P231" s="12"/>
       <c r="Q231" s="13"/>
       <c r="R231" s="13" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="U231" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A232" s="10" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B232" s="10" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C232" s="11">
         <v>191300</v>
@@ -12377,14 +12381,14 @@
       <c r="P232" s="12"/>
       <c r="Q232" s="13"/>
       <c r="R232" s="13" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="U232" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A233" s="10" t="s">
         <v>278</v>
       </c>
@@ -12418,7 +12422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A234" s="10" t="s">
         <v>279</v>
       </c>
@@ -12452,7 +12456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A235" s="10" t="s">
         <v>280</v>
       </c>
@@ -12486,7 +12490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A236" s="10" t="s">
         <v>281</v>
       </c>
@@ -12522,7 +12526,7 @@
       <c r="O236" s="12"/>
       <c r="P236" s="12"/>
       <c r="Q236" s="13" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="R236" s="13" t="s">
         <v>56</v>
@@ -12532,7 +12536,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="237" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A237" s="10" t="s">
         <v>282</v>
       </c>
@@ -12566,7 +12570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A238" s="10" t="s">
         <v>284</v>
       </c>
@@ -12600,9 +12604,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A239" s="10" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B239" s="10"/>
       <c r="C239" s="11"/>
@@ -12620,11 +12624,11 @@
       <c r="O239" s="33"/>
       <c r="P239" s="33"/>
       <c r="Q239" s="13" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="R239" s="13"/>
     </row>
-    <row r="240" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A240" s="25" t="s">
         <v>285</v>
       </c>
@@ -12656,9 +12660,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A241" s="10" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B241" s="10"/>
       <c r="C241" s="11"/>
@@ -12676,11 +12680,11 @@
       <c r="O241" s="33"/>
       <c r="P241" s="33"/>
       <c r="Q241" s="13" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="R241" s="13"/>
     </row>
-    <row r="242" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A242" s="25" t="s">
         <v>345</v>
       </c>
@@ -12707,14 +12711,14 @@
         <v>91</v>
       </c>
       <c r="R242" s="13" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="U242" s="1">
         <f t="shared" ref="U242:U248" si="11">MIN(F242:P242)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="25" t="s">
         <v>346</v>
       </c>
@@ -12752,7 +12756,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="244" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A244" s="25" t="s">
         <v>347</v>
       </c>
@@ -12792,7 +12796,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="245" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A245" s="25" t="s">
         <v>348</v>
       </c>
@@ -12830,7 +12834,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="246" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A246" s="10" t="s">
         <v>349</v>
       </c>
@@ -12868,7 +12872,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="247" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A247" s="10" t="s">
         <v>351</v>
       </c>
@@ -12908,7 +12912,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="248" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A248" s="25" t="s">
         <v>353</v>
       </c>
@@ -12948,9 +12952,9 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="249" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A249" s="10" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B249" s="10"/>
       <c r="C249" s="11"/>
@@ -12968,11 +12972,11 @@
       <c r="O249" s="33"/>
       <c r="P249" s="33"/>
       <c r="Q249" s="13" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="R249" s="13"/>
     </row>
-    <row r="250" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A250" s="10" t="s">
         <v>287</v>
       </c>
@@ -13008,7 +13012,7 @@
       <c r="O250" s="12"/>
       <c r="P250" s="12"/>
       <c r="Q250" s="13" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="R250" s="13" t="s">
         <v>163</v>
@@ -13018,7 +13022,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="251" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A251" s="10" t="s">
         <v>288</v>
       </c>
@@ -13052,7 +13056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A252" s="10" t="s">
         <v>289</v>
       </c>
@@ -13088,7 +13092,7 @@
       <c r="O252" s="12"/>
       <c r="P252" s="12"/>
       <c r="Q252" s="13" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="R252" s="13"/>
       <c r="U252" s="1">
@@ -13096,9 +13100,9 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="253" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A253" s="10" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B253" s="10"/>
       <c r="C253" s="11"/>
@@ -13116,11 +13120,11 @@
       <c r="O253" s="33"/>
       <c r="P253" s="33"/>
       <c r="Q253" s="13" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="R253" s="13"/>
     </row>
-    <row r="254" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A254" s="25" t="s">
         <v>290</v>
       </c>
@@ -13152,7 +13156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A255" s="10" t="s">
         <v>314</v>
       </c>
@@ -13194,17 +13198,17 @@
       <c r="O255" s="12"/>
       <c r="P255" s="12"/>
       <c r="Q255" s="13" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="R255" s="13" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="U255" s="1">
         <f>MIN(F255:P255)</f>
         <v>1.3</v>
       </c>
     </row>
-    <row r="256" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A256" s="38" t="s">
         <v>354</v>
       </c>
@@ -13242,7 +13246,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A257" s="10" t="s">
         <v>315</v>
       </c>
@@ -13280,7 +13284,7 @@
       <c r="O257" s="12"/>
       <c r="P257" s="12"/>
       <c r="Q257" s="13" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="R257" s="13" t="s">
         <v>22</v>
@@ -13290,7 +13294,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="258" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A258" s="10" t="s">
         <v>316</v>
       </c>
@@ -13328,14 +13332,14 @@
       <c r="O258" s="12"/>
       <c r="P258" s="12"/>
       <c r="Q258" s="13" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="R258" s="13"/>
       <c r="U258" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="259" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A259" s="10" t="s">
         <v>317</v>
       </c>
@@ -13371,7 +13375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A260" s="10" t="s">
         <v>319</v>
       </c>
@@ -13407,9 +13411,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="261" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A261" s="10" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B261" s="10"/>
       <c r="C261" s="11"/>
@@ -13427,13 +13431,13 @@
       <c r="O261" s="33"/>
       <c r="P261" s="33"/>
       <c r="Q261" s="13" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="R261" s="13"/>
     </row>
-    <row r="262" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A262" s="10" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B262" s="10"/>
       <c r="C262" s="11"/>
@@ -13451,11 +13455,11 @@
       <c r="O262" s="33"/>
       <c r="P262" s="33"/>
       <c r="Q262" s="13" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="R262" s="13"/>
     </row>
-    <row r="263" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A263" s="10" t="s">
         <v>261</v>
       </c>
@@ -13493,7 +13497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A264" s="10" t="s">
         <v>320</v>
       </c>
@@ -13529,7 +13533,7 @@
       <c r="O264" s="12"/>
       <c r="P264" s="12"/>
       <c r="Q264" s="13" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="R264" s="13"/>
       <c r="U264" s="1">
@@ -13537,7 +13541,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="265" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A265" s="10" t="s">
         <v>321</v>
       </c>
@@ -13575,7 +13579,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="266" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A266" s="10" t="s">
         <v>322</v>
       </c>
@@ -13611,15 +13615,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="267" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A267" s="38" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B267" s="10" t="s">
         <v>331</v>
       </c>
       <c r="C267" s="42" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D267" s="12"/>
       <c r="E267" s="12"/>
@@ -13635,17 +13639,17 @@
       <c r="O267" s="12"/>
       <c r="P267" s="12"/>
       <c r="Q267" s="14" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="R267" s="13" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="U267" s="1">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A268" s="10" t="s">
         <v>357</v>
       </c>
@@ -13683,7 +13687,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="269" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A269" s="10" t="s">
         <v>358</v>
       </c>
@@ -13721,7 +13725,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="270" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A270" s="10" t="s">
         <v>360</v>
       </c>
@@ -13759,7 +13763,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="271" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A271" s="10" t="s">
         <v>362</v>
       </c>
@@ -13795,7 +13799,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="272" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A272" s="10" t="s">
         <v>363</v>
       </c>
@@ -13833,7 +13837,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="273" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A273" s="10" t="s">
         <v>365</v>
       </c>
@@ -13873,7 +13877,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="274" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A274" s="10" t="s">
         <v>366</v>
       </c>
@@ -13900,14 +13904,14 @@
         <v>368</v>
       </c>
       <c r="R274" s="13" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="U274" s="1">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A275" s="10" t="s">
         <v>323</v>
       </c>
@@ -13939,7 +13943,7 @@
       <c r="O275" s="12"/>
       <c r="P275" s="12"/>
       <c r="Q275" s="13" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="R275" s="13"/>
       <c r="U275" s="1">
@@ -13947,7 +13951,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="276" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A276" s="10" t="s">
         <v>324</v>
       </c>
@@ -13981,17 +13985,17 @@
       <c r="O276" s="12"/>
       <c r="P276" s="12"/>
       <c r="Q276" s="13" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="R276" s="13" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="U276" s="1">
         <f t="shared" si="12"/>
         <v>14</v>
       </c>
     </row>
-    <row r="277" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A277" s="10" t="s">
         <v>325</v>
       </c>
@@ -14025,7 +14029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A278" s="10" t="s">
         <v>326</v>
       </c>
@@ -14061,12 +14065,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A279" s="10" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B279" s="10" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C279" s="24">
         <v>284</v>
@@ -14090,12 +14094,12 @@
         <v>340</v>
       </c>
       <c r="R279" s="13" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="280" spans="1:21" x14ac:dyDescent="0.2">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="280" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A280" s="10" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B280" s="10"/>
       <c r="C280" s="11"/>
@@ -14113,16 +14117,16 @@
       <c r="O280" s="33"/>
       <c r="P280" s="33"/>
       <c r="Q280" s="13" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="R280" s="13"/>
     </row>
-    <row r="281" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A281" s="10" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B281" s="10" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C281" s="11">
         <v>206440</v>
@@ -14146,19 +14150,19 @@
       <c r="P281" s="12"/>
       <c r="Q281" s="13"/>
       <c r="R281" s="13" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="U281" s="1">
         <f t="shared" ref="U281:U286" si="13">MIN(F281:P281)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A282" s="10" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B282" s="10" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C282" s="11">
         <v>86737</v>
@@ -14182,14 +14186,14 @@
       <c r="P282" s="12"/>
       <c r="Q282" s="13"/>
       <c r="R282" s="13" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="U282" s="1">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A283" s="10" t="s">
         <v>328</v>
       </c>
@@ -14233,7 +14237,7 @@
       <c r="O283" s="12"/>
       <c r="P283" s="12"/>
       <c r="Q283" s="13" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="R283" s="13" t="s">
         <v>329</v>
@@ -14243,12 +14247,12 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="284" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A284" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="B284" s="10" t="s">
         <v>427</v>
-      </c>
-      <c r="B284" s="10" t="s">
-        <v>428</v>
       </c>
       <c r="C284" s="21">
         <v>201</v>
@@ -14272,16 +14276,16 @@
         <v>132</v>
       </c>
       <c r="R284" s="13" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="U284" s="1">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A285" s="38" t="s">
-        <v>369</v>
+        <v>331</v>
       </c>
       <c r="B285" s="10" t="s">
         <v>331</v>
@@ -14319,12 +14323,12 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="286" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A286" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B286" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C286" s="11">
         <v>76448</v>
@@ -14353,12 +14357,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A287" s="10" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B287" s="10" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C287" s="11"/>
       <c r="D287" s="12">
@@ -14377,18 +14381,18 @@
       <c r="O287" s="12"/>
       <c r="P287" s="12"/>
       <c r="Q287" s="13" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="R287" s="13" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="288" spans="1:21" x14ac:dyDescent="0.2">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="288" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A288" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B288" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C288" s="11">
         <v>118741</v>
@@ -14417,12 +14421,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A289" s="10" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B289" s="10" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C289" s="11"/>
       <c r="D289" s="12">
@@ -14441,18 +14445,18 @@
       <c r="O289" s="12"/>
       <c r="P289" s="12"/>
       <c r="Q289" s="13" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="R289" s="13" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="290" spans="1:21" x14ac:dyDescent="0.2">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="290" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A290" s="10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B290" s="10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C290" s="11">
         <v>87683</v>
@@ -14485,12 +14489,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="291" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A291" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B291" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C291" s="11">
         <v>77474</v>
@@ -14519,7 +14523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A292" s="10" t="s">
         <v>310</v>
       </c>
@@ -14563,12 +14567,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A293" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B293" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C293" s="11">
         <v>67721</v>
@@ -14592,19 +14596,19 @@
       <c r="P293" s="12"/>
       <c r="Q293" s="13"/>
       <c r="R293" s="13" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="U293" s="1">
         <f t="shared" si="14"/>
         <v>58</v>
       </c>
     </row>
-    <row r="294" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A294" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B294" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C294" s="11">
         <v>822060</v>
@@ -14633,12 +14637,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A295" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B295" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C295" s="11">
         <v>680319</v>
@@ -14665,7 +14669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A296" s="10" t="s">
         <v>221</v>
       </c>
@@ -14701,12 +14705,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A297" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B297" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C297" s="11">
         <v>302012</v>
@@ -14741,22 +14745,22 @@
       <c r="O297" s="12"/>
       <c r="P297" s="12"/>
       <c r="Q297" s="13" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="R297" s="13" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="U297" s="1">
         <f t="shared" si="14"/>
         <v>0.13</v>
       </c>
     </row>
-    <row r="298" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A298" s="10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B298" s="10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C298" s="11">
         <v>7647010</v>
@@ -14793,7 +14797,7 @@
       <c r="O298" s="12"/>
       <c r="P298" s="12"/>
       <c r="Q298" s="13" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="R298" s="9" t="s">
         <v>22</v>
@@ -14803,12 +14807,12 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="299" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A299" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B299" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C299" s="11">
         <v>7664393</v>
@@ -14847,7 +14851,7 @@
       <c r="O299" s="12"/>
       <c r="P299" s="12"/>
       <c r="Q299" s="13" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="R299" s="13" t="s">
         <v>22</v>
@@ -14857,7 +14861,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="300" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A300" s="10" t="s">
         <v>262</v>
       </c>
@@ -14897,7 +14901,7 @@
       <c r="O300" s="12"/>
       <c r="P300" s="12"/>
       <c r="Q300" s="13" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="R300" s="13" t="s">
         <v>163</v>
@@ -14907,12 +14911,12 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="301" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A301" s="10" t="s">
+        <v>673</v>
+      </c>
+      <c r="B301" s="10" t="s">
         <v>674</v>
-      </c>
-      <c r="B301" s="10" t="s">
-        <v>675</v>
       </c>
       <c r="C301" s="11">
         <v>7783075</v>
@@ -14943,25 +14947,25 @@
       <c r="O301" s="12"/>
       <c r="P301" s="12"/>
       <c r="Q301" s="13" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="R301" s="13" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="U301" s="1">
         <f t="shared" si="14"/>
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="302" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A302" s="36" t="s">
+        <v>714</v>
+      </c>
+      <c r="B302" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="C302" s="11" t="s">
         <v>715</v>
-      </c>
-      <c r="B302" s="10" t="s">
-        <v>715</v>
-      </c>
-      <c r="C302" s="11" t="s">
-        <v>716</v>
       </c>
       <c r="D302" s="12"/>
       <c r="E302" s="12"/>
@@ -14977,7 +14981,7 @@
       <c r="O302" s="33"/>
       <c r="P302" s="33"/>
       <c r="Q302" s="13" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="R302" s="13" t="s">
         <v>22</v>
@@ -14987,12 +14991,12 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="303" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A303" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B303" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C303" s="11">
         <v>123319</v>
@@ -15021,15 +15025,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A304" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="B304" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="C304" s="11" t="s">
         <v>563</v>
-      </c>
-      <c r="B304" s="10" t="s">
-        <v>536</v>
-      </c>
-      <c r="C304" s="11" t="s">
-        <v>564</v>
       </c>
       <c r="D304" s="12">
         <v>4.8000000000000001E-5</v>
@@ -15048,15 +15052,15 @@
       <c r="P304" s="12"/>
       <c r="Q304" s="13"/>
       <c r="R304" s="13" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="305" spans="1:21" ht="63.75" x14ac:dyDescent="0.2">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="305" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A305" s="10" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B305" s="10" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C305" s="11">
         <v>193395</v>
@@ -15079,19 +15083,19 @@
       <c r="O305" s="12"/>
       <c r="P305" s="12"/>
       <c r="Q305" s="13" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="R305" s="13" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="U305" s="1">
         <f>MIN(F305:P305)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A306" s="10" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B306" s="10"/>
       <c r="C306" s="11"/>
@@ -15109,16 +15113,16 @@
       <c r="O306" s="33"/>
       <c r="P306" s="33"/>
       <c r="Q306" s="13" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="R306" s="13"/>
     </row>
-    <row r="307" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A307" s="10" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B307" s="10" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C307" s="11">
         <v>78591</v>
@@ -15147,7 +15151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:21" ht="66" x14ac:dyDescent="0.25">
       <c r="A308" s="25" t="s">
         <v>263</v>
       </c>
@@ -15181,19 +15185,19 @@
       <c r="O308" s="12"/>
       <c r="P308" s="12"/>
       <c r="Q308" s="14" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="R308" s="13" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="U308" s="1">
         <f>MIN(F308:P308)</f>
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="309" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A309" s="10" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B309" s="10"/>
       <c r="C309" s="11"/>
@@ -15211,16 +15215,16 @@
       <c r="O309" s="33"/>
       <c r="P309" s="33"/>
       <c r="Q309" s="13" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="R309" s="13"/>
     </row>
-    <row r="310" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A310" s="25" t="s">
+        <v>393</v>
+      </c>
+      <c r="B310" s="10" t="s">
         <v>394</v>
-      </c>
-      <c r="B310" s="10" t="s">
-        <v>395</v>
       </c>
       <c r="C310" s="37">
         <v>1317368</v>
@@ -15244,19 +15248,19 @@
         <v>91</v>
       </c>
       <c r="R310" s="13" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="U310" s="1">
         <f t="shared" ref="U310:U351" si="15">MIN(F310:P310)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A311" s="25" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B311" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C311" s="37">
         <v>301042</v>
@@ -15280,19 +15284,19 @@
         <v>91</v>
       </c>
       <c r="R311" s="13" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="U311" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A312" s="25" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B312" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C312" s="37">
         <v>7784409</v>
@@ -15318,19 +15322,19 @@
         <v>48</v>
       </c>
       <c r="R312" s="13" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="U312" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A313" s="25" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B313" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C313" s="37">
         <v>7758976</v>
@@ -15356,19 +15360,19 @@
         <v>48</v>
       </c>
       <c r="R313" s="13" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="U313" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A314" s="38" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B314" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C314" s="39">
         <v>18454121</v>
@@ -15394,22 +15398,22 @@
         <v>48</v>
       </c>
       <c r="R314" s="13" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="U314" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="38" t="s">
+        <v>401</v>
+      </c>
+      <c r="B315" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="C315" s="40" t="s">
         <v>402</v>
-      </c>
-      <c r="B315" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="C315" s="40" t="s">
-        <v>403</v>
       </c>
       <c r="D315" s="12"/>
       <c r="E315" s="12">
@@ -15430,19 +15434,19 @@
         <v>94</v>
       </c>
       <c r="R315" s="13" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="U315" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A316" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B316" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C316" s="11">
         <v>7439921</v>
@@ -15471,12 +15475,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A317" s="10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B317" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C317" s="21">
         <v>603</v>
@@ -15500,19 +15504,19 @@
         <v>91</v>
       </c>
       <c r="R317" s="13" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="U317" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A318" s="25" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B318" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C318" s="37">
         <v>1309600</v>
@@ -15538,19 +15542,19 @@
         <v>48</v>
       </c>
       <c r="R318" s="13" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="U318" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A319" s="25" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B319" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C319" s="37">
         <v>10099748</v>
@@ -15574,19 +15578,19 @@
         <v>91</v>
       </c>
       <c r="R319" s="13" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="U319" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A320" s="25" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B320" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C320" s="37">
         <v>1335326</v>
@@ -15610,19 +15614,19 @@
         <v>91</v>
       </c>
       <c r="R320" s="13" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="U320" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A321" s="25" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B321" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C321" s="37">
         <v>7446142</v>
@@ -15646,14 +15650,14 @@
         <v>91</v>
       </c>
       <c r="R321" s="13" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="U321" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A322" s="10" t="s">
         <v>30</v>
       </c>
@@ -15687,12 +15691,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A323" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B323" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C323" s="11">
         <v>108316</v>
@@ -15720,19 +15724,19 @@
       <c r="P323" s="12"/>
       <c r="Q323" s="13"/>
       <c r="R323" s="13" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="U323" s="1">
         <f t="shared" si="15"/>
         <v>0.8</v>
       </c>
     </row>
-    <row r="324" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A324" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="B324" s="10" t="s">
         <v>413</v>
-      </c>
-      <c r="B324" s="10" t="s">
-        <v>414</v>
       </c>
       <c r="C324" s="11">
         <v>2145076</v>
@@ -15756,19 +15760,19 @@
         <v>94</v>
       </c>
       <c r="R324" s="13" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="U324" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A325" s="10" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B325" s="10" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C325" s="11">
         <v>7439965</v>
@@ -15792,19 +15796,19 @@
       <c r="P325" s="12"/>
       <c r="Q325" s="13"/>
       <c r="R325" s="13" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="U325" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A326" s="25" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B326" s="10" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C326" s="37">
         <v>1313139</v>
@@ -15830,19 +15834,19 @@
         <v>48</v>
       </c>
       <c r="R326" s="13" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="U326" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A327" s="25" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B327" s="10" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C327" s="37">
         <v>10377669</v>
@@ -15866,22 +15870,22 @@
         <v>220</v>
       </c>
       <c r="R327" s="13" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="U327" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A328" s="25" t="s">
+        <v>419</v>
+      </c>
+      <c r="B328" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="C328" s="26" t="s">
         <v>420</v>
-      </c>
-      <c r="B328" s="10" t="s">
-        <v>414</v>
-      </c>
-      <c r="C328" s="26" t="s">
-        <v>421</v>
       </c>
       <c r="D328" s="12"/>
       <c r="E328" s="12">
@@ -15902,19 +15906,19 @@
         <v>94</v>
       </c>
       <c r="R328" s="13" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="U328" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A329" s="25" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B329" s="10" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C329" s="37">
         <v>7785877</v>
@@ -15940,19 +15944,19 @@
         <v>48</v>
       </c>
       <c r="R329" s="13" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="U329" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:21" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:21" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="25" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B330" s="10" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C330" s="37">
         <v>1317357</v>
@@ -15976,19 +15980,19 @@
         <v>91</v>
       </c>
       <c r="R330" s="13" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="U330" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A331" s="25" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B331" s="10" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C331" s="37">
         <v>12079651</v>
@@ -16012,19 +16016,19 @@
         <v>91</v>
       </c>
       <c r="R331" s="13" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="U331" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A332" s="25" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B332" s="10" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C332" s="37">
         <v>1317346</v>
@@ -16050,14 +16054,14 @@
         <v>48</v>
       </c>
       <c r="R332" s="13" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="U332" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A333" s="10" t="s">
         <v>230</v>
       </c>
@@ -16093,15 +16097,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A334" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="B334" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="C334" s="11" t="s">
         <v>430</v>
-      </c>
-      <c r="B334" s="10" t="s">
-        <v>428</v>
-      </c>
-      <c r="C334" s="11" t="s">
-        <v>431</v>
       </c>
       <c r="D334" s="12"/>
       <c r="E334" s="12">
@@ -16122,19 +16126,19 @@
         <v>94</v>
       </c>
       <c r="R334" s="13" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="U334" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A335" s="10" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B335" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C335" s="11">
         <v>7487947</v>
@@ -16158,22 +16162,22 @@
       <c r="P335" s="12"/>
       <c r="Q335" s="13"/>
       <c r="R335" s="13" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="U335" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A336" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="B336" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="C336" s="11" t="s">
         <v>433</v>
-      </c>
-      <c r="B336" s="10" t="s">
-        <v>428</v>
-      </c>
-      <c r="C336" s="11" t="s">
-        <v>434</v>
       </c>
       <c r="D336" s="12"/>
       <c r="E336" s="12">
@@ -16194,22 +16198,22 @@
         <v>94</v>
       </c>
       <c r="R336" s="13" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="U336" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A337" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="B337" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="C337" s="11" t="s">
         <v>435</v>
-      </c>
-      <c r="B337" s="10" t="s">
-        <v>428</v>
-      </c>
-      <c r="C337" s="11" t="s">
-        <v>436</v>
       </c>
       <c r="D337" s="12"/>
       <c r="E337" s="12">
@@ -16230,19 +16234,19 @@
         <v>94</v>
       </c>
       <c r="R337" s="13" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="U337" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A338" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B338" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C338" s="11">
         <v>7439976</v>
@@ -16273,7 +16277,7 @@
       <c r="O338" s="12"/>
       <c r="P338" s="12"/>
       <c r="Q338" s="13" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="R338" s="13"/>
       <c r="U338" s="1">
@@ -16281,12 +16285,12 @@
         <v>5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="339" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A339" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B339" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C339" s="11">
         <v>22967926</v>
@@ -16310,22 +16314,22 @@
         <v>132</v>
       </c>
       <c r="R339" s="13" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="U339" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A340" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B340" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C340" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D340" s="12">
         <v>0</v>
@@ -16346,19 +16350,19 @@
       <c r="P340" s="12"/>
       <c r="Q340" s="13"/>
       <c r="R340" s="13" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="U340" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A341" s="10" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B341" s="10" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C341" s="11">
         <v>67561</v>
@@ -16395,22 +16399,22 @@
       <c r="O341" s="12"/>
       <c r="P341" s="12"/>
       <c r="Q341" s="13" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="R341" s="13" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="U341" s="1">
         <f t="shared" si="15"/>
         <v>28</v>
       </c>
     </row>
-    <row r="342" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A342" s="10" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B342" s="10" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C342" s="11">
         <v>72435</v>
@@ -16437,15 +16441,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A343" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="B343" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="C343" s="11" t="s">
         <v>440</v>
-      </c>
-      <c r="B343" s="10" t="s">
-        <v>428</v>
-      </c>
-      <c r="C343" s="11" t="s">
-        <v>441</v>
       </c>
       <c r="D343" s="12"/>
       <c r="E343" s="12">
@@ -16466,16 +16470,16 @@
         <v>94</v>
       </c>
       <c r="R343" s="13" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="U343" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A344" s="25" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B344" s="10" t="s">
         <v>331</v>
@@ -16513,12 +16517,12 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="345" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A345" s="10" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B345" s="10" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C345" s="11">
         <v>74839</v>
@@ -16551,7 +16555,7 @@
       <c r="O345" s="12"/>
       <c r="P345" s="12"/>
       <c r="Q345" s="13" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="R345" s="13" t="s">
         <v>163</v>
@@ -16561,15 +16565,15 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="346" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A346" s="25" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B346" s="10" t="s">
         <v>331</v>
       </c>
       <c r="C346" s="26" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D346" s="12"/>
       <c r="E346" s="12">
@@ -16589,7 +16593,7 @@
       <c r="O346" s="12"/>
       <c r="P346" s="12"/>
       <c r="Q346" s="14" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="R346" s="13" t="s">
         <v>332</v>
@@ -16599,12 +16603,12 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="347" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A347" s="10" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B347" s="10" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C347" s="11">
         <v>74873</v>
@@ -16637,22 +16641,22 @@
       <c r="O347" s="12"/>
       <c r="P347" s="12"/>
       <c r="Q347" s="13" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="R347" s="13" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="U347" s="1">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A348" s="10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B348" s="10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C348" s="11">
         <v>60344</v>
@@ -16679,22 +16683,22 @@
       <c r="O348" s="12"/>
       <c r="P348" s="12"/>
       <c r="Q348" s="13" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="R348" s="13" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="U348" s="1">
         <f t="shared" si="15"/>
         <v>0.21</v>
       </c>
     </row>
-    <row r="349" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A349" s="10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B349" s="10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C349" s="11">
         <v>74884</v>
@@ -16729,22 +16733,22 @@
       <c r="O349" s="12"/>
       <c r="P349" s="12"/>
       <c r="Q349" s="13" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="R349" s="13" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="U349" s="1">
         <f t="shared" si="15"/>
         <v>64</v>
       </c>
     </row>
-    <row r="350" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A350" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B350" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C350" s="11">
         <v>108101</v>
@@ -16767,7 +16771,7 @@
       <c r="O350" s="12"/>
       <c r="P350" s="12"/>
       <c r="Q350" s="13" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="R350" s="13"/>
       <c r="U350" s="1">
@@ -16775,12 +16779,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A351" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B351" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C351" s="11">
         <v>624839</v>
@@ -16811,7 +16815,7 @@
       <c r="O351" s="12"/>
       <c r="P351" s="12"/>
       <c r="Q351" s="13" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="R351" s="13" t="s">
         <v>163</v>
@@ -16821,9 +16825,9 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="352" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A352" s="10" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B352" s="10"/>
       <c r="C352" s="11"/>
@@ -16841,16 +16845,16 @@
       <c r="O352" s="33"/>
       <c r="P352" s="33"/>
       <c r="Q352" s="13" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="R352" s="13"/>
     </row>
-    <row r="353" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A353" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B353" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C353" s="11">
         <v>22967926</v>
@@ -16874,19 +16878,19 @@
       <c r="P353" s="12"/>
       <c r="Q353" s="13"/>
       <c r="R353" s="13" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="U353" s="1">
         <f>MIN(F353:P353)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A354" s="10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B354" s="10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C354" s="11">
         <v>80626</v>
@@ -16917,7 +16921,7 @@
       <c r="O354" s="12"/>
       <c r="P354" s="12"/>
       <c r="Q354" s="13" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="R354" s="13"/>
       <c r="U354" s="1">
@@ -16925,12 +16929,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="355" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A355" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B355" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C355" s="11">
         <v>1634044</v>
@@ -16967,22 +16971,22 @@
       <c r="O355" s="12"/>
       <c r="P355" s="12"/>
       <c r="Q355" s="13" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="R355" s="13" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="U355" s="1">
         <f>MIN(F355:P355)</f>
         <v>7.2</v>
       </c>
     </row>
-    <row r="356" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A356" s="10" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B356" s="10" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C356" s="11">
         <v>26914181</v>
@@ -17006,15 +17010,15 @@
         <v>340</v>
       </c>
       <c r="R356" s="13" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="357" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="357" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A357" s="10" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B357" s="10" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C357" s="11">
         <v>65357699</v>
@@ -17038,18 +17042,18 @@
         <v>340</v>
       </c>
       <c r="R357" s="13" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="358" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="358" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A358" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="B358" s="10" t="s">
         <v>800</v>
       </c>
-      <c r="B358" s="10" t="s">
+      <c r="C358" s="11" t="s">
         <v>801</v>
-      </c>
-      <c r="C358" s="11" t="s">
-        <v>802</v>
       </c>
       <c r="D358" s="12">
         <v>9.6000000000000002E-4</v>
@@ -17067,18 +17071,18 @@
       <c r="O358" s="12"/>
       <c r="P358" s="12"/>
       <c r="Q358" s="13" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="R358" s="13" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="359" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="359" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A359" s="10" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B359" s="10" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C359" s="11">
         <v>75092</v>
@@ -17115,17 +17119,17 @@
       <c r="O359" s="12"/>
       <c r="P359" s="12"/>
       <c r="Q359" s="13" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="R359" s="13" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="U359" s="1">
         <f t="shared" ref="U359:U365" si="16">MIN(F359:P359)</f>
         <v>2.1</v>
       </c>
     </row>
-    <row r="360" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A360" s="10" t="s">
         <v>227</v>
       </c>
@@ -17161,7 +17165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A361" s="10" t="s">
         <v>67</v>
       </c>
@@ -17199,15 +17203,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="362" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A362" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="B362" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="C362" s="11" t="s">
         <v>443</v>
-      </c>
-      <c r="B362" s="10" t="s">
-        <v>428</v>
-      </c>
-      <c r="C362" s="11" t="s">
-        <v>444</v>
       </c>
       <c r="D362" s="12"/>
       <c r="E362" s="12">
@@ -17228,19 +17232,19 @@
         <v>94</v>
       </c>
       <c r="R362" s="13" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="U362" s="1">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A363" s="10" t="s">
+        <v>708</v>
+      </c>
+      <c r="B363" s="10" t="s">
         <v>709</v>
-      </c>
-      <c r="B363" s="10" t="s">
-        <v>710</v>
       </c>
       <c r="C363" s="11">
         <v>108383</v>
@@ -17266,19 +17270,19 @@
       <c r="P363" s="12"/>
       <c r="Q363" s="13"/>
       <c r="R363" s="13" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="U363" s="1">
         <f t="shared" si="16"/>
         <v>22</v>
       </c>
     </row>
-    <row r="364" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A364" s="10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B364" s="10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C364" s="11">
         <v>121697</v>
@@ -17307,12 +17311,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A365" s="10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B365" s="10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C365" s="11">
         <v>91203</v>
@@ -17341,9 +17345,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A366" s="10" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B366" s="10"/>
       <c r="C366" s="11"/>
@@ -17361,16 +17365,16 @@
       <c r="O366" s="33"/>
       <c r="P366" s="33"/>
       <c r="Q366" s="13" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="R366" s="13"/>
     </row>
-    <row r="367" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A367" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="B367" s="10" t="s">
         <v>387</v>
-      </c>
-      <c r="B367" s="10" t="s">
-        <v>388</v>
       </c>
       <c r="C367" s="11">
         <v>110543</v>
@@ -17397,19 +17401,19 @@
       <c r="O367" s="12"/>
       <c r="P367" s="12"/>
       <c r="Q367" s="13" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="R367" s="13" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="U367" s="1">
         <f t="shared" ref="U367:U383" si="17">MIN(F367:P367)</f>
         <v>10000</v>
       </c>
     </row>
-    <row r="368" spans="1:21" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:21" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="25" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B368" s="10" t="s">
         <v>331</v>
@@ -17437,7 +17441,7 @@
       <c r="O368" s="12"/>
       <c r="P368" s="12"/>
       <c r="Q368" s="14" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="R368" s="13" t="s">
         <v>332</v>
@@ -17447,12 +17451,12 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="369" spans="1:21" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:21" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A369" s="25" t="s">
+        <v>462</v>
+      </c>
+      <c r="B369" s="10" t="s">
         <v>463</v>
-      </c>
-      <c r="B369" s="10" t="s">
-        <v>464</v>
       </c>
       <c r="C369" s="37">
         <v>10101970</v>
@@ -17478,19 +17482,19 @@
         <v>48</v>
       </c>
       <c r="R369" s="37" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="U369" s="1">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:21" ht="66" x14ac:dyDescent="0.25">
       <c r="A370" s="25" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B370" s="10" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C370" s="37">
         <v>373024</v>
@@ -17516,19 +17520,19 @@
         <v>48</v>
       </c>
       <c r="R370" s="13" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="U370" s="1">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:21" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A371" s="10" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B371" s="10" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C371" s="11">
         <v>13463393</v>
@@ -17555,22 +17559,22 @@
       <c r="O371" s="12"/>
       <c r="P371" s="12"/>
       <c r="Q371" s="13" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="R371" s="13" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="U371" s="1">
         <f t="shared" si="17"/>
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="372" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:21" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A372" s="10" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B372" s="10" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C372" s="11">
         <v>7718549</v>
@@ -17596,19 +17600,19 @@
         <v>91</v>
       </c>
       <c r="R372" s="13" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="U372" s="1">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:21" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A373" s="10" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B373" s="10" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C373" s="11">
         <v>7440020</v>
@@ -17632,19 +17636,19 @@
       <c r="P373" s="12"/>
       <c r="Q373" s="13"/>
       <c r="R373" s="13" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="U373" s="1">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:21" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A374" s="10" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B374" s="10" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C374" s="11">
         <v>13138459</v>
@@ -17670,19 +17674,19 @@
         <v>91</v>
       </c>
       <c r="R374" s="13" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="U374" s="1">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:21" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A375" s="10" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B375" s="10" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C375" s="11">
         <v>1313991</v>
@@ -17706,22 +17710,22 @@
       <c r="P375" s="12"/>
       <c r="Q375" s="13"/>
       <c r="R375" s="13" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="U375" s="1">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A376" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="B376" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="C376" s="11" t="s">
         <v>476</v>
-      </c>
-      <c r="B376" s="10" t="s">
-        <v>464</v>
-      </c>
-      <c r="C376" s="11" t="s">
-        <v>477</v>
       </c>
       <c r="D376" s="12">
         <v>2.4000000000000001E-4</v>
@@ -17740,19 +17744,19 @@
       <c r="P376" s="12"/>
       <c r="Q376" s="13"/>
       <c r="R376" s="13" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="U376" s="1">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A377" s="10" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B377" s="10" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C377" s="11">
         <v>12035722</v>
@@ -17776,19 +17780,19 @@
       <c r="P377" s="12"/>
       <c r="Q377" s="13"/>
       <c r="R377" s="13" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="U377" s="1">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:21" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A378" s="10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B378" s="10" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C378" s="11">
         <v>13770893</v>
@@ -17814,19 +17818,19 @@
         <v>91</v>
       </c>
       <c r="R378" s="13" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="U378" s="1">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:21" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A379" s="10" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B379" s="10" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C379" s="11">
         <v>7786814</v>
@@ -17852,19 +17856,19 @@
         <v>91</v>
       </c>
       <c r="R379" s="13" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="U379" s="1">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A380" s="10" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B380" s="10" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C380" s="11">
         <v>98953</v>
@@ -17888,19 +17892,19 @@
       <c r="P380" s="12"/>
       <c r="Q380" s="13"/>
       <c r="R380" s="13" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="U380" s="1">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A381" s="10" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B381" s="10" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C381" s="11">
         <v>62759</v>
@@ -17924,19 +17928,19 @@
       <c r="P381" s="12"/>
       <c r="Q381" s="13"/>
       <c r="R381" s="13" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="U381" s="1">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A382" s="10" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B382" s="10" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C382" s="11">
         <v>59892</v>
@@ -17965,15 +17969,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A383" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="B383" s="10" t="s">
         <v>490</v>
       </c>
-      <c r="B383" s="10" t="s">
+      <c r="C383" s="11" t="s">
         <v>491</v>
-      </c>
-      <c r="C383" s="11" t="s">
-        <v>492</v>
       </c>
       <c r="D383" s="12"/>
       <c r="E383" s="12"/>
@@ -17997,9 +18001,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A384" s="10" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B384" s="10"/>
       <c r="C384" s="11"/>
@@ -18017,11 +18021,11 @@
       <c r="O384" s="33"/>
       <c r="P384" s="33"/>
       <c r="Q384" s="13" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="R384" s="13"/>
     </row>
-    <row r="385" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A385" s="10" t="s">
         <v>232</v>
       </c>
@@ -18057,15 +18061,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A386" s="10" t="s">
+        <v>566</v>
+      </c>
+      <c r="B386" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="C386" s="11" t="s">
         <v>567</v>
-      </c>
-      <c r="B386" s="10" t="s">
-        <v>536</v>
-      </c>
-      <c r="C386" s="11" t="s">
-        <v>568</v>
       </c>
       <c r="D386" s="12">
         <v>4.8000000000000001E-5</v>
@@ -18086,19 +18090,19 @@
         <v>94</v>
       </c>
       <c r="R386" s="13" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="U386" s="1">
         <f>MIN(F386:P386)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A387" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B387" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C387" s="11">
         <v>95534</v>
@@ -18127,12 +18131,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A388" s="10" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B388" s="10" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C388" s="11">
         <v>95476</v>
@@ -18158,18 +18162,18 @@
       <c r="P388" s="12"/>
       <c r="Q388" s="13"/>
       <c r="R388" s="13" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="389" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="389" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A389" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="B389" s="10" t="s">
         <v>530</v>
       </c>
-      <c r="B389" s="10" t="s">
-        <v>531</v>
-      </c>
       <c r="C389" s="24" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D389" s="12">
         <v>4.8000000000000001E-5</v>
@@ -18190,19 +18194,19 @@
         <v>48</v>
       </c>
       <c r="R389" s="13" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="U389" s="1">
         <f t="shared" ref="U389:U394" si="18">MIN(F389:P389)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A390" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B390" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C390" s="11">
         <v>56382</v>
@@ -18229,7 +18233,7 @@
       <c r="O390" s="12"/>
       <c r="P390" s="12"/>
       <c r="Q390" s="13" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="R390" s="13"/>
       <c r="U390" s="1">
@@ -18237,12 +18241,12 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="391" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A391" s="10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B391" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C391" s="21">
         <v>202</v>
@@ -18266,14 +18270,14 @@
         <v>132</v>
       </c>
       <c r="R391" s="13" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="U391" s="1">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A392" s="10" t="s">
         <v>233</v>
       </c>
@@ -18309,7 +18313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A393" s="10" t="s">
         <v>41</v>
       </c>
@@ -18345,7 +18349,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="394" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A394" s="10" t="s">
         <v>43</v>
       </c>
@@ -18379,12 +18383,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A395" s="10" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B395" s="10" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C395" s="11"/>
       <c r="D395" s="12">
@@ -18403,18 +18407,18 @@
       <c r="O395" s="12"/>
       <c r="P395" s="12"/>
       <c r="Q395" s="13" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="R395" s="13" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="396" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="396" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A396" s="10" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B396" s="10" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C396" s="11">
         <v>82688</v>
@@ -18435,7 +18439,7 @@
       <c r="O396" s="12"/>
       <c r="P396" s="12"/>
       <c r="Q396" s="13" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="R396" s="13" t="s">
         <v>56</v>
@@ -18445,12 +18449,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A397" s="10" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B397" s="10" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C397" s="11">
         <v>87865</v>
@@ -18479,12 +18483,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:21" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:21" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="25" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B398" s="10" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C398" s="37">
         <v>198550</v>
@@ -18508,19 +18512,19 @@
         <v>48</v>
       </c>
       <c r="R398" s="13" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="U398" s="1">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A399" s="10" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B399" s="10" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C399" s="11">
         <v>85018</v>
@@ -18542,19 +18546,19 @@
       <c r="P399" s="12"/>
       <c r="Q399" s="13"/>
       <c r="R399" s="13" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="U399" s="1">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A400" s="10" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B400" s="10" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C400" s="11">
         <v>108952</v>
@@ -18591,7 +18595,7 @@
       <c r="O400" s="12"/>
       <c r="P400" s="12"/>
       <c r="Q400" s="13" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="R400" s="13" t="s">
         <v>22</v>
@@ -18601,9 +18605,9 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="401" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A401" s="25" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B401" s="10" t="s">
         <v>331</v>
@@ -18641,12 +18645,12 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="402" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A402" s="10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B402" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C402" s="11">
         <v>62384</v>
@@ -18670,19 +18674,19 @@
       <c r="P402" s="12"/>
       <c r="Q402" s="13"/>
       <c r="R402" s="13" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="U402" s="1">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A403" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B403" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C403" s="11">
         <v>75445</v>
@@ -18713,7 +18717,7 @@
       <c r="O403" s="12"/>
       <c r="P403" s="12"/>
       <c r="Q403" s="13" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="R403" s="13" t="s">
         <v>163</v>
@@ -18723,12 +18727,12 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="404" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A404" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B404" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C404" s="11">
         <v>7803512</v>
@@ -18757,7 +18761,7 @@
       <c r="O404" s="12"/>
       <c r="P404" s="12"/>
       <c r="Q404" s="13" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="R404" s="13" t="s">
         <v>163</v>
@@ -18767,12 +18771,12 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="405" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:21" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A405" s="10" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B405" s="10" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C405" s="11">
         <v>7723140</v>
@@ -18801,19 +18805,19 @@
       <c r="O405" s="12"/>
       <c r="P405" s="12"/>
       <c r="Q405" s="13" t="s">
+        <v>804</v>
+      </c>
+      <c r="R405" s="13" t="s">
         <v>805</v>
-      </c>
-      <c r="R405" s="13" t="s">
-        <v>806</v>
       </c>
       <c r="U405" s="1">
         <f t="shared" si="19"/>
         <v>0.47</v>
       </c>
     </row>
-    <row r="406" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A406" s="10" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B406" s="10"/>
       <c r="C406" s="11"/>
@@ -18831,16 +18835,16 @@
       <c r="O406" s="33"/>
       <c r="P406" s="33"/>
       <c r="Q406" s="13" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="R406" s="13"/>
     </row>
-    <row r="407" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A407" s="10" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B407" s="10" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C407" s="11">
         <v>85449</v>
@@ -18869,15 +18873,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A408" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="B408" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="C408" s="11" t="s">
         <v>504</v>
-      </c>
-      <c r="B408" s="10" t="s">
-        <v>504</v>
-      </c>
-      <c r="C408" s="11" t="s">
-        <v>505</v>
       </c>
       <c r="D408" s="12"/>
       <c r="E408" s="12"/>
@@ -18901,12 +18905,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A409" s="10" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B409" s="10" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C409" s="11">
         <v>1336363</v>
@@ -18935,7 +18939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A410" s="10" t="s">
         <v>313</v>
       </c>
@@ -18967,15 +18971,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A411" s="10" t="s">
+        <v>599</v>
+      </c>
+      <c r="B411" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="C411" s="11" t="s">
         <v>600</v>
-      </c>
-      <c r="B411" s="10" t="s">
-        <v>587</v>
-      </c>
-      <c r="C411" s="11" t="s">
-        <v>601</v>
       </c>
       <c r="D411" s="12">
         <v>9.6000000000000002E-4</v>
@@ -18996,19 +19000,19 @@
       <c r="P411" s="12"/>
       <c r="Q411" s="13"/>
       <c r="R411" s="13" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="U411" s="1">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:21" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:21" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="10" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B412" s="10" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C412" s="24">
         <v>246</v>
@@ -19032,19 +19036,19 @@
         <v>48</v>
       </c>
       <c r="R412" s="13" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="U412" s="1">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A413" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="B413" s="10" t="s">
         <v>526</v>
-      </c>
-      <c r="B413" s="10" t="s">
-        <v>527</v>
       </c>
       <c r="C413" s="11"/>
       <c r="D413" s="23">
@@ -19066,19 +19070,19 @@
         <v>48</v>
       </c>
       <c r="R413" s="13" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="U413" s="1">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="10" t="s">
+        <v>532</v>
+      </c>
+      <c r="B414" s="10" t="s">
         <v>533</v>
-      </c>
-      <c r="B414" s="10" t="s">
-        <v>534</v>
       </c>
       <c r="C414" s="11"/>
       <c r="D414" s="23">
@@ -19100,19 +19104,19 @@
         <v>48</v>
       </c>
       <c r="R414" s="13" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="U414" s="1">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A415" s="10" t="s">
+        <v>571</v>
+      </c>
+      <c r="B415" s="10" t="s">
         <v>572</v>
-      </c>
-      <c r="B415" s="10" t="s">
-        <v>573</v>
       </c>
       <c r="C415" s="11"/>
       <c r="D415" s="23">
@@ -19134,19 +19138,19 @@
         <v>48</v>
       </c>
       <c r="R415" s="13" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="U415" s="1">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A416" s="10" t="s">
+        <v>576</v>
+      </c>
+      <c r="B416" s="10" t="s">
         <v>577</v>
-      </c>
-      <c r="B416" s="10" t="s">
-        <v>578</v>
       </c>
       <c r="C416" s="11"/>
       <c r="D416" s="23">
@@ -19168,19 +19172,19 @@
         <v>48</v>
       </c>
       <c r="R416" s="13" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="U416" s="1">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A417" s="10" t="s">
+        <v>585</v>
+      </c>
+      <c r="B417" s="10" t="s">
         <v>586</v>
-      </c>
-      <c r="B417" s="10" t="s">
-        <v>587</v>
       </c>
       <c r="C417" s="11"/>
       <c r="D417" s="23">
@@ -19202,19 +19206,19 @@
         <v>48</v>
       </c>
       <c r="R417" s="13" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="U417" s="1">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A418" s="10" t="s">
+        <v>601</v>
+      </c>
+      <c r="B418" s="10" t="s">
         <v>602</v>
-      </c>
-      <c r="B418" s="10" t="s">
-        <v>603</v>
       </c>
       <c r="C418" s="11"/>
       <c r="D418" s="23">
@@ -19236,19 +19240,19 @@
         <v>48</v>
       </c>
       <c r="R418" s="13" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="U418" s="1">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A419" s="10" t="s">
+        <v>620</v>
+      </c>
+      <c r="B419" s="10" t="s">
         <v>621</v>
-      </c>
-      <c r="B419" s="10" t="s">
-        <v>622</v>
       </c>
       <c r="C419" s="11"/>
       <c r="D419" s="23">
@@ -19270,19 +19274,19 @@
         <v>48</v>
       </c>
       <c r="R419" s="13" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="U419" s="1">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A420" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="B420" s="10" t="s">
         <v>630</v>
-      </c>
-      <c r="B420" s="10" t="s">
-        <v>631</v>
       </c>
       <c r="C420" s="11"/>
       <c r="D420" s="23">
@@ -19304,14 +19308,14 @@
         <v>48</v>
       </c>
       <c r="R420" s="13" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="U420" s="1">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A421" s="10" t="s">
         <v>193</v>
       </c>
@@ -19349,7 +19353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A422" s="10" t="s">
         <v>264</v>
       </c>
@@ -19385,17 +19389,17 @@
       <c r="O422" s="12"/>
       <c r="P422" s="12"/>
       <c r="Q422" s="13" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="R422" s="13" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="U422" s="1">
         <f t="shared" si="20"/>
         <v>2.7</v>
       </c>
     </row>
-    <row r="423" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A423" s="10" t="s">
         <v>194</v>
       </c>
@@ -19433,15 +19437,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A424" s="10" t="s">
+        <v>675</v>
+      </c>
+      <c r="B424" s="10" t="s">
+        <v>674</v>
+      </c>
+      <c r="C424" s="11" t="s">
         <v>676</v>
-      </c>
-      <c r="B424" s="10" t="s">
-        <v>675</v>
-      </c>
-      <c r="C424" s="11" t="s">
-        <v>677</v>
       </c>
       <c r="D424" s="23"/>
       <c r="E424" s="12">
@@ -19462,14 +19466,14 @@
         <v>94</v>
       </c>
       <c r="R424" s="13" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="U424" s="1">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A425" s="10" t="s">
         <v>265</v>
       </c>
@@ -19505,7 +19509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A426" s="10" t="s">
         <v>266</v>
       </c>
@@ -19541,12 +19545,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A427" s="10" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B427" s="10" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C427" s="2">
         <v>106503</v>
@@ -19575,12 +19579,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A428" s="10" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B428" s="10" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C428" s="11">
         <v>123386</v>
@@ -19611,22 +19615,22 @@
       <c r="O428" s="12"/>
       <c r="P428" s="12"/>
       <c r="Q428" s="13" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="R428" s="13" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="U428" s="1">
         <f t="shared" si="20"/>
         <v>110</v>
       </c>
     </row>
-    <row r="429" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A429" s="10" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B429" s="10" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C429" s="11">
         <v>114261</v>
@@ -19655,9 +19659,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A430" s="25" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B430" s="10" t="s">
         <v>331</v>
@@ -19695,12 +19699,12 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="431" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A431" s="10" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B431" s="10" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C431" s="11">
         <v>78875</v>
@@ -19723,7 +19727,7 @@
       <c r="O431" s="12"/>
       <c r="P431" s="12"/>
       <c r="Q431" s="13" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="R431" s="13" t="s">
         <v>56</v>
@@ -19733,12 +19737,12 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="432" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A432" s="10" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B432" s="10" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C432" s="11">
         <v>75569</v>
@@ -19775,7 +19779,7 @@
       <c r="O432" s="12"/>
       <c r="P432" s="12"/>
       <c r="Q432" s="13" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="R432" s="13" t="s">
         <v>22</v>
@@ -19785,12 +19789,12 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="433" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A433" s="10" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B433" s="10" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C433" s="11">
         <v>106423</v>
@@ -19816,19 +19820,19 @@
       <c r="P433" s="12"/>
       <c r="Q433" s="13"/>
       <c r="R433" s="13" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="U433" s="1">
         <f>MIN(F432:P432)</f>
         <v>3.1</v>
       </c>
     </row>
-    <row r="434" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A434" s="10" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B434" s="10" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C434" s="11">
         <v>129000</v>
@@ -19850,19 +19854,19 @@
       <c r="P434" s="12"/>
       <c r="Q434" s="13"/>
       <c r="R434" s="13" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="U434" s="1">
         <f t="shared" ref="U434:U456" si="21">MIN(F434:P434)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A435" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B435" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C435" s="11">
         <v>91225</v>
@@ -19891,12 +19895,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A436" s="10" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B436" s="10" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C436" s="11">
         <v>106514</v>
@@ -19925,12 +19929,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A437" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B437" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C437" s="24">
         <v>605</v>
@@ -19957,12 +19961,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A438" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B438" s="10" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C438" s="11">
         <v>7783008</v>
@@ -19986,19 +19990,19 @@
       <c r="P438" s="12"/>
       <c r="Q438" s="13"/>
       <c r="R438" s="13" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="U438" s="1">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A439" s="10" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B439" s="10" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C439" s="11">
         <v>7782492</v>
@@ -20027,12 +20031,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A440" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B440" s="10" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C440" s="11">
         <v>7446084</v>
@@ -20061,15 +20065,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A441" s="10" t="s">
+        <v>680</v>
+      </c>
+      <c r="B441" s="10" t="s">
+        <v>674</v>
+      </c>
+      <c r="C441" s="11" t="s">
         <v>681</v>
-      </c>
-      <c r="B441" s="10" t="s">
-        <v>675</v>
-      </c>
-      <c r="C441" s="11" t="s">
-        <v>682</v>
       </c>
       <c r="D441" s="12"/>
       <c r="E441" s="12">
@@ -20095,12 +20099,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A442" s="10" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B442" s="10" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C442" s="11">
         <v>7783791</v>
@@ -20129,22 +20133,22 @@
       <c r="O442" s="12"/>
       <c r="P442" s="12"/>
       <c r="Q442" s="13" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="R442" s="13" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="U442" s="1">
         <f t="shared" si="21"/>
         <v>0.13</v>
       </c>
     </row>
-    <row r="443" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A443" s="10" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B443" s="10" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C443" s="11">
         <v>12640890</v>
@@ -20165,25 +20169,25 @@
       <c r="O443" s="12"/>
       <c r="P443" s="12"/>
       <c r="Q443" s="13" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R443" s="13" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="U443" s="1">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A444" s="10" t="s">
+        <v>684</v>
+      </c>
+      <c r="B444" s="10" t="s">
+        <v>674</v>
+      </c>
+      <c r="C444" s="11" t="s">
         <v>685</v>
-      </c>
-      <c r="B444" s="10" t="s">
-        <v>675</v>
-      </c>
-      <c r="C444" s="11" t="s">
-        <v>686</v>
       </c>
       <c r="D444" s="12"/>
       <c r="E444" s="12">
@@ -20204,22 +20208,22 @@
         <v>94</v>
       </c>
       <c r="R444" s="13" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="U444" s="1">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A445" s="10" t="s">
+        <v>686</v>
+      </c>
+      <c r="B445" s="10" t="s">
+        <v>674</v>
+      </c>
+      <c r="C445" s="11" t="s">
         <v>687</v>
-      </c>
-      <c r="B445" s="10" t="s">
-        <v>675</v>
-      </c>
-      <c r="C445" s="11" t="s">
-        <v>688</v>
       </c>
       <c r="D445" s="12"/>
       <c r="E445" s="12">
@@ -20245,12 +20249,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A446" s="10" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B446" s="10" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C446" s="11">
         <v>630104</v>
@@ -20274,14 +20278,14 @@
       <c r="P446" s="12"/>
       <c r="Q446" s="13"/>
       <c r="R446" s="13" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="U446" s="1">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A447" s="10" t="s">
         <v>268</v>
       </c>
@@ -20319,7 +20323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A448" s="25" t="s">
         <v>195</v>
       </c>
@@ -20357,7 +20361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A449" s="10" t="s">
         <v>269</v>
       </c>
@@ -20393,17 +20397,17 @@
       <c r="O449" s="12"/>
       <c r="P449" s="12"/>
       <c r="Q449" s="13" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="R449" s="13" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="U449" s="1">
         <f t="shared" si="21"/>
         <v>2</v>
       </c>
     </row>
-    <row r="450" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A450" s="25" t="s">
         <v>196</v>
       </c>
@@ -20441,15 +20445,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A451" s="25" t="s">
+        <v>689</v>
+      </c>
+      <c r="B451" s="10" t="s">
+        <v>674</v>
+      </c>
+      <c r="C451" s="26" t="s">
         <v>690</v>
-      </c>
-      <c r="B451" s="10" t="s">
-        <v>675</v>
-      </c>
-      <c r="C451" s="26" t="s">
-        <v>691</v>
       </c>
       <c r="D451" s="12"/>
       <c r="E451" s="12">
@@ -20470,22 +20474,22 @@
         <v>94</v>
       </c>
       <c r="R451" s="13" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="U451" s="1">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A452" s="25" t="s">
+        <v>691</v>
+      </c>
+      <c r="B452" s="10" t="s">
+        <v>674</v>
+      </c>
+      <c r="C452" s="26" t="s">
         <v>692</v>
-      </c>
-      <c r="B452" s="10" t="s">
-        <v>675</v>
-      </c>
-      <c r="C452" s="26" t="s">
-        <v>693</v>
       </c>
       <c r="D452" s="12"/>
       <c r="E452" s="12">
@@ -20506,14 +20510,14 @@
         <v>94</v>
       </c>
       <c r="R452" s="13" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="U452" s="1">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A453" s="25" t="s">
         <v>197</v>
       </c>
@@ -20551,12 +20555,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A454" s="10" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B454" s="10" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C454" s="11">
         <v>100425</v>
@@ -20595,7 +20599,7 @@
       <c r="O454" s="12"/>
       <c r="P454" s="12"/>
       <c r="Q454" s="13" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="R454" s="13" t="s">
         <v>22</v>
@@ -20605,12 +20609,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="455" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A455" s="10" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B455" s="10" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C455" s="11">
         <v>96093</v>
@@ -20639,7 +20643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A456" s="10" t="s">
         <v>31</v>
       </c>
@@ -20673,9 +20677,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A457" s="10" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B457" s="10"/>
       <c r="C457" s="11"/>
@@ -20693,16 +20697,16 @@
       <c r="O457" s="33"/>
       <c r="P457" s="33"/>
       <c r="Q457" s="13" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="R457" s="13"/>
     </row>
-    <row r="458" spans="1:21" ht="108.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:21" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="10" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B458" s="10" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C458" s="11"/>
       <c r="D458" s="12">
@@ -20721,18 +20725,18 @@
       <c r="O458" s="12"/>
       <c r="P458" s="12"/>
       <c r="Q458" s="13" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="R458" s="13" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="459" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="459" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A459" s="10" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B459" s="10" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C459" s="11">
         <v>127184</v>
@@ -20771,22 +20775,22 @@
       <c r="O459" s="12"/>
       <c r="P459" s="12"/>
       <c r="Q459" s="13" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="R459" s="13" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="U459" s="1">
         <f>MIN(F459:P459)</f>
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="460" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A460" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B460" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C460" s="11">
         <v>78002</v>
@@ -20810,19 +20814,19 @@
       <c r="P460" s="12"/>
       <c r="Q460" s="13"/>
       <c r="R460" s="13" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="U460" s="1">
         <f>MIN(F460:P460)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A461" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B461" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C461" s="11">
         <v>75741</v>
@@ -20846,22 +20850,22 @@
       <c r="P461" s="12"/>
       <c r="Q461" s="13"/>
       <c r="R461" s="13" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="U461" s="1">
         <f>MIN(F461:P461)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A462" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="B462" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="C462" s="47" t="s">
         <v>644</v>
-      </c>
-      <c r="B462" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="C462" s="47" t="s">
-        <v>645</v>
       </c>
       <c r="D462" s="12"/>
       <c r="E462" s="12"/>
@@ -20877,11 +20881,11 @@
       <c r="O462" s="12"/>
       <c r="P462" s="12"/>
       <c r="Q462" s="14" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="R462" s="13"/>
     </row>
-    <row r="463" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A463" s="10" t="s">
         <v>270</v>
       </c>
@@ -20919,7 +20923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A464" s="10" t="s">
         <v>272</v>
       </c>
@@ -20957,15 +20961,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A465" s="10" t="s">
+        <v>646</v>
+      </c>
+      <c r="B465" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="C465" s="24" t="s">
         <v>647</v>
-      </c>
-      <c r="B465" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="C465" s="24" t="s">
-        <v>648</v>
       </c>
       <c r="D465" s="12"/>
       <c r="E465" s="12"/>
@@ -20981,16 +20985,16 @@
       <c r="O465" s="12"/>
       <c r="P465" s="12"/>
       <c r="Q465" s="14" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="R465" s="13"/>
     </row>
-    <row r="466" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A466" s="10" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B466" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C466" s="24"/>
       <c r="D466" s="12"/>
@@ -21007,16 +21011,16 @@
       <c r="O466" s="12"/>
       <c r="P466" s="12"/>
       <c r="Q466" s="14" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="R466" s="13"/>
     </row>
-    <row r="467" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A467" s="27" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B467" s="27" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C467" s="28">
         <v>7550450</v>
@@ -21047,22 +21051,22 @@
       <c r="O467" s="29"/>
       <c r="P467" s="29"/>
       <c r="Q467" s="30" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="R467" s="30" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="U467" s="1">
         <f>MIN(F467:P467)</f>
         <v>0.73</v>
       </c>
     </row>
-    <row r="468" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A468" s="10" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B468" s="10" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C468" s="11">
         <v>108883</v>
@@ -21101,19 +21105,19 @@
       <c r="O468" s="12"/>
       <c r="P468" s="12"/>
       <c r="Q468" s="13" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="R468" s="13" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="U468" s="1">
         <f>MIN(F468:P468)</f>
         <v>7.5</v>
       </c>
     </row>
-    <row r="469" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A469" s="10" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B469" s="10"/>
       <c r="C469" s="11"/>
@@ -21131,13 +21135,13 @@
       <c r="O469" s="33"/>
       <c r="P469" s="33"/>
       <c r="Q469" s="13" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="R469" s="13"/>
     </row>
-    <row r="470" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A470" s="10" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B470" s="10"/>
       <c r="C470" s="11"/>
@@ -21155,13 +21159,13 @@
       <c r="O470" s="33"/>
       <c r="P470" s="33"/>
       <c r="Q470" s="13" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="R470" s="13"/>
     </row>
-    <row r="471" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A471" s="10" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B471" s="10"/>
       <c r="C471" s="11"/>
@@ -21179,16 +21183,16 @@
       <c r="O471" s="33"/>
       <c r="P471" s="33"/>
       <c r="Q471" s="13" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="R471" s="13"/>
     </row>
-    <row r="472" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A472" s="10" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B472" s="10" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C472" s="11">
         <v>8001352</v>
@@ -21217,12 +21221,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:21" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:21" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A473" s="10" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B473" s="10" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C473" s="11">
         <v>79016</v>
@@ -21257,22 +21261,22 @@
       <c r="O473" s="12"/>
       <c r="P473" s="12"/>
       <c r="Q473" s="13" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="R473" s="13" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="U473" s="1">
         <f>MIN(F473:P473)</f>
         <v>410</v>
       </c>
     </row>
-    <row r="474" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A474" s="10" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B474" s="10" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C474" s="11">
         <v>121448</v>
@@ -21303,9 +21307,9 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="475" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A475" s="25" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B475" s="10" t="s">
         <v>331</v>
@@ -21337,15 +21341,15 @@
         <v>332</v>
       </c>
     </row>
-    <row r="476" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A476" s="25" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B476" s="10" t="s">
         <v>331</v>
       </c>
       <c r="C476" s="26" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D476" s="12"/>
       <c r="E476" s="12">
@@ -21365,18 +21369,18 @@
       <c r="O476" s="12"/>
       <c r="P476" s="12"/>
       <c r="Q476" s="14" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="R476" s="13" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="477" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A477" s="10" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B477" s="10" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C477" s="11">
         <v>1582098</v>
@@ -21405,9 +21409,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A478" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B478" s="10" t="s">
         <v>331</v>
@@ -21443,12 +21447,12 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="479" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A479" s="10" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B479" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C479" s="24"/>
       <c r="D479" s="12"/>
@@ -21465,19 +21469,19 @@
       <c r="O479" s="12"/>
       <c r="P479" s="12"/>
       <c r="Q479" s="14" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="R479" s="13"/>
     </row>
-    <row r="480" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A480" s="10" t="s">
+        <v>653</v>
+      </c>
+      <c r="B480" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="C480" s="11" t="s">
         <v>654</v>
-      </c>
-      <c r="B480" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="C480" s="11" t="s">
-        <v>655</v>
       </c>
       <c r="D480" s="12"/>
       <c r="E480" s="12">
@@ -21497,22 +21501,22 @@
       <c r="O480" s="12"/>
       <c r="P480" s="12"/>
       <c r="Q480" s="13" t="s">
+        <v>655</v>
+      </c>
+      <c r="R480" s="13" t="s">
         <v>656</v>
-      </c>
-      <c r="R480" s="13" t="s">
-        <v>657</v>
       </c>
       <c r="U480" s="1">
         <f t="shared" ref="U480:U491" si="22">MIN(F480:P480)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="481" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A481" s="10" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B481" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C481" s="11">
         <v>7440611</v>
@@ -21535,22 +21539,22 @@
       <c r="O481" s="12"/>
       <c r="P481" s="12"/>
       <c r="Q481" s="13" t="s">
+        <v>658</v>
+      </c>
+      <c r="R481" s="13" t="s">
         <v>659</v>
-      </c>
-      <c r="R481" s="13" t="s">
-        <v>660</v>
       </c>
       <c r="U481" s="1">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A482" s="10" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B482" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C482" s="11">
         <v>7783815</v>
@@ -21583,25 +21587,25 @@
       <c r="O482" s="12"/>
       <c r="P482" s="12"/>
       <c r="Q482" s="13" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="R482" s="13" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="U482" s="1">
         <f t="shared" si="22"/>
         <v>1.2</v>
       </c>
     </row>
-    <row r="483" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A483" s="10" t="s">
+        <v>662</v>
+      </c>
+      <c r="B483" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="C483" s="11" t="s">
         <v>663</v>
-      </c>
-      <c r="B483" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="C483" s="11" t="s">
-        <v>664</v>
       </c>
       <c r="D483" s="12"/>
       <c r="E483" s="12">
@@ -21621,22 +21625,22 @@
       <c r="O483" s="12"/>
       <c r="P483" s="12"/>
       <c r="Q483" s="13" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="R483" s="13" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="U483" s="1">
         <f t="shared" si="22"/>
         <v>10</v>
       </c>
     </row>
-    <row r="484" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A484" s="25" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B484" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C484" s="37">
         <v>7440611</v>
@@ -21657,25 +21661,25 @@
       <c r="O484" s="12"/>
       <c r="P484" s="12"/>
       <c r="Q484" s="14" t="s">
+        <v>651</v>
+      </c>
+      <c r="R484" s="13" t="s">
         <v>652</v>
-      </c>
-      <c r="R484" s="13" t="s">
-        <v>653</v>
       </c>
       <c r="U484" s="1">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A485" s="10" t="s">
+        <v>665</v>
+      </c>
+      <c r="B485" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="C485" s="11" t="s">
         <v>666</v>
-      </c>
-      <c r="B485" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="C485" s="11" t="s">
-        <v>667</v>
       </c>
       <c r="D485" s="12">
         <v>0</v>
@@ -21695,25 +21699,25 @@
       <c r="O485" s="12"/>
       <c r="P485" s="12"/>
       <c r="Q485" s="13" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="R485" s="13" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="U485" s="1">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A486" s="10" t="s">
+        <v>668</v>
+      </c>
+      <c r="B486" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="C486" s="11" t="s">
         <v>669</v>
-      </c>
-      <c r="B486" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="C486" s="11" t="s">
-        <v>670</v>
       </c>
       <c r="D486" s="12"/>
       <c r="E486" s="12">
@@ -21731,25 +21735,25 @@
       <c r="O486" s="12"/>
       <c r="P486" s="12"/>
       <c r="Q486" s="13" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="R486" s="13" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="U486" s="1">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A487" s="10" t="s">
+        <v>671</v>
+      </c>
+      <c r="B487" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="C487" s="11" t="s">
         <v>672</v>
-      </c>
-      <c r="B487" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="C487" s="11" t="s">
-        <v>673</v>
       </c>
       <c r="D487" s="12"/>
       <c r="E487" s="12">
@@ -21767,22 +21771,22 @@
       <c r="O487" s="12"/>
       <c r="P487" s="12"/>
       <c r="Q487" s="13" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="R487" s="13" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="U487" s="1">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A488" s="10" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B488" s="10" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C488" s="11">
         <v>108054</v>
@@ -21817,22 +21821,22 @@
       <c r="O488" s="12"/>
       <c r="P488" s="12"/>
       <c r="Q488" s="13" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="R488" s="13" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="U488" s="1">
         <f t="shared" si="22"/>
         <v>18</v>
       </c>
     </row>
-    <row r="489" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A489" s="10" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B489" s="10" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C489" s="11">
         <v>593602</v>
@@ -21861,12 +21865,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A490" s="10" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B490" s="10" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C490" s="11">
         <v>75014</v>
@@ -21905,22 +21909,22 @@
       <c r="O490" s="12"/>
       <c r="P490" s="12"/>
       <c r="Q490" s="13" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="R490" s="13" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="U490" s="1">
         <f t="shared" si="22"/>
         <v>1.3</v>
       </c>
     </row>
-    <row r="491" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A491" s="10" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B491" s="10" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C491" s="11">
         <v>75354</v>
@@ -21945,22 +21949,22 @@
       <c r="O491" s="12"/>
       <c r="P491" s="12"/>
       <c r="Q491" s="13" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="R491" s="13" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="U491" s="1">
         <f t="shared" si="22"/>
         <v>2000</v>
       </c>
     </row>
-    <row r="492" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A492" s="10" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B492" s="10" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C492" s="11">
         <v>1330207</v>
@@ -21995,7 +21999,7 @@
       <c r="O492" s="12"/>
       <c r="P492" s="12"/>
       <c r="Q492" s="13" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="R492" s="13"/>
       <c r="U492" s="1">
@@ -22003,7 +22007,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="493" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A493" s="38" t="s">
         <v>198</v>
       </c>
@@ -22041,7 +22045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A494" s="38" t="s">
         <v>199</v>
       </c>
@@ -22075,7 +22079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A495" s="10" t="s">
         <v>273</v>
       </c>
@@ -22113,7 +22117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A496" s="25" t="s">
         <v>200</v>
       </c>
@@ -22151,7 +22155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="17:17" x14ac:dyDescent="0.2">
+    <row r="497" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q497" s="34"/>
     </row>
   </sheetData>

--- a/resources/Dose_Response_Library.xlsx
+++ b/resources/Dose_Response_Library.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris Stolte\IdeaProjects\HEM\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David Lindsey\OneDrive - SC&amp;A, Inc\HEM4Python\Version_Master\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91CBEC9C-E26D-4CB7-AEB8-02E976B081BD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="114_{8E533BB0-A268-42A8-A8A7-C642311BE376}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{BA3DAA04-A4A5-4C9E-9017-FE926AA90A24}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24480" windowHeight="11136" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24480" windowHeight="11130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dose Response Value Library" sheetId="1" r:id="rId1"/>
@@ -40,11 +40,12 @@
     <definedName name="Z_E392D6CB_6FB5_47D6_BFF9_30F47B865CA7_.wvu.PrintArea" localSheetId="0" hidden="1">'Dose Response Value Library'!$A$1:$U$469</definedName>
     <definedName name="Z_E392D6CB_6FB5_47D6_BFF9_30F47B865CA7_.wvu.PrintTitles" localSheetId="0" hidden="1">'Dose Response Value Library'!$A:$A,'Dose Response Value Library'!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -943,13 +944,7 @@
     <t>Dimethylcarbamoyl Chloride</t>
   </si>
   <si>
-    <t>1,2,3,4,6,7,8,9-Octochlorodibenzo-p-dioxin</t>
-  </si>
-  <si>
     <t>updated based on 2005 WHO reevaluation of TEF</t>
-  </si>
-  <si>
-    <t>1,2,3,4,6,7,8,9-Octochlorodibenzofuran</t>
   </si>
   <si>
     <t>1,2,3,4,6,7,8-Heptachlorodibenzo-p-dioxin</t>
@@ -2607,6 +2602,12 @@
   </si>
   <si>
     <t>Moved from POM group 6 back to group 2 for consistancy with Roy's original grouping -- revised to use POM group 2 adjusted URE updated 4/2017.</t>
+  </si>
+  <si>
+    <t>1,2,3,4,6,7,8,9-Octachlorodibenzofuran</t>
+  </si>
+  <si>
+    <t>1,2,3,4,6,7,8,9-Octachlorodibenzo-p-dioxin</t>
   </si>
 </sst>
 </file>
@@ -3608,34 +3609,34 @@
   <dimension ref="A1:U497"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A485" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A493" sqref="A493"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="30.44140625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="33.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" style="7" customWidth="1"/>
     <col min="3" max="3" width="14" style="2" customWidth="1"/>
     <col min="4" max="5" width="11" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" style="8" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" style="8" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" style="8" customWidth="1"/>
-    <col min="10" max="11" width="9.6640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" style="8" customWidth="1"/>
+    <col min="10" max="11" width="9.7109375" style="8" customWidth="1"/>
     <col min="12" max="12" width="10" style="8" customWidth="1"/>
-    <col min="13" max="13" width="9.44140625" style="8" customWidth="1"/>
-    <col min="14" max="15" width="9.33203125" style="8" customWidth="1"/>
+    <col min="13" max="13" width="9.42578125" style="8" customWidth="1"/>
+    <col min="14" max="15" width="9.28515625" style="8" customWidth="1"/>
     <col min="16" max="16" width="11" style="8" customWidth="1"/>
     <col min="17" max="17" width="24" style="9" customWidth="1"/>
-    <col min="18" max="18" width="34.6640625" style="9" customWidth="1"/>
-    <col min="19" max="19" width="10.88671875" style="1" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="34.7109375" style="9" customWidth="1"/>
+    <col min="19" max="19" width="10.85546875" style="1" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="7" style="1" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="9.109375" style="1" hidden="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.109375" style="1"/>
+    <col min="21" max="21" width="9.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="4" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="4" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3700,12 +3701,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C2" s="26">
         <v>67425</v>
@@ -3729,14 +3730,14 @@
         <v>220</v>
       </c>
       <c r="R2" s="13" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="U2" s="1">
         <f t="shared" ref="U2:U31" si="0">MIN(F2:P2)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>21</v>
       </c>
@@ -3780,7 +3781,7 @@
       <c r="O3" s="12"/>
       <c r="P3" s="12"/>
       <c r="Q3" s="13" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="R3" s="13" t="s">
         <v>22</v>
@@ -3790,7 +3791,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>23</v>
       </c>
@@ -3824,7 +3825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>25</v>
       </c>
@@ -3858,7 +3859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>26</v>
       </c>
@@ -3890,7 +3891,7 @@
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
       <c r="Q6" s="13" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="R6" s="13"/>
       <c r="U6" s="1">
@@ -3898,12 +3899,12 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>294</v>
+        <v>845</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C7" s="11">
         <v>39001020</v>
@@ -3926,10 +3927,10 @@
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
       <c r="Q7" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="R7" s="13" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="S7" s="1">
         <v>33</v>
@@ -3942,12 +3943,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>292</v>
+        <v>846</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C8" s="11">
         <v>3268879</v>
@@ -3970,10 +3971,10 @@
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
       <c r="Q8" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="R8" s="13" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="S8" s="1">
         <v>33</v>
@@ -3986,12 +3987,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C9" s="11">
         <v>67562394</v>
@@ -4015,7 +4016,7 @@
       <c r="P9" s="12"/>
       <c r="Q9" s="13"/>
       <c r="R9" s="13" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="S9" s="1">
         <v>33</v>
@@ -4028,12 +4029,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C10" s="11">
         <v>35822469</v>
@@ -4057,7 +4058,7 @@
       <c r="P10" s="12"/>
       <c r="Q10" s="13"/>
       <c r="R10" s="13" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="S10" s="1">
         <v>33</v>
@@ -4070,12 +4071,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C11" s="11">
         <v>55673897</v>
@@ -4099,7 +4100,7 @@
       <c r="P11" s="12"/>
       <c r="Q11" s="13"/>
       <c r="R11" s="13" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="S11" s="1">
         <v>33</v>
@@ -4112,12 +4113,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C12" s="11">
         <v>70648269</v>
@@ -4141,7 +4142,7 @@
       <c r="P12" s="12"/>
       <c r="Q12" s="13"/>
       <c r="R12" s="13" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="S12" s="1">
         <v>33</v>
@@ -4154,12 +4155,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C13" s="11">
         <v>39227286</v>
@@ -4183,7 +4184,7 @@
       <c r="P13" s="12"/>
       <c r="Q13" s="13"/>
       <c r="R13" s="13" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="S13" s="1">
         <v>33</v>
@@ -4196,12 +4197,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C14" s="11">
         <v>57117449</v>
@@ -4225,7 +4226,7 @@
       <c r="P14" s="12"/>
       <c r="Q14" s="13"/>
       <c r="R14" s="13" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="S14" s="1">
         <v>33</v>
@@ -4238,12 +4239,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C15" s="11">
         <v>57653857</v>
@@ -4267,7 +4268,7 @@
       <c r="P15" s="12"/>
       <c r="Q15" s="13"/>
       <c r="R15" s="13" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="S15" s="1">
         <v>33</v>
@@ -4280,12 +4281,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C16" s="11">
         <v>72918219</v>
@@ -4309,7 +4310,7 @@
       <c r="P16" s="12"/>
       <c r="Q16" s="13"/>
       <c r="R16" s="13" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="S16" s="1">
         <v>33</v>
@@ -4322,12 +4323,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C17" s="11">
         <v>19408743</v>
@@ -4351,7 +4352,7 @@
       <c r="P17" s="12"/>
       <c r="Q17" s="13"/>
       <c r="R17" s="13" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="S17" s="1">
         <v>33</v>
@@ -4364,12 +4365,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C18" s="11">
         <v>57117416</v>
@@ -4392,10 +4393,10 @@
       <c r="O18" s="12"/>
       <c r="P18" s="12"/>
       <c r="Q18" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="R18" s="13" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="S18" s="1">
         <v>33</v>
@@ -4408,12 +4409,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C19" s="11">
         <v>40321764</v>
@@ -4437,7 +4438,7 @@
       <c r="P19" s="12"/>
       <c r="Q19" s="13"/>
       <c r="R19" s="13" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="S19" s="1">
         <v>33</v>
@@ -4450,7 +4451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>32</v>
       </c>
@@ -4484,7 +4485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
         <v>33</v>
       </c>
@@ -4518,12 +4519,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A22" s="25" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C22" s="37">
         <v>110714</v>
@@ -4551,14 +4552,14 @@
         <v>48</v>
       </c>
       <c r="R22" s="13" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="U22" s="1">
         <f t="shared" si="0"/>
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>35</v>
       </c>
@@ -4592,7 +4593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>36</v>
       </c>
@@ -4628,7 +4629,7 @@
       <c r="O24" s="12"/>
       <c r="P24" s="12"/>
       <c r="Q24" s="13" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="R24" s="13"/>
       <c r="U24" s="1">
@@ -4636,7 +4637,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
         <v>37</v>
       </c>
@@ -4668,7 +4669,7 @@
       <c r="O25" s="12"/>
       <c r="P25" s="12"/>
       <c r="Q25" s="13" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="R25" s="13"/>
       <c r="U25" s="1">
@@ -4676,7 +4677,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>38</v>
       </c>
@@ -4716,17 +4717,17 @@
       <c r="O26" s="12"/>
       <c r="P26" s="12"/>
       <c r="Q26" s="13" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="R26" s="13" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="U26" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>39</v>
       </c>
@@ -4760,7 +4761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
         <v>40</v>
       </c>
@@ -4794,7 +4795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
         <v>45</v>
       </c>
@@ -4834,7 +4835,7 @@
       <c r="O29" s="12"/>
       <c r="P29" s="12"/>
       <c r="Q29" s="13" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="R29" s="13" t="s">
         <v>46</v>
@@ -4844,12 +4845,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C30" s="11">
         <v>42397648</v>
@@ -4873,19 +4874,19 @@
       <c r="P30" s="12"/>
       <c r="Q30" s="13"/>
       <c r="R30" s="13" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="U30" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C31" s="11">
         <v>42397659</v>
@@ -4909,19 +4910,19 @@
       <c r="P31" s="12"/>
       <c r="Q31" s="13"/>
       <c r="R31" s="13" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="U31" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A32" s="25" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C32" s="26">
         <v>2422799</v>
@@ -4942,18 +4943,18 @@
       <c r="O32" s="12"/>
       <c r="P32" s="12"/>
       <c r="Q32" s="13" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="R32" s="13" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C33" s="24">
         <v>40</v>
@@ -4977,22 +4978,22 @@
         <v>48</v>
       </c>
       <c r="R33" s="13" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="U33" s="1">
         <f>MIN(F33:P33)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="25" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
@@ -5008,22 +5009,22 @@
       <c r="O34" s="12"/>
       <c r="P34" s="12"/>
       <c r="Q34" s="14" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="R34" s="13" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="U34" s="1">
         <f>MIN(F34:P34)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C35" s="11">
         <v>90120</v>
@@ -5047,19 +5048,19 @@
       <c r="P35" s="12"/>
       <c r="Q35" s="13"/>
       <c r="R35" s="13" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="U35" s="1">
         <f>MIN(F35:P35)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C36" s="11">
         <v>832699</v>
@@ -5080,18 +5081,18 @@
       <c r="O36" s="12"/>
       <c r="P36" s="12"/>
       <c r="Q36" s="13" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="R36" s="13" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C37" s="11">
         <v>2381217</v>
@@ -5112,18 +5113,18 @@
       <c r="O37" s="12"/>
       <c r="P37" s="12"/>
       <c r="Q37" s="13" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="R37" s="13" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C38" s="11">
         <v>5522430</v>
@@ -5147,19 +5148,19 @@
       <c r="P38" s="12"/>
       <c r="Q38" s="13"/>
       <c r="R38" s="13" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="U38" s="1">
         <f t="shared" ref="U38:U44" si="1">MIN(F38:P38)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A39" s="25" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C39" s="37">
         <v>112254</v>
@@ -5187,14 +5188,14 @@
         <v>48</v>
       </c>
       <c r="R39" s="13" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="U39" s="1">
         <f t="shared" si="1"/>
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" s="25" t="s">
         <v>47</v>
       </c>
@@ -5226,12 +5227,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C41" s="11">
         <v>60851345</v>
@@ -5255,7 +5256,7 @@
       <c r="P41" s="12"/>
       <c r="Q41" s="13"/>
       <c r="R41" s="13" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="S41" s="1">
         <v>33</v>
@@ -5268,12 +5269,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C42" s="11">
         <v>57117314</v>
@@ -5296,10 +5297,10 @@
       <c r="O42" s="12"/>
       <c r="P42" s="12"/>
       <c r="Q42" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="R42" s="13" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="S42" s="1">
         <v>33</v>
@@ -5312,12 +5313,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C43" s="11">
         <v>51207319</v>
@@ -5341,7 +5342,7 @@
       <c r="P43" s="12"/>
       <c r="Q43" s="13"/>
       <c r="R43" s="13" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="S43" s="1">
         <v>33</v>
@@ -5354,12 +5355,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C44" s="11">
         <v>1746016</v>
@@ -5383,7 +5384,7 @@
       <c r="P44" s="12"/>
       <c r="Q44" s="13"/>
       <c r="R44" s="13" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="S44" s="1">
         <v>33</v>
@@ -5396,12 +5397,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C45" s="11"/>
       <c r="D45" s="12">
@@ -5420,13 +5421,13 @@
       <c r="O45" s="12"/>
       <c r="P45" s="12"/>
       <c r="Q45" s="13" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="R45" s="13" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
         <v>49</v>
       </c>
@@ -5460,7 +5461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
         <v>50</v>
       </c>
@@ -5494,7 +5495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
         <v>54</v>
       </c>
@@ -5528,7 +5529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
         <v>58</v>
       </c>
@@ -5571,14 +5572,14 @@
       <c r="P49" s="12"/>
       <c r="Q49" s="13"/>
       <c r="R49" s="13" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="U49" s="1">
         <f t="shared" si="2"/>
         <v>7.1000000000000005E-5</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
         <v>51</v>
       </c>
@@ -5612,7 +5613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
         <v>53</v>
       </c>
@@ -5646,7 +5647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
         <v>55</v>
       </c>
@@ -5680,7 +5681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
         <v>57</v>
       </c>
@@ -5714,7 +5715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="66" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
         <v>59</v>
       </c>
@@ -5756,25 +5757,25 @@
       <c r="O54" s="12"/>
       <c r="P54" s="12"/>
       <c r="Q54" s="13" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="R54" s="13" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="U54" s="1">
         <f t="shared" si="2"/>
         <v>7.1000000000000005E-5</v>
       </c>
     </row>
-    <row r="55" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B55" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="C55" s="11" t="s">
         <v>588</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>590</v>
       </c>
       <c r="D55" s="12">
         <v>2.0799999999999998E-3</v>
@@ -5795,22 +5796,22 @@
         <v>94</v>
       </c>
       <c r="R55" s="13" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="U55" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
+        <v>620</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="C56" s="11" t="s">
         <v>622</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>623</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>624</v>
       </c>
       <c r="D56" s="15">
         <v>1.504E-5</v>
@@ -5831,19 +5832,19 @@
         <v>94</v>
       </c>
       <c r="R56" s="13" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="U56" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A57" s="25" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C57" s="37">
         <v>112072</v>
@@ -5867,14 +5868,14 @@
         <v>48</v>
       </c>
       <c r="R57" s="13" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="U57" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
         <v>60</v>
       </c>
@@ -5906,12 +5907,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C59" s="11">
         <v>91576</v>
@@ -5935,22 +5936,22 @@
       <c r="P59" s="12"/>
       <c r="Q59" s="13"/>
       <c r="R59" s="13" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="U59" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A60" s="25" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C60" s="26" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D60" s="12">
         <v>4.8000000000000001E-5</v>
@@ -5971,19 +5972,19 @@
         <v>94</v>
       </c>
       <c r="R60" s="13" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="U60" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C61" s="11">
         <v>607578</v>
@@ -6007,14 +6008,14 @@
       <c r="P61" s="12"/>
       <c r="Q61" s="13"/>
       <c r="R61" s="13" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="U61" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
         <v>61</v>
       </c>
@@ -6048,12 +6049,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A63" s="25" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C63" s="37">
         <v>20706256</v>
@@ -6072,13 +6073,13 @@
       <c r="O63" s="12"/>
       <c r="P63" s="12"/>
       <c r="Q63" s="14" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="R63" s="13" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
         <v>62</v>
       </c>
@@ -6112,7 +6113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:21" s="19" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" s="19" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
         <v>63</v>
       </c>
@@ -6148,7 +6149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
         <v>64</v>
       </c>
@@ -6182,12 +6183,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:21" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C67" s="11">
         <v>1589497</v>
@@ -6209,19 +6210,19 @@
         <v>91</v>
       </c>
       <c r="R67" s="13" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="U67" s="1">
         <f>MIN(F67:P67)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C68" s="11">
         <v>56495</v>
@@ -6245,19 +6246,19 @@
       <c r="P68" s="12"/>
       <c r="Q68" s="13"/>
       <c r="R68" s="13" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="U68" s="1">
         <f>MIN(F68:P68)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C69" s="11"/>
       <c r="D69" s="12">
@@ -6276,13 +6277,13 @@
       <c r="O69" s="12"/>
       <c r="P69" s="12"/>
       <c r="Q69" s="13" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="R69" s="13" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
         <v>65</v>
       </c>
@@ -6316,7 +6317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
         <v>66</v>
       </c>
@@ -6350,7 +6351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
         <v>70</v>
       </c>
@@ -6384,7 +6385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A73" s="25" t="s">
         <v>72</v>
       </c>
@@ -6416,7 +6417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A74" s="25" t="s">
         <v>73</v>
       </c>
@@ -6448,7 +6449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
         <v>74</v>
       </c>
@@ -6482,12 +6483,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C76" s="11">
         <v>57835924</v>
@@ -6511,19 +6512,19 @@
       <c r="P76" s="12"/>
       <c r="Q76" s="13"/>
       <c r="R76" s="13" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="U76" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C77" s="11">
         <v>3697243</v>
@@ -6547,19 +6548,19 @@
       <c r="P77" s="12"/>
       <c r="Q77" s="13"/>
       <c r="R77" s="13" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="U77" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C78" s="11">
         <v>602879</v>
@@ -6583,19 +6584,19 @@
       <c r="P78" s="12"/>
       <c r="Q78" s="13"/>
       <c r="R78" s="13" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="U78" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C79" s="11">
         <v>7496028</v>
@@ -6619,19 +6620,19 @@
       <c r="P79" s="12"/>
       <c r="Q79" s="13"/>
       <c r="R79" s="13" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="U79" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C80" s="11">
         <v>57976</v>
@@ -6654,22 +6655,22 @@
       <c r="O80" s="12"/>
       <c r="P80" s="12"/>
       <c r="Q80" s="13" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="R80" s="13" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="U80" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C81" s="11">
         <v>194592</v>
@@ -6693,19 +6694,19 @@
       <c r="P81" s="12"/>
       <c r="Q81" s="13"/>
       <c r="R81" s="13" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="U81" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C82" s="21">
         <v>75</v>
@@ -6729,22 +6730,22 @@
         <v>48</v>
       </c>
       <c r="R82" s="13" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="U82" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="D83" s="12">
         <v>4.8000000000000001E-5</v>
@@ -6762,18 +6763,18 @@
       <c r="O83" s="12"/>
       <c r="P83" s="12"/>
       <c r="Q83" s="13" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="R83" s="13" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="84" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C84" s="11">
         <v>83329</v>
@@ -6797,19 +6798,19 @@
       <c r="P84" s="12"/>
       <c r="Q84" s="13"/>
       <c r="R84" s="13" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="U84" s="1">
         <f t="shared" ref="U84:U122" si="4">MIN(F84:P84)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C85" s="11">
         <v>208968</v>
@@ -6833,14 +6834,14 @@
       <c r="P85" s="12"/>
       <c r="Q85" s="13"/>
       <c r="R85" s="13" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="U85" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
         <v>75</v>
       </c>
@@ -6882,7 +6883,7 @@
       <c r="O86" s="12"/>
       <c r="P86" s="12"/>
       <c r="Q86" s="13" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="R86" s="13" t="s">
         <v>22</v>
@@ -6892,7 +6893,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
         <v>76</v>
       </c>
@@ -6926,7 +6927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
         <v>235</v>
       </c>
@@ -6962,7 +6963,7 @@
       <c r="O88" s="12"/>
       <c r="P88" s="12"/>
       <c r="Q88" s="13" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="R88" s="13"/>
       <c r="U88" s="1">
@@ -6970,7 +6971,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
         <v>77</v>
       </c>
@@ -7004,17 +7005,17 @@
       <c r="O89" s="12"/>
       <c r="P89" s="12"/>
       <c r="Q89" s="13" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="R89" s="13" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="U89" s="1">
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
         <v>78</v>
       </c>
@@ -7048,7 +7049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
         <v>79</v>
       </c>
@@ -7092,7 +7093,7 @@
       <c r="O91" s="12"/>
       <c r="P91" s="12"/>
       <c r="Q91" s="13" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="R91" s="13" t="s">
         <v>22</v>
@@ -7102,7 +7103,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
         <v>80</v>
       </c>
@@ -7138,7 +7139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
         <v>82</v>
       </c>
@@ -7180,7 +7181,7 @@
       <c r="O93" s="12"/>
       <c r="P93" s="12"/>
       <c r="Q93" s="13" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="R93" s="13" t="s">
         <v>22</v>
@@ -7190,7 +7191,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="94" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
         <v>83</v>
       </c>
@@ -7228,17 +7229,17 @@
       <c r="O94" s="12"/>
       <c r="P94" s="12"/>
       <c r="Q94" s="13" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="R94" s="13" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="U94" s="1">
         <f t="shared" si="4"/>
         <v>0.22</v>
       </c>
     </row>
-    <row r="95" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
         <v>84</v>
       </c>
@@ -7278,7 +7279,7 @@
       <c r="O95" s="12"/>
       <c r="P95" s="12"/>
       <c r="Q95" s="13" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="R95" s="13"/>
       <c r="U95" s="1">
@@ -7286,7 +7287,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
         <v>27</v>
       </c>
@@ -7320,7 +7321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A97" s="25" t="s">
         <v>168</v>
       </c>
@@ -7358,7 +7359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A98" s="25" t="s">
         <v>171</v>
       </c>
@@ -7396,7 +7397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
         <v>85</v>
       </c>
@@ -7432,7 +7433,7 @@
       <c r="O99" s="12"/>
       <c r="P99" s="12"/>
       <c r="Q99" s="13" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="R99" s="13"/>
       <c r="U99" s="1">
@@ -7440,7 +7441,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
         <v>86</v>
       </c>
@@ -7476,12 +7477,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C101" s="11">
         <v>120127</v>
@@ -7503,14 +7504,14 @@
       <c r="P101" s="12"/>
       <c r="Q101" s="13"/>
       <c r="R101" s="13" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="U101" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
         <v>88</v>
       </c>
@@ -7546,7 +7547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
         <v>90</v>
       </c>
@@ -7582,7 +7583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
         <v>92</v>
       </c>
@@ -7618,7 +7619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
         <v>95</v>
       </c>
@@ -7654,7 +7655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
         <v>96</v>
       </c>
@@ -7690,7 +7691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
         <v>97</v>
       </c>
@@ -7726,7 +7727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
         <v>98</v>
       </c>
@@ -7758,17 +7759,17 @@
       <c r="O108" s="12"/>
       <c r="P108" s="12"/>
       <c r="Q108" s="13" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="R108" s="13" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="U108" s="1">
         <f t="shared" si="4"/>
         <v>0.92</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
         <v>100</v>
       </c>
@@ -7802,12 +7803,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C110" s="11">
         <v>12674112</v>
@@ -7831,22 +7832,22 @@
       <c r="P110" s="12"/>
       <c r="Q110" s="13"/>
       <c r="R110" s="13" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="U110" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B111" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="C111" s="11" t="s">
         <v>506</v>
-      </c>
-      <c r="C111" s="11" t="s">
-        <v>508</v>
       </c>
       <c r="D111" s="12">
         <v>1E-4</v>
@@ -7867,22 +7868,22 @@
         <v>94</v>
       </c>
       <c r="R111" s="13" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="U111" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D112" s="12">
         <v>1E-4</v>
@@ -7903,22 +7904,22 @@
         <v>94</v>
       </c>
       <c r="R112" s="13" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="U112" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D113" s="12">
         <v>1E-4</v>
@@ -7939,19 +7940,19 @@
         <v>94</v>
       </c>
       <c r="R113" s="13" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="U113" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C114" s="11">
         <v>11097691</v>
@@ -7975,22 +7976,22 @@
       <c r="P114" s="12"/>
       <c r="Q114" s="13"/>
       <c r="R114" s="13" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="U114" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D115" s="12">
         <v>1E-4</v>
@@ -8011,14 +8012,14 @@
         <v>94</v>
       </c>
       <c r="R115" s="13" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="U115" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
         <v>101</v>
       </c>
@@ -8058,7 +8059,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="117" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A117" s="25" t="s">
         <v>104</v>
       </c>
@@ -8098,7 +8099,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="118" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A118" s="25" t="s">
         <v>106</v>
       </c>
@@ -8138,7 +8139,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A119" s="35" t="s">
         <v>108</v>
       </c>
@@ -8178,7 +8179,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="120" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
         <v>111</v>
       </c>
@@ -8218,7 +8219,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="121" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
         <v>114</v>
       </c>
@@ -8252,17 +8253,17 @@
       <c r="O121" s="12"/>
       <c r="P121" s="12"/>
       <c r="Q121" s="13" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="R121" s="13" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="U121" s="1">
         <f t="shared" si="4"/>
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="122" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
         <v>115</v>
       </c>
@@ -8296,7 +8297,7 @@
       <c r="O122" s="12"/>
       <c r="P122" s="12"/>
       <c r="Q122" s="13" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="R122" s="13" t="s">
         <v>116</v>
@@ -8306,9 +8307,9 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B123" s="10"/>
       <c r="C123" s="11"/>
@@ -8326,11 +8327,11 @@
       <c r="O123" s="33"/>
       <c r="P123" s="33"/>
       <c r="Q123" s="13" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="R123" s="13"/>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A124" s="25" t="s">
         <v>172</v>
       </c>
@@ -8368,7 +8369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A125" s="25" t="s">
         <v>237</v>
       </c>
@@ -8404,12 +8405,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C126" s="11">
         <v>56553</v>
@@ -8432,17 +8433,17 @@
       <c r="O126" s="12"/>
       <c r="P126" s="12"/>
       <c r="Q126" s="13" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="R126" s="13" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="U126" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
         <v>117</v>
       </c>
@@ -8486,7 +8487,7 @@
       <c r="O127" s="12"/>
       <c r="P127" s="12"/>
       <c r="Q127" s="13" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="R127" s="13" t="s">
         <v>22</v>
@@ -8496,7 +8497,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
         <v>222</v>
       </c>
@@ -8532,7 +8533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
         <v>118</v>
       </c>
@@ -8568,12 +8569,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C130" s="11">
         <v>203338</v>
@@ -8594,22 +8595,22 @@
       <c r="O130" s="12"/>
       <c r="P130" s="12"/>
       <c r="Q130" s="13" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="R130" s="13" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="U130" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A131" s="25" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C131" s="37">
         <v>195197</v>
@@ -8633,19 +8634,19 @@
         <v>48</v>
       </c>
       <c r="R131" s="13" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="U131" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C132" s="11">
         <v>192972</v>
@@ -8669,22 +8670,22 @@
       <c r="P132" s="12"/>
       <c r="Q132" s="13"/>
       <c r="R132" s="13" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="U132" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C133" s="24" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D133" s="12">
         <v>4.8000000000000001E-5</v>
@@ -8702,18 +8703,18 @@
       <c r="O133" s="12"/>
       <c r="P133" s="12"/>
       <c r="Q133" s="14" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="R133" s="13" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="134" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="134" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C134" s="11">
         <v>191242</v>
@@ -8737,19 +8738,19 @@
       <c r="P134" s="12"/>
       <c r="Q134" s="13"/>
       <c r="R134" s="13" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="U134" s="1">
         <f t="shared" ref="U134:U156" si="6">MIN(F134:P134)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C135" s="11">
         <v>50328</v>
@@ -8772,22 +8773,22 @@
       <c r="O135" s="12"/>
       <c r="P135" s="12"/>
       <c r="Q135" s="13" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="R135" s="13" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="U135" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C136" s="11">
         <v>205992</v>
@@ -8810,22 +8811,22 @@
       <c r="O136" s="12"/>
       <c r="P136" s="12"/>
       <c r="Q136" s="13" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="R136" s="13" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="U136" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C137" s="24">
         <v>102</v>
@@ -8849,19 +8850,19 @@
         <v>48</v>
       </c>
       <c r="R137" s="13" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="U137" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A138" s="10" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C138" s="11">
         <v>205823</v>
@@ -8885,19 +8886,19 @@
       <c r="P138" s="12"/>
       <c r="Q138" s="13"/>
       <c r="R138" s="13" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="U138" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:21" ht="66" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:21" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A139" s="10" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C139" s="11">
         <v>207089</v>
@@ -8920,22 +8921,22 @@
       <c r="O139" s="12"/>
       <c r="P139" s="12"/>
       <c r="Q139" s="13" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="R139" s="13" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="U139" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="10" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C140" s="11">
         <v>56832736</v>
@@ -8947,7 +8948,7 @@
       <c r="F140" s="12"/>
       <c r="G140" s="12"/>
       <c r="H140" s="12" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="I140" s="12"/>
       <c r="J140" s="12"/>
@@ -8958,17 +8959,17 @@
       <c r="O140" s="12"/>
       <c r="P140" s="12"/>
       <c r="Q140" s="14" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="R140" s="13" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="U140" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A141" s="10" t="s">
         <v>120</v>
       </c>
@@ -9002,7 +9003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A142" s="10" t="s">
         <v>121</v>
       </c>
@@ -9042,7 +9043,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="143" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A143" s="10" t="s">
         <v>122</v>
       </c>
@@ -9080,7 +9081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A144" s="10" t="s">
         <v>123</v>
       </c>
@@ -9116,7 +9117,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A145" s="10" t="s">
         <v>126</v>
       </c>
@@ -9154,7 +9155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A146" s="10" t="s">
         <v>128</v>
       </c>
@@ -9192,7 +9193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A147" s="10" t="s">
         <v>130</v>
       </c>
@@ -9230,12 +9231,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A148" s="10" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C148" s="11">
         <v>91587</v>
@@ -9259,14 +9260,14 @@
       <c r="P148" s="12"/>
       <c r="Q148" s="13"/>
       <c r="R148" s="13" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="U148" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A149" s="10" t="s">
         <v>29</v>
       </c>
@@ -9300,7 +9301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A150" s="10" t="s">
         <v>134</v>
       </c>
@@ -9332,7 +9333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A151" s="10" t="s">
         <v>135</v>
       </c>
@@ -9364,7 +9365,7 @@
       <c r="O151" s="12"/>
       <c r="P151" s="12"/>
       <c r="Q151" s="13" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="R151" s="13"/>
       <c r="U151" s="1">
@@ -9372,7 +9373,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A152" s="10" t="s">
         <v>136</v>
       </c>
@@ -9406,7 +9407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A153" s="10" t="s">
         <v>137</v>
       </c>
@@ -9440,7 +9441,7 @@
       <c r="O153" s="12"/>
       <c r="P153" s="12"/>
       <c r="Q153" s="13" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="R153" s="13"/>
       <c r="U153" s="1">
@@ -9448,7 +9449,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A154" s="10" t="s">
         <v>138</v>
       </c>
@@ -9482,12 +9483,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A155" s="25" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C155" s="37">
         <v>124174</v>
@@ -9515,14 +9516,14 @@
         <v>48</v>
       </c>
       <c r="R155" s="13" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="U155" s="1">
         <f t="shared" si="6"/>
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A156" s="25" t="s">
         <v>139</v>
       </c>
@@ -9560,7 +9561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A157" s="10" t="s">
         <v>142</v>
       </c>
@@ -9592,7 +9593,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="158" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A158" s="10" t="s">
         <v>140</v>
       </c>
@@ -9630,17 +9631,17 @@
       <c r="O158" s="12"/>
       <c r="P158" s="12"/>
       <c r="Q158" s="13" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="R158" s="13" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="U158" s="1">
         <f t="shared" ref="U158:U189" si="7">MIN(F158:P158)</f>
         <v>3.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A159" s="10" t="s">
         <v>144</v>
       </c>
@@ -9678,7 +9679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A160" s="25" t="s">
         <v>145</v>
       </c>
@@ -9716,7 +9717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A161" s="25" t="s">
         <v>146</v>
       </c>
@@ -9754,7 +9755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A162" s="38" t="s">
         <v>174</v>
       </c>
@@ -9792,7 +9793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A163" s="10" t="s">
         <v>241</v>
       </c>
@@ -9828,7 +9829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A164" s="10" t="s">
         <v>244</v>
       </c>
@@ -9864,7 +9865,7 @@
       <c r="O164" s="12"/>
       <c r="P164" s="12"/>
       <c r="Q164" s="13" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="R164" s="13" t="s">
         <v>240</v>
@@ -9874,7 +9875,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="165" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A165" s="10" t="s">
         <v>148</v>
       </c>
@@ -9908,7 +9909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A166" s="10" t="s">
         <v>149</v>
       </c>
@@ -9942,12 +9943,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A167" s="10" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B167" s="10" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C167" s="11">
         <v>86748</v>
@@ -9971,19 +9972,19 @@
       <c r="P167" s="12"/>
       <c r="Q167" s="13"/>
       <c r="R167" s="13" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="U167" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A168" s="10" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C168" s="11">
         <v>112152</v>
@@ -10007,14 +10008,14 @@
       <c r="P168" s="12"/>
       <c r="Q168" s="13"/>
       <c r="R168" s="13" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="U168" s="1">
         <f t="shared" si="7"/>
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A169" s="10" t="s">
         <v>150</v>
       </c>
@@ -10056,7 +10057,7 @@
       <c r="O169" s="12"/>
       <c r="P169" s="12"/>
       <c r="Q169" s="13" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="R169" s="13" t="s">
         <v>22</v>
@@ -10066,7 +10067,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="170" spans="1:21" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:21" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="10" t="s">
         <v>151</v>
       </c>
@@ -10104,17 +10105,17 @@
       <c r="O170" s="12"/>
       <c r="P170" s="12"/>
       <c r="Q170" s="13" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="R170" s="13" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="U170" s="1">
         <f t="shared" si="7"/>
         <v>1.9</v>
       </c>
     </row>
-    <row r="171" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A171" s="25" t="s">
         <v>152</v>
       </c>
@@ -10144,7 +10145,7 @@
       <c r="O171" s="12"/>
       <c r="P171" s="12"/>
       <c r="Q171" s="14" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="R171" s="13" t="s">
         <v>154</v>
@@ -10154,7 +10155,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A172" s="25" t="s">
         <v>155</v>
       </c>
@@ -10186,7 +10187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A173" s="10" t="s">
         <v>156</v>
       </c>
@@ -10220,7 +10221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A174" s="10" t="s">
         <v>157</v>
       </c>
@@ -10254,7 +10255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A175" s="10" t="s">
         <v>158</v>
       </c>
@@ -10298,17 +10299,17 @@
       <c r="O175" s="12"/>
       <c r="P175" s="12"/>
       <c r="Q175" s="13" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="R175" s="13" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="U175" s="1">
         <f t="shared" si="7"/>
         <v>0.17</v>
       </c>
     </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A176" s="10" t="s">
         <v>159</v>
       </c>
@@ -10340,7 +10341,7 @@
       <c r="O176" s="12"/>
       <c r="P176" s="12"/>
       <c r="Q176" s="13" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="R176" s="13"/>
       <c r="U176" s="1">
@@ -10348,7 +10349,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A177" s="10" t="s">
         <v>160</v>
       </c>
@@ -10384,7 +10385,7 @@
       <c r="O177" s="12"/>
       <c r="P177" s="12"/>
       <c r="Q177" s="13" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="R177" s="13"/>
       <c r="U177" s="1">
@@ -10392,7 +10393,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A178" s="10" t="s">
         <v>161</v>
       </c>
@@ -10426,7 +10427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A179" s="10" t="s">
         <v>162</v>
       </c>
@@ -10464,7 +10465,7 @@
       <c r="O179" s="12"/>
       <c r="P179" s="12"/>
       <c r="Q179" s="13" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="R179" s="13" t="s">
         <v>163</v>
@@ -10474,7 +10475,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="180" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A180" s="10" t="s">
         <v>164</v>
       </c>
@@ -10508,17 +10509,17 @@
       <c r="O180" s="12"/>
       <c r="P180" s="12"/>
       <c r="Q180" s="13" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="R180" s="13" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="U180" s="1">
         <f t="shared" si="7"/>
         <v>0.72</v>
       </c>
     </row>
-    <row r="181" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A181" s="10" t="s">
         <v>165</v>
       </c>
@@ -10556,7 +10557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A182" s="38" t="s">
         <v>175</v>
       </c>
@@ -10594,7 +10595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A183" s="10" t="s">
         <v>178</v>
       </c>
@@ -10628,7 +10629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A184" s="10" t="s">
         <v>180</v>
       </c>
@@ -10662,7 +10663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A185" s="10" t="s">
         <v>181</v>
       </c>
@@ -10700,7 +10701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A186" s="10" t="s">
         <v>182</v>
       </c>
@@ -10734,7 +10735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A187" s="25" t="s">
         <v>183</v>
       </c>
@@ -10772,7 +10773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A188" s="38" t="s">
         <v>185</v>
       </c>
@@ -10810,7 +10811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A189" s="10" t="s">
         <v>186</v>
       </c>
@@ -10844,7 +10845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A190" s="10" t="s">
         <v>187</v>
       </c>
@@ -10880,7 +10881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A191" s="10" t="s">
         <v>189</v>
       </c>
@@ -10914,7 +10915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A192" s="10" t="s">
         <v>169</v>
       </c>
@@ -10950,7 +10951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A193" s="10" t="s">
         <v>191</v>
       </c>
@@ -10988,7 +10989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A194" s="10" t="s">
         <v>192</v>
       </c>
@@ -11020,12 +11021,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A195" s="10" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B195" s="10" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C195" s="11">
         <v>218019</v>
@@ -11049,19 +11050,19 @@
       <c r="P195" s="12"/>
       <c r="Q195" s="13"/>
       <c r="R195" s="13" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="U195" s="1">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:21" ht="66" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A196" s="10" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B196" s="10" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C196" s="11">
         <v>8007452</v>
@@ -11083,14 +11084,14 @@
       <c r="P196" s="12"/>
       <c r="Q196" s="13"/>
       <c r="R196" s="13" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="U196" s="1">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A197" s="10" t="s">
         <v>201</v>
       </c>
@@ -11126,7 +11127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A198" s="10" t="s">
         <v>204</v>
       </c>
@@ -11162,7 +11163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A199" s="10" t="s">
         <v>206</v>
       </c>
@@ -11198,7 +11199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A200" s="10" t="s">
         <v>208</v>
       </c>
@@ -11234,7 +11235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A201" s="10" t="s">
         <v>210</v>
       </c>
@@ -11270,7 +11271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A202" s="10" t="s">
         <v>202</v>
       </c>
@@ -11304,7 +11305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A203" s="10" t="s">
         <v>212</v>
       </c>
@@ -11342,7 +11343,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="204" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A204" s="10" t="s">
         <v>215</v>
       </c>
@@ -11378,7 +11379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A205" s="10" t="s">
         <v>216</v>
       </c>
@@ -11414,7 +11415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A206" s="10" t="s">
         <v>218</v>
       </c>
@@ -11450,7 +11451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A207" s="10" t="s">
         <v>219</v>
       </c>
@@ -11486,7 +11487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A208" s="10" t="s">
         <v>225</v>
       </c>
@@ -11522,7 +11523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A209" s="10" t="s">
         <v>246</v>
       </c>
@@ -11560,15 +11561,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A210" s="10" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B210" s="10" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C210" s="11" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D210" s="12">
         <v>4.8000000000000001E-5</v>
@@ -11587,10 +11588,10 @@
       <c r="P210" s="12"/>
       <c r="Q210" s="13"/>
       <c r="R210" s="13" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.25">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="211" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A211" s="10" t="s">
         <v>228</v>
       </c>
@@ -11624,7 +11625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A212" s="10" t="s">
         <v>234</v>
       </c>
@@ -11660,7 +11661,7 @@
       <c r="O212" s="12"/>
       <c r="P212" s="12"/>
       <c r="Q212" s="13" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="R212" s="13"/>
       <c r="U212" s="1">
@@ -11668,7 +11669,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="213" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A213" s="10" t="s">
         <v>247</v>
       </c>
@@ -11704,7 +11705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A214" s="10" t="s">
         <v>250</v>
       </c>
@@ -11734,7 +11735,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="215" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A215" s="10" t="s">
         <v>236</v>
       </c>
@@ -11772,7 +11773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A216" s="10" t="s">
         <v>252</v>
       </c>
@@ -11808,7 +11809,7 @@
       <c r="O216" s="12"/>
       <c r="P216" s="12"/>
       <c r="Q216" s="13" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="R216" s="13"/>
       <c r="U216" s="1">
@@ -11816,7 +11817,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="217" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A217" s="10" t="s">
         <v>253</v>
       </c>
@@ -11854,7 +11855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A218" s="10" t="s">
         <v>254</v>
       </c>
@@ -11887,14 +11888,14 @@
         <v>245</v>
       </c>
       <c r="R218" s="13" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="U218" s="1">
         <f t="shared" si="9"/>
         <v>0.13</v>
       </c>
     </row>
-    <row r="219" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A219" s="10" t="s">
         <v>255</v>
       </c>
@@ -11930,7 +11931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A220" s="10" t="s">
         <v>257</v>
       </c>
@@ -11966,7 +11967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A221" s="10" t="s">
         <v>259</v>
       </c>
@@ -12002,7 +12003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A222" s="10" t="s">
         <v>274</v>
       </c>
@@ -12038,12 +12039,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A223" s="10" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B223" s="10" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C223" s="11"/>
       <c r="D223" s="12">
@@ -12062,18 +12063,18 @@
       <c r="O223" s="12"/>
       <c r="P223" s="12"/>
       <c r="Q223" s="13" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="R223" s="13" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="224" spans="1:21" x14ac:dyDescent="0.25">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="224" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A224" s="10" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B224" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C224" s="11">
         <v>16672392</v>
@@ -12095,14 +12096,14 @@
         <v>91</v>
       </c>
       <c r="R224" s="13" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="U224" s="1">
         <f t="shared" ref="U224:U238" si="10">MIN(F224:P224)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A225" s="10" t="s">
         <v>276</v>
       </c>
@@ -12134,12 +12135,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A226" s="10" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B226" s="10" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C226" s="11">
         <v>226368</v>
@@ -12163,19 +12164,19 @@
       <c r="P226" s="12"/>
       <c r="Q226" s="13"/>
       <c r="R226" s="13" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="U226" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A227" s="10" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B227" s="10" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C227" s="11">
         <v>224420</v>
@@ -12199,19 +12200,19 @@
       <c r="P227" s="12"/>
       <c r="Q227" s="13"/>
       <c r="R227" s="13" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="U227" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A228" s="10" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B228" s="10" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C228" s="11">
         <v>192654</v>
@@ -12235,19 +12236,19 @@
       <c r="P228" s="12"/>
       <c r="Q228" s="13"/>
       <c r="R228" s="13" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="U228" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A229" s="10" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B229" s="10" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C229" s="11">
         <v>53703</v>
@@ -12270,22 +12271,22 @@
       <c r="O229" s="12"/>
       <c r="P229" s="12"/>
       <c r="Q229" s="13" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="R229" s="13" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="U229" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A230" s="10" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B230" s="10" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C230" s="11">
         <v>189640</v>
@@ -12309,19 +12310,19 @@
       <c r="P230" s="12"/>
       <c r="Q230" s="13"/>
       <c r="R230" s="13" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="U230" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A231" s="10" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B231" s="10" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C231" s="11">
         <v>189559</v>
@@ -12345,19 +12346,19 @@
       <c r="P231" s="12"/>
       <c r="Q231" s="13"/>
       <c r="R231" s="13" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="U231" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A232" s="10" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B232" s="10" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C232" s="11">
         <v>191300</v>
@@ -12381,14 +12382,14 @@
       <c r="P232" s="12"/>
       <c r="Q232" s="13"/>
       <c r="R232" s="13" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="U232" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A233" s="10" t="s">
         <v>278</v>
       </c>
@@ -12422,7 +12423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A234" s="10" t="s">
         <v>279</v>
       </c>
@@ -12456,7 +12457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A235" s="10" t="s">
         <v>280</v>
       </c>
@@ -12490,7 +12491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A236" s="10" t="s">
         <v>281</v>
       </c>
@@ -12526,7 +12527,7 @@
       <c r="O236" s="12"/>
       <c r="P236" s="12"/>
       <c r="Q236" s="13" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="R236" s="13" t="s">
         <v>56</v>
@@ -12536,7 +12537,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="237" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A237" s="10" t="s">
         <v>282</v>
       </c>
@@ -12570,7 +12571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A238" s="10" t="s">
         <v>284</v>
       </c>
@@ -12604,9 +12605,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A239" s="10" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B239" s="10"/>
       <c r="C239" s="11"/>
@@ -12624,11 +12625,11 @@
       <c r="O239" s="33"/>
       <c r="P239" s="33"/>
       <c r="Q239" s="13" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="R239" s="13"/>
     </row>
-    <row r="240" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A240" s="25" t="s">
         <v>285</v>
       </c>
@@ -12660,9 +12661,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A241" s="10" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B241" s="10"/>
       <c r="C241" s="11"/>
@@ -12680,16 +12681,16 @@
       <c r="O241" s="33"/>
       <c r="P241" s="33"/>
       <c r="Q241" s="13" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="R241" s="13"/>
     </row>
-    <row r="242" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A242" s="25" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B242" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C242" s="37">
         <v>120558</v>
@@ -12711,19 +12712,19 @@
         <v>91</v>
       </c>
       <c r="R242" s="13" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="U242" s="1">
         <f t="shared" ref="U242:U248" si="11">MIN(F242:P242)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="25" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B243" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C243" s="37">
         <v>112367</v>
@@ -12749,19 +12750,19 @@
         <v>220</v>
       </c>
       <c r="R243" s="13" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="U243" s="1">
         <f t="shared" si="11"/>
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="244" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A244" s="25" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B244" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C244" s="37">
         <v>111966</v>
@@ -12789,19 +12790,19 @@
         <v>48</v>
       </c>
       <c r="R244" s="13" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="U244" s="1">
         <f t="shared" si="11"/>
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="245" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A245" s="25" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B245" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C245" s="37">
         <v>1002671</v>
@@ -12827,19 +12828,19 @@
         <v>91</v>
       </c>
       <c r="R245" s="13" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="U245" s="1">
         <f t="shared" si="11"/>
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="246" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A246" s="10" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B246" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C246" s="11">
         <v>112345</v>
@@ -12865,19 +12866,19 @@
       <c r="P246" s="12"/>
       <c r="Q246" s="13"/>
       <c r="R246" s="13" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="U246" s="1">
         <f t="shared" si="11"/>
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="247" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A247" s="10" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B247" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C247" s="11">
         <v>111900</v>
@@ -12905,19 +12906,19 @@
         <v>48</v>
       </c>
       <c r="R247" s="13" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="U247" s="1">
         <f t="shared" si="11"/>
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="248" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A248" s="25" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B248" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C248" s="37">
         <v>111773</v>
@@ -12945,16 +12946,16 @@
         <v>48</v>
       </c>
       <c r="R248" s="13" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="U248" s="1">
         <f t="shared" si="11"/>
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="249" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A249" s="10" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B249" s="10"/>
       <c r="C249" s="11"/>
@@ -12972,11 +12973,11 @@
       <c r="O249" s="33"/>
       <c r="P249" s="33"/>
       <c r="Q249" s="13" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="R249" s="13"/>
     </row>
-    <row r="250" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A250" s="10" t="s">
         <v>287</v>
       </c>
@@ -13012,7 +13013,7 @@
       <c r="O250" s="12"/>
       <c r="P250" s="12"/>
       <c r="Q250" s="13" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="R250" s="13" t="s">
         <v>163</v>
@@ -13022,7 +13023,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="251" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A251" s="10" t="s">
         <v>288</v>
       </c>
@@ -13056,7 +13057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A252" s="10" t="s">
         <v>289</v>
       </c>
@@ -13092,7 +13093,7 @@
       <c r="O252" s="12"/>
       <c r="P252" s="12"/>
       <c r="Q252" s="13" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="R252" s="13"/>
       <c r="U252" s="1">
@@ -13100,9 +13101,9 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="253" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A253" s="10" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B253" s="10"/>
       <c r="C253" s="11"/>
@@ -13120,11 +13121,11 @@
       <c r="O253" s="33"/>
       <c r="P253" s="33"/>
       <c r="Q253" s="13" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="R253" s="13"/>
     </row>
-    <row r="254" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A254" s="25" t="s">
         <v>290</v>
       </c>
@@ -13156,12 +13157,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A255" s="10" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B255" s="10" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C255" s="11">
         <v>106898</v>
@@ -13198,25 +13199,25 @@
       <c r="O255" s="12"/>
       <c r="P255" s="12"/>
       <c r="Q255" s="13" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="R255" s="13" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="U255" s="1">
         <f>MIN(F255:P255)</f>
         <v>1.3</v>
       </c>
     </row>
-    <row r="256" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A256" s="38" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B256" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C256" s="42" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D256" s="12"/>
       <c r="E256" s="12">
@@ -13236,22 +13237,22 @@
       <c r="O256" s="12"/>
       <c r="P256" s="12"/>
       <c r="Q256" s="14" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="R256" s="13" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="U256" s="1">
         <f>MIN(F256:P256)</f>
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A257" s="10" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B257" s="10" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C257" s="11">
         <v>140885</v>
@@ -13284,7 +13285,7 @@
       <c r="O257" s="12"/>
       <c r="P257" s="12"/>
       <c r="Q257" s="13" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="R257" s="13" t="s">
         <v>22</v>
@@ -13294,12 +13295,12 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="258" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A258" s="10" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B258" s="10" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C258" s="11">
         <v>100414</v>
@@ -13332,19 +13333,19 @@
       <c r="O258" s="12"/>
       <c r="P258" s="12"/>
       <c r="Q258" s="13" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="R258" s="13"/>
       <c r="U258" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="259" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A259" s="10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B259" s="10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C259" s="11">
         <v>51796</v>
@@ -13368,19 +13369,19 @@
       <c r="P259" s="12"/>
       <c r="Q259" s="13"/>
       <c r="R259" s="13" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="U259" s="1">
         <f>MIN(F259:P259)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A260" s="10" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B260" s="10" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C260" s="11">
         <v>75003</v>
@@ -13411,9 +13412,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="261" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A261" s="10" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B261" s="10"/>
       <c r="C261" s="11"/>
@@ -13431,13 +13432,13 @@
       <c r="O261" s="33"/>
       <c r="P261" s="33"/>
       <c r="Q261" s="13" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="R261" s="13"/>
     </row>
-    <row r="262" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A262" s="10" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B262" s="10"/>
       <c r="C262" s="11"/>
@@ -13455,11 +13456,11 @@
       <c r="O262" s="33"/>
       <c r="P262" s="33"/>
       <c r="Q262" s="13" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="R262" s="13"/>
     </row>
-    <row r="263" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A263" s="10" t="s">
         <v>261</v>
       </c>
@@ -13497,12 +13498,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A264" s="10" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B264" s="10" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C264" s="11">
         <v>106934</v>
@@ -13533,7 +13534,7 @@
       <c r="O264" s="12"/>
       <c r="P264" s="12"/>
       <c r="Q264" s="13" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="R264" s="13"/>
       <c r="U264" s="1">
@@ -13541,12 +13542,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="265" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A265" s="10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B265" s="10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C265" s="11">
         <v>107062</v>
@@ -13579,12 +13580,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="266" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A266" s="10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B266" s="10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C266" s="11">
         <v>107211</v>
@@ -13615,15 +13616,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="267" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A267" s="38" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B267" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C267" s="42" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="D267" s="12"/>
       <c r="E267" s="12"/>
@@ -13639,22 +13640,22 @@
       <c r="O267" s="12"/>
       <c r="P267" s="12"/>
       <c r="Q267" s="14" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="R267" s="13" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="U267" s="1">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A268" s="10" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B268" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C268" s="11">
         <v>629141</v>
@@ -13680,19 +13681,19 @@
         <v>91</v>
       </c>
       <c r="R268" s="13" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="U268" s="1">
         <f t="shared" si="12"/>
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="269" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A269" s="10" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B269" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C269" s="11">
         <v>110805</v>
@@ -13718,19 +13719,19 @@
       <c r="P269" s="12"/>
       <c r="Q269" s="13"/>
       <c r="R269" s="13" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="U269" s="1">
         <f t="shared" si="12"/>
         <v>0.37</v>
       </c>
     </row>
-    <row r="270" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A270" s="10" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B270" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C270" s="11">
         <v>111159</v>
@@ -13756,19 +13757,19 @@
       <c r="P270" s="12"/>
       <c r="Q270" s="13"/>
       <c r="R270" s="13" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="U270" s="1">
         <f t="shared" si="12"/>
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="271" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A271" s="10" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B271" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C271" s="11">
         <v>109864</v>
@@ -13799,12 +13800,12 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="272" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A272" s="10" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B272" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C272" s="11">
         <v>110496</v>
@@ -13830,19 +13831,19 @@
       <c r="P272" s="12"/>
       <c r="Q272" s="13"/>
       <c r="R272" s="13" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="U272" s="1">
         <f t="shared" si="12"/>
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="273" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A273" s="10" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B273" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C273" s="11">
         <v>7795917</v>
@@ -13870,22 +13871,22 @@
         <v>91</v>
       </c>
       <c r="R273" s="13" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="U273" s="1">
         <f t="shared" si="12"/>
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="274" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A274" s="10" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B274" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C274" s="11" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D274" s="12"/>
       <c r="E274" s="12"/>
@@ -13901,22 +13902,22 @@
       <c r="O274" s="12"/>
       <c r="P274" s="12"/>
       <c r="Q274" s="13" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="R274" s="13" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="U274" s="1">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A275" s="10" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B275" s="10" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C275" s="11">
         <v>151564</v>
@@ -13943,7 +13944,7 @@
       <c r="O275" s="12"/>
       <c r="P275" s="12"/>
       <c r="Q275" s="13" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="R275" s="13"/>
       <c r="U275" s="1">
@@ -13951,12 +13952,12 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="276" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A276" s="10" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B276" s="10" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C276" s="11">
         <v>75218</v>
@@ -13985,22 +13986,22 @@
       <c r="O276" s="12"/>
       <c r="P276" s="12"/>
       <c r="Q276" s="13" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="R276" s="13" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="U276" s="1">
         <f t="shared" si="12"/>
         <v>14</v>
       </c>
     </row>
-    <row r="277" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A277" s="10" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B277" s="10" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C277" s="11">
         <v>96457</v>
@@ -14029,12 +14030,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A278" s="10" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B278" s="10" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C278" s="11">
         <v>75343</v>
@@ -14057,7 +14058,7 @@
       <c r="O278" s="12"/>
       <c r="P278" s="12"/>
       <c r="Q278" s="13" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="R278" s="13"/>
       <c r="U278" s="1">
@@ -14065,12 +14066,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A279" s="10" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B279" s="10" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C279" s="24">
         <v>284</v>
@@ -14091,15 +14092,15 @@
       <c r="O279" s="12"/>
       <c r="P279" s="12"/>
       <c r="Q279" s="13" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="R279" s="13" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="280" spans="1:21" x14ac:dyDescent="0.25">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="280" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A280" s="10" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B280" s="10"/>
       <c r="C280" s="11"/>
@@ -14117,16 +14118,16 @@
       <c r="O280" s="33"/>
       <c r="P280" s="33"/>
       <c r="Q280" s="13" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="R280" s="13"/>
     </row>
-    <row r="281" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A281" s="10" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B281" s="10" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C281" s="11">
         <v>206440</v>
@@ -14150,19 +14151,19 @@
       <c r="P281" s="12"/>
       <c r="Q281" s="13"/>
       <c r="R281" s="13" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="U281" s="1">
         <f t="shared" ref="U281:U286" si="13">MIN(F281:P281)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A282" s="10" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B282" s="10" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C282" s="11">
         <v>86737</v>
@@ -14186,19 +14187,19 @@
       <c r="P282" s="12"/>
       <c r="Q282" s="13"/>
       <c r="R282" s="13" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="U282" s="1">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A283" s="10" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B283" s="10" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C283" s="11">
         <v>50000</v>
@@ -14237,22 +14238,22 @@
       <c r="O283" s="12"/>
       <c r="P283" s="12"/>
       <c r="Q283" s="13" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="R283" s="13" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="U283" s="1">
         <f t="shared" si="13"/>
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="284" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A284" s="10" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B284" s="10" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C284" s="21">
         <v>201</v>
@@ -14276,19 +14277,19 @@
         <v>132</v>
       </c>
       <c r="R284" s="13" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="U284" s="1">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A285" s="38" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B285" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C285" s="43">
         <v>171</v>
@@ -14316,19 +14317,19 @@
         <v>48</v>
       </c>
       <c r="R285" s="13" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="U285" s="1">
         <f t="shared" si="13"/>
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="286" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A286" s="10" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B286" s="10" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C286" s="11">
         <v>76448</v>
@@ -14357,12 +14358,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A287" s="10" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B287" s="10" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C287" s="11"/>
       <c r="D287" s="12">
@@ -14381,18 +14382,18 @@
       <c r="O287" s="12"/>
       <c r="P287" s="12"/>
       <c r="Q287" s="13" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="R287" s="13" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="288" spans="1:21" x14ac:dyDescent="0.25">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="288" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A288" s="10" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B288" s="10" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C288" s="11">
         <v>118741</v>
@@ -14421,12 +14422,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A289" s="10" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B289" s="10" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C289" s="11"/>
       <c r="D289" s="12">
@@ -14445,18 +14446,18 @@
       <c r="O289" s="12"/>
       <c r="P289" s="12"/>
       <c r="Q289" s="13" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="R289" s="13" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="290" spans="1:21" x14ac:dyDescent="0.25">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="290" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A290" s="10" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B290" s="10" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C290" s="11">
         <v>87683</v>
@@ -14489,12 +14490,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="291" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A291" s="10" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B291" s="10" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C291" s="11">
         <v>77474</v>
@@ -14523,12 +14524,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A292" s="10" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B292" s="41" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C292" s="11">
         <v>34465468</v>
@@ -14554,7 +14555,7 @@
         <v>48</v>
       </c>
       <c r="R292" s="22" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="S292" s="1">
         <v>33</v>
@@ -14567,12 +14568,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A293" s="10" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B293" s="10" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C293" s="11">
         <v>67721</v>
@@ -14596,19 +14597,19 @@
       <c r="P293" s="12"/>
       <c r="Q293" s="13"/>
       <c r="R293" s="13" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="U293" s="1">
         <f t="shared" si="14"/>
         <v>58</v>
       </c>
     </row>
-    <row r="294" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A294" s="10" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B294" s="10" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C294" s="11">
         <v>822060</v>
@@ -14637,12 +14638,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A295" s="10" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B295" s="10" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C295" s="11">
         <v>680319</v>
@@ -14669,7 +14670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A296" s="10" t="s">
         <v>221</v>
       </c>
@@ -14705,12 +14706,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A297" s="10" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B297" s="10" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C297" s="11">
         <v>302012</v>
@@ -14745,22 +14746,22 @@
       <c r="O297" s="12"/>
       <c r="P297" s="12"/>
       <c r="Q297" s="13" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="R297" s="13" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="U297" s="1">
         <f t="shared" si="14"/>
         <v>0.13</v>
       </c>
     </row>
-    <row r="298" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A298" s="10" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B298" s="10" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C298" s="11">
         <v>7647010</v>
@@ -14797,7 +14798,7 @@
       <c r="O298" s="12"/>
       <c r="P298" s="12"/>
       <c r="Q298" s="13" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="R298" s="9" t="s">
         <v>22</v>
@@ -14807,12 +14808,12 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="299" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A299" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B299" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C299" s="11">
         <v>7664393</v>
@@ -14851,7 +14852,7 @@
       <c r="O299" s="12"/>
       <c r="P299" s="12"/>
       <c r="Q299" s="13" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="R299" s="13" t="s">
         <v>22</v>
@@ -14861,7 +14862,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="300" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A300" s="10" t="s">
         <v>262</v>
       </c>
@@ -14901,7 +14902,7 @@
       <c r="O300" s="12"/>
       <c r="P300" s="12"/>
       <c r="Q300" s="13" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="R300" s="13" t="s">
         <v>163</v>
@@ -14911,12 +14912,12 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="301" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A301" s="10" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B301" s="10" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C301" s="11">
         <v>7783075</v>
@@ -14947,25 +14948,25 @@
       <c r="O301" s="12"/>
       <c r="P301" s="12"/>
       <c r="Q301" s="13" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="R301" s="13" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="U301" s="1">
         <f t="shared" si="14"/>
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="302" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A302" s="36" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B302" s="10" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C302" s="11" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D302" s="12"/>
       <c r="E302" s="12"/>
@@ -14981,7 +14982,7 @@
       <c r="O302" s="33"/>
       <c r="P302" s="33"/>
       <c r="Q302" s="13" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="R302" s="13" t="s">
         <v>22</v>
@@ -14991,12 +14992,12 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="303" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A303" s="10" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B303" s="10" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C303" s="11">
         <v>123319</v>
@@ -15025,15 +15026,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A304" s="10" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B304" s="10" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C304" s="11" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D304" s="12">
         <v>4.8000000000000001E-5</v>
@@ -15052,15 +15053,15 @@
       <c r="P304" s="12"/>
       <c r="Q304" s="13"/>
       <c r="R304" s="13" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="305" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="305" spans="1:21" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A305" s="10" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B305" s="10" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C305" s="11">
         <v>193395</v>
@@ -15083,19 +15084,19 @@
       <c r="O305" s="12"/>
       <c r="P305" s="12"/>
       <c r="Q305" s="13" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="R305" s="13" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="U305" s="1">
         <f>MIN(F305:P305)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A306" s="10" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B306" s="10"/>
       <c r="C306" s="11"/>
@@ -15113,16 +15114,16 @@
       <c r="O306" s="33"/>
       <c r="P306" s="33"/>
       <c r="Q306" s="13" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="R306" s="13"/>
     </row>
-    <row r="307" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A307" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B307" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C307" s="11">
         <v>78591</v>
@@ -15151,7 +15152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:21" ht="66" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A308" s="25" t="s">
         <v>263</v>
       </c>
@@ -15185,19 +15186,19 @@
       <c r="O308" s="12"/>
       <c r="P308" s="12"/>
       <c r="Q308" s="14" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="R308" s="13" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="U308" s="1">
         <f>MIN(F308:P308)</f>
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="309" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A309" s="10" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B309" s="10"/>
       <c r="C309" s="11"/>
@@ -15215,16 +15216,16 @@
       <c r="O309" s="33"/>
       <c r="P309" s="33"/>
       <c r="Q309" s="13" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="R309" s="13"/>
     </row>
-    <row r="310" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A310" s="25" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B310" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C310" s="37">
         <v>1317368</v>
@@ -15248,19 +15249,19 @@
         <v>91</v>
       </c>
       <c r="R310" s="13" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="U310" s="1">
         <f t="shared" ref="U310:U351" si="15">MIN(F310:P310)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A311" s="25" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B311" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C311" s="37">
         <v>301042</v>
@@ -15284,19 +15285,19 @@
         <v>91</v>
       </c>
       <c r="R311" s="13" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="U311" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A312" s="25" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B312" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C312" s="37">
         <v>7784409</v>
@@ -15322,19 +15323,19 @@
         <v>48</v>
       </c>
       <c r="R312" s="13" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="U312" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A313" s="25" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B313" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C313" s="37">
         <v>7758976</v>
@@ -15360,19 +15361,19 @@
         <v>48</v>
       </c>
       <c r="R313" s="13" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="U313" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A314" s="38" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B314" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C314" s="39">
         <v>18454121</v>
@@ -15398,22 +15399,22 @@
         <v>48</v>
       </c>
       <c r="R314" s="13" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="U314" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="38" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B315" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C315" s="40" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D315" s="12"/>
       <c r="E315" s="12">
@@ -15434,19 +15435,19 @@
         <v>94</v>
       </c>
       <c r="R315" s="13" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="U315" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A316" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B316" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C316" s="11">
         <v>7439921</v>
@@ -15475,12 +15476,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A317" s="10" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B317" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C317" s="21">
         <v>603</v>
@@ -15504,19 +15505,19 @@
         <v>91</v>
       </c>
       <c r="R317" s="13" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="U317" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A318" s="25" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B318" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C318" s="37">
         <v>1309600</v>
@@ -15542,19 +15543,19 @@
         <v>48</v>
       </c>
       <c r="R318" s="13" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="U318" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A319" s="25" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B319" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C319" s="37">
         <v>10099748</v>
@@ -15578,19 +15579,19 @@
         <v>91</v>
       </c>
       <c r="R319" s="13" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="U319" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A320" s="25" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B320" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C320" s="37">
         <v>1335326</v>
@@ -15614,19 +15615,19 @@
         <v>91</v>
       </c>
       <c r="R320" s="13" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="U320" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A321" s="25" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B321" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C321" s="37">
         <v>7446142</v>
@@ -15650,14 +15651,14 @@
         <v>91</v>
       </c>
       <c r="R321" s="13" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="U321" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A322" s="10" t="s">
         <v>30</v>
       </c>
@@ -15691,12 +15692,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A323" s="10" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B323" s="10" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C323" s="11">
         <v>108316</v>
@@ -15724,19 +15725,19 @@
       <c r="P323" s="12"/>
       <c r="Q323" s="13"/>
       <c r="R323" s="13" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="U323" s="1">
         <f t="shared" si="15"/>
         <v>0.8</v>
       </c>
     </row>
-    <row r="324" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A324" s="10" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B324" s="10" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C324" s="11">
         <v>2145076</v>
@@ -15760,19 +15761,19 @@
         <v>94</v>
       </c>
       <c r="R324" s="13" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="U324" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A325" s="10" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B325" s="10" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C325" s="11">
         <v>7439965</v>
@@ -15796,19 +15797,19 @@
       <c r="P325" s="12"/>
       <c r="Q325" s="13"/>
       <c r="R325" s="13" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="U325" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A326" s="25" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B326" s="10" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C326" s="37">
         <v>1313139</v>
@@ -15834,19 +15835,19 @@
         <v>48</v>
       </c>
       <c r="R326" s="13" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="U326" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A327" s="25" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B327" s="10" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C327" s="37">
         <v>10377669</v>
@@ -15870,22 +15871,22 @@
         <v>220</v>
       </c>
       <c r="R327" s="13" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="U327" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A328" s="25" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B328" s="10" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C328" s="26" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D328" s="12"/>
       <c r="E328" s="12">
@@ -15906,19 +15907,19 @@
         <v>94</v>
       </c>
       <c r="R328" s="13" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="U328" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A329" s="25" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B329" s="10" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C329" s="37">
         <v>7785877</v>
@@ -15944,19 +15945,19 @@
         <v>48</v>
       </c>
       <c r="R329" s="13" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="U329" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:21" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:21" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="25" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B330" s="10" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C330" s="37">
         <v>1317357</v>
@@ -15980,19 +15981,19 @@
         <v>91</v>
       </c>
       <c r="R330" s="13" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="U330" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A331" s="25" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B331" s="10" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C331" s="37">
         <v>12079651</v>
@@ -16016,19 +16017,19 @@
         <v>91</v>
       </c>
       <c r="R331" s="13" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="U331" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A332" s="25" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B332" s="10" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C332" s="37">
         <v>1317346</v>
@@ -16054,14 +16055,14 @@
         <v>48</v>
       </c>
       <c r="R332" s="13" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="U332" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A333" s="10" t="s">
         <v>230</v>
       </c>
@@ -16097,15 +16098,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A334" s="10" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B334" s="10" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C334" s="11" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D334" s="12"/>
       <c r="E334" s="12">
@@ -16126,19 +16127,19 @@
         <v>94</v>
       </c>
       <c r="R334" s="13" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="U334" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A335" s="10" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B335" s="10" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C335" s="11">
         <v>7487947</v>
@@ -16162,22 +16163,22 @@
       <c r="P335" s="12"/>
       <c r="Q335" s="13"/>
       <c r="R335" s="13" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="U335" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A336" s="10" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B336" s="10" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C336" s="11" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D336" s="12"/>
       <c r="E336" s="12">
@@ -16198,22 +16199,22 @@
         <v>94</v>
       </c>
       <c r="R336" s="13" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="U336" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A337" s="10" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B337" s="10" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C337" s="11" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D337" s="12"/>
       <c r="E337" s="12">
@@ -16234,19 +16235,19 @@
         <v>94</v>
       </c>
       <c r="R337" s="13" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="U337" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A338" s="10" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B338" s="10" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C338" s="11">
         <v>7439976</v>
@@ -16277,7 +16278,7 @@
       <c r="O338" s="12"/>
       <c r="P338" s="12"/>
       <c r="Q338" s="13" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="R338" s="13"/>
       <c r="U338" s="1">
@@ -16285,12 +16286,12 @@
         <v>5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="339" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A339" s="10" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B339" s="10" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C339" s="11">
         <v>22967926</v>
@@ -16314,22 +16315,22 @@
         <v>132</v>
       </c>
       <c r="R339" s="13" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="U339" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A340" s="10" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B340" s="10" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C340" s="11" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D340" s="12">
         <v>0</v>
@@ -16350,19 +16351,19 @@
       <c r="P340" s="12"/>
       <c r="Q340" s="13"/>
       <c r="R340" s="13" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="U340" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A341" s="10" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B341" s="10" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C341" s="11">
         <v>67561</v>
@@ -16399,22 +16400,22 @@
       <c r="O341" s="12"/>
       <c r="P341" s="12"/>
       <c r="Q341" s="13" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="R341" s="13" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="U341" s="1">
         <f t="shared" si="15"/>
         <v>28</v>
       </c>
     </row>
-    <row r="342" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A342" s="10" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B342" s="10" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C342" s="11">
         <v>72435</v>
@@ -16441,15 +16442,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A343" s="10" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B343" s="10" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C343" s="11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D343" s="12"/>
       <c r="E343" s="12">
@@ -16470,19 +16471,19 @@
         <v>94</v>
       </c>
       <c r="R343" s="13" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="U343" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A344" s="25" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B344" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C344" s="37">
         <v>112356</v>
@@ -16510,19 +16511,19 @@
         <v>48</v>
       </c>
       <c r="R344" s="13" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="U344" s="1">
         <f t="shared" si="15"/>
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="345" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A345" s="10" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B345" s="10" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C345" s="11">
         <v>74839</v>
@@ -16555,7 +16556,7 @@
       <c r="O345" s="12"/>
       <c r="P345" s="12"/>
       <c r="Q345" s="13" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="R345" s="13" t="s">
         <v>163</v>
@@ -16565,15 +16566,15 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="346" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A346" s="25" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B346" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C346" s="26" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D346" s="12"/>
       <c r="E346" s="12">
@@ -16593,22 +16594,22 @@
       <c r="O346" s="12"/>
       <c r="P346" s="12"/>
       <c r="Q346" s="14" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="R346" s="13" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="U346" s="1">
         <f t="shared" si="15"/>
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="347" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A347" s="10" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B347" s="10" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C347" s="11">
         <v>74873</v>
@@ -16641,22 +16642,22 @@
       <c r="O347" s="12"/>
       <c r="P347" s="12"/>
       <c r="Q347" s="13" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="R347" s="13" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="U347" s="1">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A348" s="10" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B348" s="10" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C348" s="11">
         <v>60344</v>
@@ -16683,22 +16684,22 @@
       <c r="O348" s="12"/>
       <c r="P348" s="12"/>
       <c r="Q348" s="13" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="R348" s="13" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="U348" s="1">
         <f t="shared" si="15"/>
         <v>0.21</v>
       </c>
     </row>
-    <row r="349" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A349" s="10" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B349" s="10" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C349" s="11">
         <v>74884</v>
@@ -16733,22 +16734,22 @@
       <c r="O349" s="12"/>
       <c r="P349" s="12"/>
       <c r="Q349" s="13" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="R349" s="13" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="U349" s="1">
         <f t="shared" si="15"/>
         <v>64</v>
       </c>
     </row>
-    <row r="350" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A350" s="10" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B350" s="10" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C350" s="11">
         <v>108101</v>
@@ -16771,7 +16772,7 @@
       <c r="O350" s="12"/>
       <c r="P350" s="12"/>
       <c r="Q350" s="13" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="R350" s="13"/>
       <c r="U350" s="1">
@@ -16779,12 +16780,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A351" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B351" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C351" s="11">
         <v>624839</v>
@@ -16815,7 +16816,7 @@
       <c r="O351" s="12"/>
       <c r="P351" s="12"/>
       <c r="Q351" s="13" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="R351" s="13" t="s">
         <v>163</v>
@@ -16825,9 +16826,9 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="352" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A352" s="10" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B352" s="10"/>
       <c r="C352" s="11"/>
@@ -16845,16 +16846,16 @@
       <c r="O352" s="33"/>
       <c r="P352" s="33"/>
       <c r="Q352" s="13" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="R352" s="13"/>
     </row>
-    <row r="353" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A353" s="10" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B353" s="10" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C353" s="11">
         <v>22967926</v>
@@ -16878,19 +16879,19 @@
       <c r="P353" s="12"/>
       <c r="Q353" s="13"/>
       <c r="R353" s="13" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="U353" s="1">
         <f>MIN(F353:P353)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A354" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B354" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C354" s="11">
         <v>80626</v>
@@ -16921,7 +16922,7 @@
       <c r="O354" s="12"/>
       <c r="P354" s="12"/>
       <c r="Q354" s="13" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="R354" s="13"/>
       <c r="U354" s="1">
@@ -16929,12 +16930,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="355" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A355" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B355" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C355" s="11">
         <v>1634044</v>
@@ -16971,22 +16972,22 @@
       <c r="O355" s="12"/>
       <c r="P355" s="12"/>
       <c r="Q355" s="13" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="R355" s="13" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="U355" s="1">
         <f>MIN(F355:P355)</f>
         <v>7.2</v>
       </c>
     </row>
-    <row r="356" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A356" s="10" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B356" s="10" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C356" s="11">
         <v>26914181</v>
@@ -17007,18 +17008,18 @@
       <c r="O356" s="12"/>
       <c r="P356" s="12"/>
       <c r="Q356" s="13" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="R356" s="13" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="357" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="357" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A357" s="10" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B357" s="10" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C357" s="11">
         <v>65357699</v>
@@ -17039,21 +17040,21 @@
       <c r="O357" s="12"/>
       <c r="P357" s="12"/>
       <c r="Q357" s="13" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="R357" s="13" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="358" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="358" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A358" s="10" t="s">
+        <v>797</v>
+      </c>
+      <c r="B358" s="10" t="s">
+        <v>798</v>
+      </c>
+      <c r="C358" s="11" t="s">
         <v>799</v>
-      </c>
-      <c r="B358" s="10" t="s">
-        <v>800</v>
-      </c>
-      <c r="C358" s="11" t="s">
-        <v>801</v>
       </c>
       <c r="D358" s="12">
         <v>9.6000000000000002E-4</v>
@@ -17071,18 +17072,18 @@
       <c r="O358" s="12"/>
       <c r="P358" s="12"/>
       <c r="Q358" s="13" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="R358" s="13" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="359" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="359" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A359" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B359" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C359" s="11">
         <v>75092</v>
@@ -17119,17 +17120,17 @@
       <c r="O359" s="12"/>
       <c r="P359" s="12"/>
       <c r="Q359" s="13" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="R359" s="13" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="U359" s="1">
         <f t="shared" ref="U359:U365" si="16">MIN(F359:P359)</f>
         <v>2.1</v>
       </c>
     </row>
-    <row r="360" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A360" s="10" t="s">
         <v>227</v>
       </c>
@@ -17165,7 +17166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A361" s="10" t="s">
         <v>67</v>
       </c>
@@ -17203,15 +17204,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="362" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A362" s="10" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B362" s="10" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C362" s="11" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D362" s="12"/>
       <c r="E362" s="12">
@@ -17232,19 +17233,19 @@
         <v>94</v>
       </c>
       <c r="R362" s="13" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="U362" s="1">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A363" s="10" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B363" s="10" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C363" s="11">
         <v>108383</v>
@@ -17270,19 +17271,19 @@
       <c r="P363" s="12"/>
       <c r="Q363" s="13"/>
       <c r="R363" s="13" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="U363" s="1">
         <f t="shared" si="16"/>
         <v>22</v>
       </c>
     </row>
-    <row r="364" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A364" s="10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B364" s="10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C364" s="11">
         <v>121697</v>
@@ -17311,12 +17312,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A365" s="10" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B365" s="10" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C365" s="11">
         <v>91203</v>
@@ -17345,9 +17346,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A366" s="10" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B366" s="10"/>
       <c r="C366" s="11"/>
@@ -17365,16 +17366,16 @@
       <c r="O366" s="33"/>
       <c r="P366" s="33"/>
       <c r="Q366" s="13" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="R366" s="13"/>
     </row>
-    <row r="367" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A367" s="10" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B367" s="10" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C367" s="11">
         <v>110543</v>
@@ -17401,22 +17402,22 @@
       <c r="O367" s="12"/>
       <c r="P367" s="12"/>
       <c r="Q367" s="13" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="R367" s="13" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="U367" s="1">
         <f t="shared" ref="U367:U383" si="17">MIN(F367:P367)</f>
         <v>10000</v>
       </c>
     </row>
-    <row r="368" spans="1:21" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:21" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="25" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B368" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C368" s="37">
         <v>112594</v>
@@ -17441,22 +17442,22 @@
       <c r="O368" s="12"/>
       <c r="P368" s="12"/>
       <c r="Q368" s="14" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="R368" s="13" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="U368" s="1">
         <f t="shared" si="17"/>
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="369" spans="1:21" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:21" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A369" s="25" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B369" s="10" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C369" s="37">
         <v>10101970</v>
@@ -17482,19 +17483,19 @@
         <v>48</v>
       </c>
       <c r="R369" s="37" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="U369" s="1">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:21" ht="66" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A370" s="25" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B370" s="10" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C370" s="37">
         <v>373024</v>
@@ -17520,19 +17521,19 @@
         <v>48</v>
       </c>
       <c r="R370" s="13" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="U370" s="1">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:21" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A371" s="10" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B371" s="10" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C371" s="11">
         <v>13463393</v>
@@ -17559,22 +17560,22 @@
       <c r="O371" s="12"/>
       <c r="P371" s="12"/>
       <c r="Q371" s="13" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="R371" s="13" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="U371" s="1">
         <f t="shared" si="17"/>
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="372" spans="1:21" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A372" s="10" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B372" s="10" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C372" s="11">
         <v>7718549</v>
@@ -17600,19 +17601,19 @@
         <v>91</v>
       </c>
       <c r="R372" s="13" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="U372" s="1">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:21" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A373" s="10" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B373" s="10" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C373" s="11">
         <v>7440020</v>
@@ -17636,19 +17637,19 @@
       <c r="P373" s="12"/>
       <c r="Q373" s="13"/>
       <c r="R373" s="13" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="U373" s="1">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:21" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A374" s="10" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B374" s="10" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C374" s="11">
         <v>13138459</v>
@@ -17674,19 +17675,19 @@
         <v>91</v>
       </c>
       <c r="R374" s="13" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="U374" s="1">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:21" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A375" s="10" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B375" s="10" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C375" s="11">
         <v>1313991</v>
@@ -17710,22 +17711,22 @@
       <c r="P375" s="12"/>
       <c r="Q375" s="13"/>
       <c r="R375" s="13" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="U375" s="1">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A376" s="10" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B376" s="10" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C376" s="11" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D376" s="12">
         <v>2.4000000000000001E-4</v>
@@ -17744,19 +17745,19 @@
       <c r="P376" s="12"/>
       <c r="Q376" s="13"/>
       <c r="R376" s="13" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="U376" s="1">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A377" s="10" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B377" s="10" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C377" s="11">
         <v>12035722</v>
@@ -17780,19 +17781,19 @@
       <c r="P377" s="12"/>
       <c r="Q377" s="13"/>
       <c r="R377" s="13" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="U377" s="1">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:21" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A378" s="10" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B378" s="10" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C378" s="11">
         <v>13770893</v>
@@ -17818,19 +17819,19 @@
         <v>91</v>
       </c>
       <c r="R378" s="13" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="U378" s="1">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:21" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A379" s="10" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B379" s="10" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C379" s="11">
         <v>7786814</v>
@@ -17856,19 +17857,19 @@
         <v>91</v>
       </c>
       <c r="R379" s="13" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="U379" s="1">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A380" s="10" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B380" s="10" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C380" s="11">
         <v>98953</v>
@@ -17892,19 +17893,19 @@
       <c r="P380" s="12"/>
       <c r="Q380" s="13"/>
       <c r="R380" s="13" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="U380" s="1">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A381" s="10" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B381" s="10" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C381" s="11">
         <v>62759</v>
@@ -17928,19 +17929,19 @@
       <c r="P381" s="12"/>
       <c r="Q381" s="13"/>
       <c r="R381" s="13" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="U381" s="1">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A382" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B382" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C382" s="11">
         <v>59892</v>
@@ -17969,15 +17970,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A383" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="B383" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="C383" s="11" t="s">
         <v>489</v>
-      </c>
-      <c r="B383" s="10" t="s">
-        <v>490</v>
-      </c>
-      <c r="C383" s="11" t="s">
-        <v>491</v>
       </c>
       <c r="D383" s="12"/>
       <c r="E383" s="12"/>
@@ -18001,9 +18002,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A384" s="10" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B384" s="10"/>
       <c r="C384" s="11"/>
@@ -18021,11 +18022,11 @@
       <c r="O384" s="33"/>
       <c r="P384" s="33"/>
       <c r="Q384" s="13" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="R384" s="13"/>
     </row>
-    <row r="385" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A385" s="10" t="s">
         <v>232</v>
       </c>
@@ -18061,15 +18062,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A386" s="10" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B386" s="10" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C386" s="11" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D386" s="12">
         <v>4.8000000000000001E-5</v>
@@ -18090,19 +18091,19 @@
         <v>94</v>
       </c>
       <c r="R386" s="13" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="U386" s="1">
         <f>MIN(F386:P386)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A387" s="10" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B387" s="10" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C387" s="11">
         <v>95534</v>
@@ -18131,12 +18132,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A388" s="10" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B388" s="10" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C388" s="11">
         <v>95476</v>
@@ -18162,18 +18163,18 @@
       <c r="P388" s="12"/>
       <c r="Q388" s="13"/>
       <c r="R388" s="13" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="389" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="389" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A389" s="10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B389" s="10" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C389" s="24" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="D389" s="12">
         <v>4.8000000000000001E-5</v>
@@ -18194,19 +18195,19 @@
         <v>48</v>
       </c>
       <c r="R389" s="13" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="U389" s="1">
         <f t="shared" ref="U389:U394" si="18">MIN(F389:P389)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A390" s="10" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B390" s="10" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C390" s="11">
         <v>56382</v>
@@ -18233,7 +18234,7 @@
       <c r="O390" s="12"/>
       <c r="P390" s="12"/>
       <c r="Q390" s="13" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="R390" s="13"/>
       <c r="U390" s="1">
@@ -18241,12 +18242,12 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="391" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A391" s="10" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B391" s="10" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C391" s="21">
         <v>202</v>
@@ -18270,14 +18271,14 @@
         <v>132</v>
       </c>
       <c r="R391" s="13" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="U391" s="1">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A392" s="10" t="s">
         <v>233</v>
       </c>
@@ -18313,7 +18314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A393" s="10" t="s">
         <v>41</v>
       </c>
@@ -18349,7 +18350,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="394" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A394" s="10" t="s">
         <v>43</v>
       </c>
@@ -18383,12 +18384,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A395" s="10" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B395" s="10" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C395" s="11"/>
       <c r="D395" s="12">
@@ -18407,18 +18408,18 @@
       <c r="O395" s="12"/>
       <c r="P395" s="12"/>
       <c r="Q395" s="13" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="R395" s="13" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="396" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="396" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A396" s="10" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B396" s="10" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C396" s="11">
         <v>82688</v>
@@ -18439,7 +18440,7 @@
       <c r="O396" s="12"/>
       <c r="P396" s="12"/>
       <c r="Q396" s="13" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="R396" s="13" t="s">
         <v>56</v>
@@ -18449,12 +18450,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A397" s="10" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B397" s="10" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C397" s="11">
         <v>87865</v>
@@ -18483,12 +18484,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:21" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:21" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="25" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B398" s="10" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C398" s="37">
         <v>198550</v>
@@ -18512,19 +18513,19 @@
         <v>48</v>
       </c>
       <c r="R398" s="13" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="U398" s="1">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A399" s="10" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B399" s="10" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C399" s="11">
         <v>85018</v>
@@ -18546,19 +18547,19 @@
       <c r="P399" s="12"/>
       <c r="Q399" s="13"/>
       <c r="R399" s="13" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="U399" s="1">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A400" s="10" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B400" s="10" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C400" s="11">
         <v>108952</v>
@@ -18595,7 +18596,7 @@
       <c r="O400" s="12"/>
       <c r="P400" s="12"/>
       <c r="Q400" s="13" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="R400" s="13" t="s">
         <v>22</v>
@@ -18605,12 +18606,12 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="401" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A401" s="25" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B401" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C401" s="37">
         <v>122996</v>
@@ -18638,19 +18639,19 @@
         <v>48</v>
       </c>
       <c r="R401" s="13" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="U401" s="1">
         <f t="shared" si="19"/>
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="402" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A402" s="10" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B402" s="10" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C402" s="11">
         <v>62384</v>
@@ -18674,19 +18675,19 @@
       <c r="P402" s="12"/>
       <c r="Q402" s="13"/>
       <c r="R402" s="13" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="U402" s="1">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A403" s="10" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B403" s="10" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C403" s="11">
         <v>75445</v>
@@ -18717,7 +18718,7 @@
       <c r="O403" s="12"/>
       <c r="P403" s="12"/>
       <c r="Q403" s="13" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="R403" s="13" t="s">
         <v>163</v>
@@ -18727,12 +18728,12 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="404" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A404" s="10" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B404" s="10" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C404" s="11">
         <v>7803512</v>
@@ -18761,7 +18762,7 @@
       <c r="O404" s="12"/>
       <c r="P404" s="12"/>
       <c r="Q404" s="13" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="R404" s="13" t="s">
         <v>163</v>
@@ -18771,12 +18772,12 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="405" spans="1:21" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A405" s="10" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B405" s="10" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C405" s="11">
         <v>7723140</v>
@@ -18805,19 +18806,19 @@
       <c r="O405" s="12"/>
       <c r="P405" s="12"/>
       <c r="Q405" s="13" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="R405" s="13" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="U405" s="1">
         <f t="shared" si="19"/>
         <v>0.47</v>
       </c>
     </row>
-    <row r="406" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A406" s="10" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B406" s="10"/>
       <c r="C406" s="11"/>
@@ -18835,16 +18836,16 @@
       <c r="O406" s="33"/>
       <c r="P406" s="33"/>
       <c r="Q406" s="13" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="R406" s="13"/>
     </row>
-    <row r="407" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A407" s="10" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B407" s="10" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C407" s="11">
         <v>85449</v>
@@ -18873,15 +18874,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A408" s="10" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B408" s="10" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C408" s="11" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D408" s="12"/>
       <c r="E408" s="12"/>
@@ -18905,12 +18906,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A409" s="10" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B409" s="10" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C409" s="11">
         <v>1336363</v>
@@ -18939,12 +18940,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A410" s="10" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B410" s="41" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C410" s="11">
         <v>136677106</v>
@@ -18971,15 +18972,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A411" s="10" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B411" s="10" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C411" s="11" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D411" s="12">
         <v>9.6000000000000002E-4</v>
@@ -19000,19 +19001,19 @@
       <c r="P411" s="12"/>
       <c r="Q411" s="13"/>
       <c r="R411" s="13" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="U411" s="1">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:21" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:21" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="10" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B412" s="10" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C412" s="24">
         <v>246</v>
@@ -19036,19 +19037,19 @@
         <v>48</v>
       </c>
       <c r="R412" s="13" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="U412" s="1">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A413" s="10" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B413" s="10" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C413" s="11"/>
       <c r="D413" s="23">
@@ -19070,19 +19071,19 @@
         <v>48</v>
       </c>
       <c r="R413" s="13" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="U413" s="1">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="10" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B414" s="10" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C414" s="11"/>
       <c r="D414" s="23">
@@ -19104,19 +19105,19 @@
         <v>48</v>
       </c>
       <c r="R414" s="13" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="U414" s="1">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A415" s="10" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B415" s="10" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C415" s="11"/>
       <c r="D415" s="23">
@@ -19138,19 +19139,19 @@
         <v>48</v>
       </c>
       <c r="R415" s="13" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="U415" s="1">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A416" s="10" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B416" s="10" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C416" s="11"/>
       <c r="D416" s="23">
@@ -19172,19 +19173,19 @@
         <v>48</v>
       </c>
       <c r="R416" s="13" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="U416" s="1">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A417" s="10" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B417" s="10" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C417" s="11"/>
       <c r="D417" s="23">
@@ -19206,19 +19207,19 @@
         <v>48</v>
       </c>
       <c r="R417" s="13" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="U417" s="1">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A418" s="10" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B418" s="10" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C418" s="11"/>
       <c r="D418" s="23">
@@ -19240,19 +19241,19 @@
         <v>48</v>
       </c>
       <c r="R418" s="13" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="U418" s="1">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A419" s="10" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B419" s="10" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C419" s="11"/>
       <c r="D419" s="23">
@@ -19274,19 +19275,19 @@
         <v>48</v>
       </c>
       <c r="R419" s="13" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="U419" s="1">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A420" s="10" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B420" s="10" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C420" s="11"/>
       <c r="D420" s="23">
@@ -19308,14 +19309,14 @@
         <v>48</v>
       </c>
       <c r="R420" s="13" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="U420" s="1">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A421" s="10" t="s">
         <v>193</v>
       </c>
@@ -19353,7 +19354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A422" s="10" t="s">
         <v>264</v>
       </c>
@@ -19389,17 +19390,17 @@
       <c r="O422" s="12"/>
       <c r="P422" s="12"/>
       <c r="Q422" s="13" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="R422" s="13" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="U422" s="1">
         <f t="shared" si="20"/>
         <v>2.7</v>
       </c>
     </row>
-    <row r="423" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A423" s="10" t="s">
         <v>194</v>
       </c>
@@ -19437,15 +19438,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A424" s="10" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B424" s="10" t="s">
+        <v>672</v>
+      </c>
+      <c r="C424" s="11" t="s">
         <v>674</v>
-      </c>
-      <c r="C424" s="11" t="s">
-        <v>676</v>
       </c>
       <c r="D424" s="23"/>
       <c r="E424" s="12">
@@ -19466,14 +19467,14 @@
         <v>94</v>
       </c>
       <c r="R424" s="13" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="U424" s="1">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A425" s="10" t="s">
         <v>265</v>
       </c>
@@ -19509,7 +19510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A426" s="10" t="s">
         <v>266</v>
       </c>
@@ -19545,12 +19546,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A427" s="10" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B427" s="10" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C427" s="2">
         <v>106503</v>
@@ -19579,12 +19580,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A428" s="10" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B428" s="10" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C428" s="11">
         <v>123386</v>
@@ -19615,22 +19616,22 @@
       <c r="O428" s="12"/>
       <c r="P428" s="12"/>
       <c r="Q428" s="13" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="R428" s="13" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="U428" s="1">
         <f t="shared" si="20"/>
         <v>110</v>
       </c>
     </row>
-    <row r="429" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A429" s="10" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B429" s="10" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C429" s="11">
         <v>114261</v>
@@ -19659,12 +19660,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A430" s="25" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B430" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C430" s="37">
         <v>2807309</v>
@@ -19692,19 +19693,19 @@
         <v>48</v>
       </c>
       <c r="R430" s="13" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="U430" s="1">
         <f t="shared" si="20"/>
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="431" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A431" s="10" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B431" s="10" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C431" s="11">
         <v>78875</v>
@@ -19727,7 +19728,7 @@
       <c r="O431" s="12"/>
       <c r="P431" s="12"/>
       <c r="Q431" s="13" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="R431" s="13" t="s">
         <v>56</v>
@@ -19737,12 +19738,12 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="432" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A432" s="10" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B432" s="10" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C432" s="11">
         <v>75569</v>
@@ -19779,7 +19780,7 @@
       <c r="O432" s="12"/>
       <c r="P432" s="12"/>
       <c r="Q432" s="13" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="R432" s="13" t="s">
         <v>22</v>
@@ -19789,12 +19790,12 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="433" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A433" s="10" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B433" s="10" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C433" s="11">
         <v>106423</v>
@@ -19820,19 +19821,19 @@
       <c r="P433" s="12"/>
       <c r="Q433" s="13"/>
       <c r="R433" s="13" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="U433" s="1">
         <f>MIN(F432:P432)</f>
         <v>3.1</v>
       </c>
     </row>
-    <row r="434" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A434" s="10" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B434" s="10" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C434" s="11">
         <v>129000</v>
@@ -19854,19 +19855,19 @@
       <c r="P434" s="12"/>
       <c r="Q434" s="13"/>
       <c r="R434" s="13" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="U434" s="1">
         <f t="shared" ref="U434:U456" si="21">MIN(F434:P434)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A435" s="10" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B435" s="10" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C435" s="11">
         <v>91225</v>
@@ -19895,12 +19896,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A436" s="10" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B436" s="10" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C436" s="11">
         <v>106514</v>
@@ -19929,12 +19930,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A437" s="10" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B437" s="10" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C437" s="24">
         <v>605</v>
@@ -19961,12 +19962,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A438" s="10" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B438" s="10" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C438" s="11">
         <v>7783008</v>
@@ -19990,19 +19991,19 @@
       <c r="P438" s="12"/>
       <c r="Q438" s="13"/>
       <c r="R438" s="13" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="U438" s="1">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A439" s="10" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B439" s="10" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C439" s="11">
         <v>7782492</v>
@@ -20031,12 +20032,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A440" s="10" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B440" s="10" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C440" s="11">
         <v>7446084</v>
@@ -20065,15 +20066,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A441" s="10" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B441" s="10" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C441" s="11" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="D441" s="12"/>
       <c r="E441" s="12">
@@ -20099,12 +20100,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A442" s="10" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B442" s="10" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C442" s="11">
         <v>7783791</v>
@@ -20133,22 +20134,22 @@
       <c r="O442" s="12"/>
       <c r="P442" s="12"/>
       <c r="Q442" s="13" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="R442" s="13" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="U442" s="1">
         <f t="shared" si="21"/>
         <v>0.13</v>
       </c>
     </row>
-    <row r="443" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A443" s="10" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B443" s="10" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C443" s="11">
         <v>12640890</v>
@@ -20169,25 +20170,25 @@
       <c r="O443" s="12"/>
       <c r="P443" s="12"/>
       <c r="Q443" s="13" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="R443" s="13" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="U443" s="1">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A444" s="10" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B444" s="10" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C444" s="11" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D444" s="12"/>
       <c r="E444" s="12">
@@ -20208,22 +20209,22 @@
         <v>94</v>
       </c>
       <c r="R444" s="13" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="U444" s="1">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A445" s="10" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B445" s="10" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C445" s="11" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="D445" s="12"/>
       <c r="E445" s="12">
@@ -20249,12 +20250,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A446" s="10" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B446" s="10" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C446" s="11">
         <v>630104</v>
@@ -20278,14 +20279,14 @@
       <c r="P446" s="12"/>
       <c r="Q446" s="13"/>
       <c r="R446" s="13" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="U446" s="1">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A447" s="10" t="s">
         <v>268</v>
       </c>
@@ -20323,7 +20324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A448" s="25" t="s">
         <v>195</v>
       </c>
@@ -20361,7 +20362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A449" s="10" t="s">
         <v>269</v>
       </c>
@@ -20397,17 +20398,17 @@
       <c r="O449" s="12"/>
       <c r="P449" s="12"/>
       <c r="Q449" s="13" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="R449" s="13" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="U449" s="1">
         <f t="shared" si="21"/>
         <v>2</v>
       </c>
     </row>
-    <row r="450" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A450" s="25" t="s">
         <v>196</v>
       </c>
@@ -20445,15 +20446,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A451" s="25" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B451" s="10" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C451" s="26" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D451" s="12"/>
       <c r="E451" s="12">
@@ -20474,22 +20475,22 @@
         <v>94</v>
       </c>
       <c r="R451" s="13" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="U451" s="1">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A452" s="25" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B452" s="10" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C452" s="26" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="D452" s="12"/>
       <c r="E452" s="12">
@@ -20510,14 +20511,14 @@
         <v>94</v>
       </c>
       <c r="R452" s="13" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="U452" s="1">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A453" s="25" t="s">
         <v>197</v>
       </c>
@@ -20555,12 +20556,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A454" s="10" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B454" s="10" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C454" s="11">
         <v>100425</v>
@@ -20599,7 +20600,7 @@
       <c r="O454" s="12"/>
       <c r="P454" s="12"/>
       <c r="Q454" s="13" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="R454" s="13" t="s">
         <v>22</v>
@@ -20609,12 +20610,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="455" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A455" s="10" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B455" s="10" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C455" s="11">
         <v>96093</v>
@@ -20643,7 +20644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A456" s="10" t="s">
         <v>31</v>
       </c>
@@ -20677,9 +20678,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A457" s="10" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B457" s="10"/>
       <c r="C457" s="11"/>
@@ -20697,16 +20698,16 @@
       <c r="O457" s="33"/>
       <c r="P457" s="33"/>
       <c r="Q457" s="13" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="R457" s="13"/>
     </row>
-    <row r="458" spans="1:21" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:21" ht="108.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A458" s="10" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B458" s="10" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C458" s="11"/>
       <c r="D458" s="12">
@@ -20725,18 +20726,18 @@
       <c r="O458" s="12"/>
       <c r="P458" s="12"/>
       <c r="Q458" s="13" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="R458" s="13" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="459" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="459" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A459" s="10" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B459" s="10" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C459" s="11">
         <v>127184</v>
@@ -20775,22 +20776,22 @@
       <c r="O459" s="12"/>
       <c r="P459" s="12"/>
       <c r="Q459" s="13" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="R459" s="13" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="U459" s="1">
         <f>MIN(F459:P459)</f>
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="460" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A460" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B460" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C460" s="11">
         <v>78002</v>
@@ -20814,19 +20815,19 @@
       <c r="P460" s="12"/>
       <c r="Q460" s="13"/>
       <c r="R460" s="13" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="U460" s="1">
         <f>MIN(F460:P460)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A461" s="10" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B461" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C461" s="11">
         <v>75741</v>
@@ -20850,22 +20851,22 @@
       <c r="P461" s="12"/>
       <c r="Q461" s="13"/>
       <c r="R461" s="13" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="U461" s="1">
         <f>MIN(F461:P461)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A462" s="10" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B462" s="10" t="s">
+        <v>640</v>
+      </c>
+      <c r="C462" s="47" t="s">
         <v>642</v>
-      </c>
-      <c r="C462" s="47" t="s">
-        <v>644</v>
       </c>
       <c r="D462" s="12"/>
       <c r="E462" s="12"/>
@@ -20881,11 +20882,11 @@
       <c r="O462" s="12"/>
       <c r="P462" s="12"/>
       <c r="Q462" s="14" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="R462" s="13"/>
     </row>
-    <row r="463" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A463" s="10" t="s">
         <v>270</v>
       </c>
@@ -20923,7 +20924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A464" s="10" t="s">
         <v>272</v>
       </c>
@@ -20961,15 +20962,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A465" s="10" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B465" s="10" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C465" s="24" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D465" s="12"/>
       <c r="E465" s="12"/>
@@ -20985,16 +20986,16 @@
       <c r="O465" s="12"/>
       <c r="P465" s="12"/>
       <c r="Q465" s="14" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="R465" s="13"/>
     </row>
-    <row r="466" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A466" s="10" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B466" s="10" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C466" s="24"/>
       <c r="D466" s="12"/>
@@ -21011,16 +21012,16 @@
       <c r="O466" s="12"/>
       <c r="P466" s="12"/>
       <c r="Q466" s="14" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="R466" s="13"/>
     </row>
-    <row r="467" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A467" s="27" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B467" s="27" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C467" s="28">
         <v>7550450</v>
@@ -21051,22 +21052,22 @@
       <c r="O467" s="29"/>
       <c r="P467" s="29"/>
       <c r="Q467" s="30" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="R467" s="30" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="U467" s="1">
         <f>MIN(F467:P467)</f>
         <v>0.73</v>
       </c>
     </row>
-    <row r="468" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A468" s="10" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B468" s="10" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C468" s="11">
         <v>108883</v>
@@ -21105,19 +21106,19 @@
       <c r="O468" s="12"/>
       <c r="P468" s="12"/>
       <c r="Q468" s="13" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="R468" s="13" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="U468" s="1">
         <f>MIN(F468:P468)</f>
         <v>7.5</v>
       </c>
     </row>
-    <row r="469" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A469" s="10" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B469" s="10"/>
       <c r="C469" s="11"/>
@@ -21135,13 +21136,13 @@
       <c r="O469" s="33"/>
       <c r="P469" s="33"/>
       <c r="Q469" s="13" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="R469" s="13"/>
     </row>
-    <row r="470" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A470" s="10" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B470" s="10"/>
       <c r="C470" s="11"/>
@@ -21159,13 +21160,13 @@
       <c r="O470" s="33"/>
       <c r="P470" s="33"/>
       <c r="Q470" s="13" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="R470" s="13"/>
     </row>
-    <row r="471" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A471" s="10" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B471" s="10"/>
       <c r="C471" s="11"/>
@@ -21183,16 +21184,16 @@
       <c r="O471" s="33"/>
       <c r="P471" s="33"/>
       <c r="Q471" s="13" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="R471" s="13"/>
     </row>
-    <row r="472" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A472" s="10" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B472" s="10" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C472" s="11">
         <v>8001352</v>
@@ -21221,12 +21222,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:21" ht="105.6" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:21" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A473" s="10" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B473" s="10" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C473" s="11">
         <v>79016</v>
@@ -21261,22 +21262,22 @@
       <c r="O473" s="12"/>
       <c r="P473" s="12"/>
       <c r="Q473" s="13" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="R473" s="13" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U473" s="1">
         <f>MIN(F473:P473)</f>
         <v>410</v>
       </c>
     </row>
-    <row r="474" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A474" s="10" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B474" s="10" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C474" s="11">
         <v>121448</v>
@@ -21307,12 +21308,12 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="475" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A475" s="25" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B475" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C475" s="37">
         <v>112492</v>
@@ -21335,21 +21336,21 @@
       <c r="O475" s="12"/>
       <c r="P475" s="12"/>
       <c r="Q475" s="14" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="R475" s="13" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="476" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="476" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A476" s="25" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B476" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C476" s="26" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="D476" s="12"/>
       <c r="E476" s="12">
@@ -21369,18 +21370,18 @@
       <c r="O476" s="12"/>
       <c r="P476" s="12"/>
       <c r="Q476" s="14" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="R476" s="13" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="477" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="477" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A477" s="10" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B477" s="10" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C477" s="11">
         <v>1582098</v>
@@ -21409,12 +21410,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A478" s="10" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B478" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C478" s="11">
         <v>143226</v>
@@ -21440,19 +21441,19 @@
         <v>91</v>
       </c>
       <c r="R478" s="13" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="U478" s="1">
         <f>MIN(F478:P478)</f>
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="479" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A479" s="10" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B479" s="10" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C479" s="24"/>
       <c r="D479" s="12"/>
@@ -21469,19 +21470,19 @@
       <c r="O479" s="12"/>
       <c r="P479" s="12"/>
       <c r="Q479" s="14" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="R479" s="13"/>
     </row>
-    <row r="480" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A480" s="10" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B480" s="10" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C480" s="11" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="D480" s="12"/>
       <c r="E480" s="12">
@@ -21501,22 +21502,22 @@
       <c r="O480" s="12"/>
       <c r="P480" s="12"/>
       <c r="Q480" s="13" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="R480" s="13" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="U480" s="1">
         <f t="shared" ref="U480:U491" si="22">MIN(F480:P480)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="481" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A481" s="10" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B481" s="10" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C481" s="11">
         <v>7440611</v>
@@ -21539,22 +21540,22 @@
       <c r="O481" s="12"/>
       <c r="P481" s="12"/>
       <c r="Q481" s="13" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="R481" s="13" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="U481" s="1">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A482" s="10" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B482" s="10" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C482" s="11">
         <v>7783815</v>
@@ -21587,25 +21588,25 @@
       <c r="O482" s="12"/>
       <c r="P482" s="12"/>
       <c r="Q482" s="13" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="R482" s="13" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="U482" s="1">
         <f t="shared" si="22"/>
         <v>1.2</v>
       </c>
     </row>
-    <row r="483" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A483" s="10" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B483" s="10" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C483" s="11" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D483" s="12"/>
       <c r="E483" s="12">
@@ -21625,22 +21626,22 @@
       <c r="O483" s="12"/>
       <c r="P483" s="12"/>
       <c r="Q483" s="13" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="R483" s="13" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="U483" s="1">
         <f t="shared" si="22"/>
         <v>10</v>
       </c>
     </row>
-    <row r="484" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A484" s="25" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B484" s="10" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C484" s="37">
         <v>7440611</v>
@@ -21661,25 +21662,25 @@
       <c r="O484" s="12"/>
       <c r="P484" s="12"/>
       <c r="Q484" s="14" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="R484" s="13" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="U484" s="1">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A485" s="10" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B485" s="10" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C485" s="11" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D485" s="12">
         <v>0</v>
@@ -21699,25 +21700,25 @@
       <c r="O485" s="12"/>
       <c r="P485" s="12"/>
       <c r="Q485" s="13" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="R485" s="13" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="U485" s="1">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A486" s="10" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B486" s="10" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C486" s="11" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="D486" s="12"/>
       <c r="E486" s="12">
@@ -21735,25 +21736,25 @@
       <c r="O486" s="12"/>
       <c r="P486" s="12"/>
       <c r="Q486" s="13" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="R486" s="13" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="U486" s="1">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A487" s="10" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B487" s="10" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C487" s="11" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D487" s="12"/>
       <c r="E487" s="12">
@@ -21771,22 +21772,22 @@
       <c r="O487" s="12"/>
       <c r="P487" s="12"/>
       <c r="Q487" s="13" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="R487" s="13" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="U487" s="1">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A488" s="10" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B488" s="10" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C488" s="11">
         <v>108054</v>
@@ -21821,22 +21822,22 @@
       <c r="O488" s="12"/>
       <c r="P488" s="12"/>
       <c r="Q488" s="13" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="R488" s="13" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="U488" s="1">
         <f t="shared" si="22"/>
         <v>18</v>
       </c>
     </row>
-    <row r="489" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A489" s="10" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B489" s="10" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C489" s="11">
         <v>593602</v>
@@ -21865,12 +21866,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A490" s="10" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B490" s="10" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C490" s="11">
         <v>75014</v>
@@ -21909,22 +21910,22 @@
       <c r="O490" s="12"/>
       <c r="P490" s="12"/>
       <c r="Q490" s="13" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="R490" s="13" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="U490" s="1">
         <f t="shared" si="22"/>
         <v>1.3</v>
       </c>
     </row>
-    <row r="491" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A491" s="10" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B491" s="10" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C491" s="11">
         <v>75354</v>
@@ -21949,22 +21950,22 @@
       <c r="O491" s="12"/>
       <c r="P491" s="12"/>
       <c r="Q491" s="13" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="R491" s="13" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="U491" s="1">
         <f t="shared" si="22"/>
         <v>2000</v>
       </c>
     </row>
-    <row r="492" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A492" s="10" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B492" s="10" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C492" s="11">
         <v>1330207</v>
@@ -21999,7 +22000,7 @@
       <c r="O492" s="12"/>
       <c r="P492" s="12"/>
       <c r="Q492" s="13" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="R492" s="13"/>
       <c r="U492" s="1">
@@ -22007,7 +22008,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="493" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A493" s="38" t="s">
         <v>198</v>
       </c>
@@ -22045,7 +22046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A494" s="38" t="s">
         <v>199</v>
       </c>
@@ -22079,7 +22080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A495" s="10" t="s">
         <v>273</v>
       </c>
@@ -22117,7 +22118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A496" s="25" t="s">
         <v>200</v>
       </c>
@@ -22155,11 +22156,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="497" spans="17:17" x14ac:dyDescent="0.2">
       <c r="Q497" s="34"/>
     </row>
   </sheetData>
-  <sortState ref="A2:U497">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U497">
     <sortCondition ref="A2:A497"/>
   </sortState>
   <printOptions gridLines="1"/>

--- a/resources/Dose_Response_Library.xlsx
+++ b/resources/Dose_Response_Library.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://scaainc-my.sharepoint.com/personal/jmozier_scainc_com/Documents/Projects/RIS-409 to 104 RTR  NATA (2013-2017)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CFFCE8C-70D8-4F08-A766-9B1C23AC6A59}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E099FF3-ADCF-4757-83F0-947B813D6E9F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17985" windowHeight="4110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,43 +17,35 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Dose Response Value Library'!$A$1:$U$1</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Dose Response Value Library'!$A$1:$U$473</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Dose Response Value Library'!$A$1:$U$472</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Dose Response Value Library'!$A:$A,'Dose Response Value Library'!$1:$1</definedName>
     <definedName name="Z_02F25025_575C_44AE_898B_73D9FC4E52EB_.wvu.Cols" localSheetId="0" hidden="1">'Dose Response Value Library'!$S:$U</definedName>
     <definedName name="Z_02F25025_575C_44AE_898B_73D9FC4E52EB_.wvu.FilterData" localSheetId="0" hidden="1">'Dose Response Value Library'!$A$1:$U$1</definedName>
-    <definedName name="Z_02F25025_575C_44AE_898B_73D9FC4E52EB_.wvu.PrintArea" localSheetId="0" hidden="1">'Dose Response Value Library'!$A$1:$U$473</definedName>
+    <definedName name="Z_02F25025_575C_44AE_898B_73D9FC4E52EB_.wvu.PrintArea" localSheetId="0" hidden="1">'Dose Response Value Library'!$A$1:$U$472</definedName>
     <definedName name="Z_02F25025_575C_44AE_898B_73D9FC4E52EB_.wvu.PrintTitles" localSheetId="0" hidden="1">'Dose Response Value Library'!$A:$A,'Dose Response Value Library'!$1:$1</definedName>
     <definedName name="Z_5316095A_12B0_4657_8012_90B92DB60CA5_.wvu.Cols" localSheetId="0" hidden="1">'Dose Response Value Library'!$S:$U</definedName>
     <definedName name="Z_5316095A_12B0_4657_8012_90B92DB60CA5_.wvu.FilterData" localSheetId="0" hidden="1">'Dose Response Value Library'!$A$1:$U$1</definedName>
-    <definedName name="Z_5316095A_12B0_4657_8012_90B92DB60CA5_.wvu.PrintArea" localSheetId="0" hidden="1">'Dose Response Value Library'!$A$1:$U$473</definedName>
+    <definedName name="Z_5316095A_12B0_4657_8012_90B92DB60CA5_.wvu.PrintArea" localSheetId="0" hidden="1">'Dose Response Value Library'!$A$1:$U$472</definedName>
     <definedName name="Z_5316095A_12B0_4657_8012_90B92DB60CA5_.wvu.PrintTitles" localSheetId="0" hidden="1">'Dose Response Value Library'!$A:$A,'Dose Response Value Library'!$1:$1</definedName>
     <definedName name="Z_66C167BA_817C_4D29_882D_23DEB261FAE8_.wvu.Cols" localSheetId="0" hidden="1">'Dose Response Value Library'!$S:$U</definedName>
     <definedName name="Z_66C167BA_817C_4D29_882D_23DEB261FAE8_.wvu.FilterData" localSheetId="0" hidden="1">'Dose Response Value Library'!$A$1:$U$1</definedName>
-    <definedName name="Z_66C167BA_817C_4D29_882D_23DEB261FAE8_.wvu.PrintArea" localSheetId="0" hidden="1">'Dose Response Value Library'!$A$1:$U$473</definedName>
+    <definedName name="Z_66C167BA_817C_4D29_882D_23DEB261FAE8_.wvu.PrintArea" localSheetId="0" hidden="1">'Dose Response Value Library'!$A$1:$U$472</definedName>
     <definedName name="Z_66C167BA_817C_4D29_882D_23DEB261FAE8_.wvu.PrintTitles" localSheetId="0" hidden="1">'Dose Response Value Library'!$A:$A,'Dose Response Value Library'!$1:$1</definedName>
     <definedName name="Z_A92082BE_D0EE_482D_8AC4_F3292576F32A_.wvu.Cols" localSheetId="0" hidden="1">'Dose Response Value Library'!$S:$U</definedName>
     <definedName name="Z_A92082BE_D0EE_482D_8AC4_F3292576F32A_.wvu.FilterData" localSheetId="0" hidden="1">'Dose Response Value Library'!$A$1:$U$1</definedName>
-    <definedName name="Z_A92082BE_D0EE_482D_8AC4_F3292576F32A_.wvu.PrintArea" localSheetId="0" hidden="1">'Dose Response Value Library'!$A$1:$U$473</definedName>
+    <definedName name="Z_A92082BE_D0EE_482D_8AC4_F3292576F32A_.wvu.PrintArea" localSheetId="0" hidden="1">'Dose Response Value Library'!$A$1:$U$472</definedName>
     <definedName name="Z_A92082BE_D0EE_482D_8AC4_F3292576F32A_.wvu.PrintTitles" localSheetId="0" hidden="1">'Dose Response Value Library'!$A:$A,'Dose Response Value Library'!$1:$1</definedName>
     <definedName name="Z_CC01080B_D949_41EC_8BF6_97C0B42DDB18_.wvu.FilterData" localSheetId="0" hidden="1">'Dose Response Value Library'!$A$1:$U$1</definedName>
     <definedName name="Z_E392D6CB_6FB5_47D6_BFF9_30F47B865CA7_.wvu.FilterData" localSheetId="0" hidden="1">'Dose Response Value Library'!$A$1:$U$1</definedName>
-    <definedName name="Z_E392D6CB_6FB5_47D6_BFF9_30F47B865CA7_.wvu.PrintArea" localSheetId="0" hidden="1">'Dose Response Value Library'!$A$1:$U$473</definedName>
+    <definedName name="Z_E392D6CB_6FB5_47D6_BFF9_30F47B865CA7_.wvu.PrintArea" localSheetId="0" hidden="1">'Dose Response Value Library'!$A$1:$U$472</definedName>
     <definedName name="Z_E392D6CB_6FB5_47D6_BFF9_30F47B865CA7_.wvu.PrintTitles" localSheetId="0" hidden="1">'Dose Response Value Library'!$A:$A,'Dose Response Value Library'!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1755" uniqueCount="860">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1751" uniqueCount="858">
   <si>
     <t>Pollutant</t>
   </si>
@@ -2652,12 +2644,6 @@
   </si>
   <si>
     <t>URE = 0.001xBaP based on EPA RPF which does not coorespond to a POM group - removed from group 7 5/2018. POM group 7 adjusted URE updated 4/2017.</t>
-  </si>
-  <si>
-    <t>2-Chlorobiphenyl (PCB-1)</t>
-  </si>
-  <si>
-    <t>added 10/31/18 for Misc Metal Parts Coating category</t>
   </si>
 </sst>
 </file>
@@ -3162,7 +3148,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3278,7 +3264,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -3708,11 +3693,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:X499"/>
+  <dimension ref="A1:X498"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A328" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G349" sqref="G349"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15977,7 +15962,7 @@
         <v>465</v>
       </c>
       <c r="U316" s="1">
-        <f t="shared" ref="U316:U384" si="5">MIN(F316:P316)</f>
+        <f t="shared" ref="U316:U383" si="5">MIN(F316:P316)</f>
         <v>0</v>
       </c>
     </row>
@@ -16940,21 +16925,22 @@
       <c r="N342" s="12"/>
       <c r="O342" s="12"/>
       <c r="P342" s="12"/>
+      <c r="Q342" s="13"/>
       <c r="R342" s="13"/>
       <c r="U342" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A343" s="57" t="s">
-        <v>858</v>
+    <row r="343" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A343" s="10" t="s">
+        <v>513</v>
       </c>
       <c r="B343" s="10" t="s">
         <v>502</v>
       </c>
       <c r="C343" s="11">
-        <v>15999911</v>
+        <v>7012375</v>
       </c>
       <c r="D343" s="12">
         <v>1E-4</v>
@@ -16972,7 +16958,7 @@
       <c r="O343" s="12"/>
       <c r="P343" s="12"/>
       <c r="Q343" s="13" t="s">
-        <v>859</v>
+        <v>514</v>
       </c>
       <c r="R343" s="13" t="s">
         <v>800</v>
@@ -16980,13 +16966,13 @@
     </row>
     <row r="344" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A344" s="10" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B344" s="10" t="s">
         <v>502</v>
       </c>
       <c r="C344" s="11">
-        <v>7012375</v>
+        <v>2050682</v>
       </c>
       <c r="D344" s="12">
         <v>1E-4</v>
@@ -17012,13 +16998,13 @@
     </row>
     <row r="345" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A345" s="10" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B345" s="10" t="s">
         <v>502</v>
       </c>
       <c r="C345" s="11">
-        <v>2050682</v>
+        <v>2051607</v>
       </c>
       <c r="D345" s="12">
         <v>1E-4</v>
@@ -17044,13 +17030,13 @@
     </row>
     <row r="346" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A346" s="10" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B346" s="10" t="s">
         <v>502</v>
       </c>
       <c r="C346" s="11">
-        <v>2051607</v>
+        <v>28655712</v>
       </c>
       <c r="D346" s="12">
         <v>1E-4</v>
@@ -17076,13 +17062,13 @@
     </row>
     <row r="347" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A347" s="10" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B347" s="10" t="s">
         <v>502</v>
       </c>
       <c r="C347" s="11">
-        <v>28655712</v>
+        <v>26601649</v>
       </c>
       <c r="D347" s="12">
         <v>1E-4</v>
@@ -17108,13 +17094,13 @@
     </row>
     <row r="348" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A348" s="10" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B348" s="10" t="s">
         <v>502</v>
       </c>
-      <c r="C348" s="11">
-        <v>26601649</v>
+      <c r="C348" s="28">
+        <v>25429292</v>
       </c>
       <c r="D348" s="12">
         <v>1E-4</v>
@@ -17140,13 +17126,13 @@
     </row>
     <row r="349" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A349" s="10" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B349" s="10" t="s">
         <v>502</v>
       </c>
-      <c r="C349" s="28">
-        <v>25429292</v>
+      <c r="C349" s="11">
+        <v>26914330</v>
       </c>
       <c r="D349" s="12">
         <v>1E-4</v>
@@ -17170,18 +17156,16 @@
         <v>800</v>
       </c>
     </row>
-    <row r="350" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A350" s="10" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B350" s="10" t="s">
-        <v>502</v>
-      </c>
-      <c r="C350" s="11">
-        <v>26914330</v>
-      </c>
-      <c r="D350" s="12">
-        <v>1E-4</v>
+        <v>522</v>
+      </c>
+      <c r="C350" s="11"/>
+      <c r="D350" s="23">
+        <v>4.8000000000000001E-5</v>
       </c>
       <c r="E350" s="12"/>
       <c r="F350" s="12"/>
@@ -17195,22 +17179,28 @@
       <c r="N350" s="12"/>
       <c r="O350" s="12"/>
       <c r="P350" s="12"/>
-      <c r="Q350" s="13" t="s">
-        <v>514</v>
+      <c r="Q350" s="14" t="s">
+        <v>48</v>
       </c>
       <c r="R350" s="13" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="351" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+        <v>801</v>
+      </c>
+      <c r="U350" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A351" s="10" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B351" s="10" t="s">
-        <v>522</v>
-      </c>
-      <c r="C351" s="11"/>
-      <c r="D351" s="23">
+        <v>524</v>
+      </c>
+      <c r="C351" s="24">
+        <v>40</v>
+      </c>
+      <c r="D351" s="12">
         <v>4.8000000000000001E-5</v>
       </c>
       <c r="E351" s="12"/>
@@ -17229,22 +17219,22 @@
         <v>48</v>
       </c>
       <c r="R351" s="13" t="s">
-        <v>801</v>
+        <v>819</v>
       </c>
       <c r="U351" s="1">
-        <f t="shared" si="5"/>
+        <f>MIN(F351:P351)</f>
         <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A352" s="10" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B352" s="10" t="s">
-        <v>524</v>
-      </c>
-      <c r="C352" s="24">
-        <v>40</v>
+        <v>526</v>
+      </c>
+      <c r="C352" s="24" t="s">
+        <v>792</v>
       </c>
       <c r="D352" s="12">
         <v>4.8000000000000001E-5</v>
@@ -17268,19 +17258,19 @@
         <v>819</v>
       </c>
       <c r="U352" s="1">
-        <f>MIN(F352:P352)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A353" s="10" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B353" s="10" t="s">
         <v>526</v>
       </c>
-      <c r="C353" s="24" t="s">
-        <v>792</v>
+      <c r="C353" s="24">
+        <v>246</v>
       </c>
       <c r="D353" s="12">
         <v>4.8000000000000001E-5</v>
@@ -17308,17 +17298,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A354" s="10" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B354" s="10" t="s">
-        <v>526</v>
-      </c>
-      <c r="C354" s="24">
-        <v>246</v>
-      </c>
-      <c r="D354" s="12">
+        <v>529</v>
+      </c>
+      <c r="C354" s="11"/>
+      <c r="D354" s="23">
         <v>4.8000000000000001E-5</v>
       </c>
       <c r="E354" s="12"/>
@@ -17337,25 +17325,29 @@
         <v>48</v>
       </c>
       <c r="R354" s="13" t="s">
-        <v>819</v>
+        <v>802</v>
       </c>
       <c r="U354" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A355" s="10" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B355" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="C355" s="11"/>
-      <c r="D355" s="23">
+        <v>531</v>
+      </c>
+      <c r="C355" s="11">
+        <v>90120</v>
+      </c>
+      <c r="D355" s="12">
         <v>4.8000000000000001E-5</v>
       </c>
-      <c r="E355" s="12"/>
+      <c r="E355" s="12">
+        <v>0</v>
+      </c>
       <c r="F355" s="12"/>
       <c r="G355" s="12"/>
       <c r="H355" s="12"/>
@@ -17367,33 +17359,29 @@
       <c r="N355" s="12"/>
       <c r="O355" s="12"/>
       <c r="P355" s="12"/>
-      <c r="Q355" s="14" t="s">
-        <v>48</v>
-      </c>
+      <c r="Q355" s="13"/>
       <c r="R355" s="13" t="s">
-        <v>802</v>
+        <v>820</v>
       </c>
       <c r="U355" s="1">
-        <f t="shared" si="5"/>
+        <f>MIN(F355:P355)</f>
         <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A356" s="10" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B356" s="10" t="s">
         <v>531</v>
       </c>
       <c r="C356" s="11">
-        <v>90120</v>
+        <v>832699</v>
       </c>
       <c r="D356" s="12">
         <v>4.8000000000000001E-5</v>
       </c>
-      <c r="E356" s="12">
-        <v>0</v>
-      </c>
+      <c r="E356" s="12"/>
       <c r="F356" s="12"/>
       <c r="G356" s="12"/>
       <c r="H356" s="12"/>
@@ -17405,24 +17393,22 @@
       <c r="N356" s="12"/>
       <c r="O356" s="12"/>
       <c r="P356" s="12"/>
-      <c r="Q356" s="13"/>
+      <c r="Q356" s="13" t="s">
+        <v>336</v>
+      </c>
       <c r="R356" s="13" t="s">
-        <v>820</v>
-      </c>
-      <c r="U356" s="1">
-        <f>MIN(F356:P356)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="357" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="357" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A357" s="10" t="s">
-        <v>532</v>
+        <v>841</v>
       </c>
       <c r="B357" s="10" t="s">
         <v>531</v>
       </c>
-      <c r="C357" s="11">
-        <v>832699</v>
+      <c r="C357" s="51" t="s">
+        <v>842</v>
       </c>
       <c r="D357" s="12">
         <v>4.8000000000000001E-5</v>
@@ -17440,21 +17426,21 @@
       <c r="O357" s="12"/>
       <c r="P357" s="12"/>
       <c r="Q357" s="13" t="s">
-        <v>336</v>
+        <v>843</v>
       </c>
       <c r="R357" s="13" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="358" spans="1:21" x14ac:dyDescent="0.2">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="358" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A358" s="10" t="s">
-        <v>841</v>
+        <v>533</v>
       </c>
       <c r="B358" s="10" t="s">
         <v>531</v>
       </c>
-      <c r="C358" s="51" t="s">
-        <v>842</v>
+      <c r="C358" s="11">
+        <v>2381217</v>
       </c>
       <c r="D358" s="12">
         <v>4.8000000000000001E-5</v>
@@ -17472,26 +17458,28 @@
       <c r="O358" s="12"/>
       <c r="P358" s="12"/>
       <c r="Q358" s="13" t="s">
-        <v>843</v>
+        <v>336</v>
       </c>
       <c r="R358" s="13" t="s">
-        <v>844</v>
+        <v>822</v>
       </c>
     </row>
     <row r="359" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A359" s="10" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B359" s="10" t="s">
         <v>531</v>
       </c>
       <c r="C359" s="11">
-        <v>2381217</v>
+        <v>91576</v>
       </c>
       <c r="D359" s="12">
         <v>4.8000000000000001E-5</v>
       </c>
-      <c r="E359" s="12"/>
+      <c r="E359" s="12">
+        <v>0</v>
+      </c>
       <c r="F359" s="12"/>
       <c r="G359" s="12"/>
       <c r="H359" s="12"/>
@@ -17503,29 +17491,29 @@
       <c r="N359" s="12"/>
       <c r="O359" s="12"/>
       <c r="P359" s="12"/>
-      <c r="Q359" s="13" t="s">
-        <v>336</v>
-      </c>
+      <c r="Q359" s="13"/>
       <c r="R359" s="13" t="s">
-        <v>822</v>
+        <v>820</v>
+      </c>
+      <c r="U359" s="1">
+        <f>MIN(F359:P359)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A360" s="10" t="s">
-        <v>534</v>
+      <c r="A360" s="25" t="s">
+        <v>535</v>
       </c>
       <c r="B360" s="10" t="s">
         <v>531</v>
       </c>
-      <c r="C360" s="11">
-        <v>91576</v>
+      <c r="C360" s="26" t="s">
+        <v>536</v>
       </c>
       <c r="D360" s="12">
         <v>4.8000000000000001E-5</v>
       </c>
-      <c r="E360" s="12">
-        <v>0</v>
-      </c>
+      <c r="E360" s="12"/>
       <c r="F360" s="12"/>
       <c r="G360" s="12"/>
       <c r="H360" s="12"/>
@@ -17537,7 +17525,9 @@
       <c r="N360" s="12"/>
       <c r="O360" s="12"/>
       <c r="P360" s="12"/>
-      <c r="Q360" s="13"/>
+      <c r="Q360" s="14" t="s">
+        <v>92</v>
+      </c>
       <c r="R360" s="13" t="s">
         <v>820</v>
       </c>
@@ -17548,13 +17538,13 @@
     </row>
     <row r="361" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A361" s="25" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B361" s="10" t="s">
         <v>531</v>
       </c>
-      <c r="C361" s="26" t="s">
-        <v>536</v>
+      <c r="C361" s="26">
+        <v>2422799</v>
       </c>
       <c r="D361" s="12">
         <v>4.8000000000000001E-5</v>
@@ -17571,31 +17561,29 @@
       <c r="N361" s="12"/>
       <c r="O361" s="12"/>
       <c r="P361" s="12"/>
-      <c r="Q361" s="14" t="s">
-        <v>92</v>
+      <c r="Q361" s="13" t="s">
+        <v>336</v>
       </c>
       <c r="R361" s="13" t="s">
-        <v>820</v>
-      </c>
-      <c r="U361" s="1">
-        <f>MIN(F361:P361)</f>
-        <v>0</v>
+        <v>822</v>
       </c>
     </row>
     <row r="362" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A362" s="25" t="s">
-        <v>537</v>
+      <c r="A362" s="10" t="s">
+        <v>538</v>
       </c>
       <c r="B362" s="10" t="s">
         <v>531</v>
       </c>
-      <c r="C362" s="26">
-        <v>2422799</v>
+      <c r="C362" s="11">
+        <v>91587</v>
       </c>
       <c r="D362" s="12">
         <v>4.8000000000000001E-5</v>
       </c>
-      <c r="E362" s="12"/>
+      <c r="E362" s="12">
+        <v>0</v>
+      </c>
       <c r="F362" s="12"/>
       <c r="G362" s="12"/>
       <c r="H362" s="12"/>
@@ -17607,22 +17595,24 @@
       <c r="N362" s="12"/>
       <c r="O362" s="12"/>
       <c r="P362" s="12"/>
-      <c r="Q362" s="13" t="s">
-        <v>336</v>
-      </c>
+      <c r="Q362" s="13"/>
       <c r="R362" s="13" t="s">
-        <v>822</v>
+        <v>820</v>
+      </c>
+      <c r="U362" s="1">
+        <f>MIN(F362:P362)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A363" s="10" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B363" s="10" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="C363" s="11">
-        <v>91587</v>
+        <v>83329</v>
       </c>
       <c r="D363" s="12">
         <v>4.8000000000000001E-5</v>
@@ -17643,22 +17633,22 @@
       <c r="P363" s="12"/>
       <c r="Q363" s="13"/>
       <c r="R363" s="13" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="U363" s="1">
-        <f>MIN(F363:P363)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A364" s="10" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B364" s="10" t="s">
         <v>540</v>
       </c>
       <c r="C364" s="11">
-        <v>83329</v>
+        <v>208968</v>
       </c>
       <c r="D364" s="12">
         <v>4.8000000000000001E-5</v>
@@ -17679,7 +17669,7 @@
       <c r="P364" s="12"/>
       <c r="Q364" s="13"/>
       <c r="R364" s="13" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="U364" s="1">
         <f t="shared" si="5"/>
@@ -17688,17 +17678,15 @@
     </row>
     <row r="365" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A365" s="10" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B365" s="10" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="C365" s="11">
-        <v>208968</v>
-      </c>
-      <c r="D365" s="12">
-        <v>4.8000000000000001E-5</v>
-      </c>
+        <v>120127</v>
+      </c>
+      <c r="D365" s="12"/>
       <c r="E365" s="12">
         <v>0</v>
       </c>
@@ -17715,7 +17703,7 @@
       <c r="P365" s="12"/>
       <c r="Q365" s="13"/>
       <c r="R365" s="13" t="s">
-        <v>820</v>
+        <v>544</v>
       </c>
       <c r="U365" s="1">
         <f t="shared" si="5"/>
@@ -17724,18 +17712,18 @@
     </row>
     <row r="366" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A366" s="10" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="B366" s="10" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="C366" s="11">
-        <v>120127</v>
-      </c>
-      <c r="D366" s="12"/>
-      <c r="E366" s="12">
-        <v>0</v>
-      </c>
+        <v>203338</v>
+      </c>
+      <c r="D366" s="12">
+        <v>4.8000000000000001E-5</v>
+      </c>
+      <c r="E366" s="12"/>
       <c r="F366" s="12"/>
       <c r="G366" s="12"/>
       <c r="H366" s="12"/>
@@ -17747,24 +17735,26 @@
       <c r="N366" s="12"/>
       <c r="O366" s="12"/>
       <c r="P366" s="12"/>
-      <c r="Q366" s="13"/>
+      <c r="Q366" s="13" t="s">
+        <v>546</v>
+      </c>
       <c r="R366" s="13" t="s">
-        <v>544</v>
+        <v>834</v>
       </c>
       <c r="U366" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="367" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+        <f>MIN(F366:P366)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A367" s="10" t="s">
-        <v>545</v>
+        <v>607</v>
       </c>
       <c r="B367" s="10" t="s">
         <v>531</v>
       </c>
-      <c r="C367" s="11">
-        <v>203338</v>
+      <c r="C367" s="24" t="s">
+        <v>608</v>
       </c>
       <c r="D367" s="12">
         <v>4.8000000000000001E-5</v>
@@ -17781,26 +17771,22 @@
       <c r="N367" s="12"/>
       <c r="O367" s="12"/>
       <c r="P367" s="12"/>
-      <c r="Q367" s="13" t="s">
-        <v>546</v>
+      <c r="Q367" s="14" t="s">
+        <v>609</v>
       </c>
       <c r="R367" s="13" t="s">
-        <v>834</v>
-      </c>
-      <c r="U367" s="1">
-        <f>MIN(F367:P367)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="368" spans="1:21" ht="51" x14ac:dyDescent="0.2">
-      <c r="A368" s="10" t="s">
-        <v>607</v>
+        <v>835</v>
+      </c>
+    </row>
+    <row r="368" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A368" s="25" t="s">
+        <v>547</v>
       </c>
       <c r="B368" s="10" t="s">
         <v>531</v>
       </c>
-      <c r="C368" s="24" t="s">
-        <v>608</v>
+      <c r="C368" s="37">
+        <v>195197</v>
       </c>
       <c r="D368" s="12">
         <v>4.8000000000000001E-5</v>
@@ -17818,26 +17804,32 @@
       <c r="O368" s="12"/>
       <c r="P368" s="12"/>
       <c r="Q368" s="14" t="s">
-        <v>609</v>
+        <v>48</v>
       </c>
       <c r="R368" s="13" t="s">
-        <v>835</v>
+        <v>820</v>
+      </c>
+      <c r="U368" s="1">
+        <f>MIN(F368:P368)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A369" s="25" t="s">
-        <v>547</v>
+      <c r="A369" s="10" t="s">
+        <v>548</v>
       </c>
       <c r="B369" s="10" t="s">
         <v>531</v>
       </c>
-      <c r="C369" s="37">
-        <v>195197</v>
+      <c r="C369" s="11">
+        <v>192972</v>
       </c>
       <c r="D369" s="12">
         <v>4.8000000000000001E-5</v>
       </c>
-      <c r="E369" s="12"/>
+      <c r="E369" s="12">
+        <v>0</v>
+      </c>
       <c r="F369" s="12"/>
       <c r="G369" s="12"/>
       <c r="H369" s="12"/>
@@ -17849,9 +17841,7 @@
       <c r="N369" s="12"/>
       <c r="O369" s="12"/>
       <c r="P369" s="12"/>
-      <c r="Q369" s="14" t="s">
-        <v>48</v>
-      </c>
+      <c r="Q369" s="13"/>
       <c r="R369" s="13" t="s">
         <v>820</v>
       </c>
@@ -17862,23 +17852,23 @@
     </row>
     <row r="370" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A370" s="10" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B370" s="10" t="s">
         <v>531</v>
       </c>
       <c r="C370" s="11">
-        <v>192972</v>
+        <v>56832736</v>
       </c>
       <c r="D370" s="12">
         <v>4.8000000000000001E-5</v>
       </c>
-      <c r="E370" s="12">
-        <v>0</v>
-      </c>
+      <c r="E370" s="12"/>
       <c r="F370" s="12"/>
       <c r="G370" s="12"/>
-      <c r="H370" s="12"/>
+      <c r="H370" s="12" t="s">
+        <v>550</v>
+      </c>
       <c r="I370" s="12"/>
       <c r="J370" s="12"/>
       <c r="K370" s="12"/>
@@ -17887,9 +17877,11 @@
       <c r="N370" s="12"/>
       <c r="O370" s="12"/>
       <c r="P370" s="12"/>
-      <c r="Q370" s="13"/>
+      <c r="Q370" s="14" t="s">
+        <v>546</v>
+      </c>
       <c r="R370" s="13" t="s">
-        <v>820</v>
+        <v>834</v>
       </c>
       <c r="U370" s="1">
         <f>MIN(F370:P370)</f>
@@ -17898,23 +17890,23 @@
     </row>
     <row r="371" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A371" s="10" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B371" s="10" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="C371" s="11">
-        <v>56832736</v>
+        <v>191242</v>
       </c>
       <c r="D371" s="12">
         <v>4.8000000000000001E-5</v>
       </c>
-      <c r="E371" s="12"/>
+      <c r="E371" s="12">
+        <v>0</v>
+      </c>
       <c r="F371" s="12"/>
       <c r="G371" s="12"/>
-      <c r="H371" s="12" t="s">
-        <v>550</v>
-      </c>
+      <c r="H371" s="12"/>
       <c r="I371" s="12"/>
       <c r="J371" s="12"/>
       <c r="K371" s="12"/>
@@ -17923,33 +17915,29 @@
       <c r="N371" s="12"/>
       <c r="O371" s="12"/>
       <c r="P371" s="12"/>
-      <c r="Q371" s="14" t="s">
-        <v>546</v>
-      </c>
+      <c r="Q371" s="13"/>
       <c r="R371" s="13" t="s">
-        <v>834</v>
+        <v>820</v>
       </c>
       <c r="U371" s="1">
-        <f>MIN(F371:P371)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A372" s="10" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B372" s="10" t="s">
-        <v>540</v>
-      </c>
-      <c r="C372" s="11">
-        <v>191242</v>
+        <v>529</v>
+      </c>
+      <c r="C372" s="11" t="s">
+        <v>554</v>
       </c>
       <c r="D372" s="12">
         <v>4.8000000000000001E-5</v>
       </c>
-      <c r="E372" s="12">
-        <v>0</v>
-      </c>
+      <c r="E372" s="12"/>
       <c r="F372" s="12"/>
       <c r="G372" s="12"/>
       <c r="H372" s="12"/>
@@ -17963,22 +17951,18 @@
       <c r="P372" s="12"/>
       <c r="Q372" s="13"/>
       <c r="R372" s="13" t="s">
-        <v>820</v>
-      </c>
-      <c r="U372" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>824</v>
       </c>
     </row>
     <row r="373" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A373" s="10" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B373" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="C373" s="11" t="s">
-        <v>554</v>
+        <v>540</v>
+      </c>
+      <c r="C373" s="24">
+        <v>284</v>
       </c>
       <c r="D373" s="12">
         <v>4.8000000000000001E-5</v>
@@ -17995,25 +17979,29 @@
       <c r="N373" s="12"/>
       <c r="O373" s="12"/>
       <c r="P373" s="12"/>
-      <c r="Q373" s="13"/>
+      <c r="Q373" s="13" t="s">
+        <v>336</v>
+      </c>
       <c r="R373" s="13" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="374" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A374" s="10" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B374" s="10" t="s">
         <v>540</v>
       </c>
-      <c r="C374" s="24">
-        <v>284</v>
+      <c r="C374" s="11">
+        <v>206440</v>
       </c>
       <c r="D374" s="12">
         <v>4.8000000000000001E-5</v>
       </c>
-      <c r="E374" s="12"/>
+      <c r="E374" s="12">
+        <v>0</v>
+      </c>
       <c r="F374" s="12"/>
       <c r="G374" s="12"/>
       <c r="H374" s="12"/>
@@ -18025,22 +18013,24 @@
       <c r="N374" s="12"/>
       <c r="O374" s="12"/>
       <c r="P374" s="12"/>
-      <c r="Q374" s="13" t="s">
-        <v>336</v>
-      </c>
+      <c r="Q374" s="13"/>
       <c r="R374" s="13" t="s">
-        <v>822</v>
+        <v>820</v>
+      </c>
+      <c r="U374" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A375" s="10" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B375" s="10" t="s">
         <v>540</v>
       </c>
       <c r="C375" s="11">
-        <v>206440</v>
+        <v>86737</v>
       </c>
       <c r="D375" s="12">
         <v>4.8000000000000001E-5</v>
@@ -18070,20 +18060,18 @@
     </row>
     <row r="376" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A376" s="10" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B376" s="10" t="s">
-        <v>540</v>
-      </c>
-      <c r="C376" s="11">
-        <v>86737</v>
+        <v>531</v>
+      </c>
+      <c r="C376" s="11" t="s">
+        <v>559</v>
       </c>
       <c r="D376" s="12">
         <v>4.8000000000000001E-5</v>
       </c>
-      <c r="E376" s="12">
-        <v>0</v>
-      </c>
+      <c r="E376" s="12"/>
       <c r="F376" s="12"/>
       <c r="G376" s="12"/>
       <c r="H376" s="12"/>
@@ -18097,22 +18085,18 @@
       <c r="P376" s="12"/>
       <c r="Q376" s="13"/>
       <c r="R376" s="13" t="s">
-        <v>820</v>
-      </c>
-      <c r="U376" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>825</v>
       </c>
     </row>
     <row r="377" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A377" s="10" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="B377" s="10" t="s">
         <v>531</v>
       </c>
-      <c r="C377" s="11" t="s">
-        <v>559</v>
+      <c r="C377" s="11">
+        <v>26914181</v>
       </c>
       <c r="D377" s="12">
         <v>4.8000000000000001E-5</v>
@@ -18129,20 +18113,22 @@
       <c r="N377" s="12"/>
       <c r="O377" s="12"/>
       <c r="P377" s="12"/>
-      <c r="Q377" s="13"/>
+      <c r="Q377" s="13" t="s">
+        <v>336</v>
+      </c>
       <c r="R377" s="13" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
     </row>
     <row r="378" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A378" s="10" t="s">
-        <v>560</v>
+        <v>790</v>
       </c>
       <c r="B378" s="10" t="s">
         <v>531</v>
       </c>
-      <c r="C378" s="11">
-        <v>26914181</v>
+      <c r="C378" s="11" t="s">
+        <v>791</v>
       </c>
       <c r="D378" s="12">
         <v>4.8000000000000001E-5</v>
@@ -18160,21 +18146,21 @@
       <c r="O378" s="12"/>
       <c r="P378" s="12"/>
       <c r="Q378" s="13" t="s">
-        <v>336</v>
+        <v>816</v>
       </c>
       <c r="R378" s="13" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
     </row>
     <row r="379" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A379" s="10" t="s">
-        <v>790</v>
+        <v>561</v>
       </c>
       <c r="B379" s="10" t="s">
         <v>531</v>
       </c>
-      <c r="C379" s="11" t="s">
-        <v>791</v>
+      <c r="C379" s="11">
+        <v>65357699</v>
       </c>
       <c r="D379" s="12">
         <v>4.8000000000000001E-5</v>
@@ -18192,21 +18178,21 @@
       <c r="O379" s="12"/>
       <c r="P379" s="12"/>
       <c r="Q379" s="13" t="s">
-        <v>816</v>
+        <v>336</v>
       </c>
       <c r="R379" s="13" t="s">
-        <v>815</v>
+        <v>822</v>
       </c>
     </row>
     <row r="380" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A380" s="10" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B380" s="10" t="s">
         <v>531</v>
       </c>
-      <c r="C380" s="11">
-        <v>65357699</v>
+      <c r="C380" s="11" t="s">
+        <v>563</v>
       </c>
       <c r="D380" s="12">
         <v>4.8000000000000001E-5</v>
@@ -18224,21 +18210,25 @@
       <c r="O380" s="12"/>
       <c r="P380" s="12"/>
       <c r="Q380" s="13" t="s">
-        <v>336</v>
+        <v>92</v>
       </c>
       <c r="R380" s="13" t="s">
-        <v>822</v>
+        <v>820</v>
+      </c>
+      <c r="U380" s="1">
+        <f>MIN(F380:P380)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A381" s="10" t="s">
-        <v>562</v>
+      <c r="A381" s="25" t="s">
+        <v>564</v>
       </c>
       <c r="B381" s="10" t="s">
         <v>531</v>
       </c>
-      <c r="C381" s="11" t="s">
-        <v>563</v>
+      <c r="C381" s="37">
+        <v>198550</v>
       </c>
       <c r="D381" s="12">
         <v>4.8000000000000001E-5</v>
@@ -18255,8 +18245,8 @@
       <c r="N381" s="12"/>
       <c r="O381" s="12"/>
       <c r="P381" s="12"/>
-      <c r="Q381" s="13" t="s">
-        <v>92</v>
+      <c r="Q381" s="14" t="s">
+        <v>48</v>
       </c>
       <c r="R381" s="13" t="s">
         <v>820</v>
@@ -18267,19 +18257,19 @@
       </c>
     </row>
     <row r="382" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A382" s="25" t="s">
-        <v>564</v>
+      <c r="A382" s="10" t="s">
+        <v>565</v>
       </c>
       <c r="B382" s="10" t="s">
-        <v>531</v>
-      </c>
-      <c r="C382" s="37">
-        <v>198550</v>
-      </c>
-      <c r="D382" s="12">
-        <v>4.8000000000000001E-5</v>
-      </c>
-      <c r="E382" s="12"/>
+        <v>543</v>
+      </c>
+      <c r="C382" s="11">
+        <v>85018</v>
+      </c>
+      <c r="D382" s="12"/>
+      <c r="E382" s="12">
+        <v>0</v>
+      </c>
       <c r="F382" s="12"/>
       <c r="G382" s="12"/>
       <c r="H382" s="12"/>
@@ -18291,26 +18281,24 @@
       <c r="N382" s="12"/>
       <c r="O382" s="12"/>
       <c r="P382" s="12"/>
-      <c r="Q382" s="14" t="s">
-        <v>48</v>
-      </c>
+      <c r="Q382" s="13"/>
       <c r="R382" s="13" t="s">
-        <v>820</v>
+        <v>544</v>
       </c>
       <c r="U382" s="1">
-        <f>MIN(F382:P382)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A383" s="10" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B383" s="10" t="s">
         <v>543</v>
       </c>
       <c r="C383" s="11">
-        <v>85018</v>
+        <v>129000</v>
       </c>
       <c r="D383" s="12"/>
       <c r="E383" s="12">
@@ -18336,20 +18324,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A384" s="10" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B384" s="10" t="s">
-        <v>543</v>
-      </c>
-      <c r="C384" s="11">
-        <v>129000</v>
-      </c>
-      <c r="D384" s="12"/>
-      <c r="E384" s="12">
-        <v>0</v>
-      </c>
+        <v>568</v>
+      </c>
+      <c r="C384" s="11"/>
+      <c r="D384" s="23">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E384" s="12"/>
       <c r="F384" s="12"/>
       <c r="G384" s="12"/>
       <c r="H384" s="12"/>
@@ -18361,27 +18347,33 @@
       <c r="N384" s="12"/>
       <c r="O384" s="12"/>
       <c r="P384" s="12"/>
-      <c r="Q384" s="13"/>
+      <c r="Q384" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="R384" s="13" t="s">
-        <v>544</v>
+        <v>803</v>
       </c>
       <c r="U384" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="385" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+        <f t="shared" ref="U384:U463" si="6">MIN(F384:P384)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A385" s="10" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B385" s="10" t="s">
-        <v>568</v>
-      </c>
-      <c r="C385" s="11"/>
-      <c r="D385" s="23">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="E385" s="12"/>
+        <v>570</v>
+      </c>
+      <c r="C385" s="11">
+        <v>57976</v>
+      </c>
+      <c r="D385" s="12">
+        <v>0.11360000000000001</v>
+      </c>
+      <c r="E385" s="12">
+        <v>0</v>
+      </c>
       <c r="F385" s="12"/>
       <c r="G385" s="12"/>
       <c r="H385" s="12"/>
@@ -18393,33 +18385,29 @@
       <c r="N385" s="12"/>
       <c r="O385" s="12"/>
       <c r="P385" s="12"/>
-      <c r="Q385" s="14" t="s">
-        <v>48</v>
+      <c r="Q385" s="13" t="s">
+        <v>571</v>
       </c>
       <c r="R385" s="13" t="s">
-        <v>803</v>
+        <v>826</v>
       </c>
       <c r="U385" s="1">
-        <f t="shared" ref="U385:U464" si="6">MIN(F385:P385)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="386" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A386" s="10" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="B386" s="10" t="s">
-        <v>570</v>
-      </c>
-      <c r="C386" s="11">
-        <v>57976</v>
-      </c>
-      <c r="D386" s="12">
-        <v>0.11360000000000001</v>
-      </c>
-      <c r="E386" s="12">
-        <v>0</v>
-      </c>
+        <v>573</v>
+      </c>
+      <c r="C386" s="11"/>
+      <c r="D386" s="23">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="E386" s="12"/>
       <c r="F386" s="12"/>
       <c r="G386" s="12"/>
       <c r="H386" s="12"/>
@@ -18431,29 +18419,33 @@
       <c r="N386" s="12"/>
       <c r="O386" s="12"/>
       <c r="P386" s="12"/>
-      <c r="Q386" s="13" t="s">
-        <v>571</v>
+      <c r="Q386" s="14" t="s">
+        <v>48</v>
       </c>
       <c r="R386" s="13" t="s">
-        <v>826</v>
+        <v>804</v>
       </c>
       <c r="U386" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A387" s="10" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="B387" s="10" t="s">
-        <v>573</v>
-      </c>
-      <c r="C387" s="11"/>
-      <c r="D387" s="23">
+        <v>575</v>
+      </c>
+      <c r="C387" s="11">
+        <v>42397648</v>
+      </c>
+      <c r="D387" s="12">
         <v>9.5999999999999992E-3</v>
       </c>
-      <c r="E387" s="12"/>
+      <c r="E387" s="12">
+        <v>0</v>
+      </c>
       <c r="F387" s="12"/>
       <c r="G387" s="12"/>
       <c r="H387" s="12"/>
@@ -18465,29 +18457,27 @@
       <c r="N387" s="12"/>
       <c r="O387" s="12"/>
       <c r="P387" s="12"/>
-      <c r="Q387" s="14" t="s">
-        <v>48</v>
-      </c>
+      <c r="Q387" s="13"/>
       <c r="R387" s="13" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="U387" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="388" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+        <f>MIN(F387:P387)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A388" s="10" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="B388" s="10" t="s">
         <v>575</v>
       </c>
       <c r="C388" s="11">
-        <v>42397648</v>
+        <v>56495</v>
       </c>
       <c r="D388" s="12">
-        <v>9.5999999999999992E-3</v>
+        <v>1.008E-2</v>
       </c>
       <c r="E388" s="12">
         <v>0</v>
@@ -18505,25 +18495,25 @@
       <c r="P388" s="12"/>
       <c r="Q388" s="13"/>
       <c r="R388" s="13" t="s">
-        <v>805</v>
+        <v>827</v>
       </c>
       <c r="U388" s="1">
         <f>MIN(F388:P388)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A389" s="10" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B389" s="10" t="s">
         <v>575</v>
       </c>
       <c r="C389" s="11">
-        <v>56495</v>
+        <v>7496028</v>
       </c>
       <c r="D389" s="12">
-        <v>1.008E-2</v>
+        <v>9.5999999999999992E-3</v>
       </c>
       <c r="E389" s="12">
         <v>0</v>
@@ -18541,7 +18531,7 @@
       <c r="P389" s="12"/>
       <c r="Q389" s="13"/>
       <c r="R389" s="13" t="s">
-        <v>827</v>
+        <v>805</v>
       </c>
       <c r="U389" s="1">
         <f>MIN(F389:P389)</f>
@@ -18550,13 +18540,13 @@
     </row>
     <row r="390" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A390" s="10" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B390" s="10" t="s">
         <v>575</v>
       </c>
       <c r="C390" s="11">
-        <v>7496028</v>
+        <v>189640</v>
       </c>
       <c r="D390" s="12">
         <v>9.5999999999999992E-3</v>
@@ -18580,19 +18570,19 @@
         <v>805</v>
       </c>
       <c r="U390" s="1">
-        <f>MIN(F390:P390)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A391" s="10" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B391" s="10" t="s">
         <v>575</v>
       </c>
       <c r="C391" s="11">
-        <v>189640</v>
+        <v>189559</v>
       </c>
       <c r="D391" s="12">
         <v>9.5999999999999992E-3</v>
@@ -18622,13 +18612,13 @@
     </row>
     <row r="392" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A392" s="10" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B392" s="10" t="s">
         <v>575</v>
       </c>
       <c r="C392" s="11">
-        <v>189559</v>
+        <v>191300</v>
       </c>
       <c r="D392" s="12">
         <v>9.5999999999999992E-3</v>
@@ -18652,26 +18642,22 @@
         <v>805</v>
       </c>
       <c r="U392" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="393" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+        <f>MIN(F392:P392)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A393" s="10" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B393" s="10" t="s">
-        <v>575</v>
-      </c>
-      <c r="C393" s="11">
-        <v>191300</v>
-      </c>
-      <c r="D393" s="12">
-        <v>9.5999999999999992E-3</v>
-      </c>
-      <c r="E393" s="12">
-        <v>0</v>
-      </c>
+        <v>582</v>
+      </c>
+      <c r="C393" s="11"/>
+      <c r="D393" s="23">
+        <v>9.6000000000000002E-4</v>
+      </c>
+      <c r="E393" s="12"/>
       <c r="F393" s="12"/>
       <c r="G393" s="12"/>
       <c r="H393" s="12"/>
@@ -18683,27 +18669,33 @@
       <c r="N393" s="12"/>
       <c r="O393" s="12"/>
       <c r="P393" s="12"/>
-      <c r="Q393" s="13"/>
+      <c r="Q393" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="R393" s="13" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="U393" s="1">
-        <f>MIN(F393:P393)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="394" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A394" s="10" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="B394" s="10" t="s">
-        <v>582</v>
-      </c>
-      <c r="C394" s="11"/>
-      <c r="D394" s="23">
+        <v>584</v>
+      </c>
+      <c r="C394" s="11">
+        <v>42397659</v>
+      </c>
+      <c r="D394" s="12">
         <v>9.6000000000000002E-4</v>
       </c>
-      <c r="E394" s="12"/>
+      <c r="E394" s="12">
+        <v>0</v>
+      </c>
       <c r="F394" s="12"/>
       <c r="G394" s="12"/>
       <c r="H394" s="12"/>
@@ -18715,33 +18707,29 @@
       <c r="N394" s="12"/>
       <c r="O394" s="12"/>
       <c r="P394" s="12"/>
-      <c r="Q394" s="14" t="s">
-        <v>48</v>
-      </c>
+      <c r="Q394" s="13"/>
       <c r="R394" s="13" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="U394" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="395" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+        <f t="shared" ref="U394:U402" si="7">MIN(F394:P394)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A395" s="10" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B395" s="10" t="s">
         <v>584</v>
       </c>
-      <c r="C395" s="11">
-        <v>42397659</v>
+      <c r="C395" s="11" t="s">
+        <v>586</v>
       </c>
       <c r="D395" s="12">
-        <v>9.6000000000000002E-4</v>
-      </c>
-      <c r="E395" s="12">
-        <v>0</v>
-      </c>
+        <v>2.0799999999999998E-3</v>
+      </c>
+      <c r="E395" s="12"/>
       <c r="F395" s="12"/>
       <c r="G395" s="12"/>
       <c r="H395" s="12"/>
@@ -18753,27 +18741,29 @@
       <c r="N395" s="12"/>
       <c r="O395" s="12"/>
       <c r="P395" s="12"/>
-      <c r="Q395" s="13"/>
+      <c r="Q395" s="13" t="s">
+        <v>92</v>
+      </c>
       <c r="R395" s="13" t="s">
-        <v>807</v>
+        <v>828</v>
       </c>
       <c r="U395" s="1">
-        <f t="shared" ref="U395:U403" si="7">MIN(F395:P395)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="396" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A396" s="10" t="s">
-        <v>585</v>
+        <v>793</v>
       </c>
       <c r="B396" s="10" t="s">
-        <v>584</v>
+        <v>794</v>
       </c>
       <c r="C396" s="11" t="s">
-        <v>586</v>
+        <v>795</v>
       </c>
       <c r="D396" s="12">
-        <v>2.0799999999999998E-3</v>
+        <v>9.6000000000000002E-4</v>
       </c>
       <c r="E396" s="12"/>
       <c r="F396" s="12"/>
@@ -18788,30 +18778,28 @@
       <c r="O396" s="12"/>
       <c r="P396" s="12"/>
       <c r="Q396" s="13" t="s">
-        <v>92</v>
+        <v>816</v>
       </c>
       <c r="R396" s="13" t="s">
-        <v>828</v>
-      </c>
-      <c r="U396" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>807</v>
       </c>
     </row>
     <row r="397" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A397" s="10" t="s">
-        <v>793</v>
+        <v>587</v>
       </c>
       <c r="B397" s="10" t="s">
-        <v>794</v>
-      </c>
-      <c r="C397" s="11" t="s">
-        <v>795</v>
+        <v>584</v>
+      </c>
+      <c r="C397" s="11">
+        <v>3697243</v>
       </c>
       <c r="D397" s="12">
         <v>9.6000000000000002E-4</v>
       </c>
-      <c r="E397" s="12"/>
+      <c r="E397" s="12">
+        <v>0</v>
+      </c>
       <c r="F397" s="12"/>
       <c r="G397" s="12"/>
       <c r="H397" s="12"/>
@@ -18823,22 +18811,24 @@
       <c r="N397" s="12"/>
       <c r="O397" s="12"/>
       <c r="P397" s="12"/>
-      <c r="Q397" s="13" t="s">
-        <v>816</v>
-      </c>
+      <c r="Q397" s="13"/>
       <c r="R397" s="13" t="s">
         <v>807</v>
       </c>
+      <c r="U397" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="398" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A398" s="10" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B398" s="10" t="s">
         <v>584</v>
       </c>
       <c r="C398" s="11">
-        <v>3697243</v>
+        <v>194592</v>
       </c>
       <c r="D398" s="12">
         <v>9.6000000000000002E-4</v>
@@ -18866,21 +18856,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:21" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="10" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B399" s="10" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="C399" s="11">
-        <v>194592</v>
+        <v>50328</v>
       </c>
       <c r="D399" s="12">
         <v>9.6000000000000002E-4</v>
       </c>
       <c r="E399" s="12">
-        <v>0</v>
+        <v>1.9999999999999999E-6</v>
       </c>
       <c r="F399" s="12"/>
       <c r="G399" s="12"/>
@@ -18893,30 +18883,32 @@
       <c r="N399" s="12"/>
       <c r="O399" s="12"/>
       <c r="P399" s="12"/>
-      <c r="Q399" s="13"/>
+      <c r="Q399" s="13" t="s">
+        <v>591</v>
+      </c>
       <c r="R399" s="13" t="s">
-        <v>807</v>
+        <v>848</v>
       </c>
       <c r="U399" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:21" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A400" s="10" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B400" s="10" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="C400" s="11">
-        <v>50328</v>
+        <v>192654</v>
       </c>
       <c r="D400" s="12">
         <v>9.6000000000000002E-4</v>
       </c>
       <c r="E400" s="12">
-        <v>1.9999999999999999E-6</v>
+        <v>0</v>
       </c>
       <c r="F400" s="12"/>
       <c r="G400" s="12"/>
@@ -18929,26 +18921,24 @@
       <c r="N400" s="12"/>
       <c r="O400" s="12"/>
       <c r="P400" s="12"/>
-      <c r="Q400" s="13" t="s">
-        <v>591</v>
-      </c>
+      <c r="Q400" s="13"/>
       <c r="R400" s="13" t="s">
-        <v>848</v>
+        <v>807</v>
       </c>
       <c r="U400" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:21" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="10" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B401" s="10" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="C401" s="11">
-        <v>192654</v>
+        <v>53703</v>
       </c>
       <c r="D401" s="12">
         <v>9.6000000000000002E-4</v>
@@ -18967,24 +18957,26 @@
       <c r="N401" s="12"/>
       <c r="O401" s="12"/>
       <c r="P401" s="12"/>
-      <c r="Q401" s="13"/>
+      <c r="Q401" s="13" t="s">
+        <v>594</v>
+      </c>
       <c r="R401" s="13" t="s">
-        <v>807</v>
+        <v>829</v>
       </c>
       <c r="U401" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:21" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A402" s="10" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B402" s="10" t="s">
-        <v>590</v>
-      </c>
-      <c r="C402" s="11">
-        <v>53703</v>
+        <v>582</v>
+      </c>
+      <c r="C402" s="11" t="s">
+        <v>596</v>
       </c>
       <c r="D402" s="12">
         <v>9.6000000000000002E-4</v>
@@ -19003,33 +18995,27 @@
       <c r="N402" s="12"/>
       <c r="O402" s="12"/>
       <c r="P402" s="12"/>
-      <c r="Q402" s="13" t="s">
-        <v>594</v>
-      </c>
+      <c r="Q402" s="13"/>
       <c r="R402" s="13" t="s">
-        <v>829</v>
+        <v>807</v>
       </c>
       <c r="U402" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A403" s="10" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="B403" s="10" t="s">
-        <v>582</v>
-      </c>
-      <c r="C403" s="11" t="s">
-        <v>596</v>
-      </c>
-      <c r="D403" s="12">
-        <v>9.6000000000000002E-4</v>
-      </c>
-      <c r="E403" s="12">
-        <v>0</v>
-      </c>
+        <v>598</v>
+      </c>
+      <c r="C403" s="11"/>
+      <c r="D403" s="23">
+        <v>9.6000000000000002E-5</v>
+      </c>
+      <c r="E403" s="12"/>
       <c r="F403" s="12"/>
       <c r="G403" s="12"/>
       <c r="H403" s="12"/>
@@ -19041,27 +19027,33 @@
       <c r="N403" s="12"/>
       <c r="O403" s="12"/>
       <c r="P403" s="12"/>
-      <c r="Q403" s="13"/>
+      <c r="Q403" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="R403" s="13" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="U403" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="404" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A404" s="10" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B404" s="10" t="s">
-        <v>598</v>
-      </c>
-      <c r="C404" s="11"/>
-      <c r="D404" s="23">
+        <v>600</v>
+      </c>
+      <c r="C404" s="11">
+        <v>5522430</v>
+      </c>
+      <c r="D404" s="12">
         <v>9.6000000000000002E-5</v>
       </c>
-      <c r="E404" s="12"/>
+      <c r="E404" s="12">
+        <v>0</v>
+      </c>
       <c r="F404" s="12"/>
       <c r="G404" s="12"/>
       <c r="H404" s="12"/>
@@ -19073,26 +19065,24 @@
       <c r="N404" s="12"/>
       <c r="O404" s="12"/>
       <c r="P404" s="12"/>
-      <c r="Q404" s="14" t="s">
-        <v>48</v>
-      </c>
+      <c r="Q404" s="13"/>
       <c r="R404" s="13" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="U404" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="U404:U409" si="8">MIN(F404:P404)</f>
         <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A405" s="10" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B405" s="10" t="s">
         <v>600</v>
       </c>
       <c r="C405" s="11">
-        <v>5522430</v>
+        <v>57835924</v>
       </c>
       <c r="D405" s="12">
         <v>9.6000000000000002E-5</v>
@@ -19116,22 +19106,22 @@
         <v>809</v>
       </c>
       <c r="U405" s="1">
-        <f t="shared" ref="U405:U410" si="8">MIN(F405:P405)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="406" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A406" s="10" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B406" s="10" t="s">
         <v>600</v>
       </c>
       <c r="C406" s="11">
-        <v>57835924</v>
+        <v>602879</v>
       </c>
       <c r="D406" s="12">
-        <v>9.6000000000000002E-5</v>
+        <v>5.9200000000000002E-5</v>
       </c>
       <c r="E406" s="12">
         <v>0</v>
@@ -19149,7 +19139,7 @@
       <c r="P406" s="12"/>
       <c r="Q406" s="13"/>
       <c r="R406" s="13" t="s">
-        <v>809</v>
+        <v>830</v>
       </c>
       <c r="U406" s="1">
         <f t="shared" si="8"/>
@@ -19158,16 +19148,16 @@
     </row>
     <row r="407" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A407" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B407" s="10" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="C407" s="11">
-        <v>602879</v>
+        <v>56553</v>
       </c>
       <c r="D407" s="12">
-        <v>5.9200000000000002E-5</v>
+        <v>9.6000000000000002E-5</v>
       </c>
       <c r="E407" s="12">
         <v>0</v>
@@ -19183,9 +19173,11 @@
       <c r="N407" s="12"/>
       <c r="O407" s="12"/>
       <c r="P407" s="12"/>
-      <c r="Q407" s="13"/>
+      <c r="Q407" s="13" t="s">
+        <v>591</v>
+      </c>
       <c r="R407" s="13" t="s">
-        <v>830</v>
+        <v>809</v>
       </c>
       <c r="U407" s="1">
         <f t="shared" si="8"/>
@@ -19194,13 +19186,13 @@
     </row>
     <row r="408" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A408" s="10" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B408" s="10" t="s">
         <v>604</v>
       </c>
       <c r="C408" s="11">
-        <v>56553</v>
+        <v>205992</v>
       </c>
       <c r="D408" s="12">
         <v>9.6000000000000002E-5</v>
@@ -19230,22 +19222,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A409" s="10" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B409" s="10" t="s">
         <v>604</v>
       </c>
-      <c r="C409" s="11">
-        <v>205992</v>
+      <c r="C409" s="24">
+        <v>102</v>
       </c>
       <c r="D409" s="12">
         <v>9.6000000000000002E-5</v>
       </c>
-      <c r="E409" s="12">
-        <v>0</v>
-      </c>
+      <c r="E409" s="12"/>
       <c r="F409" s="12"/>
       <c r="G409" s="12"/>
       <c r="H409" s="12"/>
@@ -19257,8 +19247,8 @@
       <c r="N409" s="12"/>
       <c r="O409" s="12"/>
       <c r="P409" s="12"/>
-      <c r="Q409" s="13" t="s">
-        <v>591</v>
+      <c r="Q409" s="14" t="s">
+        <v>48</v>
       </c>
       <c r="R409" s="13" t="s">
         <v>809</v>
@@ -19270,18 +19260,20 @@
     </row>
     <row r="410" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A410" s="10" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="B410" s="10" t="s">
-        <v>604</v>
-      </c>
-      <c r="C410" s="24">
-        <v>102</v>
+        <v>600</v>
+      </c>
+      <c r="C410" s="11">
+        <v>205823</v>
       </c>
       <c r="D410" s="12">
         <v>9.6000000000000002E-5</v>
       </c>
-      <c r="E410" s="12"/>
+      <c r="E410" s="12">
+        <v>0</v>
+      </c>
       <c r="F410" s="12"/>
       <c r="G410" s="12"/>
       <c r="H410" s="12"/>
@@ -19293,26 +19285,24 @@
       <c r="N410" s="12"/>
       <c r="O410" s="12"/>
       <c r="P410" s="12"/>
-      <c r="Q410" s="14" t="s">
-        <v>48</v>
-      </c>
+      <c r="Q410" s="13"/>
       <c r="R410" s="13" t="s">
         <v>809</v>
       </c>
       <c r="U410" s="1">
-        <f t="shared" si="8"/>
+        <f>MIN(F410:P410)</f>
         <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A411" s="10" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="B411" s="10" t="s">
         <v>600</v>
       </c>
       <c r="C411" s="11">
-        <v>205823</v>
+        <v>226368</v>
       </c>
       <c r="D411" s="12">
         <v>9.6000000000000002E-5</v>
@@ -19342,13 +19332,13 @@
     </row>
     <row r="412" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A412" s="10" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B412" s="10" t="s">
         <v>600</v>
       </c>
       <c r="C412" s="11">
-        <v>226368</v>
+        <v>224420</v>
       </c>
       <c r="D412" s="12">
         <v>9.6000000000000002E-5</v>
@@ -19376,15 +19366,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:21" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A413" s="10" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B413" s="10" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="C413" s="11">
-        <v>224420</v>
+        <v>193395</v>
       </c>
       <c r="D413" s="12">
         <v>9.6000000000000002E-5</v>
@@ -19403,7 +19393,9 @@
       <c r="N413" s="12"/>
       <c r="O413" s="12"/>
       <c r="P413" s="12"/>
-      <c r="Q413" s="13"/>
+      <c r="Q413" s="13" t="s">
+        <v>615</v>
+      </c>
       <c r="R413" s="13" t="s">
         <v>809</v>
       </c>
@@ -19412,22 +19404,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:21" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A414" s="10" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="B414" s="10" t="s">
-        <v>604</v>
-      </c>
-      <c r="C414" s="11">
-        <v>193395</v>
-      </c>
-      <c r="D414" s="12">
-        <v>9.6000000000000002E-5</v>
-      </c>
-      <c r="E414" s="12">
-        <v>0</v>
-      </c>
+        <v>617</v>
+      </c>
+      <c r="C414" s="11"/>
+      <c r="D414" s="23">
+        <v>9.5999999999999996E-6</v>
+      </c>
+      <c r="E414" s="12"/>
       <c r="F414" s="12"/>
       <c r="G414" s="12"/>
       <c r="H414" s="12"/>
@@ -19439,29 +19427,33 @@
       <c r="N414" s="12"/>
       <c r="O414" s="12"/>
       <c r="P414" s="12"/>
-      <c r="Q414" s="13" t="s">
-        <v>615</v>
+      <c r="Q414" s="14" t="s">
+        <v>48</v>
       </c>
       <c r="R414" s="13" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="U414" s="1">
-        <f>MIN(F414:P414)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="415" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:21" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="10" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="B415" s="10" t="s">
-        <v>617</v>
-      </c>
-      <c r="C415" s="11"/>
-      <c r="D415" s="23">
+        <v>624</v>
+      </c>
+      <c r="C415" s="11">
+        <v>207089</v>
+      </c>
+      <c r="D415" s="12">
         <v>9.5999999999999996E-6</v>
       </c>
-      <c r="E415" s="12"/>
+      <c r="E415" s="12">
+        <v>0</v>
+      </c>
       <c r="F415" s="12"/>
       <c r="G415" s="12"/>
       <c r="H415" s="12"/>
@@ -19473,33 +19465,31 @@
       <c r="N415" s="12"/>
       <c r="O415" s="12"/>
       <c r="P415" s="12"/>
-      <c r="Q415" s="14" t="s">
-        <v>48</v>
+      <c r="Q415" s="13" t="s">
+        <v>591</v>
       </c>
       <c r="R415" s="13" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="U415" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="416" spans="1:21" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>MIN(F415:P415)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A416" s="10" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="B416" s="10" t="s">
-        <v>624</v>
-      </c>
-      <c r="C416" s="11">
-        <v>207089</v>
-      </c>
-      <c r="D416" s="12">
-        <v>9.5999999999999996E-6</v>
-      </c>
-      <c r="E416" s="12">
-        <v>0</v>
-      </c>
+        <v>619</v>
+      </c>
+      <c r="C416" s="11" t="s">
+        <v>620</v>
+      </c>
+      <c r="D416" s="15">
+        <v>1.504E-5</v>
+      </c>
+      <c r="E416" s="12"/>
       <c r="F416" s="12"/>
       <c r="G416" s="12"/>
       <c r="H416" s="12"/>
@@ -19512,30 +19502,32 @@
       <c r="O416" s="12"/>
       <c r="P416" s="12"/>
       <c r="Q416" s="13" t="s">
-        <v>591</v>
+        <v>92</v>
       </c>
       <c r="R416" s="13" t="s">
-        <v>811</v>
+        <v>831</v>
       </c>
       <c r="U416" s="1">
         <f>MIN(F416:P416)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="10" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="B417" s="10" t="s">
         <v>619</v>
       </c>
-      <c r="C417" s="11" t="s">
-        <v>620</v>
-      </c>
-      <c r="D417" s="15">
-        <v>1.504E-5</v>
-      </c>
-      <c r="E417" s="12"/>
+      <c r="C417" s="11">
+        <v>607578</v>
+      </c>
+      <c r="D417" s="12">
+        <v>9.5999999999999996E-6</v>
+      </c>
+      <c r="E417" s="12">
+        <v>0</v>
+      </c>
       <c r="F417" s="12"/>
       <c r="G417" s="12"/>
       <c r="H417" s="12"/>
@@ -19547,28 +19539,26 @@
       <c r="N417" s="12"/>
       <c r="O417" s="12"/>
       <c r="P417" s="12"/>
-      <c r="Q417" s="13" t="s">
-        <v>92</v>
-      </c>
+      <c r="Q417" s="13"/>
       <c r="R417" s="13" t="s">
-        <v>831</v>
+        <v>812</v>
       </c>
       <c r="U417" s="1">
         <f>MIN(F417:P417)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A418" s="10" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B418" s="10" t="s">
         <v>619</v>
       </c>
       <c r="C418" s="11">
-        <v>607578</v>
-      </c>
-      <c r="D418" s="12">
+        <v>86748</v>
+      </c>
+      <c r="D418" s="49">
         <v>9.5999999999999996E-6</v>
       </c>
       <c r="E418" s="12">
@@ -19587,25 +19577,25 @@
       <c r="P418" s="12"/>
       <c r="Q418" s="13"/>
       <c r="R418" s="13" t="s">
-        <v>812</v>
+        <v>832</v>
       </c>
       <c r="U418" s="1">
         <f>MIN(F418:P418)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:21" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="10" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B419" s="10" t="s">
-        <v>619</v>
+        <v>850</v>
       </c>
       <c r="C419" s="11">
-        <v>86748</v>
-      </c>
-      <c r="D419" s="49">
-        <v>9.5999999999999996E-6</v>
+        <v>218019</v>
+      </c>
+      <c r="D419" s="12">
+        <v>9.5999999999999991E-7</v>
       </c>
       <c r="E419" s="12">
         <v>0</v>
@@ -19623,29 +19613,25 @@
       <c r="P419" s="12"/>
       <c r="Q419" s="13"/>
       <c r="R419" s="13" t="s">
-        <v>832</v>
+        <v>857</v>
       </c>
       <c r="U419" s="1">
         <f>MIN(F419:P419)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:21" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A420" s="10" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B420" s="10" t="s">
-        <v>850</v>
-      </c>
-      <c r="C420" s="11">
-        <v>218019</v>
-      </c>
-      <c r="D420" s="12">
-        <v>9.5999999999999991E-7</v>
-      </c>
-      <c r="E420" s="12">
-        <v>0</v>
-      </c>
+        <v>626</v>
+      </c>
+      <c r="C420" s="11"/>
+      <c r="D420" s="23">
+        <v>1.76E-4</v>
+      </c>
+      <c r="E420" s="12"/>
       <c r="F420" s="12"/>
       <c r="G420" s="12"/>
       <c r="H420" s="12"/>
@@ -19657,24 +19643,28 @@
       <c r="N420" s="12"/>
       <c r="O420" s="12"/>
       <c r="P420" s="12"/>
-      <c r="Q420" s="13"/>
+      <c r="Q420" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="R420" s="13" t="s">
-        <v>857</v>
+        <v>813</v>
       </c>
       <c r="U420" s="1">
-        <f>MIN(F420:P420)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="421" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A421" s="10" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="B421" s="10" t="s">
-        <v>626</v>
-      </c>
-      <c r="C421" s="11"/>
-      <c r="D421" s="23">
+        <v>628</v>
+      </c>
+      <c r="C421" s="21">
+        <v>75</v>
+      </c>
+      <c r="D421" s="12">
         <v>1.76E-4</v>
       </c>
       <c r="E421" s="12"/>
@@ -19693,27 +19683,29 @@
         <v>48</v>
       </c>
       <c r="R421" s="13" t="s">
-        <v>813</v>
+        <v>833</v>
       </c>
       <c r="U421" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A422" s="10" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="B422" s="10" t="s">
-        <v>628</v>
-      </c>
-      <c r="C422" s="21">
-        <v>75</v>
+        <v>629</v>
+      </c>
+      <c r="C422" s="11">
+        <v>106503</v>
       </c>
       <c r="D422" s="12">
-        <v>1.76E-4</v>
-      </c>
-      <c r="E422" s="12"/>
+        <v>0</v>
+      </c>
+      <c r="E422" s="12">
+        <v>0</v>
+      </c>
       <c r="F422" s="12"/>
       <c r="G422" s="12"/>
       <c r="H422" s="12"/>
@@ -19725,37 +19717,41 @@
       <c r="N422" s="12"/>
       <c r="O422" s="12"/>
       <c r="P422" s="12"/>
-      <c r="Q422" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="R422" s="13" t="s">
-        <v>833</v>
-      </c>
+      <c r="Q422" s="13"/>
+      <c r="R422" s="13"/>
       <c r="U422" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A423" s="10" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B423" s="10" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C423" s="11">
-        <v>106503</v>
+        <v>123386</v>
       </c>
       <c r="D423" s="12">
         <v>0</v>
       </c>
       <c r="E423" s="12">
-        <v>0</v>
-      </c>
-      <c r="F423" s="12"/>
-      <c r="G423" s="12"/>
-      <c r="H423" s="12"/>
-      <c r="I423" s="12"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="F423" s="12">
+        <v>110</v>
+      </c>
+      <c r="G423" s="12">
+        <v>110</v>
+      </c>
+      <c r="H423" s="12">
+        <v>620</v>
+      </c>
+      <c r="I423" s="12">
+        <v>260</v>
+      </c>
       <c r="J423" s="12"/>
       <c r="K423" s="12"/>
       <c r="L423" s="12"/>
@@ -19763,41 +19759,37 @@
       <c r="N423" s="12"/>
       <c r="O423" s="12"/>
       <c r="P423" s="12"/>
-      <c r="Q423" s="13"/>
-      <c r="R423" s="13"/>
+      <c r="Q423" s="13" t="s">
+        <v>742</v>
+      </c>
+      <c r="R423" s="13" t="s">
+        <v>631</v>
+      </c>
       <c r="U423" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="424" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="424" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A424" s="10" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="B424" s="10" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="C424" s="11">
-        <v>123386</v>
+        <v>114261</v>
       </c>
       <c r="D424" s="12">
         <v>0</v>
       </c>
       <c r="E424" s="12">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="F424" s="12">
-        <v>110</v>
-      </c>
-      <c r="G424" s="12">
-        <v>110</v>
-      </c>
-      <c r="H424" s="12">
-        <v>620</v>
-      </c>
-      <c r="I424" s="12">
-        <v>260</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F424" s="12"/>
+      <c r="G424" s="12"/>
+      <c r="H424" s="12"/>
+      <c r="I424" s="12"/>
       <c r="J424" s="12"/>
       <c r="K424" s="12"/>
       <c r="L424" s="12"/>
@@ -19805,32 +19797,26 @@
       <c r="N424" s="12"/>
       <c r="O424" s="12"/>
       <c r="P424" s="12"/>
-      <c r="Q424" s="13" t="s">
-        <v>742</v>
-      </c>
-      <c r="R424" s="13" t="s">
-        <v>631</v>
-      </c>
+      <c r="Q424" s="13"/>
+      <c r="R424" s="13"/>
       <c r="U424" s="1">
         <f t="shared" si="6"/>
-        <v>110</v>
-      </c>
-    </row>
-    <row r="425" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A425" s="10" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B425" s="10" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C425" s="11">
-        <v>114261</v>
-      </c>
-      <c r="D425" s="12">
-        <v>0</v>
-      </c>
+        <v>78875</v>
+      </c>
+      <c r="D425" s="12"/>
       <c r="E425" s="12">
-        <v>0</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="F425" s="12"/>
       <c r="G425" s="12"/>
@@ -19838,117 +19824,119 @@
       <c r="I425" s="12"/>
       <c r="J425" s="12"/>
       <c r="K425" s="12"/>
-      <c r="L425" s="12"/>
+      <c r="L425" s="12">
+        <v>0.23</v>
+      </c>
       <c r="M425" s="12"/>
       <c r="N425" s="12"/>
       <c r="O425" s="12"/>
       <c r="P425" s="12"/>
-      <c r="Q425" s="13"/>
-      <c r="R425" s="13"/>
+      <c r="Q425" s="13" t="s">
+        <v>634</v>
+      </c>
+      <c r="R425" s="13" t="s">
+        <v>56</v>
+      </c>
       <c r="U425" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="426" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="426" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A426" s="10" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B426" s="10" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C426" s="11">
-        <v>78875</v>
-      </c>
-      <c r="D426" s="12"/>
+        <v>75569</v>
+      </c>
+      <c r="D426" s="12">
+        <v>3.7000000000000002E-6</v>
+      </c>
       <c r="E426" s="12">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="F426" s="12"/>
-      <c r="G426" s="12"/>
-      <c r="H426" s="12"/>
-      <c r="I426" s="12"/>
-      <c r="J426" s="12"/>
-      <c r="K426" s="12"/>
-      <c r="L426" s="12">
-        <v>0.23</v>
-      </c>
-      <c r="M426" s="12"/>
+        <v>0.03</v>
+      </c>
+      <c r="F426" s="12">
+        <v>170</v>
+      </c>
+      <c r="G426" s="12">
+        <v>170</v>
+      </c>
+      <c r="H426" s="12">
+        <v>690</v>
+      </c>
+      <c r="I426" s="12">
+        <v>200</v>
+      </c>
+      <c r="J426" s="12">
+        <v>120</v>
+      </c>
+      <c r="K426" s="12">
+        <v>590</v>
+      </c>
+      <c r="L426" s="12"/>
+      <c r="M426" s="12">
+        <v>3.1</v>
+      </c>
       <c r="N426" s="12"/>
       <c r="O426" s="12"/>
       <c r="P426" s="12"/>
       <c r="Q426" s="13" t="s">
-        <v>634</v>
+        <v>741</v>
       </c>
       <c r="R426" s="13" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="U426" s="1">
         <f t="shared" si="6"/>
-        <v>0.23</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="427" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A427" s="10" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B427" s="10" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C427" s="11">
-        <v>75569</v>
+        <v>91225</v>
       </c>
       <c r="D427" s="12">
-        <v>3.7000000000000002E-6</v>
+        <v>0</v>
       </c>
       <c r="E427" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="F427" s="12">
-        <v>170</v>
-      </c>
-      <c r="G427" s="12">
-        <v>170</v>
-      </c>
-      <c r="H427" s="12">
-        <v>690</v>
-      </c>
-      <c r="I427" s="12">
-        <v>200</v>
-      </c>
-      <c r="J427" s="12">
-        <v>120</v>
-      </c>
-      <c r="K427" s="12">
-        <v>590</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F427" s="12"/>
+      <c r="G427" s="12"/>
+      <c r="H427" s="12"/>
+      <c r="I427" s="12"/>
+      <c r="J427" s="12"/>
+      <c r="K427" s="12"/>
       <c r="L427" s="12"/>
-      <c r="M427" s="12">
-        <v>3.1</v>
-      </c>
+      <c r="M427" s="12"/>
       <c r="N427" s="12"/>
       <c r="O427" s="12"/>
       <c r="P427" s="12"/>
-      <c r="Q427" s="13" t="s">
-        <v>741</v>
-      </c>
-      <c r="R427" s="13" t="s">
-        <v>22</v>
-      </c>
+      <c r="Q427" s="13"/>
+      <c r="R427" s="13"/>
       <c r="U427" s="1">
         <f t="shared" si="6"/>
-        <v>3.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A428" s="10" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B428" s="10" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C428" s="11">
-        <v>91225</v>
+        <v>106514</v>
       </c>
       <c r="D428" s="12">
         <v>0</v>
@@ -19976,20 +19964,16 @@
     </row>
     <row r="429" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A429" s="10" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B429" s="10" t="s">
-        <v>637</v>
-      </c>
-      <c r="C429" s="11">
-        <v>106514</v>
-      </c>
-      <c r="D429" s="12">
-        <v>0</v>
-      </c>
-      <c r="E429" s="12">
-        <v>0</v>
-      </c>
+        <v>638</v>
+      </c>
+      <c r="C429" s="24">
+        <v>605</v>
+      </c>
+      <c r="D429" s="12"/>
+      <c r="E429" s="12"/>
       <c r="F429" s="12"/>
       <c r="G429" s="12"/>
       <c r="H429" s="12"/>
@@ -20001,22 +19985,24 @@
       <c r="N429" s="12"/>
       <c r="O429" s="12"/>
       <c r="P429" s="12"/>
-      <c r="Q429" s="13"/>
+      <c r="Q429" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="R429" s="13"/>
       <c r="U429" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A430" s="10" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B430" s="10" t="s">
         <v>638</v>
       </c>
-      <c r="C430" s="24">
-        <v>605</v>
+      <c r="C430" s="50" t="s">
+        <v>640</v>
       </c>
       <c r="D430" s="12"/>
       <c r="E430" s="12"/>
@@ -20032,23 +20018,19 @@
       <c r="O430" s="12"/>
       <c r="P430" s="12"/>
       <c r="Q430" s="14" t="s">
-        <v>48</v>
+        <v>641</v>
       </c>
       <c r="R430" s="13"/>
-      <c r="U430" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="431" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="431" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A431" s="10" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="B431" s="10" t="s">
         <v>638</v>
       </c>
-      <c r="C431" s="50" t="s">
-        <v>640</v>
+      <c r="C431" s="24" t="s">
+        <v>643</v>
       </c>
       <c r="D431" s="12"/>
       <c r="E431" s="12"/>
@@ -20064,20 +20046,18 @@
       <c r="O431" s="12"/>
       <c r="P431" s="12"/>
       <c r="Q431" s="14" t="s">
-        <v>641</v>
+        <v>609</v>
       </c>
       <c r="R431" s="13"/>
     </row>
     <row r="432" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A432" s="10" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="B432" s="10" t="s">
         <v>638</v>
       </c>
-      <c r="C432" s="24" t="s">
-        <v>643</v>
-      </c>
+      <c r="C432" s="24"/>
       <c r="D432" s="12"/>
       <c r="E432" s="12"/>
       <c r="F432" s="12"/>
@@ -20092,13 +20072,13 @@
       <c r="O432" s="12"/>
       <c r="P432" s="12"/>
       <c r="Q432" s="14" t="s">
-        <v>609</v>
+        <v>497</v>
       </c>
       <c r="R432" s="13"/>
     </row>
     <row r="433" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A433" s="10" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B433" s="10" t="s">
         <v>638</v>
@@ -20122,16 +20102,20 @@
       </c>
       <c r="R433" s="13"/>
     </row>
-    <row r="434" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A434" s="10" t="s">
-        <v>645</v>
+    <row r="434" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A434" s="25" t="s">
+        <v>646</v>
       </c>
       <c r="B434" s="10" t="s">
         <v>638</v>
       </c>
-      <c r="C434" s="24"/>
+      <c r="C434" s="37">
+        <v>7440611</v>
+      </c>
       <c r="D434" s="12"/>
-      <c r="E434" s="12"/>
+      <c r="E434" s="12">
+        <v>8.0000000000000004E-4</v>
+      </c>
       <c r="F434" s="12"/>
       <c r="G434" s="12"/>
       <c r="H434" s="12"/>
@@ -20144,19 +20128,25 @@
       <c r="O434" s="12"/>
       <c r="P434" s="12"/>
       <c r="Q434" s="14" t="s">
-        <v>497</v>
-      </c>
-      <c r="R434" s="13"/>
-    </row>
-    <row r="435" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A435" s="25" t="s">
-        <v>646</v>
+        <v>647</v>
+      </c>
+      <c r="R434" s="13" t="s">
+        <v>648</v>
+      </c>
+      <c r="U434" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A435" s="10" t="s">
+        <v>649</v>
       </c>
       <c r="B435" s="10" t="s">
         <v>638</v>
       </c>
-      <c r="C435" s="37">
-        <v>7440611</v>
+      <c r="C435" s="11" t="s">
+        <v>650</v>
       </c>
       <c r="D435" s="12"/>
       <c r="E435" s="12">
@@ -20167,34 +20157,38 @@
       <c r="H435" s="12"/>
       <c r="I435" s="12"/>
       <c r="J435" s="12"/>
-      <c r="K435" s="12"/>
+      <c r="K435" s="12">
+        <v>10</v>
+      </c>
       <c r="L435" s="12"/>
       <c r="M435" s="12"/>
       <c r="N435" s="12"/>
       <c r="O435" s="12"/>
       <c r="P435" s="12"/>
-      <c r="Q435" s="14" t="s">
-        <v>647</v>
+      <c r="Q435" s="13" t="s">
+        <v>651</v>
       </c>
       <c r="R435" s="13" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="U435" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="436" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="436" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A436" s="10" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="B436" s="10" t="s">
         <v>638</v>
       </c>
-      <c r="C436" s="11" t="s">
-        <v>650</v>
-      </c>
-      <c r="D436" s="12"/>
+      <c r="C436" s="11">
+        <v>7440611</v>
+      </c>
+      <c r="D436" s="12">
+        <v>0</v>
+      </c>
       <c r="E436" s="12">
         <v>8.0000000000000004E-4</v>
       </c>
@@ -20203,94 +20197,92 @@
       <c r="H436" s="12"/>
       <c r="I436" s="12"/>
       <c r="J436" s="12"/>
-      <c r="K436" s="12">
-        <v>10</v>
-      </c>
+      <c r="K436" s="12"/>
       <c r="L436" s="12"/>
       <c r="M436" s="12"/>
       <c r="N436" s="12"/>
       <c r="O436" s="12"/>
       <c r="P436" s="12"/>
       <c r="Q436" s="13" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="R436" s="13" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="U436" s="1">
         <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="437" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A437" s="10" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="B437" s="10" t="s">
         <v>638</v>
       </c>
       <c r="C437" s="11">
-        <v>7440611</v>
+        <v>7783815</v>
       </c>
       <c r="D437" s="12">
         <v>0</v>
       </c>
       <c r="E437" s="12">
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="F437" s="12"/>
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="F437" s="12">
+        <v>3.6</v>
+      </c>
       <c r="G437" s="12"/>
-      <c r="H437" s="12"/>
-      <c r="I437" s="12"/>
-      <c r="J437" s="12"/>
-      <c r="K437" s="12"/>
+      <c r="H437" s="12">
+        <v>9.6</v>
+      </c>
+      <c r="I437" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="J437" s="12">
+        <v>5</v>
+      </c>
+      <c r="K437" s="12">
+        <v>15</v>
+      </c>
       <c r="L437" s="12"/>
       <c r="M437" s="12"/>
       <c r="N437" s="12"/>
       <c r="O437" s="12"/>
       <c r="P437" s="12"/>
       <c r="Q437" s="13" t="s">
-        <v>654</v>
+        <v>772</v>
       </c>
       <c r="R437" s="13" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="U437" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="438" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A438" s="10" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="B438" s="10" t="s">
         <v>638</v>
       </c>
-      <c r="C438" s="11">
-        <v>7783815</v>
-      </c>
-      <c r="D438" s="12">
-        <v>0</v>
-      </c>
+      <c r="C438" s="11" t="s">
+        <v>659</v>
+      </c>
+      <c r="D438" s="12"/>
       <c r="E438" s="12">
-        <v>4.0000000000000003E-5</v>
-      </c>
-      <c r="F438" s="12">
-        <v>3.6</v>
-      </c>
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="F438" s="12"/>
       <c r="G438" s="12"/>
-      <c r="H438" s="12">
-        <v>9.6</v>
-      </c>
-      <c r="I438" s="12">
-        <v>1.2</v>
-      </c>
-      <c r="J438" s="12">
-        <v>5</v>
-      </c>
+      <c r="H438" s="12"/>
+      <c r="I438" s="12"/>
+      <c r="J438" s="12"/>
       <c r="K438" s="12">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L438" s="12"/>
       <c r="M438" s="12"/>
@@ -20298,67 +20290,65 @@
       <c r="O438" s="12"/>
       <c r="P438" s="12"/>
       <c r="Q438" s="13" t="s">
-        <v>772</v>
+        <v>651</v>
       </c>
       <c r="R438" s="13" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="U438" s="1">
         <f t="shared" si="6"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="439" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="439" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A439" s="10" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="B439" s="10" t="s">
         <v>638</v>
       </c>
       <c r="C439" s="11" t="s">
-        <v>659</v>
-      </c>
-      <c r="D439" s="12"/>
+        <v>662</v>
+      </c>
+      <c r="D439" s="12">
+        <v>0</v>
+      </c>
       <c r="E439" s="12">
-        <v>8.0000000000000004E-4</v>
+        <v>4.0000000000000003E-5</v>
       </c>
       <c r="F439" s="12"/>
       <c r="G439" s="12"/>
       <c r="H439" s="12"/>
       <c r="I439" s="12"/>
       <c r="J439" s="12"/>
-      <c r="K439" s="12">
-        <v>10</v>
-      </c>
+      <c r="K439" s="12"/>
       <c r="L439" s="12"/>
       <c r="M439" s="12"/>
       <c r="N439" s="12"/>
       <c r="O439" s="12"/>
       <c r="P439" s="12"/>
       <c r="Q439" s="13" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="R439" s="13" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="U439" s="1">
         <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="440" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A440" s="10" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="B440" s="10" t="s">
         <v>638</v>
       </c>
       <c r="C440" s="11" t="s">
-        <v>662</v>
-      </c>
-      <c r="D440" s="12">
-        <v>0</v>
-      </c>
+        <v>665</v>
+      </c>
+      <c r="D440" s="12"/>
       <c r="E440" s="12">
         <v>4.0000000000000003E-5</v>
       </c>
@@ -20374,10 +20364,10 @@
       <c r="O440" s="12"/>
       <c r="P440" s="12"/>
       <c r="Q440" s="13" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="R440" s="13" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="U440" s="1">
         <f t="shared" si="6"/>
@@ -20386,13 +20376,13 @@
     </row>
     <row r="441" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A441" s="10" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="B441" s="10" t="s">
         <v>638</v>
       </c>
       <c r="C441" s="11" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="D441" s="12"/>
       <c r="E441" s="12">
@@ -20422,97 +20412,99 @@
     </row>
     <row r="442" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A442" s="10" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="B442" s="10" t="s">
-        <v>638</v>
-      </c>
-      <c r="C442" s="11" t="s">
-        <v>668</v>
-      </c>
-      <c r="D442" s="12"/>
+        <v>670</v>
+      </c>
+      <c r="C442" s="11">
+        <v>7783075</v>
+      </c>
+      <c r="D442" s="12">
+        <v>0</v>
+      </c>
       <c r="E442" s="12">
-        <v>4.0000000000000003E-5</v>
+        <v>8.0000000000000007E-5</v>
       </c>
       <c r="F442" s="12"/>
       <c r="G442" s="12"/>
-      <c r="H442" s="12"/>
-      <c r="I442" s="12"/>
+      <c r="H442" s="12">
+        <v>0.36</v>
+      </c>
+      <c r="I442" s="12">
+        <v>0.16</v>
+      </c>
       <c r="J442" s="12"/>
-      <c r="K442" s="12"/>
+      <c r="K442" s="12">
+        <v>0.66</v>
+      </c>
       <c r="L442" s="12"/>
-      <c r="M442" s="12"/>
+      <c r="M442" s="12">
+        <v>5.0000000000000001E-3</v>
+      </c>
       <c r="N442" s="12"/>
       <c r="O442" s="12"/>
       <c r="P442" s="12"/>
       <c r="Q442" s="13" t="s">
-        <v>651</v>
+        <v>741</v>
       </c>
       <c r="R442" s="13" t="s">
-        <v>666</v>
+        <v>782</v>
       </c>
       <c r="U442" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="443" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="443" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A443" s="10" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="B443" s="10" t="s">
         <v>670</v>
       </c>
-      <c r="C443" s="11">
-        <v>7783075</v>
-      </c>
-      <c r="D443" s="12">
-        <v>0</v>
-      </c>
+      <c r="C443" s="11" t="s">
+        <v>672</v>
+      </c>
+      <c r="D443" s="23"/>
       <c r="E443" s="12">
-        <v>8.0000000000000007E-5</v>
+        <v>0.02</v>
       </c>
       <c r="F443" s="12"/>
       <c r="G443" s="12"/>
-      <c r="H443" s="12">
-        <v>0.36</v>
-      </c>
-      <c r="I443" s="12">
-        <v>0.16</v>
-      </c>
+      <c r="H443" s="12"/>
+      <c r="I443" s="12"/>
       <c r="J443" s="12"/>
-      <c r="K443" s="12">
-        <v>0.66</v>
-      </c>
+      <c r="K443" s="12"/>
       <c r="L443" s="12"/>
-      <c r="M443" s="12">
-        <v>5.0000000000000001E-3</v>
-      </c>
+      <c r="M443" s="12"/>
       <c r="N443" s="12"/>
       <c r="O443" s="12"/>
       <c r="P443" s="12"/>
       <c r="Q443" s="13" t="s">
-        <v>741</v>
+        <v>92</v>
       </c>
       <c r="R443" s="13" t="s">
-        <v>782</v>
+        <v>673</v>
       </c>
       <c r="U443" s="1">
         <f t="shared" si="6"/>
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="444" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A444" s="10" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="B444" s="10" t="s">
         <v>670</v>
       </c>
-      <c r="C444" s="11" t="s">
-        <v>672</v>
-      </c>
-      <c r="D444" s="23"/>
+      <c r="C444" s="11">
+        <v>7783008</v>
+      </c>
+      <c r="D444" s="12">
+        <v>0</v>
+      </c>
       <c r="E444" s="12">
         <v>0.02</v>
       </c>
@@ -20527,9 +20519,7 @@
       <c r="N444" s="12"/>
       <c r="O444" s="12"/>
       <c r="P444" s="12"/>
-      <c r="Q444" s="13" t="s">
-        <v>92</v>
-      </c>
+      <c r="Q444" s="13"/>
       <c r="R444" s="13" t="s">
         <v>673</v>
       </c>
@@ -20540,13 +20530,13 @@
     </row>
     <row r="445" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A445" s="10" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="B445" s="10" t="s">
         <v>670</v>
       </c>
       <c r="C445" s="11">
-        <v>7783008</v>
+        <v>7782492</v>
       </c>
       <c r="D445" s="12">
         <v>0</v>
@@ -20566,9 +20556,7 @@
       <c r="O445" s="12"/>
       <c r="P445" s="12"/>
       <c r="Q445" s="13"/>
-      <c r="R445" s="13" t="s">
-        <v>673</v>
-      </c>
+      <c r="R445" s="13"/>
       <c r="U445" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -20576,17 +20564,15 @@
     </row>
     <row r="446" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A446" s="10" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="B446" s="10" t="s">
         <v>670</v>
       </c>
       <c r="C446" s="11">
-        <v>7782492</v>
-      </c>
-      <c r="D446" s="12">
-        <v>0</v>
-      </c>
+        <v>7446084</v>
+      </c>
+      <c r="D446" s="12"/>
       <c r="E446" s="12">
         <v>0.02</v>
       </c>
@@ -20601,22 +20587,24 @@
       <c r="N446" s="12"/>
       <c r="O446" s="12"/>
       <c r="P446" s="12"/>
-      <c r="Q446" s="13"/>
+      <c r="Q446" s="13" t="s">
+        <v>89</v>
+      </c>
       <c r="R446" s="13"/>
       <c r="U446" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A447" s="10" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B447" s="10" t="s">
         <v>670</v>
       </c>
-      <c r="C447" s="11">
-        <v>7446084</v>
+      <c r="C447" s="11" t="s">
+        <v>677</v>
       </c>
       <c r="D447" s="12"/>
       <c r="E447" s="12">
@@ -20634,7 +20622,7 @@
       <c r="O447" s="12"/>
       <c r="P447" s="12"/>
       <c r="Q447" s="13" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="R447" s="13"/>
       <c r="U447" s="1">
@@ -20642,24 +20630,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A448" s="10" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="B448" s="10" t="s">
         <v>670</v>
       </c>
-      <c r="C448" s="11" t="s">
-        <v>677</v>
+      <c r="C448" s="11">
+        <v>7783791</v>
       </c>
       <c r="D448" s="12"/>
       <c r="E448" s="12">
         <v>0.02</v>
       </c>
-      <c r="F448" s="12"/>
-      <c r="G448" s="12"/>
-      <c r="H448" s="12"/>
-      <c r="I448" s="12"/>
+      <c r="F448" s="12">
+        <v>0.42</v>
+      </c>
+      <c r="G448" s="12">
+        <v>0.13</v>
+      </c>
+      <c r="H448" s="12">
+        <v>0.69</v>
+      </c>
+      <c r="I448" s="12">
+        <v>0.22</v>
+      </c>
       <c r="J448" s="12"/>
       <c r="K448" s="12"/>
       <c r="L448" s="12"/>
@@ -20668,40 +20664,34 @@
       <c r="O448" s="12"/>
       <c r="P448" s="12"/>
       <c r="Q448" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="R448" s="13"/>
+        <v>773</v>
+      </c>
+      <c r="R448" s="13" t="s">
+        <v>783</v>
+      </c>
       <c r="U448" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="449" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="449" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A449" s="10" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B449" s="10" t="s">
         <v>670</v>
       </c>
       <c r="C449" s="11">
-        <v>7783791</v>
+        <v>12640890</v>
       </c>
       <c r="D449" s="12"/>
       <c r="E449" s="12">
         <v>0.02</v>
       </c>
-      <c r="F449" s="12">
-        <v>0.42</v>
-      </c>
-      <c r="G449" s="12">
-        <v>0.13</v>
-      </c>
-      <c r="H449" s="12">
-        <v>0.69</v>
-      </c>
-      <c r="I449" s="12">
-        <v>0.22</v>
-      </c>
+      <c r="F449" s="12"/>
+      <c r="G449" s="12"/>
+      <c r="H449" s="12"/>
+      <c r="I449" s="12"/>
       <c r="J449" s="12"/>
       <c r="K449" s="12"/>
       <c r="L449" s="12"/>
@@ -20710,25 +20700,25 @@
       <c r="O449" s="12"/>
       <c r="P449" s="12"/>
       <c r="Q449" s="13" t="s">
-        <v>773</v>
+        <v>546</v>
       </c>
       <c r="R449" s="13" t="s">
-        <v>783</v>
+        <v>673</v>
       </c>
       <c r="U449" s="1">
         <f t="shared" si="6"/>
-        <v>0.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A450" s="10" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B450" s="10" t="s">
         <v>670</v>
       </c>
-      <c r="C450" s="11">
-        <v>12640890</v>
+      <c r="C450" s="11" t="s">
+        <v>681</v>
       </c>
       <c r="D450" s="12"/>
       <c r="E450" s="12">
@@ -20746,7 +20736,7 @@
       <c r="O450" s="12"/>
       <c r="P450" s="12"/>
       <c r="Q450" s="13" t="s">
-        <v>546</v>
+        <v>92</v>
       </c>
       <c r="R450" s="13" t="s">
         <v>673</v>
@@ -20758,13 +20748,13 @@
     </row>
     <row r="451" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A451" s="10" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="B451" s="10" t="s">
         <v>670</v>
       </c>
       <c r="C451" s="11" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D451" s="12"/>
       <c r="E451" s="12">
@@ -20784,25 +20774,25 @@
       <c r="Q451" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="R451" s="13" t="s">
-        <v>673</v>
-      </c>
+      <c r="R451" s="13"/>
       <c r="U451" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A452" s="10" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="B452" s="10" t="s">
         <v>670</v>
       </c>
-      <c r="C452" s="11" t="s">
-        <v>683</v>
-      </c>
-      <c r="D452" s="12"/>
+      <c r="C452" s="11">
+        <v>630104</v>
+      </c>
+      <c r="D452" s="12">
+        <v>0</v>
+      </c>
       <c r="E452" s="12">
         <v>0.02</v>
       </c>
@@ -20817,28 +20807,26 @@
       <c r="N452" s="12"/>
       <c r="O452" s="12"/>
       <c r="P452" s="12"/>
-      <c r="Q452" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="R452" s="13"/>
+      <c r="Q452" s="13"/>
+      <c r="R452" s="13" t="s">
+        <v>673</v>
+      </c>
       <c r="U452" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A453" s="10" t="s">
-        <v>684</v>
+    <row r="453" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A453" s="25" t="s">
+        <v>685</v>
       </c>
       <c r="B453" s="10" t="s">
         <v>670</v>
       </c>
-      <c r="C453" s="11">
-        <v>630104</v>
-      </c>
-      <c r="D453" s="12">
-        <v>0</v>
-      </c>
+      <c r="C453" s="26" t="s">
+        <v>686</v>
+      </c>
+      <c r="D453" s="12"/>
       <c r="E453" s="12">
         <v>0.02</v>
       </c>
@@ -20853,7 +20841,9 @@
       <c r="N453" s="12"/>
       <c r="O453" s="12"/>
       <c r="P453" s="12"/>
-      <c r="Q453" s="13"/>
+      <c r="Q453" s="14" t="s">
+        <v>92</v>
+      </c>
       <c r="R453" s="13" t="s">
         <v>673</v>
       </c>
@@ -20864,13 +20854,13 @@
     </row>
     <row r="454" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A454" s="25" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="B454" s="10" t="s">
         <v>670</v>
       </c>
       <c r="C454" s="26" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="D454" s="12"/>
       <c r="E454" s="12">
@@ -20898,383 +20888,381 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A455" s="25" t="s">
-        <v>687</v>
+    <row r="455" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A455" s="10" t="s">
+        <v>689</v>
       </c>
       <c r="B455" s="10" t="s">
-        <v>670</v>
-      </c>
-      <c r="C455" s="26" t="s">
-        <v>688</v>
-      </c>
-      <c r="D455" s="12"/>
+        <v>689</v>
+      </c>
+      <c r="C455" s="11">
+        <v>100425</v>
+      </c>
+      <c r="D455" s="12">
+        <v>0</v>
+      </c>
       <c r="E455" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="F455" s="12"/>
-      <c r="G455" s="12"/>
-      <c r="H455" s="12"/>
-      <c r="I455" s="12"/>
-      <c r="J455" s="12"/>
-      <c r="K455" s="12"/>
-      <c r="L455" s="12"/>
-      <c r="M455" s="12"/>
+        <v>1</v>
+      </c>
+      <c r="F455" s="12">
+        <v>85</v>
+      </c>
+      <c r="G455" s="12">
+        <v>85</v>
+      </c>
+      <c r="H455" s="12">
+        <v>550</v>
+      </c>
+      <c r="I455" s="12">
+        <v>550</v>
+      </c>
+      <c r="J455" s="12">
+        <v>210</v>
+      </c>
+      <c r="K455" s="12">
+        <v>1100</v>
+      </c>
+      <c r="L455" s="12">
+        <v>21</v>
+      </c>
+      <c r="M455" s="12">
+        <v>21</v>
+      </c>
       <c r="N455" s="12"/>
       <c r="O455" s="12"/>
       <c r="P455" s="12"/>
-      <c r="Q455" s="14" t="s">
-        <v>92</v>
+      <c r="Q455" s="13" t="s">
+        <v>752</v>
       </c>
       <c r="R455" s="13" t="s">
-        <v>673</v>
+        <v>22</v>
       </c>
       <c r="U455" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="456" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="456" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A456" s="10" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B456" s="10" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C456" s="11">
-        <v>100425</v>
+        <v>96093</v>
       </c>
       <c r="D456" s="12">
         <v>0</v>
       </c>
       <c r="E456" s="12">
-        <v>1</v>
-      </c>
-      <c r="F456" s="12">
-        <v>85</v>
-      </c>
-      <c r="G456" s="12">
-        <v>85</v>
-      </c>
-      <c r="H456" s="12">
-        <v>550</v>
-      </c>
-      <c r="I456" s="12">
-        <v>550</v>
-      </c>
-      <c r="J456" s="12">
-        <v>210</v>
-      </c>
-      <c r="K456" s="12">
-        <v>1100</v>
-      </c>
-      <c r="L456" s="12">
-        <v>21</v>
-      </c>
-      <c r="M456" s="12">
-        <v>21</v>
-      </c>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F456" s="12"/>
+      <c r="G456" s="12"/>
+      <c r="H456" s="12"/>
+      <c r="I456" s="12"/>
+      <c r="J456" s="12"/>
+      <c r="K456" s="12"/>
+      <c r="L456" s="12"/>
+      <c r="M456" s="12"/>
       <c r="N456" s="12"/>
       <c r="O456" s="12"/>
       <c r="P456" s="12"/>
-      <c r="Q456" s="13" t="s">
-        <v>752</v>
-      </c>
-      <c r="R456" s="13" t="s">
-        <v>22</v>
-      </c>
+      <c r="Q456" s="13"/>
+      <c r="R456" s="13"/>
       <c r="U456" s="1">
         <f t="shared" si="6"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="457" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A457" s="10" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B457" s="10" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C457" s="11">
-        <v>96093</v>
+        <v>127184</v>
       </c>
       <c r="D457" s="12">
-        <v>0</v>
+        <v>2.6E-7</v>
       </c>
       <c r="E457" s="12">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="F457" s="12"/>
-      <c r="G457" s="12"/>
-      <c r="H457" s="12"/>
-      <c r="I457" s="12"/>
-      <c r="J457" s="12"/>
-      <c r="K457" s="12"/>
-      <c r="L457" s="12"/>
-      <c r="M457" s="12"/>
+        <v>0.04</v>
+      </c>
+      <c r="F457" s="12">
+        <v>240</v>
+      </c>
+      <c r="G457" s="12">
+        <v>240</v>
+      </c>
+      <c r="H457" s="12">
+        <v>1600</v>
+      </c>
+      <c r="I457" s="12">
+        <v>550</v>
+      </c>
+      <c r="J457" s="12">
+        <v>680</v>
+      </c>
+      <c r="K457" s="12">
+        <v>1400</v>
+      </c>
+      <c r="L457" s="12">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="M457" s="12">
+        <v>20</v>
+      </c>
       <c r="N457" s="12"/>
       <c r="O457" s="12"/>
       <c r="P457" s="12"/>
-      <c r="Q457" s="13"/>
-      <c r="R457" s="13"/>
+      <c r="Q457" s="13" t="s">
+        <v>753</v>
+      </c>
+      <c r="R457" s="13" t="s">
+        <v>784</v>
+      </c>
       <c r="U457" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="458" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="458" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A458" s="10" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B458" s="10" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C458" s="11">
-        <v>127184</v>
+        <v>7550450</v>
       </c>
       <c r="D458" s="12">
-        <v>2.6E-7</v>
+        <v>0</v>
       </c>
       <c r="E458" s="12">
-        <v>0.04</v>
-      </c>
-      <c r="F458" s="12">
-        <v>240</v>
-      </c>
-      <c r="G458" s="12">
-        <v>240</v>
-      </c>
+        <v>1E-4</v>
+      </c>
+      <c r="F458" s="12"/>
+      <c r="G458" s="12"/>
       <c r="H458" s="12">
-        <v>1600</v>
+        <v>7.8</v>
       </c>
       <c r="I458" s="12">
-        <v>550</v>
+        <v>0.73</v>
       </c>
       <c r="J458" s="12">
-        <v>680</v>
+        <v>5</v>
       </c>
       <c r="K458" s="12">
-        <v>1400</v>
-      </c>
-      <c r="L458" s="12">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="M458" s="12">
         <v>20</v>
       </c>
+      <c r="L458" s="12"/>
+      <c r="M458" s="12"/>
       <c r="N458" s="12"/>
       <c r="O458" s="12"/>
       <c r="P458" s="12"/>
       <c r="Q458" s="13" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="R458" s="13" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="U458" s="1">
         <f t="shared" si="6"/>
-        <v>4.1000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="459" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="459" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A459" s="10" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B459" s="10" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C459" s="11">
-        <v>7550450</v>
+        <v>108883</v>
       </c>
       <c r="D459" s="12">
         <v>0</v>
       </c>
       <c r="E459" s="12">
-        <v>1E-4</v>
-      </c>
-      <c r="F459" s="12"/>
-      <c r="G459" s="12"/>
+        <v>5</v>
+      </c>
+      <c r="F459" s="12">
+        <v>250</v>
+      </c>
+      <c r="G459" s="12">
+        <v>250</v>
+      </c>
       <c r="H459" s="12">
-        <v>7.8</v>
+        <v>2100</v>
       </c>
       <c r="I459" s="12">
-        <v>0.73</v>
+        <v>940</v>
       </c>
       <c r="J459" s="12">
-        <v>5</v>
+        <v>190</v>
       </c>
       <c r="K459" s="12">
-        <v>20</v>
-      </c>
-      <c r="L459" s="12"/>
-      <c r="M459" s="12"/>
+        <v>1100</v>
+      </c>
+      <c r="L459" s="12">
+        <v>7.5</v>
+      </c>
+      <c r="M459" s="12">
+        <v>37</v>
+      </c>
       <c r="N459" s="12"/>
       <c r="O459" s="12"/>
       <c r="P459" s="12"/>
       <c r="Q459" s="13" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="R459" s="13" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="U459" s="1">
         <f t="shared" si="6"/>
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="460" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="460" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A460" s="10" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B460" s="10" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C460" s="11">
-        <v>108883</v>
+        <v>8001352</v>
       </c>
       <c r="D460" s="12">
-        <v>0</v>
+        <v>3.2000000000000003E-4</v>
       </c>
       <c r="E460" s="12">
-        <v>5</v>
-      </c>
-      <c r="F460" s="12">
-        <v>250</v>
-      </c>
-      <c r="G460" s="12">
-        <v>250</v>
-      </c>
-      <c r="H460" s="12">
-        <v>2100</v>
-      </c>
-      <c r="I460" s="12">
-        <v>940</v>
-      </c>
-      <c r="J460" s="12">
-        <v>190</v>
-      </c>
-      <c r="K460" s="12">
-        <v>1100</v>
-      </c>
-      <c r="L460" s="12">
-        <v>7.5</v>
-      </c>
-      <c r="M460" s="12">
-        <v>37</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F460" s="12"/>
+      <c r="G460" s="12"/>
+      <c r="H460" s="12"/>
+      <c r="I460" s="12"/>
+      <c r="J460" s="12"/>
+      <c r="K460" s="12"/>
+      <c r="L460" s="12"/>
+      <c r="M460" s="12"/>
       <c r="N460" s="12"/>
       <c r="O460" s="12"/>
       <c r="P460" s="12"/>
-      <c r="Q460" s="13" t="s">
-        <v>746</v>
-      </c>
-      <c r="R460" s="13" t="s">
-        <v>786</v>
-      </c>
+      <c r="Q460" s="13"/>
+      <c r="R460" s="13"/>
       <c r="U460" s="1">
         <f t="shared" si="6"/>
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="461" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:21" ht="108.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A461" s="10" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B461" s="10" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C461" s="11">
-        <v>8001352</v>
+        <v>79016</v>
       </c>
       <c r="D461" s="12">
-        <v>3.2000000000000003E-4</v>
+        <v>4.7999999999999998E-6</v>
       </c>
       <c r="E461" s="12">
-        <v>0</v>
-      </c>
-      <c r="F461" s="12"/>
-      <c r="G461" s="12"/>
-      <c r="H461" s="12"/>
-      <c r="I461" s="12"/>
-      <c r="J461" s="12"/>
-      <c r="K461" s="12"/>
+        <v>2E-3</v>
+      </c>
+      <c r="F461" s="12">
+        <v>700</v>
+      </c>
+      <c r="G461" s="12">
+        <v>410</v>
+      </c>
+      <c r="H461" s="12">
+        <v>2400</v>
+      </c>
+      <c r="I461" s="12">
+        <v>1300</v>
+      </c>
+      <c r="J461" s="12">
+        <v>540</v>
+      </c>
+      <c r="K461" s="12">
+        <v>2700</v>
+      </c>
       <c r="L461" s="12"/>
       <c r="M461" s="12"/>
       <c r="N461" s="12"/>
       <c r="O461" s="12"/>
       <c r="P461" s="12"/>
-      <c r="Q461" s="13"/>
-      <c r="R461" s="13"/>
+      <c r="Q461" s="13" t="s">
+        <v>742</v>
+      </c>
+      <c r="R461" s="13" t="s">
+        <v>787</v>
+      </c>
       <c r="U461" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="462" spans="1:21" ht="108.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="462" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A462" s="10" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B462" s="10" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C462" s="11">
-        <v>79016</v>
+        <v>121448</v>
       </c>
       <c r="D462" s="12">
-        <v>4.7999999999999998E-6</v>
+        <v>0</v>
       </c>
       <c r="E462" s="12">
-        <v>2E-3</v>
-      </c>
-      <c r="F462" s="12">
-        <v>700</v>
-      </c>
-      <c r="G462" s="12">
-        <v>410</v>
-      </c>
-      <c r="H462" s="12">
-        <v>2400</v>
-      </c>
-      <c r="I462" s="12">
-        <v>1300</v>
-      </c>
-      <c r="J462" s="12">
-        <v>540</v>
-      </c>
-      <c r="K462" s="12">
-        <v>2700</v>
-      </c>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F462" s="12"/>
+      <c r="G462" s="12"/>
+      <c r="H462" s="12"/>
+      <c r="I462" s="12"/>
+      <c r="J462" s="12"/>
+      <c r="K462" s="12"/>
       <c r="L462" s="12"/>
-      <c r="M462" s="12"/>
+      <c r="M462" s="12">
+        <v>2.8</v>
+      </c>
       <c r="N462" s="12"/>
       <c r="O462" s="12"/>
       <c r="P462" s="12"/>
-      <c r="Q462" s="13" t="s">
-        <v>742</v>
-      </c>
-      <c r="R462" s="13" t="s">
-        <v>787</v>
-      </c>
+      <c r="Q462" s="13"/>
+      <c r="R462" s="13"/>
       <c r="U462" s="1">
         <f t="shared" si="6"/>
-        <v>410</v>
-      </c>
-    </row>
-    <row r="463" spans="1:21" x14ac:dyDescent="0.2">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="463" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A463" s="10" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B463" s="10" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C463" s="11">
-        <v>121448</v>
-      </c>
-      <c r="D463" s="12">
-        <v>0</v>
-      </c>
+        <v>1582098</v>
+      </c>
+      <c r="D463" s="12"/>
       <c r="E463" s="12">
-        <v>7.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="F463" s="12"/>
       <c r="G463" s="12"/>
@@ -21283,240 +21271,244 @@
       <c r="J463" s="12"/>
       <c r="K463" s="12"/>
       <c r="L463" s="12"/>
-      <c r="M463" s="12">
-        <v>2.8</v>
-      </c>
+      <c r="M463" s="12"/>
       <c r="N463" s="12"/>
       <c r="O463" s="12"/>
       <c r="P463" s="12"/>
       <c r="Q463" s="13"/>
-      <c r="R463" s="13"/>
+      <c r="R463" s="13" t="s">
+        <v>56</v>
+      </c>
       <c r="U463" s="1">
         <f t="shared" si="6"/>
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="464" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A464" s="10" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B464" s="10" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C464" s="11">
-        <v>1582098</v>
-      </c>
-      <c r="D464" s="12"/>
+        <v>108054</v>
+      </c>
+      <c r="D464" s="12">
+        <v>0</v>
+      </c>
       <c r="E464" s="12">
-        <v>0</v>
-      </c>
-      <c r="F464" s="12"/>
-      <c r="G464" s="12"/>
-      <c r="H464" s="12"/>
-      <c r="I464" s="12"/>
-      <c r="J464" s="12"/>
-      <c r="K464" s="12"/>
+        <v>0.2</v>
+      </c>
+      <c r="F464" s="12">
+        <v>24</v>
+      </c>
+      <c r="G464" s="12">
+        <v>24</v>
+      </c>
+      <c r="H464" s="12">
+        <v>130</v>
+      </c>
+      <c r="I464" s="12">
+        <v>53</v>
+      </c>
+      <c r="J464" s="12">
+        <v>18</v>
+      </c>
+      <c r="K464" s="12">
+        <v>260</v>
+      </c>
       <c r="L464" s="12"/>
       <c r="M464" s="12"/>
       <c r="N464" s="12"/>
       <c r="O464" s="12"/>
       <c r="P464" s="12"/>
-      <c r="Q464" s="13"/>
+      <c r="Q464" s="13" t="s">
+        <v>741</v>
+      </c>
       <c r="R464" s="13" t="s">
-        <v>56</v>
+        <v>750</v>
       </c>
       <c r="U464" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>MIN(F464:P464)</f>
+        <v>18</v>
       </c>
     </row>
     <row r="465" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A465" s="10" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B465" s="10" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C465" s="11">
-        <v>108054</v>
+        <v>593602</v>
       </c>
       <c r="D465" s="12">
-        <v>0</v>
+        <v>3.1999999999999999E-5</v>
       </c>
       <c r="E465" s="12">
-        <v>0.2</v>
-      </c>
-      <c r="F465" s="12">
-        <v>24</v>
-      </c>
-      <c r="G465" s="12">
-        <v>24</v>
-      </c>
-      <c r="H465" s="12">
-        <v>130</v>
-      </c>
-      <c r="I465" s="12">
-        <v>53</v>
-      </c>
-      <c r="J465" s="12">
-        <v>18</v>
-      </c>
-      <c r="K465" s="12">
-        <v>260</v>
-      </c>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F465" s="12"/>
+      <c r="G465" s="12"/>
+      <c r="H465" s="12"/>
+      <c r="I465" s="12"/>
+      <c r="J465" s="12"/>
+      <c r="K465" s="12"/>
       <c r="L465" s="12"/>
       <c r="M465" s="12"/>
       <c r="N465" s="12"/>
       <c r="O465" s="12"/>
       <c r="P465" s="12"/>
-      <c r="Q465" s="13" t="s">
-        <v>741</v>
-      </c>
-      <c r="R465" s="13" t="s">
-        <v>750</v>
-      </c>
+      <c r="Q465" s="13"/>
+      <c r="R465" s="13"/>
       <c r="U465" s="1">
         <f>MIN(F465:P465)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="466" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A466" s="10" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B466" s="10" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C466" s="11">
-        <v>593602</v>
+        <v>75014</v>
       </c>
       <c r="D466" s="12">
-        <v>3.1999999999999999E-5</v>
+        <v>8.8000000000000004E-6</v>
       </c>
       <c r="E466" s="12">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F466" s="12"/>
-      <c r="G466" s="12"/>
-      <c r="H466" s="12"/>
-      <c r="I466" s="12"/>
-      <c r="J466" s="12"/>
-      <c r="K466" s="12"/>
-      <c r="L466" s="12"/>
-      <c r="M466" s="12"/>
+        <v>0.1</v>
+      </c>
+      <c r="F466" s="12">
+        <v>640</v>
+      </c>
+      <c r="G466" s="12">
+        <v>180</v>
+      </c>
+      <c r="H466" s="12">
+        <v>3100</v>
+      </c>
+      <c r="I466" s="12">
+        <v>2100</v>
+      </c>
+      <c r="J466" s="12">
+        <v>1300</v>
+      </c>
+      <c r="K466" s="12">
+        <v>13000</v>
+      </c>
+      <c r="L466" s="12">
+        <v>1.3</v>
+      </c>
+      <c r="M466" s="12">
+        <v>180</v>
+      </c>
       <c r="N466" s="12"/>
       <c r="O466" s="12"/>
       <c r="P466" s="12"/>
-      <c r="Q466" s="13"/>
-      <c r="R466" s="13"/>
+      <c r="Q466" s="13" t="s">
+        <v>741</v>
+      </c>
+      <c r="R466" s="13" t="s">
+        <v>701</v>
+      </c>
       <c r="U466" s="1">
         <f>MIN(F466:P466)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="467" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="467" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A467" s="10" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="B467" s="10" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="C467" s="11">
-        <v>75014</v>
+        <v>75354</v>
       </c>
       <c r="D467" s="12">
-        <v>8.8000000000000004E-6</v>
+        <v>0</v>
       </c>
       <c r="E467" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="F467" s="12">
-        <v>640</v>
-      </c>
-      <c r="G467" s="12">
-        <v>180</v>
-      </c>
-      <c r="H467" s="12">
-        <v>3100</v>
-      </c>
-      <c r="I467" s="12">
-        <v>2100</v>
-      </c>
-      <c r="J467" s="12">
-        <v>1300</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="F467" s="12"/>
+      <c r="G467" s="12"/>
+      <c r="H467" s="12"/>
+      <c r="I467" s="12"/>
+      <c r="J467" s="12"/>
       <c r="K467" s="12">
-        <v>13000</v>
-      </c>
-      <c r="L467" s="12">
-        <v>1.3</v>
-      </c>
-      <c r="M467" s="12">
-        <v>180</v>
-      </c>
+        <v>2000</v>
+      </c>
+      <c r="L467" s="12"/>
+      <c r="M467" s="12"/>
       <c r="N467" s="12"/>
       <c r="O467" s="12"/>
       <c r="P467" s="12"/>
       <c r="Q467" s="13" t="s">
-        <v>741</v>
+        <v>703</v>
       </c>
       <c r="R467" s="13" t="s">
-        <v>701</v>
+        <v>788</v>
       </c>
       <c r="U467" s="1">
         <f>MIN(F467:P467)</f>
-        <v>1.3</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="468" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A468" s="10" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="B468" s="10" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="C468" s="11">
-        <v>75354</v>
+        <v>108383</v>
       </c>
       <c r="D468" s="12">
         <v>0</v>
       </c>
       <c r="E468" s="12">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="F468" s="12"/>
       <c r="G468" s="12"/>
       <c r="H468" s="12"/>
       <c r="I468" s="12"/>
       <c r="J468" s="12"/>
-      <c r="K468" s="12">
-        <v>2000</v>
-      </c>
+      <c r="K468" s="12"/>
       <c r="L468" s="12"/>
-      <c r="M468" s="12"/>
+      <c r="M468" s="12">
+        <v>22</v>
+      </c>
       <c r="N468" s="12"/>
       <c r="O468" s="12"/>
       <c r="P468" s="12"/>
-      <c r="Q468" s="13" t="s">
-        <v>703</v>
-      </c>
+      <c r="Q468" s="13"/>
       <c r="R468" s="13" t="s">
-        <v>788</v>
+        <v>706</v>
       </c>
       <c r="U468" s="1">
         <f>MIN(F468:P468)</f>
-        <v>2000</v>
+        <v>22</v>
       </c>
     </row>
     <row r="469" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A469" s="10" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="B469" s="10" t="s">
         <v>705</v>
       </c>
       <c r="C469" s="11">
-        <v>108383</v>
+        <v>95476</v>
       </c>
       <c r="D469" s="12">
         <v>0</v>
@@ -21541,174 +21533,172 @@
       <c r="R469" s="13" t="s">
         <v>706</v>
       </c>
-      <c r="U469" s="1">
+    </row>
+    <row r="470" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A470" s="27" t="s">
+        <v>708</v>
+      </c>
+      <c r="B470" s="27" t="s">
+        <v>705</v>
+      </c>
+      <c r="C470" s="28">
+        <v>106423</v>
+      </c>
+      <c r="D470" s="29">
+        <v>0</v>
+      </c>
+      <c r="E470" s="29">
+        <v>0.1</v>
+      </c>
+      <c r="F470" s="29"/>
+      <c r="G470" s="29"/>
+      <c r="H470" s="29"/>
+      <c r="I470" s="29"/>
+      <c r="J470" s="29"/>
+      <c r="K470" s="29"/>
+      <c r="L470" s="29"/>
+      <c r="M470" s="29">
+        <v>22</v>
+      </c>
+      <c r="N470" s="29"/>
+      <c r="O470" s="29"/>
+      <c r="P470" s="29"/>
+      <c r="Q470" s="30"/>
+      <c r="R470" s="30" t="s">
+        <v>706</v>
+      </c>
+      <c r="U470" s="1">
         <f>MIN(F469:P469)</f>
         <v>22</v>
       </c>
     </row>
-    <row r="470" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A470" s="10" t="s">
-        <v>707</v>
-      </c>
-      <c r="B470" s="10" t="s">
+    <row r="471" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A471" s="10" t="s">
+        <v>709</v>
+      </c>
+      <c r="B471" s="10" t="s">
         <v>705</v>
       </c>
-      <c r="C470" s="11">
-        <v>95476</v>
-      </c>
-      <c r="D470" s="12">
-        <v>0</v>
-      </c>
-      <c r="E470" s="12">
+      <c r="C471" s="11">
+        <v>1330207</v>
+      </c>
+      <c r="D471" s="12">
+        <v>0</v>
+      </c>
+      <c r="E471" s="12">
         <v>0.1</v>
       </c>
-      <c r="F470" s="12"/>
-      <c r="G470" s="12"/>
-      <c r="H470" s="12"/>
-      <c r="I470" s="12"/>
-      <c r="J470" s="12"/>
-      <c r="K470" s="12"/>
-      <c r="L470" s="12"/>
-      <c r="M470" s="12">
+      <c r="F471" s="12">
+        <v>560</v>
+      </c>
+      <c r="G471" s="12">
+        <v>560</v>
+      </c>
+      <c r="H471" s="12">
+        <v>4000</v>
+      </c>
+      <c r="I471" s="12">
+        <v>1700</v>
+      </c>
+      <c r="J471" s="12"/>
+      <c r="K471" s="12"/>
+      <c r="L471" s="12">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="M471" s="12">
         <v>22</v>
       </c>
-      <c r="N470" s="12"/>
-      <c r="O470" s="12"/>
-      <c r="P470" s="12"/>
-      <c r="Q470" s="13"/>
-      <c r="R470" s="13" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="471" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A471" s="27" t="s">
-        <v>708</v>
-      </c>
-      <c r="B471" s="27" t="s">
-        <v>705</v>
-      </c>
-      <c r="C471" s="28">
-        <v>106423</v>
-      </c>
-      <c r="D471" s="29">
-        <v>0</v>
-      </c>
-      <c r="E471" s="29">
-        <v>0.1</v>
-      </c>
-      <c r="F471" s="29"/>
-      <c r="G471" s="29"/>
-      <c r="H471" s="29"/>
-      <c r="I471" s="29"/>
-      <c r="J471" s="29"/>
-      <c r="K471" s="29"/>
-      <c r="L471" s="29"/>
-      <c r="M471" s="29">
-        <v>22</v>
-      </c>
-      <c r="N471" s="29"/>
-      <c r="O471" s="29"/>
-      <c r="P471" s="29"/>
-      <c r="Q471" s="30"/>
-      <c r="R471" s="30" t="s">
-        <v>706</v>
-      </c>
+      <c r="N471" s="12"/>
+      <c r="O471" s="12"/>
+      <c r="P471" s="12"/>
+      <c r="Q471" s="13" t="s">
+        <v>741</v>
+      </c>
+      <c r="R471" s="13"/>
       <c r="U471" s="1">
         <f>MIN(F470:P470)</f>
         <v>22</v>
       </c>
     </row>
     <row r="472" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A472" s="10" t="s">
-        <v>709</v>
+      <c r="A472" s="36" t="s">
+        <v>710</v>
       </c>
       <c r="B472" s="10" t="s">
-        <v>705</v>
-      </c>
-      <c r="C472" s="11">
-        <v>1330207</v>
-      </c>
-      <c r="D472" s="12">
-        <v>0</v>
-      </c>
-      <c r="E472" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="F472" s="12">
-        <v>560</v>
-      </c>
-      <c r="G472" s="12">
-        <v>560</v>
-      </c>
-      <c r="H472" s="12">
-        <v>4000</v>
-      </c>
-      <c r="I472" s="12">
-        <v>1700</v>
-      </c>
-      <c r="J472" s="12"/>
-      <c r="K472" s="12"/>
-      <c r="L472" s="12">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="M472" s="12">
+        <v>710</v>
+      </c>
+      <c r="C472" s="11" t="s">
+        <v>711</v>
+      </c>
+      <c r="D472" s="12"/>
+      <c r="E472" s="12"/>
+      <c r="F472" s="31"/>
+      <c r="G472" s="31"/>
+      <c r="H472" s="32"/>
+      <c r="I472" s="32"/>
+      <c r="J472" s="31"/>
+      <c r="K472" s="32"/>
+      <c r="L472" s="31"/>
+      <c r="M472" s="31"/>
+      <c r="N472" s="32"/>
+      <c r="O472" s="33"/>
+      <c r="P472" s="33"/>
+      <c r="Q472" s="13" t="s">
+        <v>712</v>
+      </c>
+      <c r="R472" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="N472" s="12"/>
-      <c r="O472" s="12"/>
-      <c r="P472" s="12"/>
-      <c r="Q472" s="13" t="s">
-        <v>741</v>
-      </c>
-      <c r="R472" s="13"/>
       <c r="U472" s="1">
         <f>MIN(F471:P471)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="473" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A473" s="36" t="s">
-        <v>710</v>
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="473" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A473" s="38" t="s">
+        <v>326</v>
       </c>
       <c r="B473" s="10" t="s">
-        <v>710</v>
-      </c>
-      <c r="C473" s="11" t="s">
-        <v>711</v>
+        <v>327</v>
+      </c>
+      <c r="C473" s="26">
+        <v>67425</v>
       </c>
       <c r="D473" s="12"/>
       <c r="E473" s="12"/>
-      <c r="F473" s="31"/>
-      <c r="G473" s="31"/>
-      <c r="H473" s="32"/>
-      <c r="I473" s="32"/>
-      <c r="J473" s="31"/>
-      <c r="K473" s="32"/>
-      <c r="L473" s="31"/>
-      <c r="M473" s="31"/>
-      <c r="N473" s="32"/>
-      <c r="O473" s="33"/>
-      <c r="P473" s="33"/>
-      <c r="Q473" s="13" t="s">
-        <v>712</v>
+      <c r="F473" s="12"/>
+      <c r="G473" s="12"/>
+      <c r="H473" s="12"/>
+      <c r="I473" s="12"/>
+      <c r="J473" s="12"/>
+      <c r="K473" s="12"/>
+      <c r="L473" s="12"/>
+      <c r="M473" s="12">
+        <v>0</v>
+      </c>
+      <c r="N473" s="12"/>
+      <c r="O473" s="12"/>
+      <c r="P473" s="12"/>
+      <c r="Q473" s="14" t="s">
+        <v>218</v>
       </c>
       <c r="R473" s="13" t="s">
-        <v>22</v>
+        <v>817</v>
       </c>
       <c r="U473" s="1">
-        <f>MIN(F472:P472)</f>
-        <v>8.6999999999999993</v>
-      </c>
-    </row>
-    <row r="474" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A474" s="38" t="s">
-        <v>326</v>
+        <f t="shared" ref="U473:U479" si="9">MIN(F473:P473)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A474" s="25" t="s">
+        <v>330</v>
       </c>
       <c r="B474" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="C474" s="26">
-        <v>67425</v>
+      <c r="C474" s="26" t="s">
+        <v>331</v>
       </c>
       <c r="D474" s="12"/>
       <c r="E474" s="12"/>
@@ -21719,32 +21709,30 @@
       <c r="J474" s="12"/>
       <c r="K474" s="12"/>
       <c r="L474" s="12"/>
-      <c r="M474" s="12">
-        <v>0</v>
-      </c>
+      <c r="M474" s="12"/>
       <c r="N474" s="12"/>
       <c r="O474" s="12"/>
       <c r="P474" s="12"/>
       <c r="Q474" s="14" t="s">
-        <v>218</v>
+        <v>332</v>
       </c>
       <c r="R474" s="13" t="s">
         <v>817</v>
       </c>
       <c r="U474" s="1">
-        <f t="shared" ref="U474:U480" si="9">MIN(F474:P474)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A475" s="25" t="s">
-        <v>330</v>
+      <c r="A475" s="10" t="s">
+        <v>337</v>
       </c>
       <c r="B475" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="C475" s="26" t="s">
-        <v>331</v>
+      <c r="C475" s="11">
+        <v>1589497</v>
       </c>
       <c r="D475" s="12"/>
       <c r="E475" s="12"/>
@@ -21759,8 +21747,8 @@
       <c r="N475" s="12"/>
       <c r="O475" s="12"/>
       <c r="P475" s="12"/>
-      <c r="Q475" s="14" t="s">
-        <v>332</v>
+      <c r="Q475" s="13" t="s">
+        <v>89</v>
       </c>
       <c r="R475" s="13" t="s">
         <v>817</v>
@@ -21772,13 +21760,13 @@
     </row>
     <row r="476" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A476" s="10" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B476" s="10" t="s">
         <v>327</v>
       </c>
       <c r="C476" s="11">
-        <v>1589497</v>
+        <v>16672392</v>
       </c>
       <c r="D476" s="12"/>
       <c r="E476" s="12"/>
@@ -21805,14 +21793,14 @@
       </c>
     </row>
     <row r="477" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A477" s="10" t="s">
-        <v>340</v>
+      <c r="A477" s="25" t="s">
+        <v>341</v>
       </c>
       <c r="B477" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="C477" s="11">
-        <v>16672392</v>
+      <c r="C477" s="37">
+        <v>120558</v>
       </c>
       <c r="D477" s="12"/>
       <c r="E477" s="12"/>
@@ -21827,7 +21815,7 @@
       <c r="N477" s="12"/>
       <c r="O477" s="12"/>
       <c r="P477" s="12"/>
-      <c r="Q477" s="13" t="s">
+      <c r="Q477" s="14" t="s">
         <v>89</v>
       </c>
       <c r="R477" s="13" t="s">
@@ -21838,15 +21826,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A478" s="25" t="s">
-        <v>341</v>
+    <row r="478" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A478" s="38" t="s">
+        <v>733</v>
       </c>
       <c r="B478" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="C478" s="37">
-        <v>120558</v>
+      <c r="C478" s="42" t="s">
+        <v>734</v>
       </c>
       <c r="D478" s="12"/>
       <c r="E478" s="12"/>
@@ -21862,7 +21850,7 @@
       <c r="O478" s="12"/>
       <c r="P478" s="12"/>
       <c r="Q478" s="14" t="s">
-        <v>89</v>
+        <v>735</v>
       </c>
       <c r="R478" s="13" t="s">
         <v>817</v>
@@ -21873,14 +21861,14 @@
       </c>
     </row>
     <row r="479" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A479" s="38" t="s">
-        <v>733</v>
+      <c r="A479" s="10" t="s">
+        <v>362</v>
       </c>
       <c r="B479" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="C479" s="42" t="s">
-        <v>734</v>
+      <c r="C479" s="11" t="s">
+        <v>363</v>
       </c>
       <c r="D479" s="12"/>
       <c r="E479" s="12"/>
@@ -21895,8 +21883,8 @@
       <c r="N479" s="12"/>
       <c r="O479" s="12"/>
       <c r="P479" s="12"/>
-      <c r="Q479" s="14" t="s">
-        <v>735</v>
+      <c r="Q479" s="13" t="s">
+        <v>364</v>
       </c>
       <c r="R479" s="13" t="s">
         <v>817</v>
@@ -21906,43 +21894,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A480" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="B480" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="C480" s="11" t="s">
-        <v>363</v>
-      </c>
+        <v>713</v>
+      </c>
+      <c r="B480" s="10"/>
+      <c r="C480" s="11"/>
       <c r="D480" s="12"/>
       <c r="E480" s="12"/>
-      <c r="F480" s="12"/>
-      <c r="G480" s="12"/>
-      <c r="H480" s="12"/>
-      <c r="I480" s="12"/>
-      <c r="J480" s="12"/>
-      <c r="K480" s="12"/>
-      <c r="L480" s="12"/>
-      <c r="M480" s="12"/>
-      <c r="N480" s="12"/>
-      <c r="O480" s="12"/>
-      <c r="P480" s="12"/>
+      <c r="F480" s="33"/>
+      <c r="G480" s="33"/>
+      <c r="H480" s="33"/>
+      <c r="I480" s="33"/>
+      <c r="J480" s="33"/>
+      <c r="K480" s="33"/>
+      <c r="L480" s="33"/>
+      <c r="M480" s="33"/>
+      <c r="N480" s="33"/>
+      <c r="O480" s="33"/>
+      <c r="P480" s="33"/>
       <c r="Q480" s="13" t="s">
-        <v>364</v>
-      </c>
-      <c r="R480" s="13" t="s">
-        <v>817</v>
-      </c>
-      <c r="U480" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+        <v>609</v>
+      </c>
+      <c r="R480" s="13"/>
     </row>
     <row r="481" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A481" s="10" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B481" s="10"/>
       <c r="C481" s="11"/>
@@ -21966,7 +21944,7 @@
     </row>
     <row r="482" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A482" s="10" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B482" s="10"/>
       <c r="C482" s="11"/>
@@ -21990,7 +21968,7 @@
     </row>
     <row r="483" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A483" s="10" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B483" s="10"/>
       <c r="C483" s="11"/>
@@ -22014,7 +21992,7 @@
     </row>
     <row r="484" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A484" s="10" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B484" s="10"/>
       <c r="C484" s="11"/>
@@ -22038,7 +22016,7 @@
     </row>
     <row r="485" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A485" s="10" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B485" s="10"/>
       <c r="C485" s="11"/>
@@ -22062,7 +22040,7 @@
     </row>
     <row r="486" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A486" s="10" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B486" s="10"/>
       <c r="C486" s="11"/>
@@ -22086,7 +22064,7 @@
     </row>
     <row r="487" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A487" s="10" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B487" s="10"/>
       <c r="C487" s="11"/>
@@ -22110,7 +22088,7 @@
     </row>
     <row r="488" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A488" s="10" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B488" s="10"/>
       <c r="C488" s="11"/>
@@ -22134,7 +22112,7 @@
     </row>
     <row r="489" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A489" s="10" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B489" s="10"/>
       <c r="C489" s="11"/>
@@ -22158,7 +22136,7 @@
     </row>
     <row r="490" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A490" s="10" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B490" s="10"/>
       <c r="C490" s="11"/>
@@ -22182,7 +22160,7 @@
     </row>
     <row r="491" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A491" s="10" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B491" s="10"/>
       <c r="C491" s="11"/>
@@ -22206,7 +22184,7 @@
     </row>
     <row r="492" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A492" s="10" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B492" s="10"/>
       <c r="C492" s="11"/>
@@ -22230,7 +22208,7 @@
     </row>
     <row r="493" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A493" s="10" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B493" s="10"/>
       <c r="C493" s="11"/>
@@ -22254,7 +22232,7 @@
     </row>
     <row r="494" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A494" s="10" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B494" s="10"/>
       <c r="C494" s="11"/>
@@ -22278,7 +22256,7 @@
     </row>
     <row r="495" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A495" s="10" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B495" s="10"/>
       <c r="C495" s="11"/>
@@ -22296,13 +22274,13 @@
       <c r="O495" s="33"/>
       <c r="P495" s="33"/>
       <c r="Q495" s="13" t="s">
-        <v>609</v>
+        <v>514</v>
       </c>
       <c r="R495" s="13"/>
     </row>
     <row r="496" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A496" s="10" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B496" s="10"/>
       <c r="C496" s="11"/>
@@ -22320,13 +22298,13 @@
       <c r="O496" s="33"/>
       <c r="P496" s="33"/>
       <c r="Q496" s="13" t="s">
-        <v>514</v>
+        <v>730</v>
       </c>
       <c r="R496" s="13"/>
     </row>
     <row r="497" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A497" s="10" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="B497" s="10"/>
       <c r="C497" s="11"/>
@@ -22344,43 +22322,19 @@
       <c r="O497" s="33"/>
       <c r="P497" s="33"/>
       <c r="Q497" s="13" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="R497" s="13"/>
     </row>
     <row r="498" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A498" s="10" t="s">
-        <v>731</v>
-      </c>
-      <c r="B498" s="10"/>
-      <c r="C498" s="11"/>
-      <c r="D498" s="12"/>
-      <c r="E498" s="12"/>
-      <c r="F498" s="33"/>
-      <c r="G498" s="33"/>
-      <c r="H498" s="33"/>
-      <c r="I498" s="33"/>
-      <c r="J498" s="33"/>
-      <c r="K498" s="33"/>
-      <c r="L498" s="33"/>
-      <c r="M498" s="33"/>
-      <c r="N498" s="33"/>
-      <c r="O498" s="33"/>
-      <c r="P498" s="33"/>
-      <c r="Q498" s="13" t="s">
-        <v>732</v>
-      </c>
-      <c r="R498" s="13"/>
-    </row>
-    <row r="499" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="Q499" s="34"/>
+      <c r="Q498" s="34"/>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>
   <pageMargins left="0.17" right="0.17" top="0.47" bottom="0.57999999999999996" header="0" footer="0"/>
   <pageSetup paperSize="5" scale="59" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;L&amp;F&amp;C&amp;P&amp;RDecember 19, 2018</oddFooter>
+    <oddFooter>&amp;L&amp;F&amp;C&amp;P&amp;RMay 31, 2018</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/resources/Dose_Response_Library.xlsx
+++ b/resources/Dose_Response_Library.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://scaainc-my.sharepoint.com/personal/jmozier_scainc_com/Documents/Projects/RIS-409 to 104 RTR  NATA (2013-2017)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David Lindsey\OneDrive - SC&amp;A, Inc\HEM4Python\Version_Master\HEM4\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E099FF3-ADCF-4757-83F0-947B813D6E9F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31184AE9-D6E8-43E9-838E-8A8FA90F3997}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17985" windowHeight="4110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="2700" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dose Response Value Library" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,15 @@
     <definedName name="Z_E392D6CB_6FB5_47D6_BFF9_30F47B865CA7_.wvu.PrintArea" localSheetId="0" hidden="1">'Dose Response Value Library'!$A$1:$U$472</definedName>
     <definedName name="Z_E392D6CB_6FB5_47D6_BFF9_30F47B865CA7_.wvu.PrintTitles" localSheetId="0" hidden="1">'Dose Response Value Library'!$A:$A,'Dose Response Value Library'!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2576,12 +2584,6 @@
   </si>
   <si>
     <t>RfC = antimony trioxide. ERPG2 updated 1/2017. MRL = antimony trioxide</t>
-  </si>
-  <si>
-    <t>1,2,3,4,6,7,8,9-Octachlorodibenzo-p-dioxin</t>
-  </si>
-  <si>
-    <t>1,2,3,4,6,7,8,9-Octachlorodibenzofuran</t>
   </si>
   <si>
     <t>2-Methylphenanthrene</t>
@@ -2644,6 +2646,12 @@
   </si>
   <si>
     <t>URE = 0.001xBaP based on EPA RPF which does not coorespond to a POM group - removed from group 7 5/2018. POM group 7 adjusted URE updated 4/2017.</t>
+  </si>
+  <si>
+    <t>1,2,3,4,6,7,8,9-Octochlorodibenzo-p-dioxin</t>
+  </si>
+  <si>
+    <t>1,2,3,4,6,7,8,9-Octochlorodibenzofuran</t>
   </si>
 </sst>
 </file>
@@ -3696,13 +3704,13 @@
   <dimension ref="A1:X498"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L14" sqref="L14"/>
+      <pane ySplit="1" topLeftCell="A177" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A190" sqref="A190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="52.85546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="30.42578125" style="7" customWidth="1"/>
     <col min="3" max="3" width="14" style="2" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" style="1" customWidth="1"/>
@@ -4320,7 +4328,7 @@
         <v>742</v>
       </c>
       <c r="R15" s="13" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="U15" s="1">
         <f t="shared" si="0"/>
@@ -4830,7 +4838,7 @@
       <c r="P29" s="12"/>
       <c r="Q29" s="13"/>
       <c r="R29" s="13" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="U29" s="1">
         <f t="shared" si="0"/>
@@ -4884,7 +4892,7 @@
         <v>741</v>
       </c>
       <c r="R30" s="13" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="U30" s="1">
         <f t="shared" si="0"/>
@@ -5160,7 +5168,7 @@
       <c r="P38" s="12"/>
       <c r="Q38" s="13"/>
       <c r="R38" s="13" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="U38" s="1">
         <f t="shared" si="0"/>
@@ -5510,7 +5518,7 @@
         <v>741</v>
       </c>
       <c r="R47" s="55" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="U47" s="1">
         <f t="shared" si="0"/>
@@ -6423,7 +6431,7 @@
         <v>759</v>
       </c>
       <c r="R69" s="56" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="U69" s="1">
         <f t="shared" si="1"/>
@@ -9163,7 +9171,7 @@
       <c r="P142" s="12"/>
       <c r="Q142" s="13"/>
       <c r="R142" s="13" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="U142" s="1">
         <f>MIN(F142:P142)</f>
@@ -10884,7 +10892,7 @@
     </row>
     <row r="188" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A188" s="10" t="s">
-        <v>839</v>
+        <v>856</v>
       </c>
       <c r="B188" s="10" t="s">
         <v>747</v>
@@ -10928,7 +10936,7 @@
     </row>
     <row r="189" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A189" s="10" t="s">
-        <v>840</v>
+        <v>857</v>
       </c>
       <c r="B189" s="10" t="s">
         <v>747</v>
@@ -12296,7 +12304,7 @@
         <v>48</v>
       </c>
       <c r="R221" s="13" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="U221" s="1">
         <f>MIN(F221:P221)</f>
@@ -12374,7 +12382,7 @@
         <v>336</v>
       </c>
       <c r="R223" s="13" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="U223" s="1">
         <f t="shared" si="3"/>
@@ -15921,7 +15929,7 @@
       <c r="P315" s="12"/>
       <c r="Q315" s="13"/>
       <c r="R315" s="13" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="U315" s="1">
         <f t="shared" si="4"/>
@@ -17402,13 +17410,13 @@
     </row>
     <row r="357" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A357" s="10" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B357" s="10" t="s">
         <v>531</v>
       </c>
       <c r="C357" s="51" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D357" s="12">
         <v>4.8000000000000001E-5</v>
@@ -17426,10 +17434,10 @@
       <c r="O357" s="12"/>
       <c r="P357" s="12"/>
       <c r="Q357" s="13" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="R357" s="13" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="358" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
@@ -18887,7 +18895,7 @@
         <v>591</v>
       </c>
       <c r="R399" s="13" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="U399" s="1">
         <f t="shared" si="7"/>
@@ -19589,7 +19597,7 @@
         <v>623</v>
       </c>
       <c r="B419" s="10" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C419" s="11">
         <v>218019</v>
@@ -19613,7 +19621,7 @@
       <c r="P419" s="12"/>
       <c r="Q419" s="13"/>
       <c r="R419" s="13" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="U419" s="1">
         <f>MIN(F419:P419)</f>

--- a/resources/Dose_Response_Library.xlsx
+++ b/resources/Dose_Response_Library.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://scaainc-my.sharepoint.com/personal/jmozier_scainc_com/Documents/Projects/RIS-409 to 104 RTR  NATA (2013-2017)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E099FF3-ADCF-4757-83F0-947B813D6E9F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CFFCE8C-70D8-4F08-A766-9B1C23AC6A59}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17985" windowHeight="4110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,35 +17,43 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Dose Response Value Library'!$A$1:$U$1</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Dose Response Value Library'!$A$1:$U$472</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Dose Response Value Library'!$A$1:$U$473</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Dose Response Value Library'!$A:$A,'Dose Response Value Library'!$1:$1</definedName>
     <definedName name="Z_02F25025_575C_44AE_898B_73D9FC4E52EB_.wvu.Cols" localSheetId="0" hidden="1">'Dose Response Value Library'!$S:$U</definedName>
     <definedName name="Z_02F25025_575C_44AE_898B_73D9FC4E52EB_.wvu.FilterData" localSheetId="0" hidden="1">'Dose Response Value Library'!$A$1:$U$1</definedName>
-    <definedName name="Z_02F25025_575C_44AE_898B_73D9FC4E52EB_.wvu.PrintArea" localSheetId="0" hidden="1">'Dose Response Value Library'!$A$1:$U$472</definedName>
+    <definedName name="Z_02F25025_575C_44AE_898B_73D9FC4E52EB_.wvu.PrintArea" localSheetId="0" hidden="1">'Dose Response Value Library'!$A$1:$U$473</definedName>
     <definedName name="Z_02F25025_575C_44AE_898B_73D9FC4E52EB_.wvu.PrintTitles" localSheetId="0" hidden="1">'Dose Response Value Library'!$A:$A,'Dose Response Value Library'!$1:$1</definedName>
     <definedName name="Z_5316095A_12B0_4657_8012_90B92DB60CA5_.wvu.Cols" localSheetId="0" hidden="1">'Dose Response Value Library'!$S:$U</definedName>
     <definedName name="Z_5316095A_12B0_4657_8012_90B92DB60CA5_.wvu.FilterData" localSheetId="0" hidden="1">'Dose Response Value Library'!$A$1:$U$1</definedName>
-    <definedName name="Z_5316095A_12B0_4657_8012_90B92DB60CA5_.wvu.PrintArea" localSheetId="0" hidden="1">'Dose Response Value Library'!$A$1:$U$472</definedName>
+    <definedName name="Z_5316095A_12B0_4657_8012_90B92DB60CA5_.wvu.PrintArea" localSheetId="0" hidden="1">'Dose Response Value Library'!$A$1:$U$473</definedName>
     <definedName name="Z_5316095A_12B0_4657_8012_90B92DB60CA5_.wvu.PrintTitles" localSheetId="0" hidden="1">'Dose Response Value Library'!$A:$A,'Dose Response Value Library'!$1:$1</definedName>
     <definedName name="Z_66C167BA_817C_4D29_882D_23DEB261FAE8_.wvu.Cols" localSheetId="0" hidden="1">'Dose Response Value Library'!$S:$U</definedName>
     <definedName name="Z_66C167BA_817C_4D29_882D_23DEB261FAE8_.wvu.FilterData" localSheetId="0" hidden="1">'Dose Response Value Library'!$A$1:$U$1</definedName>
-    <definedName name="Z_66C167BA_817C_4D29_882D_23DEB261FAE8_.wvu.PrintArea" localSheetId="0" hidden="1">'Dose Response Value Library'!$A$1:$U$472</definedName>
+    <definedName name="Z_66C167BA_817C_4D29_882D_23DEB261FAE8_.wvu.PrintArea" localSheetId="0" hidden="1">'Dose Response Value Library'!$A$1:$U$473</definedName>
     <definedName name="Z_66C167BA_817C_4D29_882D_23DEB261FAE8_.wvu.PrintTitles" localSheetId="0" hidden="1">'Dose Response Value Library'!$A:$A,'Dose Response Value Library'!$1:$1</definedName>
     <definedName name="Z_A92082BE_D0EE_482D_8AC4_F3292576F32A_.wvu.Cols" localSheetId="0" hidden="1">'Dose Response Value Library'!$S:$U</definedName>
     <definedName name="Z_A92082BE_D0EE_482D_8AC4_F3292576F32A_.wvu.FilterData" localSheetId="0" hidden="1">'Dose Response Value Library'!$A$1:$U$1</definedName>
-    <definedName name="Z_A92082BE_D0EE_482D_8AC4_F3292576F32A_.wvu.PrintArea" localSheetId="0" hidden="1">'Dose Response Value Library'!$A$1:$U$472</definedName>
+    <definedName name="Z_A92082BE_D0EE_482D_8AC4_F3292576F32A_.wvu.PrintArea" localSheetId="0" hidden="1">'Dose Response Value Library'!$A$1:$U$473</definedName>
     <definedName name="Z_A92082BE_D0EE_482D_8AC4_F3292576F32A_.wvu.PrintTitles" localSheetId="0" hidden="1">'Dose Response Value Library'!$A:$A,'Dose Response Value Library'!$1:$1</definedName>
     <definedName name="Z_CC01080B_D949_41EC_8BF6_97C0B42DDB18_.wvu.FilterData" localSheetId="0" hidden="1">'Dose Response Value Library'!$A$1:$U$1</definedName>
     <definedName name="Z_E392D6CB_6FB5_47D6_BFF9_30F47B865CA7_.wvu.FilterData" localSheetId="0" hidden="1">'Dose Response Value Library'!$A$1:$U$1</definedName>
-    <definedName name="Z_E392D6CB_6FB5_47D6_BFF9_30F47B865CA7_.wvu.PrintArea" localSheetId="0" hidden="1">'Dose Response Value Library'!$A$1:$U$472</definedName>
+    <definedName name="Z_E392D6CB_6FB5_47D6_BFF9_30F47B865CA7_.wvu.PrintArea" localSheetId="0" hidden="1">'Dose Response Value Library'!$A$1:$U$473</definedName>
     <definedName name="Z_E392D6CB_6FB5_47D6_BFF9_30F47B865CA7_.wvu.PrintTitles" localSheetId="0" hidden="1">'Dose Response Value Library'!$A:$A,'Dose Response Value Library'!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1751" uniqueCount="858">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1755" uniqueCount="860">
   <si>
     <t>Pollutant</t>
   </si>
@@ -2644,6 +2652,12 @@
   </si>
   <si>
     <t>URE = 0.001xBaP based on EPA RPF which does not coorespond to a POM group - removed from group 7 5/2018. POM group 7 adjusted URE updated 4/2017.</t>
+  </si>
+  <si>
+    <t>2-Chlorobiphenyl (PCB-1)</t>
+  </si>
+  <si>
+    <t>added 10/31/18 for Misc Metal Parts Coating category</t>
   </si>
 </sst>
 </file>
@@ -3148,7 +3162,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3264,6 +3278,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -3693,11 +3708,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:X498"/>
+  <dimension ref="A1:X499"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L14" sqref="L14"/>
+      <pane ySplit="1" topLeftCell="A328" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G349" sqref="G349"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15962,7 +15977,7 @@
         <v>465</v>
       </c>
       <c r="U316" s="1">
-        <f t="shared" ref="U316:U383" si="5">MIN(F316:P316)</f>
+        <f t="shared" ref="U316:U384" si="5">MIN(F316:P316)</f>
         <v>0</v>
       </c>
     </row>
@@ -16925,22 +16940,21 @@
       <c r="N342" s="12"/>
       <c r="O342" s="12"/>
       <c r="P342" s="12"/>
-      <c r="Q342" s="13"/>
       <c r="R342" s="13"/>
       <c r="U342" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A343" s="10" t="s">
-        <v>513</v>
+    <row r="343" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A343" s="57" t="s">
+        <v>858</v>
       </c>
       <c r="B343" s="10" t="s">
         <v>502</v>
       </c>
       <c r="C343" s="11">
-        <v>7012375</v>
+        <v>15999911</v>
       </c>
       <c r="D343" s="12">
         <v>1E-4</v>
@@ -16958,7 +16972,7 @@
       <c r="O343" s="12"/>
       <c r="P343" s="12"/>
       <c r="Q343" s="13" t="s">
-        <v>514</v>
+        <v>859</v>
       </c>
       <c r="R343" s="13" t="s">
         <v>800</v>
@@ -16966,13 +16980,13 @@
     </row>
     <row r="344" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A344" s="10" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B344" s="10" t="s">
         <v>502</v>
       </c>
       <c r="C344" s="11">
-        <v>2050682</v>
+        <v>7012375</v>
       </c>
       <c r="D344" s="12">
         <v>1E-4</v>
@@ -16998,13 +17012,13 @@
     </row>
     <row r="345" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A345" s="10" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B345" s="10" t="s">
         <v>502</v>
       </c>
       <c r="C345" s="11">
-        <v>2051607</v>
+        <v>2050682</v>
       </c>
       <c r="D345" s="12">
         <v>1E-4</v>
@@ -17030,13 +17044,13 @@
     </row>
     <row r="346" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A346" s="10" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B346" s="10" t="s">
         <v>502</v>
       </c>
       <c r="C346" s="11">
-        <v>28655712</v>
+        <v>2051607</v>
       </c>
       <c r="D346" s="12">
         <v>1E-4</v>
@@ -17062,13 +17076,13 @@
     </row>
     <row r="347" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A347" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B347" s="10" t="s">
         <v>502</v>
       </c>
       <c r="C347" s="11">
-        <v>26601649</v>
+        <v>28655712</v>
       </c>
       <c r="D347" s="12">
         <v>1E-4</v>
@@ -17094,13 +17108,13 @@
     </row>
     <row r="348" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A348" s="10" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B348" s="10" t="s">
         <v>502</v>
       </c>
-      <c r="C348" s="28">
-        <v>25429292</v>
+      <c r="C348" s="11">
+        <v>26601649</v>
       </c>
       <c r="D348" s="12">
         <v>1E-4</v>
@@ -17126,13 +17140,13 @@
     </row>
     <row r="349" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A349" s="10" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B349" s="10" t="s">
         <v>502</v>
       </c>
-      <c r="C349" s="11">
-        <v>26914330</v>
+      <c r="C349" s="28">
+        <v>25429292</v>
       </c>
       <c r="D349" s="12">
         <v>1E-4</v>
@@ -17156,16 +17170,18 @@
         <v>800</v>
       </c>
     </row>
-    <row r="350" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A350" s="10" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B350" s="10" t="s">
-        <v>522</v>
-      </c>
-      <c r="C350" s="11"/>
-      <c r="D350" s="23">
-        <v>4.8000000000000001E-5</v>
+        <v>502</v>
+      </c>
+      <c r="C350" s="11">
+        <v>26914330</v>
+      </c>
+      <c r="D350" s="12">
+        <v>1E-4</v>
       </c>
       <c r="E350" s="12"/>
       <c r="F350" s="12"/>
@@ -17179,28 +17195,22 @@
       <c r="N350" s="12"/>
       <c r="O350" s="12"/>
       <c r="P350" s="12"/>
-      <c r="Q350" s="14" t="s">
-        <v>48</v>
+      <c r="Q350" s="13" t="s">
+        <v>514</v>
       </c>
       <c r="R350" s="13" t="s">
-        <v>801</v>
-      </c>
-      <c r="U350" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="351" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="351" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A351" s="10" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B351" s="10" t="s">
-        <v>524</v>
-      </c>
-      <c r="C351" s="24">
-        <v>40</v>
-      </c>
-      <c r="D351" s="12">
+        <v>522</v>
+      </c>
+      <c r="C351" s="11"/>
+      <c r="D351" s="23">
         <v>4.8000000000000001E-5</v>
       </c>
       <c r="E351" s="12"/>
@@ -17219,22 +17229,22 @@
         <v>48</v>
       </c>
       <c r="R351" s="13" t="s">
-        <v>819</v>
+        <v>801</v>
       </c>
       <c r="U351" s="1">
-        <f>MIN(F351:P351)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A352" s="10" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B352" s="10" t="s">
-        <v>526</v>
-      </c>
-      <c r="C352" s="24" t="s">
-        <v>792</v>
+        <v>524</v>
+      </c>
+      <c r="C352" s="24">
+        <v>40</v>
       </c>
       <c r="D352" s="12">
         <v>4.8000000000000001E-5</v>
@@ -17258,19 +17268,19 @@
         <v>819</v>
       </c>
       <c r="U352" s="1">
-        <f t="shared" si="5"/>
+        <f>MIN(F352:P352)</f>
         <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A353" s="10" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B353" s="10" t="s">
         <v>526</v>
       </c>
-      <c r="C353" s="24">
-        <v>246</v>
+      <c r="C353" s="24" t="s">
+        <v>792</v>
       </c>
       <c r="D353" s="12">
         <v>4.8000000000000001E-5</v>
@@ -17298,15 +17308,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A354" s="10" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B354" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="C354" s="11"/>
-      <c r="D354" s="23">
+        <v>526</v>
+      </c>
+      <c r="C354" s="24">
+        <v>246</v>
+      </c>
+      <c r="D354" s="12">
         <v>4.8000000000000001E-5</v>
       </c>
       <c r="E354" s="12"/>
@@ -17325,29 +17337,25 @@
         <v>48</v>
       </c>
       <c r="R354" s="13" t="s">
-        <v>802</v>
+        <v>819</v>
       </c>
       <c r="U354" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A355" s="10" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B355" s="10" t="s">
-        <v>531</v>
-      </c>
-      <c r="C355" s="11">
-        <v>90120</v>
-      </c>
-      <c r="D355" s="12">
+        <v>529</v>
+      </c>
+      <c r="C355" s="11"/>
+      <c r="D355" s="23">
         <v>4.8000000000000001E-5</v>
       </c>
-      <c r="E355" s="12">
-        <v>0</v>
-      </c>
+      <c r="E355" s="12"/>
       <c r="F355" s="12"/>
       <c r="G355" s="12"/>
       <c r="H355" s="12"/>
@@ -17359,29 +17367,33 @@
       <c r="N355" s="12"/>
       <c r="O355" s="12"/>
       <c r="P355" s="12"/>
-      <c r="Q355" s="13"/>
+      <c r="Q355" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="R355" s="13" t="s">
-        <v>820</v>
+        <v>802</v>
       </c>
       <c r="U355" s="1">
-        <f>MIN(F355:P355)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A356" s="10" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B356" s="10" t="s">
         <v>531</v>
       </c>
       <c r="C356" s="11">
-        <v>832699</v>
+        <v>90120</v>
       </c>
       <c r="D356" s="12">
         <v>4.8000000000000001E-5</v>
       </c>
-      <c r="E356" s="12"/>
+      <c r="E356" s="12">
+        <v>0</v>
+      </c>
       <c r="F356" s="12"/>
       <c r="G356" s="12"/>
       <c r="H356" s="12"/>
@@ -17393,22 +17405,24 @@
       <c r="N356" s="12"/>
       <c r="O356" s="12"/>
       <c r="P356" s="12"/>
-      <c r="Q356" s="13" t="s">
-        <v>336</v>
-      </c>
+      <c r="Q356" s="13"/>
       <c r="R356" s="13" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="357" spans="1:21" x14ac:dyDescent="0.2">
+        <v>820</v>
+      </c>
+      <c r="U356" s="1">
+        <f>MIN(F356:P356)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A357" s="10" t="s">
-        <v>841</v>
+        <v>532</v>
       </c>
       <c r="B357" s="10" t="s">
         <v>531</v>
       </c>
-      <c r="C357" s="51" t="s">
-        <v>842</v>
+      <c r="C357" s="11">
+        <v>832699</v>
       </c>
       <c r="D357" s="12">
         <v>4.8000000000000001E-5</v>
@@ -17426,21 +17440,21 @@
       <c r="O357" s="12"/>
       <c r="P357" s="12"/>
       <c r="Q357" s="13" t="s">
-        <v>843</v>
+        <v>336</v>
       </c>
       <c r="R357" s="13" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="358" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="358" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A358" s="10" t="s">
-        <v>533</v>
+        <v>841</v>
       </c>
       <c r="B358" s="10" t="s">
         <v>531</v>
       </c>
-      <c r="C358" s="11">
-        <v>2381217</v>
+      <c r="C358" s="51" t="s">
+        <v>842</v>
       </c>
       <c r="D358" s="12">
         <v>4.8000000000000001E-5</v>
@@ -17458,28 +17472,26 @@
       <c r="O358" s="12"/>
       <c r="P358" s="12"/>
       <c r="Q358" s="13" t="s">
-        <v>336</v>
+        <v>843</v>
       </c>
       <c r="R358" s="13" t="s">
-        <v>822</v>
+        <v>844</v>
       </c>
     </row>
     <row r="359" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A359" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B359" s="10" t="s">
         <v>531</v>
       </c>
       <c r="C359" s="11">
-        <v>91576</v>
+        <v>2381217</v>
       </c>
       <c r="D359" s="12">
         <v>4.8000000000000001E-5</v>
       </c>
-      <c r="E359" s="12">
-        <v>0</v>
-      </c>
+      <c r="E359" s="12"/>
       <c r="F359" s="12"/>
       <c r="G359" s="12"/>
       <c r="H359" s="12"/>
@@ -17491,29 +17503,29 @@
       <c r="N359" s="12"/>
       <c r="O359" s="12"/>
       <c r="P359" s="12"/>
-      <c r="Q359" s="13"/>
+      <c r="Q359" s="13" t="s">
+        <v>336</v>
+      </c>
       <c r="R359" s="13" t="s">
-        <v>820</v>
-      </c>
-      <c r="U359" s="1">
-        <f>MIN(F359:P359)</f>
-        <v>0</v>
+        <v>822</v>
       </c>
     </row>
     <row r="360" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A360" s="25" t="s">
-        <v>535</v>
+      <c r="A360" s="10" t="s">
+        <v>534</v>
       </c>
       <c r="B360" s="10" t="s">
         <v>531</v>
       </c>
-      <c r="C360" s="26" t="s">
-        <v>536</v>
+      <c r="C360" s="11">
+        <v>91576</v>
       </c>
       <c r="D360" s="12">
         <v>4.8000000000000001E-5</v>
       </c>
-      <c r="E360" s="12"/>
+      <c r="E360" s="12">
+        <v>0</v>
+      </c>
       <c r="F360" s="12"/>
       <c r="G360" s="12"/>
       <c r="H360" s="12"/>
@@ -17525,9 +17537,7 @@
       <c r="N360" s="12"/>
       <c r="O360" s="12"/>
       <c r="P360" s="12"/>
-      <c r="Q360" s="14" t="s">
-        <v>92</v>
-      </c>
+      <c r="Q360" s="13"/>
       <c r="R360" s="13" t="s">
         <v>820</v>
       </c>
@@ -17538,13 +17548,13 @@
     </row>
     <row r="361" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A361" s="25" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B361" s="10" t="s">
         <v>531</v>
       </c>
-      <c r="C361" s="26">
-        <v>2422799</v>
+      <c r="C361" s="26" t="s">
+        <v>536</v>
       </c>
       <c r="D361" s="12">
         <v>4.8000000000000001E-5</v>
@@ -17561,29 +17571,31 @@
       <c r="N361" s="12"/>
       <c r="O361" s="12"/>
       <c r="P361" s="12"/>
-      <c r="Q361" s="13" t="s">
-        <v>336</v>
+      <c r="Q361" s="14" t="s">
+        <v>92</v>
       </c>
       <c r="R361" s="13" t="s">
-        <v>822</v>
+        <v>820</v>
+      </c>
+      <c r="U361" s="1">
+        <f>MIN(F361:P361)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A362" s="10" t="s">
-        <v>538</v>
+      <c r="A362" s="25" t="s">
+        <v>537</v>
       </c>
       <c r="B362" s="10" t="s">
         <v>531</v>
       </c>
-      <c r="C362" s="11">
-        <v>91587</v>
+      <c r="C362" s="26">
+        <v>2422799</v>
       </c>
       <c r="D362" s="12">
         <v>4.8000000000000001E-5</v>
       </c>
-      <c r="E362" s="12">
-        <v>0</v>
-      </c>
+      <c r="E362" s="12"/>
       <c r="F362" s="12"/>
       <c r="G362" s="12"/>
       <c r="H362" s="12"/>
@@ -17595,24 +17607,22 @@
       <c r="N362" s="12"/>
       <c r="O362" s="12"/>
       <c r="P362" s="12"/>
-      <c r="Q362" s="13"/>
+      <c r="Q362" s="13" t="s">
+        <v>336</v>
+      </c>
       <c r="R362" s="13" t="s">
-        <v>820</v>
-      </c>
-      <c r="U362" s="1">
-        <f>MIN(F362:P362)</f>
-        <v>0</v>
+        <v>822</v>
       </c>
     </row>
     <row r="363" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A363" s="10" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B363" s="10" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="C363" s="11">
-        <v>83329</v>
+        <v>91587</v>
       </c>
       <c r="D363" s="12">
         <v>4.8000000000000001E-5</v>
@@ -17633,22 +17643,22 @@
       <c r="P363" s="12"/>
       <c r="Q363" s="13"/>
       <c r="R363" s="13" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="U363" s="1">
-        <f t="shared" si="5"/>
+        <f>MIN(F363:P363)</f>
         <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A364" s="10" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B364" s="10" t="s">
         <v>540</v>
       </c>
       <c r="C364" s="11">
-        <v>208968</v>
+        <v>83329</v>
       </c>
       <c r="D364" s="12">
         <v>4.8000000000000001E-5</v>
@@ -17669,7 +17679,7 @@
       <c r="P364" s="12"/>
       <c r="Q364" s="13"/>
       <c r="R364" s="13" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="U364" s="1">
         <f t="shared" si="5"/>
@@ -17678,15 +17688,17 @@
     </row>
     <row r="365" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A365" s="10" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B365" s="10" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C365" s="11">
-        <v>120127</v>
-      </c>
-      <c r="D365" s="12"/>
+        <v>208968</v>
+      </c>
+      <c r="D365" s="12">
+        <v>4.8000000000000001E-5</v>
+      </c>
       <c r="E365" s="12">
         <v>0</v>
       </c>
@@ -17703,7 +17715,7 @@
       <c r="P365" s="12"/>
       <c r="Q365" s="13"/>
       <c r="R365" s="13" t="s">
-        <v>544</v>
+        <v>820</v>
       </c>
       <c r="U365" s="1">
         <f t="shared" si="5"/>
@@ -17712,18 +17724,18 @@
     </row>
     <row r="366" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A366" s="10" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B366" s="10" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
       <c r="C366" s="11">
-        <v>203338</v>
-      </c>
-      <c r="D366" s="12">
-        <v>4.8000000000000001E-5</v>
-      </c>
-      <c r="E366" s="12"/>
+        <v>120127</v>
+      </c>
+      <c r="D366" s="12"/>
+      <c r="E366" s="12">
+        <v>0</v>
+      </c>
       <c r="F366" s="12"/>
       <c r="G366" s="12"/>
       <c r="H366" s="12"/>
@@ -17735,26 +17747,24 @@
       <c r="N366" s="12"/>
       <c r="O366" s="12"/>
       <c r="P366" s="12"/>
-      <c r="Q366" s="13" t="s">
-        <v>546</v>
-      </c>
+      <c r="Q366" s="13"/>
       <c r="R366" s="13" t="s">
-        <v>834</v>
+        <v>544</v>
       </c>
       <c r="U366" s="1">
-        <f>MIN(F366:P366)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="367" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A367" s="10" t="s">
-        <v>607</v>
+        <v>545</v>
       </c>
       <c r="B367" s="10" t="s">
         <v>531</v>
       </c>
-      <c r="C367" s="24" t="s">
-        <v>608</v>
+      <c r="C367" s="11">
+        <v>203338</v>
       </c>
       <c r="D367" s="12">
         <v>4.8000000000000001E-5</v>
@@ -17771,22 +17781,26 @@
       <c r="N367" s="12"/>
       <c r="O367" s="12"/>
       <c r="P367" s="12"/>
-      <c r="Q367" s="14" t="s">
-        <v>609</v>
+      <c r="Q367" s="13" t="s">
+        <v>546</v>
       </c>
       <c r="R367" s="13" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="368" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A368" s="25" t="s">
-        <v>547</v>
+        <v>834</v>
+      </c>
+      <c r="U367" s="1">
+        <f>MIN(F367:P367)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+      <c r="A368" s="10" t="s">
+        <v>607</v>
       </c>
       <c r="B368" s="10" t="s">
         <v>531</v>
       </c>
-      <c r="C368" s="37">
-        <v>195197</v>
+      <c r="C368" s="24" t="s">
+        <v>608</v>
       </c>
       <c r="D368" s="12">
         <v>4.8000000000000001E-5</v>
@@ -17804,32 +17818,26 @@
       <c r="O368" s="12"/>
       <c r="P368" s="12"/>
       <c r="Q368" s="14" t="s">
-        <v>48</v>
+        <v>609</v>
       </c>
       <c r="R368" s="13" t="s">
-        <v>820</v>
-      </c>
-      <c r="U368" s="1">
-        <f>MIN(F368:P368)</f>
-        <v>0</v>
+        <v>835</v>
       </c>
     </row>
     <row r="369" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A369" s="10" t="s">
-        <v>548</v>
+      <c r="A369" s="25" t="s">
+        <v>547</v>
       </c>
       <c r="B369" s="10" t="s">
         <v>531</v>
       </c>
-      <c r="C369" s="11">
-        <v>192972</v>
+      <c r="C369" s="37">
+        <v>195197</v>
       </c>
       <c r="D369" s="12">
         <v>4.8000000000000001E-5</v>
       </c>
-      <c r="E369" s="12">
-        <v>0</v>
-      </c>
+      <c r="E369" s="12"/>
       <c r="F369" s="12"/>
       <c r="G369" s="12"/>
       <c r="H369" s="12"/>
@@ -17841,7 +17849,9 @@
       <c r="N369" s="12"/>
       <c r="O369" s="12"/>
       <c r="P369" s="12"/>
-      <c r="Q369" s="13"/>
+      <c r="Q369" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="R369" s="13" t="s">
         <v>820</v>
       </c>
@@ -17852,23 +17862,23 @@
     </row>
     <row r="370" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A370" s="10" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B370" s="10" t="s">
         <v>531</v>
       </c>
       <c r="C370" s="11">
-        <v>56832736</v>
+        <v>192972</v>
       </c>
       <c r="D370" s="12">
         <v>4.8000000000000001E-5</v>
       </c>
-      <c r="E370" s="12"/>
+      <c r="E370" s="12">
+        <v>0</v>
+      </c>
       <c r="F370" s="12"/>
       <c r="G370" s="12"/>
-      <c r="H370" s="12" t="s">
-        <v>550</v>
-      </c>
+      <c r="H370" s="12"/>
       <c r="I370" s="12"/>
       <c r="J370" s="12"/>
       <c r="K370" s="12"/>
@@ -17877,11 +17887,9 @@
       <c r="N370" s="12"/>
       <c r="O370" s="12"/>
       <c r="P370" s="12"/>
-      <c r="Q370" s="14" t="s">
-        <v>546</v>
-      </c>
+      <c r="Q370" s="13"/>
       <c r="R370" s="13" t="s">
-        <v>834</v>
+        <v>820</v>
       </c>
       <c r="U370" s="1">
         <f>MIN(F370:P370)</f>
@@ -17890,23 +17898,23 @@
     </row>
     <row r="371" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A371" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B371" s="10" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="C371" s="11">
-        <v>191242</v>
+        <v>56832736</v>
       </c>
       <c r="D371" s="12">
         <v>4.8000000000000001E-5</v>
       </c>
-      <c r="E371" s="12">
-        <v>0</v>
-      </c>
+      <c r="E371" s="12"/>
       <c r="F371" s="12"/>
       <c r="G371" s="12"/>
-      <c r="H371" s="12"/>
+      <c r="H371" s="12" t="s">
+        <v>550</v>
+      </c>
       <c r="I371" s="12"/>
       <c r="J371" s="12"/>
       <c r="K371" s="12"/>
@@ -17915,29 +17923,33 @@
       <c r="N371" s="12"/>
       <c r="O371" s="12"/>
       <c r="P371" s="12"/>
-      <c r="Q371" s="13"/>
+      <c r="Q371" s="14" t="s">
+        <v>546</v>
+      </c>
       <c r="R371" s="13" t="s">
-        <v>820</v>
+        <v>834</v>
       </c>
       <c r="U371" s="1">
-        <f t="shared" si="5"/>
+        <f>MIN(F371:P371)</f>
         <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A372" s="10" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B372" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="C372" s="11" t="s">
-        <v>554</v>
+        <v>540</v>
+      </c>
+      <c r="C372" s="11">
+        <v>191242</v>
       </c>
       <c r="D372" s="12">
         <v>4.8000000000000001E-5</v>
       </c>
-      <c r="E372" s="12"/>
+      <c r="E372" s="12">
+        <v>0</v>
+      </c>
       <c r="F372" s="12"/>
       <c r="G372" s="12"/>
       <c r="H372" s="12"/>
@@ -17951,18 +17963,22 @@
       <c r="P372" s="12"/>
       <c r="Q372" s="13"/>
       <c r="R372" s="13" t="s">
-        <v>824</v>
+        <v>820</v>
+      </c>
+      <c r="U372" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A373" s="10" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B373" s="10" t="s">
-        <v>540</v>
-      </c>
-      <c r="C373" s="24">
-        <v>284</v>
+        <v>529</v>
+      </c>
+      <c r="C373" s="11" t="s">
+        <v>554</v>
       </c>
       <c r="D373" s="12">
         <v>4.8000000000000001E-5</v>
@@ -17979,29 +17995,25 @@
       <c r="N373" s="12"/>
       <c r="O373" s="12"/>
       <c r="P373" s="12"/>
-      <c r="Q373" s="13" t="s">
-        <v>336</v>
-      </c>
+      <c r="Q373" s="13"/>
       <c r="R373" s="13" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
     </row>
     <row r="374" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A374" s="10" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B374" s="10" t="s">
         <v>540</v>
       </c>
-      <c r="C374" s="11">
-        <v>206440</v>
+      <c r="C374" s="24">
+        <v>284</v>
       </c>
       <c r="D374" s="12">
         <v>4.8000000000000001E-5</v>
       </c>
-      <c r="E374" s="12">
-        <v>0</v>
-      </c>
+      <c r="E374" s="12"/>
       <c r="F374" s="12"/>
       <c r="G374" s="12"/>
       <c r="H374" s="12"/>
@@ -18013,24 +18025,22 @@
       <c r="N374" s="12"/>
       <c r="O374" s="12"/>
       <c r="P374" s="12"/>
-      <c r="Q374" s="13"/>
+      <c r="Q374" s="13" t="s">
+        <v>336</v>
+      </c>
       <c r="R374" s="13" t="s">
-        <v>820</v>
-      </c>
-      <c r="U374" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>822</v>
       </c>
     </row>
     <row r="375" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A375" s="10" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B375" s="10" t="s">
         <v>540</v>
       </c>
       <c r="C375" s="11">
-        <v>86737</v>
+        <v>206440</v>
       </c>
       <c r="D375" s="12">
         <v>4.8000000000000001E-5</v>
@@ -18060,18 +18070,20 @@
     </row>
     <row r="376" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A376" s="10" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B376" s="10" t="s">
-        <v>531</v>
-      </c>
-      <c r="C376" s="11" t="s">
-        <v>559</v>
+        <v>540</v>
+      </c>
+      <c r="C376" s="11">
+        <v>86737</v>
       </c>
       <c r="D376" s="12">
         <v>4.8000000000000001E-5</v>
       </c>
-      <c r="E376" s="12"/>
+      <c r="E376" s="12">
+        <v>0</v>
+      </c>
       <c r="F376" s="12"/>
       <c r="G376" s="12"/>
       <c r="H376" s="12"/>
@@ -18085,18 +18097,22 @@
       <c r="P376" s="12"/>
       <c r="Q376" s="13"/>
       <c r="R376" s="13" t="s">
-        <v>825</v>
+        <v>820</v>
+      </c>
+      <c r="U376" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A377" s="10" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B377" s="10" t="s">
         <v>531</v>
       </c>
-      <c r="C377" s="11">
-        <v>26914181</v>
+      <c r="C377" s="11" t="s">
+        <v>559</v>
       </c>
       <c r="D377" s="12">
         <v>4.8000000000000001E-5</v>
@@ -18113,22 +18129,20 @@
       <c r="N377" s="12"/>
       <c r="O377" s="12"/>
       <c r="P377" s="12"/>
-      <c r="Q377" s="13" t="s">
-        <v>336</v>
-      </c>
+      <c r="Q377" s="13"/>
       <c r="R377" s="13" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
     </row>
     <row r="378" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A378" s="10" t="s">
-        <v>790</v>
+        <v>560</v>
       </c>
       <c r="B378" s="10" t="s">
         <v>531</v>
       </c>
-      <c r="C378" s="11" t="s">
-        <v>791</v>
+      <c r="C378" s="11">
+        <v>26914181</v>
       </c>
       <c r="D378" s="12">
         <v>4.8000000000000001E-5</v>
@@ -18146,21 +18160,21 @@
       <c r="O378" s="12"/>
       <c r="P378" s="12"/>
       <c r="Q378" s="13" t="s">
-        <v>816</v>
+        <v>336</v>
       </c>
       <c r="R378" s="13" t="s">
-        <v>815</v>
+        <v>822</v>
       </c>
     </row>
     <row r="379" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A379" s="10" t="s">
-        <v>561</v>
+        <v>790</v>
       </c>
       <c r="B379" s="10" t="s">
         <v>531</v>
       </c>
-      <c r="C379" s="11">
-        <v>65357699</v>
+      <c r="C379" s="11" t="s">
+        <v>791</v>
       </c>
       <c r="D379" s="12">
         <v>4.8000000000000001E-5</v>
@@ -18178,21 +18192,21 @@
       <c r="O379" s="12"/>
       <c r="P379" s="12"/>
       <c r="Q379" s="13" t="s">
-        <v>336</v>
+        <v>816</v>
       </c>
       <c r="R379" s="13" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
     </row>
     <row r="380" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A380" s="10" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B380" s="10" t="s">
         <v>531</v>
       </c>
-      <c r="C380" s="11" t="s">
-        <v>563</v>
+      <c r="C380" s="11">
+        <v>65357699</v>
       </c>
       <c r="D380" s="12">
         <v>4.8000000000000001E-5</v>
@@ -18210,25 +18224,21 @@
       <c r="O380" s="12"/>
       <c r="P380" s="12"/>
       <c r="Q380" s="13" t="s">
-        <v>92</v>
+        <v>336</v>
       </c>
       <c r="R380" s="13" t="s">
-        <v>820</v>
-      </c>
-      <c r="U380" s="1">
-        <f>MIN(F380:P380)</f>
-        <v>0</v>
+        <v>822</v>
       </c>
     </row>
     <row r="381" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A381" s="25" t="s">
-        <v>564</v>
+      <c r="A381" s="10" t="s">
+        <v>562</v>
       </c>
       <c r="B381" s="10" t="s">
         <v>531</v>
       </c>
-      <c r="C381" s="37">
-        <v>198550</v>
+      <c r="C381" s="11" t="s">
+        <v>563</v>
       </c>
       <c r="D381" s="12">
         <v>4.8000000000000001E-5</v>
@@ -18245,8 +18255,8 @@
       <c r="N381" s="12"/>
       <c r="O381" s="12"/>
       <c r="P381" s="12"/>
-      <c r="Q381" s="14" t="s">
-        <v>48</v>
+      <c r="Q381" s="13" t="s">
+        <v>92</v>
       </c>
       <c r="R381" s="13" t="s">
         <v>820</v>
@@ -18257,19 +18267,19 @@
       </c>
     </row>
     <row r="382" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A382" s="10" t="s">
-        <v>565</v>
+      <c r="A382" s="25" t="s">
+        <v>564</v>
       </c>
       <c r="B382" s="10" t="s">
-        <v>543</v>
-      </c>
-      <c r="C382" s="11">
-        <v>85018</v>
-      </c>
-      <c r="D382" s="12"/>
-      <c r="E382" s="12">
-        <v>0</v>
-      </c>
+        <v>531</v>
+      </c>
+      <c r="C382" s="37">
+        <v>198550</v>
+      </c>
+      <c r="D382" s="12">
+        <v>4.8000000000000001E-5</v>
+      </c>
+      <c r="E382" s="12"/>
       <c r="F382" s="12"/>
       <c r="G382" s="12"/>
       <c r="H382" s="12"/>
@@ -18281,24 +18291,26 @@
       <c r="N382" s="12"/>
       <c r="O382" s="12"/>
       <c r="P382" s="12"/>
-      <c r="Q382" s="13"/>
+      <c r="Q382" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="R382" s="13" t="s">
-        <v>544</v>
+        <v>820</v>
       </c>
       <c r="U382" s="1">
-        <f t="shared" si="5"/>
+        <f>MIN(F382:P382)</f>
         <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A383" s="10" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B383" s="10" t="s">
         <v>543</v>
       </c>
       <c r="C383" s="11">
-        <v>129000</v>
+        <v>85018</v>
       </c>
       <c r="D383" s="12"/>
       <c r="E383" s="12">
@@ -18324,18 +18336,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A384" s="10" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B384" s="10" t="s">
-        <v>568</v>
-      </c>
-      <c r="C384" s="11"/>
-      <c r="D384" s="23">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="E384" s="12"/>
+        <v>543</v>
+      </c>
+      <c r="C384" s="11">
+        <v>129000</v>
+      </c>
+      <c r="D384" s="12"/>
+      <c r="E384" s="12">
+        <v>0</v>
+      </c>
       <c r="F384" s="12"/>
       <c r="G384" s="12"/>
       <c r="H384" s="12"/>
@@ -18347,33 +18361,27 @@
       <c r="N384" s="12"/>
       <c r="O384" s="12"/>
       <c r="P384" s="12"/>
-      <c r="Q384" s="14" t="s">
-        <v>48</v>
-      </c>
+      <c r="Q384" s="13"/>
       <c r="R384" s="13" t="s">
-        <v>803</v>
+        <v>544</v>
       </c>
       <c r="U384" s="1">
-        <f t="shared" ref="U384:U463" si="6">MIN(F384:P384)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="385" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A385" s="10" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B385" s="10" t="s">
-        <v>570</v>
-      </c>
-      <c r="C385" s="11">
-        <v>57976</v>
-      </c>
-      <c r="D385" s="12">
-        <v>0.11360000000000001</v>
-      </c>
-      <c r="E385" s="12">
-        <v>0</v>
-      </c>
+        <v>568</v>
+      </c>
+      <c r="C385" s="11"/>
+      <c r="D385" s="23">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E385" s="12"/>
       <c r="F385" s="12"/>
       <c r="G385" s="12"/>
       <c r="H385" s="12"/>
@@ -18385,29 +18393,33 @@
       <c r="N385" s="12"/>
       <c r="O385" s="12"/>
       <c r="P385" s="12"/>
-      <c r="Q385" s="13" t="s">
-        <v>571</v>
+      <c r="Q385" s="14" t="s">
+        <v>48</v>
       </c>
       <c r="R385" s="13" t="s">
-        <v>826</v>
+        <v>803</v>
       </c>
       <c r="U385" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="386" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+        <f t="shared" ref="U385:U464" si="6">MIN(F385:P385)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A386" s="10" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B386" s="10" t="s">
-        <v>573</v>
-      </c>
-      <c r="C386" s="11"/>
-      <c r="D386" s="23">
-        <v>9.5999999999999992E-3</v>
-      </c>
-      <c r="E386" s="12"/>
+        <v>570</v>
+      </c>
+      <c r="C386" s="11">
+        <v>57976</v>
+      </c>
+      <c r="D386" s="12">
+        <v>0.11360000000000001</v>
+      </c>
+      <c r="E386" s="12">
+        <v>0</v>
+      </c>
       <c r="F386" s="12"/>
       <c r="G386" s="12"/>
       <c r="H386" s="12"/>
@@ -18419,33 +18431,29 @@
       <c r="N386" s="12"/>
       <c r="O386" s="12"/>
       <c r="P386" s="12"/>
-      <c r="Q386" s="14" t="s">
-        <v>48</v>
+      <c r="Q386" s="13" t="s">
+        <v>571</v>
       </c>
       <c r="R386" s="13" t="s">
-        <v>804</v>
+        <v>826</v>
       </c>
       <c r="U386" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A387" s="10" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B387" s="10" t="s">
-        <v>575</v>
-      </c>
-      <c r="C387" s="11">
-        <v>42397648</v>
-      </c>
-      <c r="D387" s="12">
+        <v>573</v>
+      </c>
+      <c r="C387" s="11"/>
+      <c r="D387" s="23">
         <v>9.5999999999999992E-3</v>
       </c>
-      <c r="E387" s="12">
-        <v>0</v>
-      </c>
+      <c r="E387" s="12"/>
       <c r="F387" s="12"/>
       <c r="G387" s="12"/>
       <c r="H387" s="12"/>
@@ -18457,27 +18465,29 @@
       <c r="N387" s="12"/>
       <c r="O387" s="12"/>
       <c r="P387" s="12"/>
-      <c r="Q387" s="13"/>
+      <c r="Q387" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="R387" s="13" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="U387" s="1">
-        <f>MIN(F387:P387)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="388" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A388" s="10" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B388" s="10" t="s">
         <v>575</v>
       </c>
       <c r="C388" s="11">
-        <v>56495</v>
+        <v>42397648</v>
       </c>
       <c r="D388" s="12">
-        <v>1.008E-2</v>
+        <v>9.5999999999999992E-3</v>
       </c>
       <c r="E388" s="12">
         <v>0</v>
@@ -18495,25 +18505,25 @@
       <c r="P388" s="12"/>
       <c r="Q388" s="13"/>
       <c r="R388" s="13" t="s">
-        <v>827</v>
+        <v>805</v>
       </c>
       <c r="U388" s="1">
         <f>MIN(F388:P388)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A389" s="10" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B389" s="10" t="s">
         <v>575</v>
       </c>
       <c r="C389" s="11">
-        <v>7496028</v>
+        <v>56495</v>
       </c>
       <c r="D389" s="12">
-        <v>9.5999999999999992E-3</v>
+        <v>1.008E-2</v>
       </c>
       <c r="E389" s="12">
         <v>0</v>
@@ -18531,7 +18541,7 @@
       <c r="P389" s="12"/>
       <c r="Q389" s="13"/>
       <c r="R389" s="13" t="s">
-        <v>805</v>
+        <v>827</v>
       </c>
       <c r="U389" s="1">
         <f>MIN(F389:P389)</f>
@@ -18540,13 +18550,13 @@
     </row>
     <row r="390" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A390" s="10" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B390" s="10" t="s">
         <v>575</v>
       </c>
       <c r="C390" s="11">
-        <v>189640</v>
+        <v>7496028</v>
       </c>
       <c r="D390" s="12">
         <v>9.5999999999999992E-3</v>
@@ -18570,19 +18580,19 @@
         <v>805</v>
       </c>
       <c r="U390" s="1">
-        <f t="shared" si="6"/>
+        <f>MIN(F390:P390)</f>
         <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A391" s="10" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B391" s="10" t="s">
         <v>575</v>
       </c>
       <c r="C391" s="11">
-        <v>189559</v>
+        <v>189640</v>
       </c>
       <c r="D391" s="12">
         <v>9.5999999999999992E-3</v>
@@ -18612,13 +18622,13 @@
     </row>
     <row r="392" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A392" s="10" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B392" s="10" t="s">
         <v>575</v>
       </c>
       <c r="C392" s="11">
-        <v>191300</v>
+        <v>189559</v>
       </c>
       <c r="D392" s="12">
         <v>9.5999999999999992E-3</v>
@@ -18642,22 +18652,26 @@
         <v>805</v>
       </c>
       <c r="U392" s="1">
-        <f>MIN(F392:P392)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="393" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A393" s="10" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B393" s="10" t="s">
-        <v>582</v>
-      </c>
-      <c r="C393" s="11"/>
-      <c r="D393" s="23">
-        <v>9.6000000000000002E-4</v>
-      </c>
-      <c r="E393" s="12"/>
+        <v>575</v>
+      </c>
+      <c r="C393" s="11">
+        <v>191300</v>
+      </c>
+      <c r="D393" s="12">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="E393" s="12">
+        <v>0</v>
+      </c>
       <c r="F393" s="12"/>
       <c r="G393" s="12"/>
       <c r="H393" s="12"/>
@@ -18669,33 +18683,27 @@
       <c r="N393" s="12"/>
       <c r="O393" s="12"/>
       <c r="P393" s="12"/>
-      <c r="Q393" s="14" t="s">
-        <v>48</v>
-      </c>
+      <c r="Q393" s="13"/>
       <c r="R393" s="13" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="U393" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="394" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+        <f>MIN(F393:P393)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A394" s="10" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B394" s="10" t="s">
-        <v>584</v>
-      </c>
-      <c r="C394" s="11">
-        <v>42397659</v>
-      </c>
-      <c r="D394" s="12">
+        <v>582</v>
+      </c>
+      <c r="C394" s="11"/>
+      <c r="D394" s="23">
         <v>9.6000000000000002E-4</v>
       </c>
-      <c r="E394" s="12">
-        <v>0</v>
-      </c>
+      <c r="E394" s="12"/>
       <c r="F394" s="12"/>
       <c r="G394" s="12"/>
       <c r="H394" s="12"/>
@@ -18707,29 +18715,33 @@
       <c r="N394" s="12"/>
       <c r="O394" s="12"/>
       <c r="P394" s="12"/>
-      <c r="Q394" s="13"/>
+      <c r="Q394" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="R394" s="13" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="U394" s="1">
-        <f t="shared" ref="U394:U402" si="7">MIN(F394:P394)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="395" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A395" s="10" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B395" s="10" t="s">
         <v>584</v>
       </c>
-      <c r="C395" s="11" t="s">
-        <v>586</v>
+      <c r="C395" s="11">
+        <v>42397659</v>
       </c>
       <c r="D395" s="12">
-        <v>2.0799999999999998E-3</v>
-      </c>
-      <c r="E395" s="12"/>
+        <v>9.6000000000000002E-4</v>
+      </c>
+      <c r="E395" s="12">
+        <v>0</v>
+      </c>
       <c r="F395" s="12"/>
       <c r="G395" s="12"/>
       <c r="H395" s="12"/>
@@ -18741,29 +18753,27 @@
       <c r="N395" s="12"/>
       <c r="O395" s="12"/>
       <c r="P395" s="12"/>
-      <c r="Q395" s="13" t="s">
-        <v>92</v>
-      </c>
+      <c r="Q395" s="13"/>
       <c r="R395" s="13" t="s">
-        <v>828</v>
+        <v>807</v>
       </c>
       <c r="U395" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="396" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+        <f t="shared" ref="U395:U403" si="7">MIN(F395:P395)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A396" s="10" t="s">
-        <v>793</v>
+        <v>585</v>
       </c>
       <c r="B396" s="10" t="s">
-        <v>794</v>
+        <v>584</v>
       </c>
       <c r="C396" s="11" t="s">
-        <v>795</v>
+        <v>586</v>
       </c>
       <c r="D396" s="12">
-        <v>9.6000000000000002E-4</v>
+        <v>2.0799999999999998E-3</v>
       </c>
       <c r="E396" s="12"/>
       <c r="F396" s="12"/>
@@ -18778,28 +18788,30 @@
       <c r="O396" s="12"/>
       <c r="P396" s="12"/>
       <c r="Q396" s="13" t="s">
-        <v>816</v>
+        <v>92</v>
       </c>
       <c r="R396" s="13" t="s">
-        <v>807</v>
+        <v>828</v>
+      </c>
+      <c r="U396" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A397" s="10" t="s">
-        <v>587</v>
+        <v>793</v>
       </c>
       <c r="B397" s="10" t="s">
-        <v>584</v>
-      </c>
-      <c r="C397" s="11">
-        <v>3697243</v>
+        <v>794</v>
+      </c>
+      <c r="C397" s="11" t="s">
+        <v>795</v>
       </c>
       <c r="D397" s="12">
         <v>9.6000000000000002E-4</v>
       </c>
-      <c r="E397" s="12">
-        <v>0</v>
-      </c>
+      <c r="E397" s="12"/>
       <c r="F397" s="12"/>
       <c r="G397" s="12"/>
       <c r="H397" s="12"/>
@@ -18811,24 +18823,22 @@
       <c r="N397" s="12"/>
       <c r="O397" s="12"/>
       <c r="P397" s="12"/>
-      <c r="Q397" s="13"/>
+      <c r="Q397" s="13" t="s">
+        <v>816</v>
+      </c>
       <c r="R397" s="13" t="s">
         <v>807</v>
       </c>
-      <c r="U397" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="398" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A398" s="10" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B398" s="10" t="s">
         <v>584</v>
       </c>
       <c r="C398" s="11">
-        <v>194592</v>
+        <v>3697243</v>
       </c>
       <c r="D398" s="12">
         <v>9.6000000000000002E-4</v>
@@ -18856,21 +18866,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:21" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A399" s="10" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B399" s="10" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="C399" s="11">
-        <v>50328</v>
+        <v>194592</v>
       </c>
       <c r="D399" s="12">
         <v>9.6000000000000002E-4</v>
       </c>
       <c r="E399" s="12">
-        <v>1.9999999999999999E-6</v>
+        <v>0</v>
       </c>
       <c r="F399" s="12"/>
       <c r="G399" s="12"/>
@@ -18883,32 +18893,30 @@
       <c r="N399" s="12"/>
       <c r="O399" s="12"/>
       <c r="P399" s="12"/>
-      <c r="Q399" s="13" t="s">
-        <v>591</v>
-      </c>
+      <c r="Q399" s="13"/>
       <c r="R399" s="13" t="s">
-        <v>848</v>
+        <v>807</v>
       </c>
       <c r="U399" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:21" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="10" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B400" s="10" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="C400" s="11">
-        <v>192654</v>
+        <v>50328</v>
       </c>
       <c r="D400" s="12">
         <v>9.6000000000000002E-4</v>
       </c>
       <c r="E400" s="12">
-        <v>0</v>
+        <v>1.9999999999999999E-6</v>
       </c>
       <c r="F400" s="12"/>
       <c r="G400" s="12"/>
@@ -18921,24 +18929,26 @@
       <c r="N400" s="12"/>
       <c r="O400" s="12"/>
       <c r="P400" s="12"/>
-      <c r="Q400" s="13"/>
+      <c r="Q400" s="13" t="s">
+        <v>591</v>
+      </c>
       <c r="R400" s="13" t="s">
-        <v>807</v>
+        <v>848</v>
       </c>
       <c r="U400" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:21" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A401" s="10" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B401" s="10" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="C401" s="11">
-        <v>53703</v>
+        <v>192654</v>
       </c>
       <c r="D401" s="12">
         <v>9.6000000000000002E-4</v>
@@ -18957,26 +18967,24 @@
       <c r="N401" s="12"/>
       <c r="O401" s="12"/>
       <c r="P401" s="12"/>
-      <c r="Q401" s="13" t="s">
-        <v>594</v>
-      </c>
+      <c r="Q401" s="13"/>
       <c r="R401" s="13" t="s">
-        <v>829</v>
+        <v>807</v>
       </c>
       <c r="U401" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:21" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="10" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B402" s="10" t="s">
-        <v>582</v>
-      </c>
-      <c r="C402" s="11" t="s">
-        <v>596</v>
+        <v>590</v>
+      </c>
+      <c r="C402" s="11">
+        <v>53703</v>
       </c>
       <c r="D402" s="12">
         <v>9.6000000000000002E-4</v>
@@ -18995,27 +19003,33 @@
       <c r="N402" s="12"/>
       <c r="O402" s="12"/>
       <c r="P402" s="12"/>
-      <c r="Q402" s="13"/>
+      <c r="Q402" s="13" t="s">
+        <v>594</v>
+      </c>
       <c r="R402" s="13" t="s">
-        <v>807</v>
+        <v>829</v>
       </c>
       <c r="U402" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A403" s="10" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B403" s="10" t="s">
-        <v>598</v>
-      </c>
-      <c r="C403" s="11"/>
-      <c r="D403" s="23">
-        <v>9.6000000000000002E-5</v>
-      </c>
-      <c r="E403" s="12"/>
+        <v>582</v>
+      </c>
+      <c r="C403" s="11" t="s">
+        <v>596</v>
+      </c>
+      <c r="D403" s="12">
+        <v>9.6000000000000002E-4</v>
+      </c>
+      <c r="E403" s="12">
+        <v>0</v>
+      </c>
       <c r="F403" s="12"/>
       <c r="G403" s="12"/>
       <c r="H403" s="12"/>
@@ -19027,33 +19041,27 @@
       <c r="N403" s="12"/>
       <c r="O403" s="12"/>
       <c r="P403" s="12"/>
-      <c r="Q403" s="14" t="s">
-        <v>48</v>
-      </c>
+      <c r="Q403" s="13"/>
       <c r="R403" s="13" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="U403" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="404" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A404" s="10" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B404" s="10" t="s">
-        <v>600</v>
-      </c>
-      <c r="C404" s="11">
-        <v>5522430</v>
-      </c>
-      <c r="D404" s="12">
+        <v>598</v>
+      </c>
+      <c r="C404" s="11"/>
+      <c r="D404" s="23">
         <v>9.6000000000000002E-5</v>
       </c>
-      <c r="E404" s="12">
-        <v>0</v>
-      </c>
+      <c r="E404" s="12"/>
       <c r="F404" s="12"/>
       <c r="G404" s="12"/>
       <c r="H404" s="12"/>
@@ -19065,24 +19073,26 @@
       <c r="N404" s="12"/>
       <c r="O404" s="12"/>
       <c r="P404" s="12"/>
-      <c r="Q404" s="13"/>
+      <c r="Q404" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="R404" s="13" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="U404" s="1">
-        <f t="shared" ref="U404:U409" si="8">MIN(F404:P404)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A405" s="10" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B405" s="10" t="s">
         <v>600</v>
       </c>
       <c r="C405" s="11">
-        <v>57835924</v>
+        <v>5522430</v>
       </c>
       <c r="D405" s="12">
         <v>9.6000000000000002E-5</v>
@@ -19106,22 +19116,22 @@
         <v>809</v>
       </c>
       <c r="U405" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="406" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+        <f t="shared" ref="U405:U410" si="8">MIN(F405:P405)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A406" s="10" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B406" s="10" t="s">
         <v>600</v>
       </c>
       <c r="C406" s="11">
-        <v>602879</v>
+        <v>57835924</v>
       </c>
       <c r="D406" s="12">
-        <v>5.9200000000000002E-5</v>
+        <v>9.6000000000000002E-5</v>
       </c>
       <c r="E406" s="12">
         <v>0</v>
@@ -19139,7 +19149,7 @@
       <c r="P406" s="12"/>
       <c r="Q406" s="13"/>
       <c r="R406" s="13" t="s">
-        <v>830</v>
+        <v>809</v>
       </c>
       <c r="U406" s="1">
         <f t="shared" si="8"/>
@@ -19148,16 +19158,16 @@
     </row>
     <row r="407" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A407" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B407" s="10" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="C407" s="11">
-        <v>56553</v>
+        <v>602879</v>
       </c>
       <c r="D407" s="12">
-        <v>9.6000000000000002E-5</v>
+        <v>5.9200000000000002E-5</v>
       </c>
       <c r="E407" s="12">
         <v>0</v>
@@ -19173,11 +19183,9 @@
       <c r="N407" s="12"/>
       <c r="O407" s="12"/>
       <c r="P407" s="12"/>
-      <c r="Q407" s="13" t="s">
-        <v>591</v>
-      </c>
+      <c r="Q407" s="13"/>
       <c r="R407" s="13" t="s">
-        <v>809</v>
+        <v>830</v>
       </c>
       <c r="U407" s="1">
         <f t="shared" si="8"/>
@@ -19186,13 +19194,13 @@
     </row>
     <row r="408" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A408" s="10" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B408" s="10" t="s">
         <v>604</v>
       </c>
       <c r="C408" s="11">
-        <v>205992</v>
+        <v>56553</v>
       </c>
       <c r="D408" s="12">
         <v>9.6000000000000002E-5</v>
@@ -19222,20 +19230,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A409" s="10" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B409" s="10" t="s">
         <v>604</v>
       </c>
-      <c r="C409" s="24">
-        <v>102</v>
+      <c r="C409" s="11">
+        <v>205992</v>
       </c>
       <c r="D409" s="12">
         <v>9.6000000000000002E-5</v>
       </c>
-      <c r="E409" s="12"/>
+      <c r="E409" s="12">
+        <v>0</v>
+      </c>
       <c r="F409" s="12"/>
       <c r="G409" s="12"/>
       <c r="H409" s="12"/>
@@ -19247,8 +19257,8 @@
       <c r="N409" s="12"/>
       <c r="O409" s="12"/>
       <c r="P409" s="12"/>
-      <c r="Q409" s="14" t="s">
-        <v>48</v>
+      <c r="Q409" s="13" t="s">
+        <v>591</v>
       </c>
       <c r="R409" s="13" t="s">
         <v>809</v>
@@ -19260,20 +19270,18 @@
     </row>
     <row r="410" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A410" s="10" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="B410" s="10" t="s">
-        <v>600</v>
-      </c>
-      <c r="C410" s="11">
-        <v>205823</v>
+        <v>604</v>
+      </c>
+      <c r="C410" s="24">
+        <v>102</v>
       </c>
       <c r="D410" s="12">
         <v>9.6000000000000002E-5</v>
       </c>
-      <c r="E410" s="12">
-        <v>0</v>
-      </c>
+      <c r="E410" s="12"/>
       <c r="F410" s="12"/>
       <c r="G410" s="12"/>
       <c r="H410" s="12"/>
@@ -19285,24 +19293,26 @@
       <c r="N410" s="12"/>
       <c r="O410" s="12"/>
       <c r="P410" s="12"/>
-      <c r="Q410" s="13"/>
+      <c r="Q410" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="R410" s="13" t="s">
         <v>809</v>
       </c>
       <c r="U410" s="1">
-        <f>MIN(F410:P410)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A411" s="10" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B411" s="10" t="s">
         <v>600</v>
       </c>
       <c r="C411" s="11">
-        <v>226368</v>
+        <v>205823</v>
       </c>
       <c r="D411" s="12">
         <v>9.6000000000000002E-5</v>
@@ -19332,13 +19342,13 @@
     </row>
     <row r="412" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A412" s="10" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B412" s="10" t="s">
         <v>600</v>
       </c>
       <c r="C412" s="11">
-        <v>224420</v>
+        <v>226368</v>
       </c>
       <c r="D412" s="12">
         <v>9.6000000000000002E-5</v>
@@ -19366,15 +19376,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:21" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A413" s="10" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B413" s="10" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="C413" s="11">
-        <v>193395</v>
+        <v>224420</v>
       </c>
       <c r="D413" s="12">
         <v>9.6000000000000002E-5</v>
@@ -19393,9 +19403,7 @@
       <c r="N413" s="12"/>
       <c r="O413" s="12"/>
       <c r="P413" s="12"/>
-      <c r="Q413" s="13" t="s">
-        <v>615</v>
-      </c>
+      <c r="Q413" s="13"/>
       <c r="R413" s="13" t="s">
         <v>809</v>
       </c>
@@ -19404,18 +19412,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:21" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A414" s="10" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B414" s="10" t="s">
-        <v>617</v>
-      </c>
-      <c r="C414" s="11"/>
-      <c r="D414" s="23">
-        <v>9.5999999999999996E-6</v>
-      </c>
-      <c r="E414" s="12"/>
+        <v>604</v>
+      </c>
+      <c r="C414" s="11">
+        <v>193395</v>
+      </c>
+      <c r="D414" s="12">
+        <v>9.6000000000000002E-5</v>
+      </c>
+      <c r="E414" s="12">
+        <v>0</v>
+      </c>
       <c r="F414" s="12"/>
       <c r="G414" s="12"/>
       <c r="H414" s="12"/>
@@ -19427,33 +19439,29 @@
       <c r="N414" s="12"/>
       <c r="O414" s="12"/>
       <c r="P414" s="12"/>
-      <c r="Q414" s="14" t="s">
-        <v>48</v>
+      <c r="Q414" s="13" t="s">
+        <v>615</v>
       </c>
       <c r="R414" s="13" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="U414" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="415" spans="1:21" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>MIN(F414:P414)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A415" s="10" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="B415" s="10" t="s">
-        <v>624</v>
-      </c>
-      <c r="C415" s="11">
-        <v>207089</v>
-      </c>
-      <c r="D415" s="12">
+        <v>617</v>
+      </c>
+      <c r="C415" s="11"/>
+      <c r="D415" s="23">
         <v>9.5999999999999996E-6</v>
       </c>
-      <c r="E415" s="12">
-        <v>0</v>
-      </c>
+      <c r="E415" s="12"/>
       <c r="F415" s="12"/>
       <c r="G415" s="12"/>
       <c r="H415" s="12"/>
@@ -19465,31 +19473,33 @@
       <c r="N415" s="12"/>
       <c r="O415" s="12"/>
       <c r="P415" s="12"/>
-      <c r="Q415" s="13" t="s">
-        <v>591</v>
+      <c r="Q415" s="14" t="s">
+        <v>48</v>
       </c>
       <c r="R415" s="13" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="U415" s="1">
-        <f>MIN(F415:P415)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="416" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:21" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="10" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="B416" s="10" t="s">
-        <v>619</v>
-      </c>
-      <c r="C416" s="11" t="s">
-        <v>620</v>
-      </c>
-      <c r="D416" s="15">
-        <v>1.504E-5</v>
-      </c>
-      <c r="E416" s="12"/>
+        <v>624</v>
+      </c>
+      <c r="C416" s="11">
+        <v>207089</v>
+      </c>
+      <c r="D416" s="12">
+        <v>9.5999999999999996E-6</v>
+      </c>
+      <c r="E416" s="12">
+        <v>0</v>
+      </c>
       <c r="F416" s="12"/>
       <c r="G416" s="12"/>
       <c r="H416" s="12"/>
@@ -19502,32 +19512,30 @@
       <c r="O416" s="12"/>
       <c r="P416" s="12"/>
       <c r="Q416" s="13" t="s">
-        <v>92</v>
+        <v>591</v>
       </c>
       <c r="R416" s="13" t="s">
-        <v>831</v>
+        <v>811</v>
       </c>
       <c r="U416" s="1">
         <f>MIN(F416:P416)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A417" s="10" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B417" s="10" t="s">
         <v>619</v>
       </c>
-      <c r="C417" s="11">
-        <v>607578</v>
-      </c>
-      <c r="D417" s="12">
-        <v>9.5999999999999996E-6</v>
-      </c>
-      <c r="E417" s="12">
-        <v>0</v>
-      </c>
+      <c r="C417" s="11" t="s">
+        <v>620</v>
+      </c>
+      <c r="D417" s="15">
+        <v>1.504E-5</v>
+      </c>
+      <c r="E417" s="12"/>
       <c r="F417" s="12"/>
       <c r="G417" s="12"/>
       <c r="H417" s="12"/>
@@ -19539,26 +19547,28 @@
       <c r="N417" s="12"/>
       <c r="O417" s="12"/>
       <c r="P417" s="12"/>
-      <c r="Q417" s="13"/>
+      <c r="Q417" s="13" t="s">
+        <v>92</v>
+      </c>
       <c r="R417" s="13" t="s">
-        <v>812</v>
+        <v>831</v>
       </c>
       <c r="U417" s="1">
         <f>MIN(F417:P417)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="10" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B418" s="10" t="s">
         <v>619</v>
       </c>
       <c r="C418" s="11">
-        <v>86748</v>
-      </c>
-      <c r="D418" s="49">
+        <v>607578</v>
+      </c>
+      <c r="D418" s="12">
         <v>9.5999999999999996E-6</v>
       </c>
       <c r="E418" s="12">
@@ -19577,25 +19587,25 @@
       <c r="P418" s="12"/>
       <c r="Q418" s="13"/>
       <c r="R418" s="13" t="s">
-        <v>832</v>
+        <v>812</v>
       </c>
       <c r="U418" s="1">
         <f>MIN(F418:P418)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:21" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A419" s="10" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B419" s="10" t="s">
-        <v>850</v>
+        <v>619</v>
       </c>
       <c r="C419" s="11">
-        <v>218019</v>
-      </c>
-      <c r="D419" s="12">
-        <v>9.5999999999999991E-7</v>
+        <v>86748</v>
+      </c>
+      <c r="D419" s="49">
+        <v>9.5999999999999996E-6</v>
       </c>
       <c r="E419" s="12">
         <v>0</v>
@@ -19613,25 +19623,29 @@
       <c r="P419" s="12"/>
       <c r="Q419" s="13"/>
       <c r="R419" s="13" t="s">
-        <v>857</v>
+        <v>832</v>
       </c>
       <c r="U419" s="1">
         <f>MIN(F419:P419)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:21" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="10" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B420" s="10" t="s">
-        <v>626</v>
-      </c>
-      <c r="C420" s="11"/>
-      <c r="D420" s="23">
-        <v>1.76E-4</v>
-      </c>
-      <c r="E420" s="12"/>
+        <v>850</v>
+      </c>
+      <c r="C420" s="11">
+        <v>218019</v>
+      </c>
+      <c r="D420" s="12">
+        <v>9.5999999999999991E-7</v>
+      </c>
+      <c r="E420" s="12">
+        <v>0</v>
+      </c>
       <c r="F420" s="12"/>
       <c r="G420" s="12"/>
       <c r="H420" s="12"/>
@@ -19643,28 +19657,24 @@
       <c r="N420" s="12"/>
       <c r="O420" s="12"/>
       <c r="P420" s="12"/>
-      <c r="Q420" s="14" t="s">
-        <v>48</v>
-      </c>
+      <c r="Q420" s="13"/>
       <c r="R420" s="13" t="s">
-        <v>813</v>
+        <v>857</v>
       </c>
       <c r="U420" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="421" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+        <f>MIN(F420:P420)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A421" s="10" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B421" s="10" t="s">
-        <v>628</v>
-      </c>
-      <c r="C421" s="21">
-        <v>75</v>
-      </c>
-      <c r="D421" s="12">
+        <v>626</v>
+      </c>
+      <c r="C421" s="11"/>
+      <c r="D421" s="23">
         <v>1.76E-4</v>
       </c>
       <c r="E421" s="12"/>
@@ -19683,29 +19693,27 @@
         <v>48</v>
       </c>
       <c r="R421" s="13" t="s">
-        <v>833</v>
+        <v>813</v>
       </c>
       <c r="U421" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A422" s="10" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B422" s="10" t="s">
-        <v>629</v>
-      </c>
-      <c r="C422" s="11">
-        <v>106503</v>
+        <v>628</v>
+      </c>
+      <c r="C422" s="21">
+        <v>75</v>
       </c>
       <c r="D422" s="12">
-        <v>0</v>
-      </c>
-      <c r="E422" s="12">
-        <v>0</v>
-      </c>
+        <v>1.76E-4</v>
+      </c>
+      <c r="E422" s="12"/>
       <c r="F422" s="12"/>
       <c r="G422" s="12"/>
       <c r="H422" s="12"/>
@@ -19717,41 +19725,37 @@
       <c r="N422" s="12"/>
       <c r="O422" s="12"/>
       <c r="P422" s="12"/>
-      <c r="Q422" s="13"/>
-      <c r="R422" s="13"/>
+      <c r="Q422" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="R422" s="13" t="s">
+        <v>833</v>
+      </c>
       <c r="U422" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A423" s="10" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B423" s="10" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C423" s="11">
-        <v>123386</v>
+        <v>106503</v>
       </c>
       <c r="D423" s="12">
         <v>0</v>
       </c>
       <c r="E423" s="12">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="F423" s="12">
-        <v>110</v>
-      </c>
-      <c r="G423" s="12">
-        <v>110</v>
-      </c>
-      <c r="H423" s="12">
-        <v>620</v>
-      </c>
-      <c r="I423" s="12">
-        <v>260</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F423" s="12"/>
+      <c r="G423" s="12"/>
+      <c r="H423" s="12"/>
+      <c r="I423" s="12"/>
       <c r="J423" s="12"/>
       <c r="K423" s="12"/>
       <c r="L423" s="12"/>
@@ -19759,37 +19763,41 @@
       <c r="N423" s="12"/>
       <c r="O423" s="12"/>
       <c r="P423" s="12"/>
-      <c r="Q423" s="13" t="s">
-        <v>742</v>
-      </c>
-      <c r="R423" s="13" t="s">
-        <v>631</v>
-      </c>
+      <c r="Q423" s="13"/>
+      <c r="R423" s="13"/>
       <c r="U423" s="1">
         <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A424" s="10" t="s">
+        <v>630</v>
+      </c>
+      <c r="B424" s="10" t="s">
+        <v>630</v>
+      </c>
+      <c r="C424" s="11">
+        <v>123386</v>
+      </c>
+      <c r="D424" s="12">
+        <v>0</v>
+      </c>
+      <c r="E424" s="12">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="F424" s="12">
         <v>110</v>
       </c>
-    </row>
-    <row r="424" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A424" s="10" t="s">
-        <v>632</v>
-      </c>
-      <c r="B424" s="10" t="s">
-        <v>632</v>
-      </c>
-      <c r="C424" s="11">
-        <v>114261</v>
-      </c>
-      <c r="D424" s="12">
-        <v>0</v>
-      </c>
-      <c r="E424" s="12">
-        <v>0</v>
-      </c>
-      <c r="F424" s="12"/>
-      <c r="G424" s="12"/>
-      <c r="H424" s="12"/>
-      <c r="I424" s="12"/>
+      <c r="G424" s="12">
+        <v>110</v>
+      </c>
+      <c r="H424" s="12">
+        <v>620</v>
+      </c>
+      <c r="I424" s="12">
+        <v>260</v>
+      </c>
       <c r="J424" s="12"/>
       <c r="K424" s="12"/>
       <c r="L424" s="12"/>
@@ -19797,26 +19805,32 @@
       <c r="N424" s="12"/>
       <c r="O424" s="12"/>
       <c r="P424" s="12"/>
-      <c r="Q424" s="13"/>
-      <c r="R424" s="13"/>
+      <c r="Q424" s="13" t="s">
+        <v>742</v>
+      </c>
+      <c r="R424" s="13" t="s">
+        <v>631</v>
+      </c>
       <c r="U424" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="425" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="425" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A425" s="10" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B425" s="10" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C425" s="11">
-        <v>78875</v>
-      </c>
-      <c r="D425" s="12"/>
+        <v>114261</v>
+      </c>
+      <c r="D425" s="12">
+        <v>0</v>
+      </c>
       <c r="E425" s="12">
-        <v>4.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="F425" s="12"/>
       <c r="G425" s="12"/>
@@ -19824,119 +19838,117 @@
       <c r="I425" s="12"/>
       <c r="J425" s="12"/>
       <c r="K425" s="12"/>
-      <c r="L425" s="12">
-        <v>0.23</v>
-      </c>
+      <c r="L425" s="12"/>
       <c r="M425" s="12"/>
       <c r="N425" s="12"/>
       <c r="O425" s="12"/>
       <c r="P425" s="12"/>
-      <c r="Q425" s="13" t="s">
-        <v>634</v>
-      </c>
-      <c r="R425" s="13" t="s">
-        <v>56</v>
-      </c>
+      <c r="Q425" s="13"/>
+      <c r="R425" s="13"/>
       <c r="U425" s="1">
         <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A426" s="10" t="s">
+        <v>633</v>
+      </c>
+      <c r="B426" s="10" t="s">
+        <v>633</v>
+      </c>
+      <c r="C426" s="11">
+        <v>78875</v>
+      </c>
+      <c r="D426" s="12"/>
+      <c r="E426" s="12">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F426" s="12"/>
+      <c r="G426" s="12"/>
+      <c r="H426" s="12"/>
+      <c r="I426" s="12"/>
+      <c r="J426" s="12"/>
+      <c r="K426" s="12"/>
+      <c r="L426" s="12">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="426" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A426" s="10" t="s">
-        <v>635</v>
-      </c>
-      <c r="B426" s="10" t="s">
-        <v>635</v>
-      </c>
-      <c r="C426" s="11">
-        <v>75569</v>
-      </c>
-      <c r="D426" s="12">
-        <v>3.7000000000000002E-6</v>
-      </c>
-      <c r="E426" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="F426" s="12">
-        <v>170</v>
-      </c>
-      <c r="G426" s="12">
-        <v>170</v>
-      </c>
-      <c r="H426" s="12">
-        <v>690</v>
-      </c>
-      <c r="I426" s="12">
-        <v>200</v>
-      </c>
-      <c r="J426" s="12">
-        <v>120</v>
-      </c>
-      <c r="K426" s="12">
-        <v>590</v>
-      </c>
-      <c r="L426" s="12"/>
-      <c r="M426" s="12">
-        <v>3.1</v>
-      </c>
+      <c r="M426" s="12"/>
       <c r="N426" s="12"/>
       <c r="O426" s="12"/>
       <c r="P426" s="12"/>
       <c r="Q426" s="13" t="s">
-        <v>741</v>
+        <v>634</v>
       </c>
       <c r="R426" s="13" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="U426" s="1">
         <f t="shared" si="6"/>
-        <v>3.1</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="427" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A427" s="10" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B427" s="10" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C427" s="11">
-        <v>91225</v>
+        <v>75569</v>
       </c>
       <c r="D427" s="12">
-        <v>0</v>
+        <v>3.7000000000000002E-6</v>
       </c>
       <c r="E427" s="12">
-        <v>0</v>
-      </c>
-      <c r="F427" s="12"/>
-      <c r="G427" s="12"/>
-      <c r="H427" s="12"/>
-      <c r="I427" s="12"/>
-      <c r="J427" s="12"/>
-      <c r="K427" s="12"/>
+        <v>0.03</v>
+      </c>
+      <c r="F427" s="12">
+        <v>170</v>
+      </c>
+      <c r="G427" s="12">
+        <v>170</v>
+      </c>
+      <c r="H427" s="12">
+        <v>690</v>
+      </c>
+      <c r="I427" s="12">
+        <v>200</v>
+      </c>
+      <c r="J427" s="12">
+        <v>120</v>
+      </c>
+      <c r="K427" s="12">
+        <v>590</v>
+      </c>
       <c r="L427" s="12"/>
-      <c r="M427" s="12"/>
+      <c r="M427" s="12">
+        <v>3.1</v>
+      </c>
       <c r="N427" s="12"/>
       <c r="O427" s="12"/>
       <c r="P427" s="12"/>
-      <c r="Q427" s="13"/>
-      <c r="R427" s="13"/>
+      <c r="Q427" s="13" t="s">
+        <v>741</v>
+      </c>
+      <c r="R427" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="U427" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="428" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A428" s="10" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B428" s="10" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C428" s="11">
-        <v>106514</v>
+        <v>91225</v>
       </c>
       <c r="D428" s="12">
         <v>0</v>
@@ -19964,16 +19976,20 @@
     </row>
     <row r="429" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A429" s="10" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B429" s="10" t="s">
-        <v>638</v>
-      </c>
-      <c r="C429" s="24">
-        <v>605</v>
-      </c>
-      <c r="D429" s="12"/>
-      <c r="E429" s="12"/>
+        <v>637</v>
+      </c>
+      <c r="C429" s="11">
+        <v>106514</v>
+      </c>
+      <c r="D429" s="12">
+        <v>0</v>
+      </c>
+      <c r="E429" s="12">
+        <v>0</v>
+      </c>
       <c r="F429" s="12"/>
       <c r="G429" s="12"/>
       <c r="H429" s="12"/>
@@ -19985,24 +20001,22 @@
       <c r="N429" s="12"/>
       <c r="O429" s="12"/>
       <c r="P429" s="12"/>
-      <c r="Q429" s="14" t="s">
-        <v>48</v>
-      </c>
+      <c r="Q429" s="13"/>
       <c r="R429" s="13"/>
       <c r="U429" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A430" s="10" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B430" s="10" t="s">
         <v>638</v>
       </c>
-      <c r="C430" s="50" t="s">
-        <v>640</v>
+      <c r="C430" s="24">
+        <v>605</v>
       </c>
       <c r="D430" s="12"/>
       <c r="E430" s="12"/>
@@ -20018,19 +20032,23 @@
       <c r="O430" s="12"/>
       <c r="P430" s="12"/>
       <c r="Q430" s="14" t="s">
-        <v>641</v>
+        <v>48</v>
       </c>
       <c r="R430" s="13"/>
-    </row>
-    <row r="431" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U430" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A431" s="10" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="B431" s="10" t="s">
         <v>638</v>
       </c>
-      <c r="C431" s="24" t="s">
-        <v>643</v>
+      <c r="C431" s="50" t="s">
+        <v>640</v>
       </c>
       <c r="D431" s="12"/>
       <c r="E431" s="12"/>
@@ -20046,18 +20064,20 @@
       <c r="O431" s="12"/>
       <c r="P431" s="12"/>
       <c r="Q431" s="14" t="s">
-        <v>609</v>
+        <v>641</v>
       </c>
       <c r="R431" s="13"/>
     </row>
     <row r="432" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A432" s="10" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B432" s="10" t="s">
         <v>638</v>
       </c>
-      <c r="C432" s="24"/>
+      <c r="C432" s="24" t="s">
+        <v>643</v>
+      </c>
       <c r="D432" s="12"/>
       <c r="E432" s="12"/>
       <c r="F432" s="12"/>
@@ -20072,13 +20092,13 @@
       <c r="O432" s="12"/>
       <c r="P432" s="12"/>
       <c r="Q432" s="14" t="s">
-        <v>497</v>
+        <v>609</v>
       </c>
       <c r="R432" s="13"/>
     </row>
     <row r="433" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A433" s="10" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B433" s="10" t="s">
         <v>638</v>
@@ -20102,20 +20122,16 @@
       </c>
       <c r="R433" s="13"/>
     </row>
-    <row r="434" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A434" s="25" t="s">
-        <v>646</v>
+    <row r="434" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A434" s="10" t="s">
+        <v>645</v>
       </c>
       <c r="B434" s="10" t="s">
         <v>638</v>
       </c>
-      <c r="C434" s="37">
-        <v>7440611</v>
-      </c>
+      <c r="C434" s="24"/>
       <c r="D434" s="12"/>
-      <c r="E434" s="12">
-        <v>8.0000000000000004E-4</v>
-      </c>
+      <c r="E434" s="12"/>
       <c r="F434" s="12"/>
       <c r="G434" s="12"/>
       <c r="H434" s="12"/>
@@ -20128,25 +20144,19 @@
       <c r="O434" s="12"/>
       <c r="P434" s="12"/>
       <c r="Q434" s="14" t="s">
-        <v>647</v>
-      </c>
-      <c r="R434" s="13" t="s">
-        <v>648</v>
-      </c>
-      <c r="U434" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="435" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A435" s="10" t="s">
-        <v>649</v>
+        <v>497</v>
+      </c>
+      <c r="R434" s="13"/>
+    </row>
+    <row r="435" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A435" s="25" t="s">
+        <v>646</v>
       </c>
       <c r="B435" s="10" t="s">
         <v>638</v>
       </c>
-      <c r="C435" s="11" t="s">
-        <v>650</v>
+      <c r="C435" s="37">
+        <v>7440611</v>
       </c>
       <c r="D435" s="12"/>
       <c r="E435" s="12">
@@ -20157,38 +20167,34 @@
       <c r="H435" s="12"/>
       <c r="I435" s="12"/>
       <c r="J435" s="12"/>
-      <c r="K435" s="12">
-        <v>10</v>
-      </c>
+      <c r="K435" s="12"/>
       <c r="L435" s="12"/>
       <c r="M435" s="12"/>
       <c r="N435" s="12"/>
       <c r="O435" s="12"/>
       <c r="P435" s="12"/>
-      <c r="Q435" s="13" t="s">
-        <v>651</v>
+      <c r="Q435" s="14" t="s">
+        <v>647</v>
       </c>
       <c r="R435" s="13" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="U435" s="1">
         <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="436" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A436" s="10" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="B436" s="10" t="s">
         <v>638</v>
       </c>
-      <c r="C436" s="11">
-        <v>7440611</v>
-      </c>
-      <c r="D436" s="12">
-        <v>0</v>
-      </c>
+      <c r="C436" s="11" t="s">
+        <v>650</v>
+      </c>
+      <c r="D436" s="12"/>
       <c r="E436" s="12">
         <v>8.0000000000000004E-4</v>
       </c>
@@ -20197,92 +20203,94 @@
       <c r="H436" s="12"/>
       <c r="I436" s="12"/>
       <c r="J436" s="12"/>
-      <c r="K436" s="12"/>
+      <c r="K436" s="12">
+        <v>10</v>
+      </c>
       <c r="L436" s="12"/>
       <c r="M436" s="12"/>
       <c r="N436" s="12"/>
       <c r="O436" s="12"/>
       <c r="P436" s="12"/>
       <c r="Q436" s="13" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="R436" s="13" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="U436" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="437" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="437" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A437" s="10" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="B437" s="10" t="s">
         <v>638</v>
       </c>
       <c r="C437" s="11">
-        <v>7783815</v>
+        <v>7440611</v>
       </c>
       <c r="D437" s="12">
         <v>0</v>
       </c>
       <c r="E437" s="12">
-        <v>4.0000000000000003E-5</v>
-      </c>
-      <c r="F437" s="12">
-        <v>3.6</v>
-      </c>
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="F437" s="12"/>
       <c r="G437" s="12"/>
-      <c r="H437" s="12">
-        <v>9.6</v>
-      </c>
-      <c r="I437" s="12">
-        <v>1.2</v>
-      </c>
-      <c r="J437" s="12">
-        <v>5</v>
-      </c>
-      <c r="K437" s="12">
-        <v>15</v>
-      </c>
+      <c r="H437" s="12"/>
+      <c r="I437" s="12"/>
+      <c r="J437" s="12"/>
+      <c r="K437" s="12"/>
       <c r="L437" s="12"/>
       <c r="M437" s="12"/>
       <c r="N437" s="12"/>
       <c r="O437" s="12"/>
       <c r="P437" s="12"/>
       <c r="Q437" s="13" t="s">
-        <v>772</v>
+        <v>654</v>
       </c>
       <c r="R437" s="13" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="U437" s="1">
         <f t="shared" si="6"/>
-        <v>1.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A438" s="10" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B438" s="10" t="s">
         <v>638</v>
       </c>
-      <c r="C438" s="11" t="s">
-        <v>659</v>
-      </c>
-      <c r="D438" s="12"/>
+      <c r="C438" s="11">
+        <v>7783815</v>
+      </c>
+      <c r="D438" s="12">
+        <v>0</v>
+      </c>
       <c r="E438" s="12">
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="F438" s="12"/>
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="F438" s="12">
+        <v>3.6</v>
+      </c>
       <c r="G438" s="12"/>
-      <c r="H438" s="12"/>
-      <c r="I438" s="12"/>
-      <c r="J438" s="12"/>
+      <c r="H438" s="12">
+        <v>9.6</v>
+      </c>
+      <c r="I438" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="J438" s="12">
+        <v>5</v>
+      </c>
       <c r="K438" s="12">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L438" s="12"/>
       <c r="M438" s="12"/>
@@ -20290,65 +20298,67 @@
       <c r="O438" s="12"/>
       <c r="P438" s="12"/>
       <c r="Q438" s="13" t="s">
-        <v>651</v>
+        <v>772</v>
       </c>
       <c r="R438" s="13" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="U438" s="1">
         <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="439" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="439" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A439" s="10" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="B439" s="10" t="s">
         <v>638</v>
       </c>
       <c r="C439" s="11" t="s">
-        <v>662</v>
-      </c>
-      <c r="D439" s="12">
-        <v>0</v>
-      </c>
+        <v>659</v>
+      </c>
+      <c r="D439" s="12"/>
       <c r="E439" s="12">
-        <v>4.0000000000000003E-5</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="F439" s="12"/>
       <c r="G439" s="12"/>
       <c r="H439" s="12"/>
       <c r="I439" s="12"/>
       <c r="J439" s="12"/>
-      <c r="K439" s="12"/>
+      <c r="K439" s="12">
+        <v>10</v>
+      </c>
       <c r="L439" s="12"/>
       <c r="M439" s="12"/>
       <c r="N439" s="12"/>
       <c r="O439" s="12"/>
       <c r="P439" s="12"/>
       <c r="Q439" s="13" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="R439" s="13" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="U439" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="440" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="440" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A440" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="B440" s="10" t="s">
         <v>638</v>
       </c>
       <c r="C440" s="11" t="s">
-        <v>665</v>
-      </c>
-      <c r="D440" s="12"/>
+        <v>662</v>
+      </c>
+      <c r="D440" s="12">
+        <v>0</v>
+      </c>
       <c r="E440" s="12">
         <v>4.0000000000000003E-5</v>
       </c>
@@ -20364,10 +20374,10 @@
       <c r="O440" s="12"/>
       <c r="P440" s="12"/>
       <c r="Q440" s="13" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="R440" s="13" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="U440" s="1">
         <f t="shared" si="6"/>
@@ -20376,13 +20386,13 @@
     </row>
     <row r="441" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A441" s="10" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="B441" s="10" t="s">
         <v>638</v>
       </c>
       <c r="C441" s="11" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="D441" s="12"/>
       <c r="E441" s="12">
@@ -20412,99 +20422,97 @@
     </row>
     <row r="442" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A442" s="10" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B442" s="10" t="s">
-        <v>670</v>
-      </c>
-      <c r="C442" s="11">
-        <v>7783075</v>
-      </c>
-      <c r="D442" s="12">
-        <v>0</v>
-      </c>
+        <v>638</v>
+      </c>
+      <c r="C442" s="11" t="s">
+        <v>668</v>
+      </c>
+      <c r="D442" s="12"/>
       <c r="E442" s="12">
-        <v>8.0000000000000007E-5</v>
+        <v>4.0000000000000003E-5</v>
       </c>
       <c r="F442" s="12"/>
       <c r="G442" s="12"/>
-      <c r="H442" s="12">
-        <v>0.36</v>
-      </c>
-      <c r="I442" s="12">
-        <v>0.16</v>
-      </c>
+      <c r="H442" s="12"/>
+      <c r="I442" s="12"/>
       <c r="J442" s="12"/>
-      <c r="K442" s="12">
-        <v>0.66</v>
-      </c>
+      <c r="K442" s="12"/>
       <c r="L442" s="12"/>
-      <c r="M442" s="12">
-        <v>5.0000000000000001E-3</v>
-      </c>
+      <c r="M442" s="12"/>
       <c r="N442" s="12"/>
       <c r="O442" s="12"/>
       <c r="P442" s="12"/>
       <c r="Q442" s="13" t="s">
-        <v>741</v>
+        <v>651</v>
       </c>
       <c r="R442" s="13" t="s">
-        <v>782</v>
+        <v>666</v>
       </c>
       <c r="U442" s="1">
         <f t="shared" si="6"/>
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="443" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A443" s="10" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B443" s="10" t="s">
         <v>670</v>
       </c>
-      <c r="C443" s="11" t="s">
-        <v>672</v>
-      </c>
-      <c r="D443" s="23"/>
+      <c r="C443" s="11">
+        <v>7783075</v>
+      </c>
+      <c r="D443" s="12">
+        <v>0</v>
+      </c>
       <c r="E443" s="12">
-        <v>0.02</v>
+        <v>8.0000000000000007E-5</v>
       </c>
       <c r="F443" s="12"/>
       <c r="G443" s="12"/>
-      <c r="H443" s="12"/>
-      <c r="I443" s="12"/>
+      <c r="H443" s="12">
+        <v>0.36</v>
+      </c>
+      <c r="I443" s="12">
+        <v>0.16</v>
+      </c>
       <c r="J443" s="12"/>
-      <c r="K443" s="12"/>
+      <c r="K443" s="12">
+        <v>0.66</v>
+      </c>
       <c r="L443" s="12"/>
-      <c r="M443" s="12"/>
+      <c r="M443" s="12">
+        <v>5.0000000000000001E-3</v>
+      </c>
       <c r="N443" s="12"/>
       <c r="O443" s="12"/>
       <c r="P443" s="12"/>
       <c r="Q443" s="13" t="s">
-        <v>92</v>
+        <v>741</v>
       </c>
       <c r="R443" s="13" t="s">
-        <v>673</v>
+        <v>782</v>
       </c>
       <c r="U443" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="444" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="444" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A444" s="10" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="B444" s="10" t="s">
         <v>670</v>
       </c>
-      <c r="C444" s="11">
-        <v>7783008</v>
-      </c>
-      <c r="D444" s="12">
-        <v>0</v>
-      </c>
+      <c r="C444" s="11" t="s">
+        <v>672</v>
+      </c>
+      <c r="D444" s="23"/>
       <c r="E444" s="12">
         <v>0.02</v>
       </c>
@@ -20519,7 +20527,9 @@
       <c r="N444" s="12"/>
       <c r="O444" s="12"/>
       <c r="P444" s="12"/>
-      <c r="Q444" s="13"/>
+      <c r="Q444" s="13" t="s">
+        <v>92</v>
+      </c>
       <c r="R444" s="13" t="s">
         <v>673</v>
       </c>
@@ -20530,13 +20540,13 @@
     </row>
     <row r="445" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A445" s="10" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="B445" s="10" t="s">
         <v>670</v>
       </c>
       <c r="C445" s="11">
-        <v>7782492</v>
+        <v>7783008</v>
       </c>
       <c r="D445" s="12">
         <v>0</v>
@@ -20556,7 +20566,9 @@
       <c r="O445" s="12"/>
       <c r="P445" s="12"/>
       <c r="Q445" s="13"/>
-      <c r="R445" s="13"/>
+      <c r="R445" s="13" t="s">
+        <v>673</v>
+      </c>
       <c r="U445" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -20564,15 +20576,17 @@
     </row>
     <row r="446" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A446" s="10" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="B446" s="10" t="s">
         <v>670</v>
       </c>
       <c r="C446" s="11">
-        <v>7446084</v>
-      </c>
-      <c r="D446" s="12"/>
+        <v>7782492</v>
+      </c>
+      <c r="D446" s="12">
+        <v>0</v>
+      </c>
       <c r="E446" s="12">
         <v>0.02</v>
       </c>
@@ -20587,24 +20601,22 @@
       <c r="N446" s="12"/>
       <c r="O446" s="12"/>
       <c r="P446" s="12"/>
-      <c r="Q446" s="13" t="s">
-        <v>89</v>
-      </c>
+      <c r="Q446" s="13"/>
       <c r="R446" s="13"/>
       <c r="U446" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A447" s="10" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B447" s="10" t="s">
         <v>670</v>
       </c>
-      <c r="C447" s="11" t="s">
-        <v>677</v>
+      <c r="C447" s="11">
+        <v>7446084</v>
       </c>
       <c r="D447" s="12"/>
       <c r="E447" s="12">
@@ -20622,7 +20634,7 @@
       <c r="O447" s="12"/>
       <c r="P447" s="12"/>
       <c r="Q447" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="R447" s="13"/>
       <c r="U447" s="1">
@@ -20630,32 +20642,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A448" s="10" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B448" s="10" t="s">
         <v>670</v>
       </c>
-      <c r="C448" s="11">
-        <v>7783791</v>
+      <c r="C448" s="11" t="s">
+        <v>677</v>
       </c>
       <c r="D448" s="12"/>
       <c r="E448" s="12">
         <v>0.02</v>
       </c>
-      <c r="F448" s="12">
-        <v>0.42</v>
-      </c>
-      <c r="G448" s="12">
-        <v>0.13</v>
-      </c>
-      <c r="H448" s="12">
-        <v>0.69</v>
-      </c>
-      <c r="I448" s="12">
-        <v>0.22</v>
-      </c>
+      <c r="F448" s="12"/>
+      <c r="G448" s="12"/>
+      <c r="H448" s="12"/>
+      <c r="I448" s="12"/>
       <c r="J448" s="12"/>
       <c r="K448" s="12"/>
       <c r="L448" s="12"/>
@@ -20664,34 +20668,40 @@
       <c r="O448" s="12"/>
       <c r="P448" s="12"/>
       <c r="Q448" s="13" t="s">
-        <v>773</v>
-      </c>
-      <c r="R448" s="13" t="s">
-        <v>783</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="R448" s="13"/>
       <c r="U448" s="1">
         <f t="shared" si="6"/>
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="449" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A449" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B449" s="10" t="s">
         <v>670</v>
       </c>
       <c r="C449" s="11">
-        <v>12640890</v>
+        <v>7783791</v>
       </c>
       <c r="D449" s="12"/>
       <c r="E449" s="12">
         <v>0.02</v>
       </c>
-      <c r="F449" s="12"/>
-      <c r="G449" s="12"/>
-      <c r="H449" s="12"/>
-      <c r="I449" s="12"/>
+      <c r="F449" s="12">
+        <v>0.42</v>
+      </c>
+      <c r="G449" s="12">
+        <v>0.13</v>
+      </c>
+      <c r="H449" s="12">
+        <v>0.69</v>
+      </c>
+      <c r="I449" s="12">
+        <v>0.22</v>
+      </c>
       <c r="J449" s="12"/>
       <c r="K449" s="12"/>
       <c r="L449" s="12"/>
@@ -20700,25 +20710,25 @@
       <c r="O449" s="12"/>
       <c r="P449" s="12"/>
       <c r="Q449" s="13" t="s">
-        <v>546</v>
+        <v>773</v>
       </c>
       <c r="R449" s="13" t="s">
-        <v>673</v>
+        <v>783</v>
       </c>
       <c r="U449" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="450" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A450" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B450" s="10" t="s">
         <v>670</v>
       </c>
-      <c r="C450" s="11" t="s">
-        <v>681</v>
+      <c r="C450" s="11">
+        <v>12640890</v>
       </c>
       <c r="D450" s="12"/>
       <c r="E450" s="12">
@@ -20736,7 +20746,7 @@
       <c r="O450" s="12"/>
       <c r="P450" s="12"/>
       <c r="Q450" s="13" t="s">
-        <v>92</v>
+        <v>546</v>
       </c>
       <c r="R450" s="13" t="s">
         <v>673</v>
@@ -20748,13 +20758,13 @@
     </row>
     <row r="451" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A451" s="10" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B451" s="10" t="s">
         <v>670</v>
       </c>
       <c r="C451" s="11" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="D451" s="12"/>
       <c r="E451" s="12">
@@ -20774,25 +20784,25 @@
       <c r="Q451" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="R451" s="13"/>
+      <c r="R451" s="13" t="s">
+        <v>673</v>
+      </c>
       <c r="U451" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A452" s="10" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B452" s="10" t="s">
         <v>670</v>
       </c>
-      <c r="C452" s="11">
-        <v>630104</v>
-      </c>
-      <c r="D452" s="12">
-        <v>0</v>
-      </c>
+      <c r="C452" s="11" t="s">
+        <v>683</v>
+      </c>
+      <c r="D452" s="12"/>
       <c r="E452" s="12">
         <v>0.02</v>
       </c>
@@ -20807,26 +20817,28 @@
       <c r="N452" s="12"/>
       <c r="O452" s="12"/>
       <c r="P452" s="12"/>
-      <c r="Q452" s="13"/>
-      <c r="R452" s="13" t="s">
-        <v>673</v>
-      </c>
+      <c r="Q452" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="R452" s="13"/>
       <c r="U452" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A453" s="25" t="s">
-        <v>685</v>
+    <row r="453" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A453" s="10" t="s">
+        <v>684</v>
       </c>
       <c r="B453" s="10" t="s">
         <v>670</v>
       </c>
-      <c r="C453" s="26" t="s">
-        <v>686</v>
-      </c>
-      <c r="D453" s="12"/>
+      <c r="C453" s="11">
+        <v>630104</v>
+      </c>
+      <c r="D453" s="12">
+        <v>0</v>
+      </c>
       <c r="E453" s="12">
         <v>0.02</v>
       </c>
@@ -20841,9 +20853,7 @@
       <c r="N453" s="12"/>
       <c r="O453" s="12"/>
       <c r="P453" s="12"/>
-      <c r="Q453" s="14" t="s">
-        <v>92</v>
-      </c>
+      <c r="Q453" s="13"/>
       <c r="R453" s="13" t="s">
         <v>673</v>
       </c>
@@ -20854,13 +20864,13 @@
     </row>
     <row r="454" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A454" s="25" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B454" s="10" t="s">
         <v>670</v>
       </c>
       <c r="C454" s="26" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D454" s="12"/>
       <c r="E454" s="12">
@@ -20888,381 +20898,383 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A455" s="10" t="s">
-        <v>689</v>
+    <row r="455" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A455" s="25" t="s">
+        <v>687</v>
       </c>
       <c r="B455" s="10" t="s">
-        <v>689</v>
-      </c>
-      <c r="C455" s="11">
-        <v>100425</v>
-      </c>
-      <c r="D455" s="12">
-        <v>0</v>
-      </c>
+        <v>670</v>
+      </c>
+      <c r="C455" s="26" t="s">
+        <v>688</v>
+      </c>
+      <c r="D455" s="12"/>
       <c r="E455" s="12">
-        <v>1</v>
-      </c>
-      <c r="F455" s="12">
-        <v>85</v>
-      </c>
-      <c r="G455" s="12">
-        <v>85</v>
-      </c>
-      <c r="H455" s="12">
-        <v>550</v>
-      </c>
-      <c r="I455" s="12">
-        <v>550</v>
-      </c>
-      <c r="J455" s="12">
-        <v>210</v>
-      </c>
-      <c r="K455" s="12">
-        <v>1100</v>
-      </c>
-      <c r="L455" s="12">
-        <v>21</v>
-      </c>
-      <c r="M455" s="12">
-        <v>21</v>
-      </c>
+        <v>0.02</v>
+      </c>
+      <c r="F455" s="12"/>
+      <c r="G455" s="12"/>
+      <c r="H455" s="12"/>
+      <c r="I455" s="12"/>
+      <c r="J455" s="12"/>
+      <c r="K455" s="12"/>
+      <c r="L455" s="12"/>
+      <c r="M455" s="12"/>
       <c r="N455" s="12"/>
       <c r="O455" s="12"/>
       <c r="P455" s="12"/>
-      <c r="Q455" s="13" t="s">
-        <v>752</v>
+      <c r="Q455" s="14" t="s">
+        <v>92</v>
       </c>
       <c r="R455" s="13" t="s">
-        <v>22</v>
+        <v>673</v>
       </c>
       <c r="U455" s="1">
         <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A456" s="10" t="s">
+        <v>689</v>
+      </c>
+      <c r="B456" s="10" t="s">
+        <v>689</v>
+      </c>
+      <c r="C456" s="11">
+        <v>100425</v>
+      </c>
+      <c r="D456" s="12">
+        <v>0</v>
+      </c>
+      <c r="E456" s="12">
+        <v>1</v>
+      </c>
+      <c r="F456" s="12">
+        <v>85</v>
+      </c>
+      <c r="G456" s="12">
+        <v>85</v>
+      </c>
+      <c r="H456" s="12">
+        <v>550</v>
+      </c>
+      <c r="I456" s="12">
+        <v>550</v>
+      </c>
+      <c r="J456" s="12">
+        <v>210</v>
+      </c>
+      <c r="K456" s="12">
+        <v>1100</v>
+      </c>
+      <c r="L456" s="12">
         <v>21</v>
       </c>
-    </row>
-    <row r="456" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A456" s="10" t="s">
-        <v>690</v>
-      </c>
-      <c r="B456" s="10" t="s">
-        <v>690</v>
-      </c>
-      <c r="C456" s="11">
-        <v>96093</v>
-      </c>
-      <c r="D456" s="12">
-        <v>0</v>
-      </c>
-      <c r="E456" s="12">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="F456" s="12"/>
-      <c r="G456" s="12"/>
-      <c r="H456" s="12"/>
-      <c r="I456" s="12"/>
-      <c r="J456" s="12"/>
-      <c r="K456" s="12"/>
-      <c r="L456" s="12"/>
-      <c r="M456" s="12"/>
+      <c r="M456" s="12">
+        <v>21</v>
+      </c>
       <c r="N456" s="12"/>
       <c r="O456" s="12"/>
       <c r="P456" s="12"/>
-      <c r="Q456" s="13"/>
-      <c r="R456" s="13"/>
+      <c r="Q456" s="13" t="s">
+        <v>752</v>
+      </c>
+      <c r="R456" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="U456" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="457" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="457" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A457" s="10" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B457" s="10" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C457" s="11">
-        <v>127184</v>
+        <v>96093</v>
       </c>
       <c r="D457" s="12">
-        <v>2.6E-7</v>
+        <v>0</v>
       </c>
       <c r="E457" s="12">
-        <v>0.04</v>
-      </c>
-      <c r="F457" s="12">
-        <v>240</v>
-      </c>
-      <c r="G457" s="12">
-        <v>240</v>
-      </c>
-      <c r="H457" s="12">
-        <v>1600</v>
-      </c>
-      <c r="I457" s="12">
-        <v>550</v>
-      </c>
-      <c r="J457" s="12">
-        <v>680</v>
-      </c>
-      <c r="K457" s="12">
-        <v>1400</v>
-      </c>
-      <c r="L457" s="12">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="M457" s="12">
-        <v>20</v>
-      </c>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F457" s="12"/>
+      <c r="G457" s="12"/>
+      <c r="H457" s="12"/>
+      <c r="I457" s="12"/>
+      <c r="J457" s="12"/>
+      <c r="K457" s="12"/>
+      <c r="L457" s="12"/>
+      <c r="M457" s="12"/>
       <c r="N457" s="12"/>
       <c r="O457" s="12"/>
       <c r="P457" s="12"/>
-      <c r="Q457" s="13" t="s">
-        <v>753</v>
-      </c>
-      <c r="R457" s="13" t="s">
-        <v>784</v>
-      </c>
+      <c r="Q457" s="13"/>
+      <c r="R457" s="13"/>
       <c r="U457" s="1">
         <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A458" s="10" t="s">
+        <v>691</v>
+      </c>
+      <c r="B458" s="10" t="s">
+        <v>691</v>
+      </c>
+      <c r="C458" s="11">
+        <v>127184</v>
+      </c>
+      <c r="D458" s="12">
+        <v>2.6E-7</v>
+      </c>
+      <c r="E458" s="12">
+        <v>0.04</v>
+      </c>
+      <c r="F458" s="12">
+        <v>240</v>
+      </c>
+      <c r="G458" s="12">
+        <v>240</v>
+      </c>
+      <c r="H458" s="12">
+        <v>1600</v>
+      </c>
+      <c r="I458" s="12">
+        <v>550</v>
+      </c>
+      <c r="J458" s="12">
+        <v>680</v>
+      </c>
+      <c r="K458" s="12">
+        <v>1400</v>
+      </c>
+      <c r="L458" s="12">
         <v>4.1000000000000002E-2</v>
       </c>
-    </row>
-    <row r="458" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A458" s="10" t="s">
-        <v>692</v>
-      </c>
-      <c r="B458" s="10" t="s">
-        <v>692</v>
-      </c>
-      <c r="C458" s="11">
-        <v>7550450</v>
-      </c>
-      <c r="D458" s="12">
-        <v>0</v>
-      </c>
-      <c r="E458" s="12">
-        <v>1E-4</v>
-      </c>
-      <c r="F458" s="12"/>
-      <c r="G458" s="12"/>
-      <c r="H458" s="12">
-        <v>7.8</v>
-      </c>
-      <c r="I458" s="12">
-        <v>0.73</v>
-      </c>
-      <c r="J458" s="12">
-        <v>5</v>
-      </c>
-      <c r="K458" s="12">
+      <c r="M458" s="12">
         <v>20</v>
       </c>
-      <c r="L458" s="12"/>
-      <c r="M458" s="12"/>
       <c r="N458" s="12"/>
       <c r="O458" s="12"/>
       <c r="P458" s="12"/>
       <c r="Q458" s="13" t="s">
-        <v>742</v>
+        <v>753</v>
       </c>
       <c r="R458" s="13" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="U458" s="1">
         <f t="shared" si="6"/>
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="459" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A459" s="10" t="s">
+        <v>692</v>
+      </c>
+      <c r="B459" s="10" t="s">
+        <v>692</v>
+      </c>
+      <c r="C459" s="11">
+        <v>7550450</v>
+      </c>
+      <c r="D459" s="12">
+        <v>0</v>
+      </c>
+      <c r="E459" s="12">
+        <v>1E-4</v>
+      </c>
+      <c r="F459" s="12"/>
+      <c r="G459" s="12"/>
+      <c r="H459" s="12">
+        <v>7.8</v>
+      </c>
+      <c r="I459" s="12">
         <v>0.73</v>
       </c>
-    </row>
-    <row r="459" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A459" s="10" t="s">
-        <v>693</v>
-      </c>
-      <c r="B459" s="10" t="s">
-        <v>693</v>
-      </c>
-      <c r="C459" s="11">
-        <v>108883</v>
-      </c>
-      <c r="D459" s="12">
-        <v>0</v>
-      </c>
-      <c r="E459" s="12">
+      <c r="J459" s="12">
         <v>5</v>
       </c>
-      <c r="F459" s="12">
-        <v>250</v>
-      </c>
-      <c r="G459" s="12">
-        <v>250</v>
-      </c>
-      <c r="H459" s="12">
-        <v>2100</v>
-      </c>
-      <c r="I459" s="12">
-        <v>940</v>
-      </c>
-      <c r="J459" s="12">
-        <v>190</v>
-      </c>
       <c r="K459" s="12">
-        <v>1100</v>
-      </c>
-      <c r="L459" s="12">
-        <v>7.5</v>
-      </c>
-      <c r="M459" s="12">
-        <v>37</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="L459" s="12"/>
+      <c r="M459" s="12"/>
       <c r="N459" s="12"/>
       <c r="O459" s="12"/>
       <c r="P459" s="12"/>
       <c r="Q459" s="13" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="R459" s="13" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="U459" s="1">
         <f t="shared" si="6"/>
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="460" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A460" s="10" t="s">
+        <v>693</v>
+      </c>
+      <c r="B460" s="10" t="s">
+        <v>693</v>
+      </c>
+      <c r="C460" s="11">
+        <v>108883</v>
+      </c>
+      <c r="D460" s="12">
+        <v>0</v>
+      </c>
+      <c r="E460" s="12">
+        <v>5</v>
+      </c>
+      <c r="F460" s="12">
+        <v>250</v>
+      </c>
+      <c r="G460" s="12">
+        <v>250</v>
+      </c>
+      <c r="H460" s="12">
+        <v>2100</v>
+      </c>
+      <c r="I460" s="12">
+        <v>940</v>
+      </c>
+      <c r="J460" s="12">
+        <v>190</v>
+      </c>
+      <c r="K460" s="12">
+        <v>1100</v>
+      </c>
+      <c r="L460" s="12">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="460" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A460" s="10" t="s">
-        <v>694</v>
-      </c>
-      <c r="B460" s="10" t="s">
-        <v>694</v>
-      </c>
-      <c r="C460" s="11">
-        <v>8001352</v>
-      </c>
-      <c r="D460" s="12">
-        <v>3.2000000000000003E-4</v>
-      </c>
-      <c r="E460" s="12">
-        <v>0</v>
-      </c>
-      <c r="F460" s="12"/>
-      <c r="G460" s="12"/>
-      <c r="H460" s="12"/>
-      <c r="I460" s="12"/>
-      <c r="J460" s="12"/>
-      <c r="K460" s="12"/>
-      <c r="L460" s="12"/>
-      <c r="M460" s="12"/>
+      <c r="M460" s="12">
+        <v>37</v>
+      </c>
       <c r="N460" s="12"/>
       <c r="O460" s="12"/>
       <c r="P460" s="12"/>
-      <c r="Q460" s="13"/>
-      <c r="R460" s="13"/>
+      <c r="Q460" s="13" t="s">
+        <v>746</v>
+      </c>
+      <c r="R460" s="13" t="s">
+        <v>786</v>
+      </c>
       <c r="U460" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="461" spans="1:21" ht="108.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="461" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A461" s="10" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B461" s="10" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C461" s="11">
-        <v>79016</v>
+        <v>8001352</v>
       </c>
       <c r="D461" s="12">
-        <v>4.7999999999999998E-6</v>
+        <v>3.2000000000000003E-4</v>
       </c>
       <c r="E461" s="12">
-        <v>2E-3</v>
-      </c>
-      <c r="F461" s="12">
-        <v>700</v>
-      </c>
-      <c r="G461" s="12">
-        <v>410</v>
-      </c>
-      <c r="H461" s="12">
-        <v>2400</v>
-      </c>
-      <c r="I461" s="12">
-        <v>1300</v>
-      </c>
-      <c r="J461" s="12">
-        <v>540</v>
-      </c>
-      <c r="K461" s="12">
-        <v>2700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F461" s="12"/>
+      <c r="G461" s="12"/>
+      <c r="H461" s="12"/>
+      <c r="I461" s="12"/>
+      <c r="J461" s="12"/>
+      <c r="K461" s="12"/>
       <c r="L461" s="12"/>
       <c r="M461" s="12"/>
       <c r="N461" s="12"/>
       <c r="O461" s="12"/>
       <c r="P461" s="12"/>
-      <c r="Q461" s="13" t="s">
-        <v>742</v>
-      </c>
-      <c r="R461" s="13" t="s">
-        <v>787</v>
-      </c>
+      <c r="Q461" s="13"/>
+      <c r="R461" s="13"/>
       <c r="U461" s="1">
         <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:21" ht="108.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A462" s="10" t="s">
+        <v>695</v>
+      </c>
+      <c r="B462" s="10" t="s">
+        <v>695</v>
+      </c>
+      <c r="C462" s="11">
+        <v>79016</v>
+      </c>
+      <c r="D462" s="12">
+        <v>4.7999999999999998E-6</v>
+      </c>
+      <c r="E462" s="12">
+        <v>2E-3</v>
+      </c>
+      <c r="F462" s="12">
+        <v>700</v>
+      </c>
+      <c r="G462" s="12">
         <v>410</v>
       </c>
-    </row>
-    <row r="462" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A462" s="10" t="s">
-        <v>696</v>
-      </c>
-      <c r="B462" s="10" t="s">
-        <v>696</v>
-      </c>
-      <c r="C462" s="11">
-        <v>121448</v>
-      </c>
-      <c r="D462" s="12">
-        <v>0</v>
-      </c>
-      <c r="E462" s="12">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="F462" s="12"/>
-      <c r="G462" s="12"/>
-      <c r="H462" s="12"/>
-      <c r="I462" s="12"/>
-      <c r="J462" s="12"/>
-      <c r="K462" s="12"/>
+      <c r="H462" s="12">
+        <v>2400</v>
+      </c>
+      <c r="I462" s="12">
+        <v>1300</v>
+      </c>
+      <c r="J462" s="12">
+        <v>540</v>
+      </c>
+      <c r="K462" s="12">
+        <v>2700</v>
+      </c>
       <c r="L462" s="12"/>
-      <c r="M462" s="12">
-        <v>2.8</v>
-      </c>
+      <c r="M462" s="12"/>
       <c r="N462" s="12"/>
       <c r="O462" s="12"/>
       <c r="P462" s="12"/>
-      <c r="Q462" s="13"/>
-      <c r="R462" s="13"/>
+      <c r="Q462" s="13" t="s">
+        <v>742</v>
+      </c>
+      <c r="R462" s="13" t="s">
+        <v>787</v>
+      </c>
       <c r="U462" s="1">
         <f t="shared" si="6"/>
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="463" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="463" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A463" s="10" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B463" s="10" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C463" s="11">
-        <v>1582098</v>
-      </c>
-      <c r="D463" s="12"/>
+        <v>121448</v>
+      </c>
+      <c r="D463" s="12">
+        <v>0</v>
+      </c>
       <c r="E463" s="12">
-        <v>0</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="F463" s="12"/>
       <c r="G463" s="12"/>
@@ -21271,244 +21283,240 @@
       <c r="J463" s="12"/>
       <c r="K463" s="12"/>
       <c r="L463" s="12"/>
-      <c r="M463" s="12"/>
+      <c r="M463" s="12">
+        <v>2.8</v>
+      </c>
       <c r="N463" s="12"/>
       <c r="O463" s="12"/>
       <c r="P463" s="12"/>
       <c r="Q463" s="13"/>
-      <c r="R463" s="13" t="s">
-        <v>56</v>
-      </c>
+      <c r="R463" s="13"/>
       <c r="U463" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="464" spans="1:21" x14ac:dyDescent="0.2">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="464" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A464" s="10" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B464" s="10" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C464" s="11">
-        <v>108054</v>
-      </c>
-      <c r="D464" s="12">
-        <v>0</v>
-      </c>
+        <v>1582098</v>
+      </c>
+      <c r="D464" s="12"/>
       <c r="E464" s="12">
-        <v>0.2</v>
-      </c>
-      <c r="F464" s="12">
-        <v>24</v>
-      </c>
-      <c r="G464" s="12">
-        <v>24</v>
-      </c>
-      <c r="H464" s="12">
-        <v>130</v>
-      </c>
-      <c r="I464" s="12">
-        <v>53</v>
-      </c>
-      <c r="J464" s="12">
-        <v>18</v>
-      </c>
-      <c r="K464" s="12">
-        <v>260</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F464" s="12"/>
+      <c r="G464" s="12"/>
+      <c r="H464" s="12"/>
+      <c r="I464" s="12"/>
+      <c r="J464" s="12"/>
+      <c r="K464" s="12"/>
       <c r="L464" s="12"/>
       <c r="M464" s="12"/>
       <c r="N464" s="12"/>
       <c r="O464" s="12"/>
       <c r="P464" s="12"/>
-      <c r="Q464" s="13" t="s">
-        <v>741</v>
-      </c>
+      <c r="Q464" s="13"/>
       <c r="R464" s="13" t="s">
-        <v>750</v>
+        <v>56</v>
       </c>
       <c r="U464" s="1">
-        <f>MIN(F464:P464)</f>
-        <v>18</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A465" s="10" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B465" s="10" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C465" s="11">
-        <v>593602</v>
+        <v>108054</v>
       </c>
       <c r="D465" s="12">
-        <v>3.1999999999999999E-5</v>
+        <v>0</v>
       </c>
       <c r="E465" s="12">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F465" s="12"/>
-      <c r="G465" s="12"/>
-      <c r="H465" s="12"/>
-      <c r="I465" s="12"/>
-      <c r="J465" s="12"/>
-      <c r="K465" s="12"/>
+        <v>0.2</v>
+      </c>
+      <c r="F465" s="12">
+        <v>24</v>
+      </c>
+      <c r="G465" s="12">
+        <v>24</v>
+      </c>
+      <c r="H465" s="12">
+        <v>130</v>
+      </c>
+      <c r="I465" s="12">
+        <v>53</v>
+      </c>
+      <c r="J465" s="12">
+        <v>18</v>
+      </c>
+      <c r="K465" s="12">
+        <v>260</v>
+      </c>
       <c r="L465" s="12"/>
       <c r="M465" s="12"/>
       <c r="N465" s="12"/>
       <c r="O465" s="12"/>
       <c r="P465" s="12"/>
-      <c r="Q465" s="13"/>
-      <c r="R465" s="13"/>
+      <c r="Q465" s="13" t="s">
+        <v>741</v>
+      </c>
+      <c r="R465" s="13" t="s">
+        <v>750</v>
+      </c>
       <c r="U465" s="1">
         <f>MIN(F465:P465)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="466" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="466" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A466" s="10" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B466" s="10" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C466" s="11">
-        <v>75014</v>
+        <v>593602</v>
       </c>
       <c r="D466" s="12">
-        <v>8.8000000000000004E-6</v>
+        <v>3.1999999999999999E-5</v>
       </c>
       <c r="E466" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="F466" s="12">
-        <v>640</v>
-      </c>
-      <c r="G466" s="12">
-        <v>180</v>
-      </c>
-      <c r="H466" s="12">
-        <v>3100</v>
-      </c>
-      <c r="I466" s="12">
-        <v>2100</v>
-      </c>
-      <c r="J466" s="12">
-        <v>1300</v>
-      </c>
-      <c r="K466" s="12">
-        <v>13000</v>
-      </c>
-      <c r="L466" s="12">
-        <v>1.3</v>
-      </c>
-      <c r="M466" s="12">
-        <v>180</v>
-      </c>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F466" s="12"/>
+      <c r="G466" s="12"/>
+      <c r="H466" s="12"/>
+      <c r="I466" s="12"/>
+      <c r="J466" s="12"/>
+      <c r="K466" s="12"/>
+      <c r="L466" s="12"/>
+      <c r="M466" s="12"/>
       <c r="N466" s="12"/>
       <c r="O466" s="12"/>
       <c r="P466" s="12"/>
-      <c r="Q466" s="13" t="s">
-        <v>741</v>
-      </c>
-      <c r="R466" s="13" t="s">
-        <v>701</v>
-      </c>
+      <c r="Q466" s="13"/>
+      <c r="R466" s="13"/>
       <c r="U466" s="1">
         <f>MIN(F466:P466)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+      <c r="A467" s="10" t="s">
+        <v>700</v>
+      </c>
+      <c r="B467" s="10" t="s">
+        <v>700</v>
+      </c>
+      <c r="C467" s="11">
+        <v>75014</v>
+      </c>
+      <c r="D467" s="12">
+        <v>8.8000000000000004E-6</v>
+      </c>
+      <c r="E467" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="F467" s="12">
+        <v>640</v>
+      </c>
+      <c r="G467" s="12">
+        <v>180</v>
+      </c>
+      <c r="H467" s="12">
+        <v>3100</v>
+      </c>
+      <c r="I467" s="12">
+        <v>2100</v>
+      </c>
+      <c r="J467" s="12">
+        <v>1300</v>
+      </c>
+      <c r="K467" s="12">
+        <v>13000</v>
+      </c>
+      <c r="L467" s="12">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="467" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A467" s="10" t="s">
-        <v>702</v>
-      </c>
-      <c r="B467" s="10" t="s">
-        <v>702</v>
-      </c>
-      <c r="C467" s="11">
-        <v>75354</v>
-      </c>
-      <c r="D467" s="12">
-        <v>0</v>
-      </c>
-      <c r="E467" s="12">
-        <v>0.2</v>
-      </c>
-      <c r="F467" s="12"/>
-      <c r="G467" s="12"/>
-      <c r="H467" s="12"/>
-      <c r="I467" s="12"/>
-      <c r="J467" s="12"/>
-      <c r="K467" s="12">
-        <v>2000</v>
-      </c>
-      <c r="L467" s="12"/>
-      <c r="M467" s="12"/>
+      <c r="M467" s="12">
+        <v>180</v>
+      </c>
       <c r="N467" s="12"/>
       <c r="O467" s="12"/>
       <c r="P467" s="12"/>
       <c r="Q467" s="13" t="s">
-        <v>703</v>
+        <v>741</v>
       </c>
       <c r="R467" s="13" t="s">
-        <v>788</v>
+        <v>701</v>
       </c>
       <c r="U467" s="1">
         <f>MIN(F467:P467)</f>
-        <v>2000</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="468" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A468" s="10" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B468" s="10" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="C468" s="11">
-        <v>108383</v>
+        <v>75354</v>
       </c>
       <c r="D468" s="12">
         <v>0</v>
       </c>
       <c r="E468" s="12">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="F468" s="12"/>
       <c r="G468" s="12"/>
       <c r="H468" s="12"/>
       <c r="I468" s="12"/>
       <c r="J468" s="12"/>
-      <c r="K468" s="12"/>
+      <c r="K468" s="12">
+        <v>2000</v>
+      </c>
       <c r="L468" s="12"/>
-      <c r="M468" s="12">
-        <v>22</v>
-      </c>
+      <c r="M468" s="12"/>
       <c r="N468" s="12"/>
       <c r="O468" s="12"/>
       <c r="P468" s="12"/>
-      <c r="Q468" s="13"/>
+      <c r="Q468" s="13" t="s">
+        <v>703</v>
+      </c>
       <c r="R468" s="13" t="s">
-        <v>706</v>
+        <v>788</v>
       </c>
       <c r="U468" s="1">
         <f>MIN(F468:P468)</f>
-        <v>22</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="469" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A469" s="10" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B469" s="10" t="s">
         <v>705</v>
       </c>
       <c r="C469" s="11">
-        <v>95476</v>
+        <v>108383</v>
       </c>
       <c r="D469" s="12">
         <v>0</v>
@@ -21533,172 +21541,174 @@
       <c r="R469" s="13" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="470" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A470" s="27" t="s">
-        <v>708</v>
-      </c>
-      <c r="B470" s="27" t="s">
-        <v>705</v>
-      </c>
-      <c r="C470" s="28">
-        <v>106423</v>
-      </c>
-      <c r="D470" s="29">
-        <v>0</v>
-      </c>
-      <c r="E470" s="29">
-        <v>0.1</v>
-      </c>
-      <c r="F470" s="29"/>
-      <c r="G470" s="29"/>
-      <c r="H470" s="29"/>
-      <c r="I470" s="29"/>
-      <c r="J470" s="29"/>
-      <c r="K470" s="29"/>
-      <c r="L470" s="29"/>
-      <c r="M470" s="29">
-        <v>22</v>
-      </c>
-      <c r="N470" s="29"/>
-      <c r="O470" s="29"/>
-      <c r="P470" s="29"/>
-      <c r="Q470" s="30"/>
-      <c r="R470" s="30" t="s">
-        <v>706</v>
-      </c>
-      <c r="U470" s="1">
+      <c r="U469" s="1">
         <f>MIN(F469:P469)</f>
         <v>22</v>
       </c>
     </row>
-    <row r="471" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A471" s="10" t="s">
-        <v>709</v>
-      </c>
-      <c r="B471" s="10" t="s">
+    <row r="470" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A470" s="10" t="s">
+        <v>707</v>
+      </c>
+      <c r="B470" s="10" t="s">
         <v>705</v>
       </c>
-      <c r="C471" s="11">
-        <v>1330207</v>
-      </c>
-      <c r="D471" s="12">
-        <v>0</v>
-      </c>
-      <c r="E471" s="12">
+      <c r="C470" s="11">
+        <v>95476</v>
+      </c>
+      <c r="D470" s="12">
+        <v>0</v>
+      </c>
+      <c r="E470" s="12">
         <v>0.1</v>
       </c>
-      <c r="F471" s="12">
-        <v>560</v>
-      </c>
-      <c r="G471" s="12">
-        <v>560</v>
-      </c>
-      <c r="H471" s="12">
-        <v>4000</v>
-      </c>
-      <c r="I471" s="12">
-        <v>1700</v>
-      </c>
-      <c r="J471" s="12"/>
-      <c r="K471" s="12"/>
-      <c r="L471" s="12">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="M471" s="12">
+      <c r="F470" s="12"/>
+      <c r="G470" s="12"/>
+      <c r="H470" s="12"/>
+      <c r="I470" s="12"/>
+      <c r="J470" s="12"/>
+      <c r="K470" s="12"/>
+      <c r="L470" s="12"/>
+      <c r="M470" s="12">
         <v>22</v>
       </c>
-      <c r="N471" s="12"/>
-      <c r="O471" s="12"/>
-      <c r="P471" s="12"/>
-      <c r="Q471" s="13" t="s">
-        <v>741</v>
-      </c>
-      <c r="R471" s="13"/>
+      <c r="N470" s="12"/>
+      <c r="O470" s="12"/>
+      <c r="P470" s="12"/>
+      <c r="Q470" s="13"/>
+      <c r="R470" s="13" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="471" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A471" s="27" t="s">
+        <v>708</v>
+      </c>
+      <c r="B471" s="27" t="s">
+        <v>705</v>
+      </c>
+      <c r="C471" s="28">
+        <v>106423</v>
+      </c>
+      <c r="D471" s="29">
+        <v>0</v>
+      </c>
+      <c r="E471" s="29">
+        <v>0.1</v>
+      </c>
+      <c r="F471" s="29"/>
+      <c r="G471" s="29"/>
+      <c r="H471" s="29"/>
+      <c r="I471" s="29"/>
+      <c r="J471" s="29"/>
+      <c r="K471" s="29"/>
+      <c r="L471" s="29"/>
+      <c r="M471" s="29">
+        <v>22</v>
+      </c>
+      <c r="N471" s="29"/>
+      <c r="O471" s="29"/>
+      <c r="P471" s="29"/>
+      <c r="Q471" s="30"/>
+      <c r="R471" s="30" t="s">
+        <v>706</v>
+      </c>
       <c r="U471" s="1">
         <f>MIN(F470:P470)</f>
         <v>22</v>
       </c>
     </row>
     <row r="472" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A472" s="36" t="s">
-        <v>710</v>
+      <c r="A472" s="10" t="s">
+        <v>709</v>
       </c>
       <c r="B472" s="10" t="s">
-        <v>710</v>
-      </c>
-      <c r="C472" s="11" t="s">
-        <v>711</v>
-      </c>
-      <c r="D472" s="12"/>
-      <c r="E472" s="12"/>
-      <c r="F472" s="31"/>
-      <c r="G472" s="31"/>
-      <c r="H472" s="32"/>
-      <c r="I472" s="32"/>
-      <c r="J472" s="31"/>
-      <c r="K472" s="32"/>
-      <c r="L472" s="31"/>
-      <c r="M472" s="31"/>
-      <c r="N472" s="32"/>
-      <c r="O472" s="33"/>
-      <c r="P472" s="33"/>
+        <v>705</v>
+      </c>
+      <c r="C472" s="11">
+        <v>1330207</v>
+      </c>
+      <c r="D472" s="12">
+        <v>0</v>
+      </c>
+      <c r="E472" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="F472" s="12">
+        <v>560</v>
+      </c>
+      <c r="G472" s="12">
+        <v>560</v>
+      </c>
+      <c r="H472" s="12">
+        <v>4000</v>
+      </c>
+      <c r="I472" s="12">
+        <v>1700</v>
+      </c>
+      <c r="J472" s="12"/>
+      <c r="K472" s="12"/>
+      <c r="L472" s="12">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="M472" s="12">
+        <v>22</v>
+      </c>
+      <c r="N472" s="12"/>
+      <c r="O472" s="12"/>
+      <c r="P472" s="12"/>
       <c r="Q472" s="13" t="s">
-        <v>712</v>
-      </c>
-      <c r="R472" s="13" t="s">
-        <v>22</v>
-      </c>
+        <v>741</v>
+      </c>
+      <c r="R472" s="13"/>
       <c r="U472" s="1">
         <f>MIN(F471:P471)</f>
-        <v>8.6999999999999993</v>
-      </c>
-    </row>
-    <row r="473" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A473" s="38" t="s">
-        <v>326</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="473" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A473" s="36" t="s">
+        <v>710</v>
       </c>
       <c r="B473" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="C473" s="26">
-        <v>67425</v>
+        <v>710</v>
+      </c>
+      <c r="C473" s="11" t="s">
+        <v>711</v>
       </c>
       <c r="D473" s="12"/>
       <c r="E473" s="12"/>
-      <c r="F473" s="12"/>
-      <c r="G473" s="12"/>
-      <c r="H473" s="12"/>
-      <c r="I473" s="12"/>
-      <c r="J473" s="12"/>
-      <c r="K473" s="12"/>
-      <c r="L473" s="12"/>
-      <c r="M473" s="12">
-        <v>0</v>
-      </c>
-      <c r="N473" s="12"/>
-      <c r="O473" s="12"/>
-      <c r="P473" s="12"/>
-      <c r="Q473" s="14" t="s">
-        <v>218</v>
+      <c r="F473" s="31"/>
+      <c r="G473" s="31"/>
+      <c r="H473" s="32"/>
+      <c r="I473" s="32"/>
+      <c r="J473" s="31"/>
+      <c r="K473" s="32"/>
+      <c r="L473" s="31"/>
+      <c r="M473" s="31"/>
+      <c r="N473" s="32"/>
+      <c r="O473" s="33"/>
+      <c r="P473" s="33"/>
+      <c r="Q473" s="13" t="s">
+        <v>712</v>
       </c>
       <c r="R473" s="13" t="s">
-        <v>817</v>
+        <v>22</v>
       </c>
       <c r="U473" s="1">
-        <f t="shared" ref="U473:U479" si="9">MIN(F473:P473)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="474" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A474" s="25" t="s">
-        <v>330</v>
+        <f>MIN(F472:P472)</f>
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="474" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A474" s="38" t="s">
+        <v>326</v>
       </c>
       <c r="B474" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="C474" s="26" t="s">
-        <v>331</v>
+      <c r="C474" s="26">
+        <v>67425</v>
       </c>
       <c r="D474" s="12"/>
       <c r="E474" s="12"/>
@@ -21709,30 +21719,32 @@
       <c r="J474" s="12"/>
       <c r="K474" s="12"/>
       <c r="L474" s="12"/>
-      <c r="M474" s="12"/>
+      <c r="M474" s="12">
+        <v>0</v>
+      </c>
       <c r="N474" s="12"/>
       <c r="O474" s="12"/>
       <c r="P474" s="12"/>
       <c r="Q474" s="14" t="s">
-        <v>332</v>
+        <v>218</v>
       </c>
       <c r="R474" s="13" t="s">
         <v>817</v>
       </c>
       <c r="U474" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="U474:U480" si="9">MIN(F474:P474)</f>
         <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A475" s="10" t="s">
-        <v>337</v>
+      <c r="A475" s="25" t="s">
+        <v>330</v>
       </c>
       <c r="B475" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="C475" s="11">
-        <v>1589497</v>
+      <c r="C475" s="26" t="s">
+        <v>331</v>
       </c>
       <c r="D475" s="12"/>
       <c r="E475" s="12"/>
@@ -21747,8 +21759,8 @@
       <c r="N475" s="12"/>
       <c r="O475" s="12"/>
       <c r="P475" s="12"/>
-      <c r="Q475" s="13" t="s">
-        <v>89</v>
+      <c r="Q475" s="14" t="s">
+        <v>332</v>
       </c>
       <c r="R475" s="13" t="s">
         <v>817</v>
@@ -21760,13 +21772,13 @@
     </row>
     <row r="476" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A476" s="10" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B476" s="10" t="s">
         <v>327</v>
       </c>
       <c r="C476" s="11">
-        <v>16672392</v>
+        <v>1589497</v>
       </c>
       <c r="D476" s="12"/>
       <c r="E476" s="12"/>
@@ -21793,14 +21805,14 @@
       </c>
     </row>
     <row r="477" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A477" s="25" t="s">
-        <v>341</v>
+      <c r="A477" s="10" t="s">
+        <v>340</v>
       </c>
       <c r="B477" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="C477" s="37">
-        <v>120558</v>
+      <c r="C477" s="11">
+        <v>16672392</v>
       </c>
       <c r="D477" s="12"/>
       <c r="E477" s="12"/>
@@ -21815,7 +21827,7 @@
       <c r="N477" s="12"/>
       <c r="O477" s="12"/>
       <c r="P477" s="12"/>
-      <c r="Q477" s="14" t="s">
+      <c r="Q477" s="13" t="s">
         <v>89</v>
       </c>
       <c r="R477" s="13" t="s">
@@ -21826,15 +21838,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A478" s="38" t="s">
-        <v>733</v>
+    <row r="478" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A478" s="25" t="s">
+        <v>341</v>
       </c>
       <c r="B478" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="C478" s="42" t="s">
-        <v>734</v>
+      <c r="C478" s="37">
+        <v>120558</v>
       </c>
       <c r="D478" s="12"/>
       <c r="E478" s="12"/>
@@ -21850,7 +21862,7 @@
       <c r="O478" s="12"/>
       <c r="P478" s="12"/>
       <c r="Q478" s="14" t="s">
-        <v>735</v>
+        <v>89</v>
       </c>
       <c r="R478" s="13" t="s">
         <v>817</v>
@@ -21861,14 +21873,14 @@
       </c>
     </row>
     <row r="479" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A479" s="10" t="s">
-        <v>362</v>
+      <c r="A479" s="38" t="s">
+        <v>733</v>
       </c>
       <c r="B479" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="C479" s="11" t="s">
-        <v>363</v>
+      <c r="C479" s="42" t="s">
+        <v>734</v>
       </c>
       <c r="D479" s="12"/>
       <c r="E479" s="12"/>
@@ -21883,8 +21895,8 @@
       <c r="N479" s="12"/>
       <c r="O479" s="12"/>
       <c r="P479" s="12"/>
-      <c r="Q479" s="13" t="s">
-        <v>364</v>
+      <c r="Q479" s="14" t="s">
+        <v>735</v>
       </c>
       <c r="R479" s="13" t="s">
         <v>817</v>
@@ -21894,33 +21906,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A480" s="10" t="s">
-        <v>713</v>
-      </c>
-      <c r="B480" s="10"/>
-      <c r="C480" s="11"/>
+        <v>362</v>
+      </c>
+      <c r="B480" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="C480" s="11" t="s">
+        <v>363</v>
+      </c>
       <c r="D480" s="12"/>
       <c r="E480" s="12"/>
-      <c r="F480" s="33"/>
-      <c r="G480" s="33"/>
-      <c r="H480" s="33"/>
-      <c r="I480" s="33"/>
-      <c r="J480" s="33"/>
-      <c r="K480" s="33"/>
-      <c r="L480" s="33"/>
-      <c r="M480" s="33"/>
-      <c r="N480" s="33"/>
-      <c r="O480" s="33"/>
-      <c r="P480" s="33"/>
+      <c r="F480" s="12"/>
+      <c r="G480" s="12"/>
+      <c r="H480" s="12"/>
+      <c r="I480" s="12"/>
+      <c r="J480" s="12"/>
+      <c r="K480" s="12"/>
+      <c r="L480" s="12"/>
+      <c r="M480" s="12"/>
+      <c r="N480" s="12"/>
+      <c r="O480" s="12"/>
+      <c r="P480" s="12"/>
       <c r="Q480" s="13" t="s">
-        <v>609</v>
-      </c>
-      <c r="R480" s="13"/>
+        <v>364</v>
+      </c>
+      <c r="R480" s="13" t="s">
+        <v>817</v>
+      </c>
+      <c r="U480" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="481" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A481" s="10" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B481" s="10"/>
       <c r="C481" s="11"/>
@@ -21944,7 +21966,7 @@
     </row>
     <row r="482" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A482" s="10" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B482" s="10"/>
       <c r="C482" s="11"/>
@@ -21968,7 +21990,7 @@
     </row>
     <row r="483" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A483" s="10" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B483" s="10"/>
       <c r="C483" s="11"/>
@@ -21992,7 +22014,7 @@
     </row>
     <row r="484" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A484" s="10" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B484" s="10"/>
       <c r="C484" s="11"/>
@@ -22016,7 +22038,7 @@
     </row>
     <row r="485" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A485" s="10" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B485" s="10"/>
       <c r="C485" s="11"/>
@@ -22040,7 +22062,7 @@
     </row>
     <row r="486" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A486" s="10" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B486" s="10"/>
       <c r="C486" s="11"/>
@@ -22064,7 +22086,7 @@
     </row>
     <row r="487" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A487" s="10" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B487" s="10"/>
       <c r="C487" s="11"/>
@@ -22088,7 +22110,7 @@
     </row>
     <row r="488" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A488" s="10" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B488" s="10"/>
       <c r="C488" s="11"/>
@@ -22112,7 +22134,7 @@
     </row>
     <row r="489" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A489" s="10" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B489" s="10"/>
       <c r="C489" s="11"/>
@@ -22136,7 +22158,7 @@
     </row>
     <row r="490" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A490" s="10" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B490" s="10"/>
       <c r="C490" s="11"/>
@@ -22160,7 +22182,7 @@
     </row>
     <row r="491" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A491" s="10" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B491" s="10"/>
       <c r="C491" s="11"/>
@@ -22184,7 +22206,7 @@
     </row>
     <row r="492" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A492" s="10" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B492" s="10"/>
       <c r="C492" s="11"/>
@@ -22208,7 +22230,7 @@
     </row>
     <row r="493" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A493" s="10" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B493" s="10"/>
       <c r="C493" s="11"/>
@@ -22232,7 +22254,7 @@
     </row>
     <row r="494" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A494" s="10" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B494" s="10"/>
       <c r="C494" s="11"/>
@@ -22256,7 +22278,7 @@
     </row>
     <row r="495" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A495" s="10" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B495" s="10"/>
       <c r="C495" s="11"/>
@@ -22274,13 +22296,13 @@
       <c r="O495" s="33"/>
       <c r="P495" s="33"/>
       <c r="Q495" s="13" t="s">
-        <v>514</v>
+        <v>609</v>
       </c>
       <c r="R495" s="13"/>
     </row>
     <row r="496" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A496" s="10" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B496" s="10"/>
       <c r="C496" s="11"/>
@@ -22298,13 +22320,13 @@
       <c r="O496" s="33"/>
       <c r="P496" s="33"/>
       <c r="Q496" s="13" t="s">
-        <v>730</v>
+        <v>514</v>
       </c>
       <c r="R496" s="13"/>
     </row>
     <row r="497" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A497" s="10" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B497" s="10"/>
       <c r="C497" s="11"/>
@@ -22322,19 +22344,43 @@
       <c r="O497" s="33"/>
       <c r="P497" s="33"/>
       <c r="Q497" s="13" t="s">
+        <v>730</v>
+      </c>
+      <c r="R497" s="13"/>
+    </row>
+    <row r="498" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A498" s="10" t="s">
+        <v>731</v>
+      </c>
+      <c r="B498" s="10"/>
+      <c r="C498" s="11"/>
+      <c r="D498" s="12"/>
+      <c r="E498" s="12"/>
+      <c r="F498" s="33"/>
+      <c r="G498" s="33"/>
+      <c r="H498" s="33"/>
+      <c r="I498" s="33"/>
+      <c r="J498" s="33"/>
+      <c r="K498" s="33"/>
+      <c r="L498" s="33"/>
+      <c r="M498" s="33"/>
+      <c r="N498" s="33"/>
+      <c r="O498" s="33"/>
+      <c r="P498" s="33"/>
+      <c r="Q498" s="13" t="s">
         <v>732</v>
       </c>
-      <c r="R497" s="13"/>
-    </row>
-    <row r="498" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="Q498" s="34"/>
+      <c r="R498" s="13"/>
+    </row>
+    <row r="499" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q499" s="34"/>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>
   <pageMargins left="0.17" right="0.17" top="0.47" bottom="0.57999999999999996" header="0" footer="0"/>
   <pageSetup paperSize="5" scale="59" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;L&amp;F&amp;C&amp;P&amp;RMay 31, 2018</oddFooter>
+    <oddFooter>&amp;L&amp;F&amp;C&amp;P&amp;RDecember 19, 2018</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/resources/Dose_Response_Library.xlsx
+++ b/resources/Dose_Response_Library.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://scaainc-my.sharepoint.com/personal/jmozier_scainc_com/Documents/Projects/RIS-409 to 104 RTR  NATA (2013-2017)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris Stolte\IdeaProjects\HEM4\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CFFCE8C-70D8-4F08-A766-9B1C23AC6A59}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE32B69-345D-4F5C-9ACB-418F81B927D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17985" windowHeight="4110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="528" yWindow="792" windowWidth="22380" windowHeight="11424" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dose Response Value Library" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -3712,35 +3714,35 @@
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A328" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G349" sqref="G349"/>
+      <selection pane="bottomLeft" activeCell="A334" sqref="A334:XFD334"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="33.44140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="30.44140625" style="7" customWidth="1"/>
     <col min="3" max="3" width="14" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" style="8" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="8" customWidth="1"/>
-    <col min="10" max="11" width="9.7109375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" style="8" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" style="8" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" style="8" customWidth="1"/>
+    <col min="10" max="11" width="9.6640625" style="8" customWidth="1"/>
     <col min="12" max="12" width="10" style="8" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" style="8" customWidth="1"/>
-    <col min="14" max="15" width="9.28515625" style="8" customWidth="1"/>
+    <col min="13" max="13" width="9.44140625" style="8" customWidth="1"/>
+    <col min="14" max="15" width="9.33203125" style="8" customWidth="1"/>
     <col min="16" max="16" width="11" style="8" customWidth="1"/>
     <col min="17" max="17" width="24" style="9" customWidth="1"/>
-    <col min="18" max="18" width="34.7109375" style="9" customWidth="1"/>
-    <col min="19" max="19" width="10.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="34.6640625" style="9" customWidth="1"/>
+    <col min="19" max="19" width="10.88671875" style="1" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="7" style="1" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="9.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="9.109375" style="1" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="13" style="9" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="23" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="4" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" s="4" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3805,7 +3807,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>21</v>
       </c>
@@ -3859,7 +3861,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>23</v>
       </c>
@@ -3893,7 +3895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>25</v>
       </c>
@@ -3927,7 +3929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>26</v>
       </c>
@@ -3967,7 +3969,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>27</v>
       </c>
@@ -4001,7 +4003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>29</v>
       </c>
@@ -4036,7 +4038,7 @@
       </c>
       <c r="X7" s="3"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>30</v>
       </c>
@@ -4071,7 +4073,7 @@
       </c>
       <c r="X8" s="3"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>31</v>
       </c>
@@ -4106,7 +4108,7 @@
       </c>
       <c r="X9" s="3"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>32</v>
       </c>
@@ -4140,7 +4142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>33</v>
       </c>
@@ -4174,7 +4176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>35</v>
       </c>
@@ -4208,7 +4210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>36</v>
       </c>
@@ -4252,7 +4254,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>37</v>
       </c>
@@ -4292,7 +4294,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>38</v>
       </c>
@@ -4342,7 +4344,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>39</v>
       </c>
@@ -4376,7 +4378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>40</v>
       </c>
@@ -4410,7 +4412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>41</v>
       </c>
@@ -4446,7 +4448,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>43</v>
       </c>
@@ -4480,7 +4482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>45</v>
       </c>
@@ -4530,7 +4532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
         <v>47</v>
       </c>
@@ -4562,7 +4564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>49</v>
       </c>
@@ -4596,7 +4598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>50</v>
       </c>
@@ -4630,7 +4632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>51</v>
       </c>
@@ -4664,7 +4666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>53</v>
       </c>
@@ -4698,7 +4700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>54</v>
       </c>
@@ -4732,7 +4734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>55</v>
       </c>
@@ -4766,7 +4768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>57</v>
       </c>
@@ -4800,7 +4802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>58</v>
       </c>
@@ -4852,7 +4854,7 @@
         <v>7.1000000000000005E-5</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>59</v>
       </c>
@@ -4906,7 +4908,7 @@
         <v>7.1000000000000005E-5</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>60</v>
       </c>
@@ -4938,7 +4940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>61</v>
       </c>
@@ -4972,7 +4974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>62</v>
       </c>
@@ -5006,7 +5008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>63</v>
       </c>
@@ -5040,7 +5042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>64</v>
       </c>
@@ -5074,7 +5076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>65</v>
       </c>
@@ -5108,7 +5110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>66</v>
       </c>
@@ -5142,7 +5144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>67</v>
       </c>
@@ -5182,7 +5184,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>69</v>
       </c>
@@ -5216,7 +5218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="25" t="s">
         <v>71</v>
       </c>
@@ -5248,7 +5250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="25" t="s">
         <v>72</v>
       </c>
@@ -5280,7 +5282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>73</v>
       </c>
@@ -5314,7 +5316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>74</v>
       </c>
@@ -5366,7 +5368,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>75</v>
       </c>
@@ -5400,7 +5402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>76</v>
       </c>
@@ -5444,7 +5446,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>77</v>
       </c>
@@ -5478,7 +5480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A47" s="52" t="s">
         <v>78</v>
       </c>
@@ -5532,7 +5534,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>79</v>
       </c>
@@ -5568,7 +5570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>81</v>
       </c>
@@ -5620,7 +5622,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="50" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
         <v>82</v>
       </c>
@@ -5668,7 +5670,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="51" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
         <v>83</v>
       </c>
@@ -5716,7 +5718,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>84</v>
       </c>
@@ -5760,7 +5762,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
         <v>85</v>
       </c>
@@ -5796,7 +5798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
         <v>87</v>
       </c>
@@ -5834,7 +5836,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
         <v>88</v>
       </c>
@@ -5872,7 +5874,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
         <v>90</v>
       </c>
@@ -5910,7 +5912,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
         <v>93</v>
       </c>
@@ -5948,7 +5950,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
         <v>94</v>
       </c>
@@ -5986,7 +5988,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
         <v>95</v>
       </c>
@@ -6024,7 +6026,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
         <v>96</v>
       </c>
@@ -6068,7 +6070,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
         <v>98</v>
       </c>
@@ -6106,7 +6108,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
         <v>99</v>
       </c>
@@ -6146,7 +6148,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="63" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A63" s="25" t="s">
         <v>102</v>
       </c>
@@ -6186,7 +6188,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A64" s="25" t="s">
         <v>104</v>
       </c>
@@ -6226,7 +6228,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="65" spans="1:22" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:22" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="35" t="s">
         <v>106</v>
       </c>
@@ -6265,7 +6267,7 @@
       </c>
       <c r="V65" s="45"/>
     </row>
-    <row r="66" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:22" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
         <v>109</v>
       </c>
@@ -6305,7 +6307,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:22" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:22" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
         <v>112</v>
       </c>
@@ -6349,7 +6351,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="68" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:22" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
         <v>113</v>
       </c>
@@ -6393,7 +6395,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="69" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
         <v>115</v>
       </c>
@@ -6445,7 +6447,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:22" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
         <v>116</v>
       </c>
@@ -6481,7 +6483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:22" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
         <v>118</v>
       </c>
@@ -6515,7 +6517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
         <v>119</v>
       </c>
@@ -6555,7 +6557,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="73" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:22" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
         <v>120</v>
       </c>
@@ -6593,7 +6595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
         <v>121</v>
       </c>
@@ -6629,7 +6631,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:22" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
         <v>124</v>
       </c>
@@ -6667,7 +6669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:22" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
         <v>126</v>
       </c>
@@ -6705,7 +6707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:22" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
         <v>128</v>
       </c>
@@ -6743,7 +6745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
         <v>132</v>
       </c>
@@ -6775,7 +6777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:22" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
         <v>133</v>
       </c>
@@ -6815,7 +6817,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A80" s="10" t="s">
         <v>134</v>
       </c>
@@ -6849,7 +6851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
         <v>135</v>
       </c>
@@ -6891,7 +6893,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82" s="10" t="s">
         <v>136</v>
       </c>
@@ -6925,7 +6927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83" s="25" t="s">
         <v>137</v>
       </c>
@@ -6963,7 +6965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A84" s="10" t="s">
         <v>138</v>
       </c>
@@ -7011,7 +7013,7 @@
         <v>3.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
         <v>140</v>
       </c>
@@ -7043,7 +7045,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86" s="10" t="s">
         <v>142</v>
       </c>
@@ -7081,7 +7083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87" s="25" t="s">
         <v>143</v>
       </c>
@@ -7119,7 +7121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A88" s="25" t="s">
         <v>144</v>
       </c>
@@ -7157,7 +7159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A89" s="10" t="s">
         <v>146</v>
       </c>
@@ -7191,7 +7193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90" s="10" t="s">
         <v>147</v>
       </c>
@@ -7225,7 +7227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
         <v>148</v>
       </c>
@@ -7277,7 +7279,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="92" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A92" s="10" t="s">
         <v>149</v>
       </c>
@@ -7325,7 +7327,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="93" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A93" s="25" t="s">
         <v>150</v>
       </c>
@@ -7365,7 +7367,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94" s="25" t="s">
         <v>153</v>
       </c>
@@ -7397,7 +7399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
         <v>154</v>
       </c>
@@ -7431,7 +7433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A96" s="10" t="s">
         <v>155</v>
       </c>
@@ -7465,7 +7467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A97" s="10" t="s">
         <v>156</v>
       </c>
@@ -7519,7 +7521,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A98" s="10" t="s">
         <v>157</v>
       </c>
@@ -7559,7 +7561,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A99" s="10" t="s">
         <v>158</v>
       </c>
@@ -7603,7 +7605,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A100" s="10" t="s">
         <v>159</v>
       </c>
@@ -7637,7 +7639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A101" s="10" t="s">
         <v>160</v>
       </c>
@@ -7685,7 +7687,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="102" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A102" s="10" t="s">
         <v>162</v>
       </c>
@@ -7729,7 +7731,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="103" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A103" s="10" t="s">
         <v>163</v>
       </c>
@@ -7767,7 +7769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A104" s="25" t="s">
         <v>166</v>
       </c>
@@ -7805,7 +7807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A105" s="25" t="s">
         <v>169</v>
       </c>
@@ -7843,7 +7845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A106" s="25" t="s">
         <v>170</v>
       </c>
@@ -7881,7 +7883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A107" s="38" t="s">
         <v>172</v>
       </c>
@@ -7919,7 +7921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A108" s="38" t="s">
         <v>173</v>
       </c>
@@ -7957,7 +7959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
         <v>176</v>
       </c>
@@ -7991,7 +7993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A110" s="10" t="s">
         <v>178</v>
       </c>
@@ -8025,7 +8027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
         <v>179</v>
       </c>
@@ -8063,7 +8065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="s">
         <v>180</v>
       </c>
@@ -8097,7 +8099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A113" s="25" t="s">
         <v>181</v>
       </c>
@@ -8135,7 +8137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A114" s="38" t="s">
         <v>183</v>
       </c>
@@ -8173,7 +8175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A115" s="10" t="s">
         <v>184</v>
       </c>
@@ -8207,7 +8209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A116" s="10" t="s">
         <v>185</v>
       </c>
@@ -8243,7 +8245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A117" s="10" t="s">
         <v>187</v>
       </c>
@@ -8277,7 +8279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A118" s="10" t="s">
         <v>167</v>
       </c>
@@ -8313,7 +8315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A119" s="10" t="s">
         <v>189</v>
       </c>
@@ -8351,7 +8353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A120" s="10" t="s">
         <v>190</v>
       </c>
@@ -8383,7 +8385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A121" s="10" t="s">
         <v>191</v>
       </c>
@@ -8421,7 +8423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A122" s="10" t="s">
         <v>192</v>
       </c>
@@ -8459,7 +8461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A123" s="25" t="s">
         <v>193</v>
       </c>
@@ -8497,7 +8499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A124" s="25" t="s">
         <v>194</v>
       </c>
@@ -8535,7 +8537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A125" s="25" t="s">
         <v>195</v>
       </c>
@@ -8573,7 +8575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A126" s="38" t="s">
         <v>196</v>
       </c>
@@ -8611,7 +8613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A127" s="38" t="s">
         <v>197</v>
       </c>
@@ -8645,7 +8647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A128" s="25" t="s">
         <v>198</v>
       </c>
@@ -8683,7 +8685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A129" s="10" t="s">
         <v>199</v>
       </c>
@@ -8719,7 +8721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A130" s="10" t="s">
         <v>202</v>
       </c>
@@ -8755,7 +8757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A131" s="10" t="s">
         <v>204</v>
       </c>
@@ -8791,7 +8793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A132" s="10" t="s">
         <v>206</v>
       </c>
@@ -8827,7 +8829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A133" s="10" t="s">
         <v>208</v>
       </c>
@@ -8863,7 +8865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A134" s="10" t="s">
         <v>200</v>
       </c>
@@ -8897,7 +8899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A135" s="10" t="s">
         <v>210</v>
       </c>
@@ -8935,7 +8937,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A136" s="10" t="s">
         <v>213</v>
       </c>
@@ -8971,7 +8973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A137" s="10" t="s">
         <v>214</v>
       </c>
@@ -9007,7 +9009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A138" s="10" t="s">
         <v>216</v>
       </c>
@@ -9043,7 +9045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A139" s="10" t="s">
         <v>217</v>
       </c>
@@ -9079,7 +9081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="10" t="s">
         <v>219</v>
       </c>
@@ -9115,7 +9117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A141" s="10" t="s">
         <v>220</v>
       </c>
@@ -9151,7 +9153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:21" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:21" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="10" t="s">
         <v>552</v>
       </c>
@@ -9185,7 +9187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A143" s="10" t="s">
         <v>223</v>
       </c>
@@ -9221,7 +9223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A144" s="10" t="s">
         <v>225</v>
       </c>
@@ -9257,7 +9259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A145" s="10" t="s">
         <v>226</v>
       </c>
@@ -9291,7 +9293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A146" s="10" t="s">
         <v>228</v>
       </c>
@@ -9327,7 +9329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A147" s="10" t="s">
         <v>230</v>
       </c>
@@ -9363,7 +9365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A148" s="10" t="s">
         <v>231</v>
       </c>
@@ -9399,7 +9401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A149" s="10" t="s">
         <v>232</v>
       </c>
@@ -9443,7 +9445,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A150" s="10" t="s">
         <v>233</v>
       </c>
@@ -9487,7 +9489,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="151" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A151" s="25" t="s">
         <v>235</v>
       </c>
@@ -9523,7 +9525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A152" s="10" t="s">
         <v>239</v>
       </c>
@@ -9559,7 +9561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A153" s="10" t="s">
         <v>242</v>
       </c>
@@ -9605,7 +9607,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="154" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A154" s="10" t="s">
         <v>244</v>
       </c>
@@ -9643,7 +9645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A155" s="10" t="s">
         <v>245</v>
       </c>
@@ -9679,7 +9681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A156" s="10" t="s">
         <v>248</v>
       </c>
@@ -9709,7 +9711,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A157" s="10" t="s">
         <v>234</v>
       </c>
@@ -9747,7 +9749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A158" s="10" t="s">
         <v>250</v>
       </c>
@@ -9791,7 +9793,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="159" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A159" s="10" t="s">
         <v>251</v>
       </c>
@@ -9829,7 +9831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A160" s="10" t="s">
         <v>252</v>
       </c>
@@ -9869,7 +9871,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="161" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A161" s="10" t="s">
         <v>253</v>
       </c>
@@ -9905,7 +9907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A162" s="10" t="s">
         <v>255</v>
       </c>
@@ -9941,7 +9943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A163" s="10" t="s">
         <v>257</v>
       </c>
@@ -9977,7 +9979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A164" s="10" t="s">
         <v>259</v>
       </c>
@@ -10015,7 +10017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A165" s="10" t="s">
         <v>260</v>
       </c>
@@ -10065,7 +10067,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="166" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:21" ht="66" x14ac:dyDescent="0.25">
       <c r="A166" s="25" t="s">
         <v>261</v>
       </c>
@@ -10109,7 +10111,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="167" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A167" s="10" t="s">
         <v>262</v>
       </c>
@@ -10155,7 +10157,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="168" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A168" s="10" t="s">
         <v>263</v>
       </c>
@@ -10191,7 +10193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A169" s="10" t="s">
         <v>264</v>
       </c>
@@ -10227,7 +10229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A170" s="10" t="s">
         <v>266</v>
       </c>
@@ -10265,7 +10267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:21" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:21" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="10" t="s">
         <v>267</v>
       </c>
@@ -10311,7 +10313,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A172" s="10" t="s">
         <v>268</v>
       </c>
@@ -10349,7 +10351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A173" s="10" t="s">
         <v>270</v>
       </c>
@@ -10387,7 +10389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A174" s="10" t="s">
         <v>271</v>
       </c>
@@ -10425,7 +10427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A175" s="10" t="s">
         <v>272</v>
       </c>
@@ -10461,7 +10463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A176" s="10" t="s">
         <v>274</v>
       </c>
@@ -10493,7 +10495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A177" s="10" t="s">
         <v>276</v>
       </c>
@@ -10527,7 +10529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A178" s="10" t="s">
         <v>277</v>
       </c>
@@ -10561,7 +10563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A179" s="10" t="s">
         <v>278</v>
       </c>
@@ -10595,7 +10597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A180" s="10" t="s">
         <v>279</v>
       </c>
@@ -10641,7 +10643,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A181" s="10" t="s">
         <v>280</v>
       </c>
@@ -10675,7 +10677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A182" s="10" t="s">
         <v>282</v>
       </c>
@@ -10709,7 +10711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A183" s="25" t="s">
         <v>283</v>
       </c>
@@ -10741,7 +10743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A184" s="10" t="s">
         <v>285</v>
       </c>
@@ -10787,7 +10789,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A185" s="10" t="s">
         <v>286</v>
       </c>
@@ -10821,7 +10823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A186" s="10" t="s">
         <v>287</v>
       </c>
@@ -10865,7 +10867,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A187" s="25" t="s">
         <v>288</v>
       </c>
@@ -10897,7 +10899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A188" s="10" t="s">
         <v>839</v>
       </c>
@@ -10941,7 +10943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A189" s="10" t="s">
         <v>840</v>
       </c>
@@ -10985,7 +10987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A190" s="10" t="s">
         <v>291</v>
       </c>
@@ -11027,7 +11029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A191" s="10" t="s">
         <v>292</v>
       </c>
@@ -11069,7 +11071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A192" s="10" t="s">
         <v>293</v>
       </c>
@@ -11111,7 +11113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A193" s="10" t="s">
         <v>294</v>
       </c>
@@ -11153,7 +11155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A194" s="10" t="s">
         <v>295</v>
       </c>
@@ -11195,7 +11197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A195" s="10" t="s">
         <v>296</v>
       </c>
@@ -11237,7 +11239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A196" s="10" t="s">
         <v>297</v>
       </c>
@@ -11279,7 +11281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A197" s="10" t="s">
         <v>298</v>
       </c>
@@ -11321,7 +11323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A198" s="10" t="s">
         <v>299</v>
       </c>
@@ -11363,7 +11365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A199" s="10" t="s">
         <v>300</v>
       </c>
@@ -11405,7 +11407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A200" s="10" t="s">
         <v>301</v>
       </c>
@@ -11449,7 +11451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A201" s="10" t="s">
         <v>302</v>
       </c>
@@ -11491,7 +11493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A202" s="10" t="s">
         <v>303</v>
       </c>
@@ -11535,7 +11537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A203" s="10" t="s">
         <v>304</v>
       </c>
@@ -11577,7 +11579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A204" s="10" t="s">
         <v>305</v>
       </c>
@@ -11619,7 +11621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A205" s="10" t="s">
         <v>306</v>
       </c>
@@ -11663,7 +11665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A206" s="10" t="s">
         <v>309</v>
       </c>
@@ -11695,7 +11697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A207" s="10" t="s">
         <v>310</v>
       </c>
@@ -11747,7 +11749,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="208" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A208" s="10" t="s">
         <v>311</v>
       </c>
@@ -11795,7 +11797,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A209" s="10" t="s">
         <v>312</v>
       </c>
@@ -11840,7 +11842,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="210" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A210" s="10" t="s">
         <v>313</v>
       </c>
@@ -11876,7 +11878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A211" s="10" t="s">
         <v>315</v>
       </c>
@@ -11912,7 +11914,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="212" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A212" s="10" t="s">
         <v>316</v>
       </c>
@@ -11956,7 +11958,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="213" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A213" s="10" t="s">
         <v>317</v>
       </c>
@@ -11994,7 +11996,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="214" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A214" s="10" t="s">
         <v>318</v>
       </c>
@@ -12030,7 +12032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A215" s="10" t="s">
         <v>319</v>
       </c>
@@ -12070,7 +12072,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="216" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A216" s="10" t="s">
         <v>320</v>
       </c>
@@ -12114,7 +12116,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="217" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A217" s="10" t="s">
         <v>321</v>
       </c>
@@ -12148,7 +12150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A218" s="10" t="s">
         <v>322</v>
       </c>
@@ -12184,7 +12186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A219" s="10" t="s">
         <v>324</v>
       </c>
@@ -12238,7 +12240,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A220" s="25" t="s">
         <v>329</v>
       </c>
@@ -12278,7 +12280,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="221" spans="1:21" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:21" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="25" t="s">
         <v>334</v>
       </c>
@@ -12318,7 +12320,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="222" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A222" s="25" t="s">
         <v>333</v>
       </c>
@@ -12358,7 +12360,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:21" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:21" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="25" t="s">
         <v>335</v>
       </c>
@@ -12396,7 +12398,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="224" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A224" s="25" t="s">
         <v>338</v>
       </c>
@@ -12436,7 +12438,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="225" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A225" s="10" t="s">
         <v>339</v>
       </c>
@@ -12472,7 +12474,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A226" s="25" t="s">
         <v>342</v>
       </c>
@@ -12510,7 +12512,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="227" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A227" s="25" t="s">
         <v>343</v>
       </c>
@@ -12550,7 +12552,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A228" s="25" t="s">
         <v>344</v>
       </c>
@@ -12588,7 +12590,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="229" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A229" s="10" t="s">
         <v>345</v>
       </c>
@@ -12626,7 +12628,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="230" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A230" s="10" t="s">
         <v>347</v>
       </c>
@@ -12666,7 +12668,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A231" s="25" t="s">
         <v>349</v>
       </c>
@@ -12706,7 +12708,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A232" s="38" t="s">
         <v>350</v>
       </c>
@@ -12744,7 +12746,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A233" s="10" t="s">
         <v>353</v>
       </c>
@@ -12782,7 +12784,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A234" s="10" t="s">
         <v>354</v>
       </c>
@@ -12820,7 +12822,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="235" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A235" s="10" t="s">
         <v>356</v>
       </c>
@@ -12858,7 +12860,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="236" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A236" s="10" t="s">
         <v>358</v>
       </c>
@@ -12894,7 +12896,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="237" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A237" s="10" t="s">
         <v>359</v>
       </c>
@@ -12932,7 +12934,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A238" s="10" t="s">
         <v>361</v>
       </c>
@@ -12972,7 +12974,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="239" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A239" s="38" t="s">
         <v>365</v>
       </c>
@@ -13012,7 +13014,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="240" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A240" s="25" t="s">
         <v>366</v>
       </c>
@@ -13052,7 +13054,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="241" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A241" s="25" t="s">
         <v>367</v>
       </c>
@@ -13090,7 +13092,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="242" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A242" s="25" t="s">
         <v>370</v>
       </c>
@@ -13130,7 +13132,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A243" s="25" t="s">
         <v>371</v>
       </c>
@@ -13170,7 +13172,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="244" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A244" s="25" t="s">
         <v>372</v>
       </c>
@@ -13210,7 +13212,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="245" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A245" s="25" t="s">
         <v>373</v>
       </c>
@@ -13244,7 +13246,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="246" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="25" t="s">
         <v>796</v>
       </c>
@@ -13278,7 +13280,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="247" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A247" s="10" t="s">
         <v>374</v>
       </c>
@@ -13316,7 +13318,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="248" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A248" s="10" t="s">
         <v>375</v>
       </c>
@@ -13350,7 +13352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A249" s="10" t="s">
         <v>376</v>
       </c>
@@ -13384,7 +13386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A250" s="10" t="s">
         <v>377</v>
       </c>
@@ -13422,7 +13424,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="251" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A251" s="10" t="s">
         <v>378</v>
       </c>
@@ -13456,7 +13458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A252" s="10" t="s">
         <v>379</v>
       </c>
@@ -13492,7 +13494,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="253" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A253" s="10" t="s">
         <v>381</v>
       </c>
@@ -13526,7 +13528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A254" s="10" t="s">
         <v>382</v>
       </c>
@@ -13558,7 +13560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A255" s="10" t="s">
         <v>383</v>
       </c>
@@ -13600,7 +13602,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="256" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A256" s="10" t="s">
         <v>385</v>
       </c>
@@ -13650,7 +13652,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="257" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A257" s="10" t="s">
         <v>386</v>
       </c>
@@ -13702,7 +13704,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="258" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A258" s="10" t="s">
         <v>387</v>
       </c>
@@ -13756,7 +13758,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="259" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A259" s="10" t="s">
         <v>388</v>
       </c>
@@ -13790,7 +13792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A260" s="10" t="s">
         <v>389</v>
       </c>
@@ -13824,7 +13826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A261" s="25" t="s">
         <v>390</v>
       </c>
@@ -13860,7 +13862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A262" s="25" t="s">
         <v>393</v>
       </c>
@@ -13896,7 +13898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A263" s="25" t="s">
         <v>395</v>
       </c>
@@ -13934,7 +13936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A264" s="25" t="s">
         <v>396</v>
       </c>
@@ -13972,7 +13974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A265" s="38" t="s">
         <v>397</v>
       </c>
@@ -14010,7 +14012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A266" s="38" t="s">
         <v>398</v>
       </c>
@@ -14046,7 +14048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A267" s="10" t="s">
         <v>391</v>
       </c>
@@ -14080,7 +14082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A268" s="10" t="s">
         <v>400</v>
       </c>
@@ -14116,7 +14118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A269" s="25" t="s">
         <v>402</v>
       </c>
@@ -14154,7 +14156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A270" s="25" t="s">
         <v>403</v>
       </c>
@@ -14190,7 +14192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A271" s="25" t="s">
         <v>404</v>
       </c>
@@ -14226,7 +14228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A272" s="25" t="s">
         <v>405</v>
       </c>
@@ -14262,7 +14264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A273" s="10" t="s">
         <v>406</v>
       </c>
@@ -14298,7 +14300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A274" s="10" t="s">
         <v>407</v>
       </c>
@@ -14334,7 +14336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A275" s="10" t="s">
         <v>408</v>
       </c>
@@ -14374,7 +14376,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="276" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A276" s="10" t="s">
         <v>409</v>
       </c>
@@ -14410,7 +14412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A277" s="10" t="s">
         <v>410</v>
       </c>
@@ -14446,7 +14448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A278" s="25" t="s">
         <v>413</v>
       </c>
@@ -14484,7 +14486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A279" s="25" t="s">
         <v>415</v>
       </c>
@@ -14520,7 +14522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A280" s="25" t="s">
         <v>416</v>
       </c>
@@ -14556,7 +14558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A281" s="25" t="s">
         <v>418</v>
       </c>
@@ -14594,7 +14596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A282" s="25" t="s">
         <v>419</v>
       </c>
@@ -14630,7 +14632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A283" s="25" t="s">
         <v>420</v>
       </c>
@@ -14666,7 +14668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A284" s="25" t="s">
         <v>421</v>
       </c>
@@ -14704,7 +14706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A285" s="10" t="s">
         <v>423</v>
       </c>
@@ -14740,7 +14742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A286" s="10" t="s">
         <v>426</v>
       </c>
@@ -14776,7 +14778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A287" s="10" t="s">
         <v>428</v>
       </c>
@@ -14812,7 +14814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A288" s="10" t="s">
         <v>429</v>
       </c>
@@ -14848,7 +14850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:22" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A289" s="10" t="s">
         <v>431</v>
       </c>
@@ -14884,7 +14886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:22" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A290" s="10" t="s">
         <v>433</v>
       </c>
@@ -14928,7 +14930,7 @@
         <v>5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="291" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:22" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A291" s="10" t="s">
         <v>434</v>
       </c>
@@ -14964,7 +14966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:22" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A292" s="10" t="s">
         <v>424</v>
       </c>
@@ -15000,7 +15002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:22" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A293" s="10" t="s">
         <v>436</v>
       </c>
@@ -15036,7 +15038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:22" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A294" s="10" t="s">
         <v>438</v>
       </c>
@@ -15072,7 +15074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:22" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A295" s="10" t="s">
         <v>439</v>
       </c>
@@ -15108,7 +15110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:22" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A296" s="10" t="s">
         <v>441</v>
       </c>
@@ -15144,7 +15146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:22" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A297" s="10" t="s">
         <v>442</v>
       </c>
@@ -15180,7 +15182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:22" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A298" s="10" t="s">
         <v>443</v>
       </c>
@@ -15232,7 +15234,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="299" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A299" s="10" t="s">
         <v>445</v>
       </c>
@@ -15264,7 +15266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:22" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A300" s="10" t="s">
         <v>446</v>
       </c>
@@ -15312,7 +15314,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="301" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:22" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A301" s="10" t="s">
         <v>447</v>
       </c>
@@ -15361,7 +15363,7 @@
       </c>
       <c r="V301" s="46"/>
     </row>
-    <row r="302" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A302" s="10" t="s">
         <v>448</v>
       </c>
@@ -15403,7 +15405,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="303" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:22" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A303" s="10" t="s">
         <v>449</v>
       </c>
@@ -15453,7 +15455,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="304" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A304" s="10" t="s">
         <v>450</v>
       </c>
@@ -15489,7 +15491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A305" s="10" t="s">
         <v>452</v>
       </c>
@@ -15535,7 +15537,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="306" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A306" s="10" t="s">
         <v>453</v>
       </c>
@@ -15579,7 +15581,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="307" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A307" s="10" t="s">
         <v>454</v>
       </c>
@@ -15631,7 +15633,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="308" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A308" s="10" t="s">
         <v>455</v>
       </c>
@@ -15683,7 +15685,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="309" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A309" s="10" t="s">
         <v>457</v>
       </c>
@@ -15717,7 +15719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A310" s="10" t="s">
         <v>458</v>
       </c>
@@ -15751,7 +15753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:21" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:21" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A311" s="25" t="s">
         <v>459</v>
       </c>
@@ -15789,7 +15791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:21" ht="66" x14ac:dyDescent="0.25">
       <c r="A312" s="25" t="s">
         <v>462</v>
       </c>
@@ -15827,7 +15829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:21" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A313" s="10" t="s">
         <v>464</v>
       </c>
@@ -15869,7 +15871,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="314" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:21" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A314" s="10" t="s">
         <v>466</v>
       </c>
@@ -15907,7 +15909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:21" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:21" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="10" t="s">
         <v>460</v>
       </c>
@@ -15943,7 +15945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:21" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A316" s="10" t="s">
         <v>468</v>
       </c>
@@ -15981,7 +15983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:21" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A317" s="10" t="s">
         <v>469</v>
       </c>
@@ -16017,7 +16019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="10" t="s">
         <v>471</v>
       </c>
@@ -16051,7 +16053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A319" s="10" t="s">
         <v>474</v>
       </c>
@@ -16087,7 +16089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:21" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A320" s="10" t="s">
         <v>476</v>
       </c>
@@ -16125,7 +16127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:21" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A321" s="10" t="s">
         <v>478</v>
       </c>
@@ -16163,7 +16165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A322" s="10" t="s">
         <v>480</v>
       </c>
@@ -16199,7 +16201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A323" s="10" t="s">
         <v>482</v>
       </c>
@@ -16235,7 +16237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A324" s="10" t="s">
         <v>484</v>
       </c>
@@ -16269,7 +16271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A325" s="10" t="s">
         <v>485</v>
       </c>
@@ -16301,7 +16303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A326" s="10" t="s">
         <v>488</v>
       </c>
@@ -16335,7 +16337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A327" s="10" t="s">
         <v>489</v>
       </c>
@@ -16375,7 +16377,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="328" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A328" s="10" t="s">
         <v>490</v>
       </c>
@@ -16411,7 +16413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A329" s="10" t="s">
         <v>492</v>
       </c>
@@ -16445,7 +16447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A330" s="10" t="s">
         <v>493</v>
       </c>
@@ -16497,7 +16499,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="331" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A331" s="10" t="s">
         <v>494</v>
       </c>
@@ -16543,7 +16545,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="332" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A332" s="10" t="s">
         <v>495</v>
       </c>
@@ -16587,7 +16589,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="333" spans="1:21" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:21" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="10" t="s">
         <v>496</v>
       </c>
@@ -16631,7 +16633,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="334" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A334" s="10" t="s">
         <v>498</v>
       </c>
@@ -16665,7 +16667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A335" s="10" t="s">
         <v>499</v>
       </c>
@@ -16697,7 +16699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A336" s="10" t="s">
         <v>501</v>
       </c>
@@ -16733,7 +16735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A337" s="10" t="s">
         <v>503</v>
       </c>
@@ -16769,7 +16771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A338" s="10" t="s">
         <v>505</v>
       </c>
@@ -16805,7 +16807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A339" s="10" t="s">
         <v>507</v>
       </c>
@@ -16841,7 +16843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A340" s="10" t="s">
         <v>509</v>
       </c>
@@ -16877,7 +16879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A341" s="10" t="s">
         <v>510</v>
       </c>
@@ -16913,7 +16915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A342" s="10" t="s">
         <v>512</v>
       </c>
@@ -16946,7 +16948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A343" s="57" t="s">
         <v>858</v>
       </c>
@@ -16978,7 +16980,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="344" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A344" s="10" t="s">
         <v>513</v>
       </c>
@@ -17010,7 +17012,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="345" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A345" s="10" t="s">
         <v>515</v>
       </c>
@@ -17042,7 +17044,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="346" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A346" s="10" t="s">
         <v>516</v>
       </c>
@@ -17074,7 +17076,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="347" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A347" s="10" t="s">
         <v>517</v>
       </c>
@@ -17106,7 +17108,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="348" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A348" s="10" t="s">
         <v>518</v>
       </c>
@@ -17138,7 +17140,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="349" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A349" s="10" t="s">
         <v>519</v>
       </c>
@@ -17170,7 +17172,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="350" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A350" s="10" t="s">
         <v>520</v>
       </c>
@@ -17202,7 +17204,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="351" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A351" s="10" t="s">
         <v>521</v>
       </c>
@@ -17236,7 +17238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A352" s="10" t="s">
         <v>523</v>
       </c>
@@ -17272,7 +17274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A353" s="10" t="s">
         <v>525</v>
       </c>
@@ -17308,7 +17310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A354" s="10" t="s">
         <v>527</v>
       </c>
@@ -17344,7 +17346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A355" s="10" t="s">
         <v>528</v>
       </c>
@@ -17378,7 +17380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A356" s="10" t="s">
         <v>530</v>
       </c>
@@ -17414,7 +17416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A357" s="10" t="s">
         <v>532</v>
       </c>
@@ -17446,7 +17448,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="358" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A358" s="10" t="s">
         <v>841</v>
       </c>
@@ -17478,7 +17480,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="359" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A359" s="10" t="s">
         <v>533</v>
       </c>
@@ -17510,7 +17512,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="360" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A360" s="10" t="s">
         <v>534</v>
       </c>
@@ -17546,7 +17548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A361" s="25" t="s">
         <v>535</v>
       </c>
@@ -17582,7 +17584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A362" s="25" t="s">
         <v>537</v>
       </c>
@@ -17614,7 +17616,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="363" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A363" s="10" t="s">
         <v>538</v>
       </c>
@@ -17650,7 +17652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A364" s="10" t="s">
         <v>539</v>
       </c>
@@ -17686,7 +17688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A365" s="10" t="s">
         <v>541</v>
       </c>
@@ -17722,7 +17724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A366" s="10" t="s">
         <v>542</v>
       </c>
@@ -17756,7 +17758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A367" s="10" t="s">
         <v>545</v>
       </c>
@@ -17792,7 +17794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A368" s="10" t="s">
         <v>607</v>
       </c>
@@ -17824,7 +17826,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="369" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A369" s="25" t="s">
         <v>547</v>
       </c>
@@ -17860,7 +17862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A370" s="10" t="s">
         <v>548</v>
       </c>
@@ -17896,7 +17898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A371" s="10" t="s">
         <v>549</v>
       </c>
@@ -17934,7 +17936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A372" s="10" t="s">
         <v>551</v>
       </c>
@@ -17970,7 +17972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A373" s="10" t="s">
         <v>553</v>
       </c>
@@ -18000,7 +18002,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="374" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A374" s="10" t="s">
         <v>555</v>
       </c>
@@ -18032,7 +18034,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="375" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A375" s="10" t="s">
         <v>556</v>
       </c>
@@ -18068,7 +18070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A376" s="10" t="s">
         <v>557</v>
       </c>
@@ -18104,7 +18106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A377" s="10" t="s">
         <v>558</v>
       </c>
@@ -18134,7 +18136,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="378" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A378" s="10" t="s">
         <v>560</v>
       </c>
@@ -18166,7 +18168,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="379" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A379" s="10" t="s">
         <v>790</v>
       </c>
@@ -18198,7 +18200,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="380" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A380" s="10" t="s">
         <v>561</v>
       </c>
@@ -18230,7 +18232,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="381" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A381" s="10" t="s">
         <v>562</v>
       </c>
@@ -18266,7 +18268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A382" s="25" t="s">
         <v>564</v>
       </c>
@@ -18302,7 +18304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A383" s="10" t="s">
         <v>565</v>
       </c>
@@ -18336,7 +18338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A384" s="10" t="s">
         <v>566</v>
       </c>
@@ -18370,7 +18372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A385" s="10" t="s">
         <v>567</v>
       </c>
@@ -18404,7 +18406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A386" s="10" t="s">
         <v>569</v>
       </c>
@@ -18442,7 +18444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A387" s="10" t="s">
         <v>572</v>
       </c>
@@ -18476,7 +18478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A388" s="10" t="s">
         <v>574</v>
       </c>
@@ -18512,7 +18514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A389" s="10" t="s">
         <v>576</v>
       </c>
@@ -18548,7 +18550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A390" s="10" t="s">
         <v>577</v>
       </c>
@@ -18584,7 +18586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A391" s="10" t="s">
         <v>578</v>
       </c>
@@ -18620,7 +18622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A392" s="10" t="s">
         <v>579</v>
       </c>
@@ -18656,7 +18658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A393" s="10" t="s">
         <v>580</v>
       </c>
@@ -18692,7 +18694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A394" s="10" t="s">
         <v>581</v>
       </c>
@@ -18726,7 +18728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A395" s="10" t="s">
         <v>583</v>
       </c>
@@ -18762,7 +18764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A396" s="10" t="s">
         <v>585</v>
       </c>
@@ -18798,7 +18800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A397" s="10" t="s">
         <v>793</v>
       </c>
@@ -18830,7 +18832,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="398" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A398" s="10" t="s">
         <v>587</v>
       </c>
@@ -18866,7 +18868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A399" s="10" t="s">
         <v>588</v>
       </c>
@@ -18902,7 +18904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:21" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:21" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="10" t="s">
         <v>589</v>
       </c>
@@ -18940,7 +18942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A401" s="10" t="s">
         <v>592</v>
       </c>
@@ -18976,7 +18978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:21" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:21" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="10" t="s">
         <v>593</v>
       </c>
@@ -19014,7 +19016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A403" s="10" t="s">
         <v>595</v>
       </c>
@@ -19050,7 +19052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A404" s="10" t="s">
         <v>597</v>
       </c>
@@ -19084,7 +19086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A405" s="10" t="s">
         <v>599</v>
       </c>
@@ -19120,7 +19122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A406" s="10" t="s">
         <v>601</v>
       </c>
@@ -19156,7 +19158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A407" s="10" t="s">
         <v>602</v>
       </c>
@@ -19192,7 +19194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A408" s="10" t="s">
         <v>603</v>
       </c>
@@ -19230,7 +19232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A409" s="10" t="s">
         <v>605</v>
       </c>
@@ -19268,7 +19270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A410" s="10" t="s">
         <v>606</v>
       </c>
@@ -19304,7 +19306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A411" s="10" t="s">
         <v>610</v>
       </c>
@@ -19340,7 +19342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A412" s="10" t="s">
         <v>612</v>
       </c>
@@ -19376,7 +19378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A413" s="10" t="s">
         <v>613</v>
       </c>
@@ -19412,7 +19414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:21" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A414" s="10" t="s">
         <v>614</v>
       </c>
@@ -19450,7 +19452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A415" s="10" t="s">
         <v>616</v>
       </c>
@@ -19484,7 +19486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:21" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:21" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="10" t="s">
         <v>611</v>
       </c>
@@ -19522,7 +19524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A417" s="10" t="s">
         <v>618</v>
       </c>
@@ -19558,7 +19560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="10" t="s">
         <v>621</v>
       </c>
@@ -19594,7 +19596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A419" s="10" t="s">
         <v>622</v>
       </c>
@@ -19630,7 +19632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:21" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:21" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="10" t="s">
         <v>623</v>
       </c>
@@ -19666,7 +19668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A421" s="10" t="s">
         <v>625</v>
       </c>
@@ -19700,7 +19702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A422" s="10" t="s">
         <v>627</v>
       </c>
@@ -19736,7 +19738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A423" s="10" t="s">
         <v>629</v>
       </c>
@@ -19770,7 +19772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A424" s="10" t="s">
         <v>630</v>
       </c>
@@ -19816,7 +19818,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="425" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A425" s="10" t="s">
         <v>632</v>
       </c>
@@ -19850,7 +19852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A426" s="10" t="s">
         <v>633</v>
       </c>
@@ -19888,7 +19890,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="427" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A427" s="10" t="s">
         <v>635</v>
       </c>
@@ -19940,7 +19942,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="428" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A428" s="10" t="s">
         <v>636</v>
       </c>
@@ -19974,7 +19976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A429" s="10" t="s">
         <v>637</v>
       </c>
@@ -20008,7 +20010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A430" s="10" t="s">
         <v>638</v>
       </c>
@@ -20040,7 +20042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A431" s="10" t="s">
         <v>639</v>
       </c>
@@ -20068,7 +20070,7 @@
       </c>
       <c r="R431" s="13"/>
     </row>
-    <row r="432" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A432" s="10" t="s">
         <v>642</v>
       </c>
@@ -20096,7 +20098,7 @@
       </c>
       <c r="R432" s="13"/>
     </row>
-    <row r="433" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A433" s="10" t="s">
         <v>644</v>
       </c>
@@ -20122,7 +20124,7 @@
       </c>
       <c r="R433" s="13"/>
     </row>
-    <row r="434" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A434" s="10" t="s">
         <v>645</v>
       </c>
@@ -20148,7 +20150,7 @@
       </c>
       <c r="R434" s="13"/>
     </row>
-    <row r="435" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A435" s="25" t="s">
         <v>646</v>
       </c>
@@ -20184,7 +20186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A436" s="10" t="s">
         <v>649</v>
       </c>
@@ -20222,7 +20224,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="437" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A437" s="10" t="s">
         <v>653</v>
       </c>
@@ -20260,7 +20262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A438" s="10" t="s">
         <v>656</v>
       </c>
@@ -20308,7 +20310,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="439" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A439" s="10" t="s">
         <v>658</v>
       </c>
@@ -20346,7 +20348,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="440" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A440" s="10" t="s">
         <v>661</v>
       </c>
@@ -20384,7 +20386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A441" s="10" t="s">
         <v>664</v>
       </c>
@@ -20420,7 +20422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A442" s="10" t="s">
         <v>667</v>
       </c>
@@ -20456,7 +20458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A443" s="10" t="s">
         <v>669</v>
       </c>
@@ -20502,7 +20504,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="444" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A444" s="10" t="s">
         <v>671</v>
       </c>
@@ -20538,7 +20540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A445" s="10" t="s">
         <v>674</v>
       </c>
@@ -20574,7 +20576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A446" s="10" t="s">
         <v>670</v>
       </c>
@@ -20608,7 +20610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A447" s="10" t="s">
         <v>675</v>
       </c>
@@ -20642,7 +20644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A448" s="10" t="s">
         <v>676</v>
       </c>
@@ -20676,7 +20678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A449" s="10" t="s">
         <v>678</v>
       </c>
@@ -20720,7 +20722,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="450" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A450" s="10" t="s">
         <v>679</v>
       </c>
@@ -20756,7 +20758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A451" s="10" t="s">
         <v>680</v>
       </c>
@@ -20792,7 +20794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A452" s="10" t="s">
         <v>682</v>
       </c>
@@ -20826,7 +20828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A453" s="10" t="s">
         <v>684</v>
       </c>
@@ -20862,7 +20864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A454" s="25" t="s">
         <v>685</v>
       </c>
@@ -20898,7 +20900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A455" s="25" t="s">
         <v>687</v>
       </c>
@@ -20934,7 +20936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A456" s="10" t="s">
         <v>689</v>
       </c>
@@ -20988,7 +20990,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="457" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A457" s="10" t="s">
         <v>690</v>
       </c>
@@ -21022,7 +21024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A458" s="10" t="s">
         <v>691</v>
       </c>
@@ -21076,7 +21078,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="459" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A459" s="10" t="s">
         <v>692</v>
       </c>
@@ -21122,7 +21124,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="460" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A460" s="10" t="s">
         <v>693</v>
       </c>
@@ -21176,7 +21178,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="461" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A461" s="10" t="s">
         <v>694</v>
       </c>
@@ -21210,7 +21212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:21" ht="108.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:21" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="10" t="s">
         <v>695</v>
       </c>
@@ -21260,7 +21262,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="463" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A463" s="10" t="s">
         <v>696</v>
       </c>
@@ -21296,7 +21298,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="464" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A464" s="10" t="s">
         <v>697</v>
       </c>
@@ -21330,7 +21332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A465" s="10" t="s">
         <v>698</v>
       </c>
@@ -21380,7 +21382,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="466" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A466" s="10" t="s">
         <v>699</v>
       </c>
@@ -21414,7 +21416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A467" s="10" t="s">
         <v>700</v>
       </c>
@@ -21468,7 +21470,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="468" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A468" s="10" t="s">
         <v>702</v>
       </c>
@@ -21508,7 +21510,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="469" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A469" s="10" t="s">
         <v>704</v>
       </c>
@@ -21546,7 +21548,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="470" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A470" s="10" t="s">
         <v>707</v>
       </c>
@@ -21580,7 +21582,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="471" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A471" s="27" t="s">
         <v>708</v>
       </c>
@@ -21618,7 +21620,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="472" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A472" s="10" t="s">
         <v>709</v>
       </c>
@@ -21666,7 +21668,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="473" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A473" s="36" t="s">
         <v>710</v>
       </c>
@@ -21700,7 +21702,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="474" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A474" s="38" t="s">
         <v>326</v>
       </c>
@@ -21736,7 +21738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A475" s="25" t="s">
         <v>330</v>
       </c>
@@ -21770,7 +21772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A476" s="10" t="s">
         <v>337</v>
       </c>
@@ -21804,7 +21806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A477" s="10" t="s">
         <v>340</v>
       </c>
@@ -21838,7 +21840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A478" s="25" t="s">
         <v>341</v>
       </c>
@@ -21872,7 +21874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A479" s="38" t="s">
         <v>733</v>
       </c>
@@ -21906,7 +21908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A480" s="10" t="s">
         <v>362</v>
       </c>
@@ -21940,7 +21942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A481" s="10" t="s">
         <v>713</v>
       </c>
@@ -21964,7 +21966,7 @@
       </c>
       <c r="R481" s="13"/>
     </row>
-    <row r="482" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A482" s="10" t="s">
         <v>714</v>
       </c>
@@ -21988,7 +21990,7 @@
       </c>
       <c r="R482" s="13"/>
     </row>
-    <row r="483" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A483" s="10" t="s">
         <v>715</v>
       </c>
@@ -22012,7 +22014,7 @@
       </c>
       <c r="R483" s="13"/>
     </row>
-    <row r="484" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A484" s="10" t="s">
         <v>716</v>
       </c>
@@ -22036,7 +22038,7 @@
       </c>
       <c r="R484" s="13"/>
     </row>
-    <row r="485" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A485" s="10" t="s">
         <v>717</v>
       </c>
@@ -22060,7 +22062,7 @@
       </c>
       <c r="R485" s="13"/>
     </row>
-    <row r="486" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A486" s="10" t="s">
         <v>718</v>
       </c>
@@ -22084,7 +22086,7 @@
       </c>
       <c r="R486" s="13"/>
     </row>
-    <row r="487" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A487" s="10" t="s">
         <v>719</v>
       </c>
@@ -22108,7 +22110,7 @@
       </c>
       <c r="R487" s="13"/>
     </row>
-    <row r="488" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A488" s="10" t="s">
         <v>720</v>
       </c>
@@ -22132,7 +22134,7 @@
       </c>
       <c r="R488" s="13"/>
     </row>
-    <row r="489" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A489" s="10" t="s">
         <v>721</v>
       </c>
@@ -22156,7 +22158,7 @@
       </c>
       <c r="R489" s="13"/>
     </row>
-    <row r="490" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A490" s="10" t="s">
         <v>722</v>
       </c>
@@ -22180,7 +22182,7 @@
       </c>
       <c r="R490" s="13"/>
     </row>
-    <row r="491" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A491" s="10" t="s">
         <v>723</v>
       </c>
@@ -22204,7 +22206,7 @@
       </c>
       <c r="R491" s="13"/>
     </row>
-    <row r="492" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A492" s="10" t="s">
         <v>724</v>
       </c>
@@ -22228,7 +22230,7 @@
       </c>
       <c r="R492" s="13"/>
     </row>
-    <row r="493" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A493" s="10" t="s">
         <v>725</v>
       </c>
@@ -22252,7 +22254,7 @@
       </c>
       <c r="R493" s="13"/>
     </row>
-    <row r="494" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A494" s="10" t="s">
         <v>726</v>
       </c>
@@ -22276,7 +22278,7 @@
       </c>
       <c r="R494" s="13"/>
     </row>
-    <row r="495" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A495" s="10" t="s">
         <v>727</v>
       </c>
@@ -22300,7 +22302,7 @@
       </c>
       <c r="R495" s="13"/>
     </row>
-    <row r="496" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A496" s="10" t="s">
         <v>728</v>
       </c>
@@ -22324,7 +22326,7 @@
       </c>
       <c r="R496" s="13"/>
     </row>
-    <row r="497" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A497" s="10" t="s">
         <v>729</v>
       </c>
@@ -22348,7 +22350,7 @@
       </c>
       <c r="R497" s="13"/>
     </row>
-    <row r="498" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A498" s="10" t="s">
         <v>731</v>
       </c>
@@ -22372,7 +22374,7 @@
       </c>
       <c r="R498" s="13"/>
     </row>
-    <row r="499" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:18" x14ac:dyDescent="0.25">
       <c r="Q499" s="34"/>
     </row>
   </sheetData>

--- a/resources/Dose_Response_Library.xlsx
+++ b/resources/Dose_Response_Library.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris Stolte\IdeaProjects\HEM4\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://scainccloud-my.sharepoint.com/personal/jmozier_scainc_com/Documents/Projects/RIS-409 to 104 RTR  NATA (2013-2017)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE32B69-345D-4F5C-9ACB-418F81B927D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{56B5E220-D31F-4730-BAFA-F16A3D73F448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="528" yWindow="792" windowWidth="22380" windowHeight="11424" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1320" yWindow="885" windowWidth="23385" windowHeight="15090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dose Response Value Library" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1755" uniqueCount="860">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1758" uniqueCount="864">
   <si>
     <t>Pollutant</t>
   </si>
@@ -2287,9 +2287,6 @@
     <t>AEGL-2 (1-hr and 8-hr) revised 11/2016</t>
   </si>
   <si>
-    <t>URE updated 12/2016 per IRIS. Original URE=0.003, adjusted to account for mutagenic MOA factor of 1.6</t>
-  </si>
-  <si>
     <t>AEGLs final 3/10/2016</t>
   </si>
   <si>
@@ -2426,9 +2423,6 @@
   </si>
   <si>
     <t>ERPGs corrected 8/2011 per D.Murphy. AELGs updated 1/2017.</t>
-  </si>
-  <si>
-    <t>ERPG2 corrected 8/2011 per D.Murphy. AEGLs and MRL updated 1/2017.</t>
   </si>
   <si>
     <t>ERPGs corrected 8/2011 per D.Murphy. Original URE=0.000004 updated 10/2011 per IRIS. URE adjusted 10/2011 to account for mutagenic MOA for one of the cancer types the URE reflects - not a factor of 1.6 because adjustment only applies to part of the URE. MRL removed 1/2017 per ATSDR</t>
@@ -2660,6 +2654,24 @@
   </si>
   <si>
     <t>added 10/31/18 for Misc Metal Parts Coating category</t>
+  </si>
+  <si>
+    <t>ATSDR acute MRL (final 3/2021) added 6/2021.</t>
+  </si>
+  <si>
+    <t>ATSDR chronic MRL (final, 2010) replaced the 1991 IRIS RfC value 6/2021.</t>
+  </si>
+  <si>
+    <t>ATSDR chronic MRL (final, 2006) replaced 1994 IRIS RfC 6/2021.</t>
+  </si>
+  <si>
+    <t>URE updated 12/2016 per IRIS. Original URE=0.003, adjusted to account for mutagenic MOA factor of 1.6. ATSDR acute MRL (draft 9/2020) added 6/2021.</t>
+  </si>
+  <si>
+    <t>URE calculated from oral potency slope removed 5/2012. ATSDR acute MRL updated (draft, 12/2019) 6/2021.</t>
+  </si>
+  <si>
+    <t>ERPG2 corrected 8/2011 per D.Murphy. AEGLs and MRL updated 1/2017. CalEPA acute REL removed 6/2021 - new value inconsistent with EPA derivation approach.</t>
   </si>
 </sst>
 </file>
@@ -3713,36 +3725,36 @@
   <dimension ref="A1:X499"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A328" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A334" sqref="A334:XFD334"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="30.44140625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="33.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" style="7" customWidth="1"/>
     <col min="3" max="3" width="14" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" style="8" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" style="8" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" style="8" customWidth="1"/>
-    <col min="10" max="11" width="9.6640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" style="8" customWidth="1"/>
+    <col min="10" max="11" width="9.7109375" style="8" customWidth="1"/>
     <col min="12" max="12" width="10" style="8" customWidth="1"/>
-    <col min="13" max="13" width="9.44140625" style="8" customWidth="1"/>
-    <col min="14" max="15" width="9.33203125" style="8" customWidth="1"/>
+    <col min="13" max="13" width="9.42578125" style="8" customWidth="1"/>
+    <col min="14" max="15" width="9.28515625" style="8" customWidth="1"/>
     <col min="16" max="16" width="11" style="8" customWidth="1"/>
     <col min="17" max="17" width="24" style="9" customWidth="1"/>
-    <col min="18" max="18" width="34.6640625" style="9" customWidth="1"/>
-    <col min="19" max="19" width="10.88671875" style="1" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="34.7109375" style="9" customWidth="1"/>
+    <col min="19" max="19" width="10.85546875" style="1" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="7" style="1" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="9.109375" style="1" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" style="1" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="13" style="9" customWidth="1"/>
-    <col min="23" max="16384" width="9.109375" style="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="4" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" s="4" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3807,7 +3819,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>21</v>
       </c>
@@ -3851,7 +3863,7 @@
       <c r="O2" s="12"/>
       <c r="P2" s="12"/>
       <c r="Q2" s="13" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="R2" s="13" t="s">
         <v>22</v>
@@ -3861,7 +3873,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>23</v>
       </c>
@@ -3895,7 +3907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>25</v>
       </c>
@@ -3917,19 +3929,23 @@
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
+      <c r="L4" s="12">
+        <v>0.16</v>
+      </c>
       <c r="M4" s="12"/>
       <c r="N4" s="12"/>
       <c r="O4" s="12"/>
       <c r="P4" s="12"/>
       <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
+      <c r="R4" s="13" t="s">
+        <v>858</v>
+      </c>
       <c r="U4" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>26</v>
       </c>
@@ -3961,7 +3977,7 @@
       <c r="O5" s="12"/>
       <c r="P5" s="12"/>
       <c r="Q5" s="13" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="R5" s="13"/>
       <c r="U5" s="1">
@@ -3969,7 +3985,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>27</v>
       </c>
@@ -4003,7 +4019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>29</v>
       </c>
@@ -4038,7 +4054,7 @@
       </c>
       <c r="X7" s="3"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>30</v>
       </c>
@@ -4073,7 +4089,7 @@
       </c>
       <c r="X8" s="3"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>31</v>
       </c>
@@ -4108,7 +4124,7 @@
       </c>
       <c r="X9" s="3"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>32</v>
       </c>
@@ -4142,7 +4158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>33</v>
       </c>
@@ -4176,7 +4192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>35</v>
       </c>
@@ -4210,7 +4226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>36</v>
       </c>
@@ -4246,7 +4262,7 @@
       <c r="O13" s="12"/>
       <c r="P13" s="12"/>
       <c r="Q13" s="13" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="R13" s="13"/>
       <c r="U13" s="1">
@@ -4254,7 +4270,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>37</v>
       </c>
@@ -4286,7 +4302,7 @@
       <c r="O14" s="12"/>
       <c r="P14" s="12"/>
       <c r="Q14" s="13" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="R14" s="13"/>
       <c r="U14" s="1">
@@ -4294,7 +4310,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>38</v>
       </c>
@@ -4334,17 +4350,17 @@
       <c r="O15" s="12"/>
       <c r="P15" s="12"/>
       <c r="Q15" s="13" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="R15" s="13" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="U15" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>39</v>
       </c>
@@ -4378,7 +4394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>40</v>
       </c>
@@ -4412,7 +4428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>41</v>
       </c>
@@ -4426,7 +4442,7 @@
         <v>1.1E-5</v>
       </c>
       <c r="E18" s="12">
-        <v>0.8</v>
+        <v>0.06</v>
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
@@ -4442,13 +4458,15 @@
       <c r="O18" s="12"/>
       <c r="P18" s="12"/>
       <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
+      <c r="R18" s="13" t="s">
+        <v>860</v>
+      </c>
       <c r="U18" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>43</v>
       </c>
@@ -4482,7 +4500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>45</v>
       </c>
@@ -4522,7 +4540,7 @@
       <c r="O20" s="12"/>
       <c r="P20" s="12"/>
       <c r="Q20" s="13" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="R20" s="13" t="s">
         <v>46</v>
@@ -4532,7 +4550,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="25" t="s">
         <v>47</v>
       </c>
@@ -4564,7 +4582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
         <v>49</v>
       </c>
@@ -4598,7 +4616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>50</v>
       </c>
@@ -4632,7 +4650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>51</v>
       </c>
@@ -4666,7 +4684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
         <v>53</v>
       </c>
@@ -4700,7 +4718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>54</v>
       </c>
@@ -4734,7 +4752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>55</v>
       </c>
@@ -4768,7 +4786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
         <v>57</v>
       </c>
@@ -4802,7 +4820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
         <v>58</v>
       </c>
@@ -4847,14 +4865,14 @@
       <c r="P29" s="12"/>
       <c r="Q29" s="13"/>
       <c r="R29" s="13" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="U29" s="1">
         <f t="shared" si="0"/>
         <v>7.1000000000000005E-5</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
         <v>59</v>
       </c>
@@ -4898,17 +4916,17 @@
       <c r="O30" s="12"/>
       <c r="P30" s="12"/>
       <c r="Q30" s="13" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="R30" s="13" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="U30" s="1">
         <f t="shared" si="0"/>
         <v>7.1000000000000005E-5</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
         <v>60</v>
       </c>
@@ -4940,7 +4958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
         <v>61</v>
       </c>
@@ -4974,7 +4992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
         <v>62</v>
       </c>
@@ -5008,7 +5026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
         <v>63</v>
       </c>
@@ -5042,7 +5060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
         <v>64</v>
       </c>
@@ -5076,7 +5094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
         <v>65</v>
       </c>
@@ -5110,7 +5128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
         <v>66</v>
       </c>
@@ -5144,7 +5162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
         <v>67</v>
       </c>
@@ -5177,14 +5195,14 @@
       <c r="P38" s="12"/>
       <c r="Q38" s="13"/>
       <c r="R38" s="13" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="U38" s="1">
         <f t="shared" si="0"/>
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
         <v>69</v>
       </c>
@@ -5218,7 +5236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" s="25" t="s">
         <v>71</v>
       </c>
@@ -5250,7 +5268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" s="25" t="s">
         <v>72</v>
       </c>
@@ -5282,7 +5300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
         <v>73</v>
       </c>
@@ -5316,7 +5334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
         <v>74</v>
       </c>
@@ -5358,7 +5376,7 @@
       <c r="O43" s="12"/>
       <c r="P43" s="12"/>
       <c r="Q43" s="13" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="R43" s="13" t="s">
         <v>22</v>
@@ -5368,7 +5386,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
         <v>75</v>
       </c>
@@ -5402,7 +5420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
         <v>76</v>
       </c>
@@ -5436,17 +5454,17 @@
       <c r="O45" s="12"/>
       <c r="P45" s="12"/>
       <c r="Q45" s="13" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="R45" s="13" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="U45" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
         <v>77</v>
       </c>
@@ -5480,7 +5498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A47" s="52" t="s">
         <v>78</v>
       </c>
@@ -5524,17 +5542,17 @@
       <c r="O47" s="54"/>
       <c r="P47" s="54"/>
       <c r="Q47" s="55" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="R47" s="55" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="U47" s="1">
         <f t="shared" si="0"/>
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
         <v>79</v>
       </c>
@@ -5570,7 +5588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
         <v>81</v>
       </c>
@@ -5612,7 +5630,7 @@
       <c r="O49" s="12"/>
       <c r="P49" s="12"/>
       <c r="Q49" s="13" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="R49" s="13" t="s">
         <v>22</v>
@@ -5622,7 +5640,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="50" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
         <v>82</v>
       </c>
@@ -5660,17 +5678,17 @@
       <c r="O50" s="12"/>
       <c r="P50" s="12"/>
       <c r="Q50" s="13" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="R50" s="13" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="U50" s="1">
         <f t="shared" si="0"/>
         <v>0.22</v>
       </c>
     </row>
-    <row r="51" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
         <v>83</v>
       </c>
@@ -5710,7 +5728,7 @@
       <c r="O51" s="12"/>
       <c r="P51" s="12"/>
       <c r="Q51" s="13" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="R51" s="13"/>
       <c r="U51" s="1">
@@ -5718,7 +5736,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
         <v>84</v>
       </c>
@@ -5754,7 +5772,7 @@
       <c r="O52" s="12"/>
       <c r="P52" s="12"/>
       <c r="Q52" s="13" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="R52" s="13"/>
       <c r="U52" s="1">
@@ -5762,7 +5780,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
         <v>85</v>
       </c>
@@ -5798,7 +5816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
         <v>87</v>
       </c>
@@ -5829,14 +5847,14 @@
       <c r="P54" s="12"/>
       <c r="Q54" s="13"/>
       <c r="R54" s="13" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="U54" s="1">
         <f t="shared" si="0"/>
         <v>1E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
         <v>88</v>
       </c>
@@ -5867,14 +5885,14 @@
         <v>89</v>
       </c>
       <c r="R55" s="13" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="U55" s="1">
         <f t="shared" si="0"/>
         <v>1E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
         <v>90</v>
       </c>
@@ -5905,14 +5923,14 @@
         <v>92</v>
       </c>
       <c r="R56" s="13" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="U56" s="1">
         <f t="shared" si="0"/>
         <v>1E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
         <v>93</v>
       </c>
@@ -5943,14 +5961,14 @@
       <c r="P57" s="12"/>
       <c r="Q57" s="13"/>
       <c r="R57" s="13" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="U57" s="1">
         <f t="shared" si="0"/>
         <v>1E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
         <v>94</v>
       </c>
@@ -5981,14 +5999,14 @@
       <c r="P58" s="12"/>
       <c r="Q58" s="13"/>
       <c r="R58" s="13" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="U58" s="1">
         <f t="shared" si="0"/>
         <v>1E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
         <v>95</v>
       </c>
@@ -6019,14 +6037,14 @@
       <c r="P59" s="12"/>
       <c r="Q59" s="13"/>
       <c r="R59" s="13" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="U59" s="1">
         <f t="shared" si="0"/>
         <v>1E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
         <v>96</v>
       </c>
@@ -6060,17 +6078,17 @@
       <c r="O60" s="12"/>
       <c r="P60" s="12"/>
       <c r="Q60" s="13" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="R60" s="13" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="U60" s="1">
         <f t="shared" si="0"/>
         <v>1E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
         <v>98</v>
       </c>
@@ -6101,14 +6119,14 @@
       <c r="P61" s="12"/>
       <c r="Q61" s="13"/>
       <c r="R61" s="13" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="U61" s="1">
         <f t="shared" si="0"/>
         <v>1E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
         <v>99</v>
       </c>
@@ -6148,7 +6166,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="63" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A63" s="25" t="s">
         <v>102</v>
       </c>
@@ -6188,7 +6206,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A64" s="25" t="s">
         <v>104</v>
       </c>
@@ -6228,7 +6246,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="65" spans="1:22" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="35" t="s">
         <v>106</v>
       </c>
@@ -6267,7 +6285,7 @@
       </c>
       <c r="V65" s="45"/>
     </row>
-    <row r="66" spans="1:22" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
         <v>109</v>
       </c>
@@ -6307,7 +6325,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:22" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
         <v>112</v>
       </c>
@@ -6341,17 +6359,17 @@
       <c r="O67" s="12"/>
       <c r="P67" s="12"/>
       <c r="Q67" s="13" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="R67" s="13" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="U67" s="1">
         <f t="shared" ref="U67:U129" si="1">MIN(F67:P67)</f>
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="68" spans="1:22" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
         <v>113</v>
       </c>
@@ -6385,7 +6403,7 @@
       <c r="O68" s="12"/>
       <c r="P68" s="12"/>
       <c r="Q68" s="13" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="R68" s="13" t="s">
         <v>114</v>
@@ -6395,7 +6413,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="69" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
         <v>115</v>
       </c>
@@ -6437,17 +6455,17 @@
       <c r="O69" s="12"/>
       <c r="P69" s="12"/>
       <c r="Q69" s="13" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="R69" s="56" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="U69" s="1">
         <f t="shared" si="1"/>
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:22" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
         <v>116</v>
       </c>
@@ -6483,7 +6501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:22" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
         <v>118</v>
       </c>
@@ -6517,7 +6535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
         <v>119</v>
       </c>
@@ -6557,7 +6575,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="73" spans="1:22" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
         <v>120</v>
       </c>
@@ -6595,7 +6613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
         <v>121</v>
       </c>
@@ -6631,7 +6649,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:22" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
         <v>124</v>
       </c>
@@ -6669,7 +6687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:22" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
         <v>126</v>
       </c>
@@ -6707,7 +6725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:22" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
         <v>128</v>
       </c>
@@ -6745,7 +6763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
         <v>132</v>
       </c>
@@ -6777,7 +6795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:22" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
         <v>133</v>
       </c>
@@ -6809,7 +6827,7 @@
       <c r="O79" s="12"/>
       <c r="P79" s="12"/>
       <c r="Q79" s="13" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="R79" s="13"/>
       <c r="U79" s="1">
@@ -6817,7 +6835,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
         <v>134</v>
       </c>
@@ -6851,7 +6869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
         <v>135</v>
       </c>
@@ -6885,7 +6903,7 @@
       <c r="O81" s="12"/>
       <c r="P81" s="12"/>
       <c r="Q81" s="13" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="R81" s="13"/>
       <c r="U81" s="1">
@@ -6893,7 +6911,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
         <v>136</v>
       </c>
@@ -6927,7 +6945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A83" s="25" t="s">
         <v>137</v>
       </c>
@@ -6965,7 +6983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
         <v>138</v>
       </c>
@@ -7003,17 +7021,17 @@
       <c r="O84" s="12"/>
       <c r="P84" s="12"/>
       <c r="Q84" s="13" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="R84" s="13" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="U84" s="1">
         <f t="shared" si="1"/>
         <v>3.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
         <v>140</v>
       </c>
@@ -7045,7 +7063,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
         <v>142</v>
       </c>
@@ -7083,7 +7101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A87" s="25" t="s">
         <v>143</v>
       </c>
@@ -7121,7 +7139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A88" s="25" t="s">
         <v>144</v>
       </c>
@@ -7159,7 +7177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
         <v>146</v>
       </c>
@@ -7193,7 +7211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
         <v>147</v>
       </c>
@@ -7227,7 +7245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
         <v>148</v>
       </c>
@@ -7269,7 +7287,7 @@
       <c r="O91" s="12"/>
       <c r="P91" s="12"/>
       <c r="Q91" s="13" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="R91" s="13" t="s">
         <v>22</v>
@@ -7279,7 +7297,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="92" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
         <v>149</v>
       </c>
@@ -7317,17 +7335,17 @@
       <c r="O92" s="12"/>
       <c r="P92" s="12"/>
       <c r="Q92" s="13" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="R92" s="13" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="U92" s="1">
         <f t="shared" si="1"/>
         <v>1.9</v>
       </c>
     </row>
-    <row r="93" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A93" s="25" t="s">
         <v>150</v>
       </c>
@@ -7357,7 +7375,7 @@
       <c r="O93" s="12"/>
       <c r="P93" s="12"/>
       <c r="Q93" s="14" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="R93" s="13" t="s">
         <v>152</v>
@@ -7367,7 +7385,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A94" s="25" t="s">
         <v>153</v>
       </c>
@@ -7399,7 +7417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
         <v>154</v>
       </c>
@@ -7433,7 +7451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
         <v>155</v>
       </c>
@@ -7467,7 +7485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
         <v>156</v>
       </c>
@@ -7511,17 +7529,17 @@
       <c r="O97" s="12"/>
       <c r="P97" s="12"/>
       <c r="Q97" s="13" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="R97" s="13" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="U97" s="1">
         <f t="shared" si="1"/>
         <v>0.17</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
         <v>157</v>
       </c>
@@ -7553,7 +7571,7 @@
       <c r="O98" s="12"/>
       <c r="P98" s="12"/>
       <c r="Q98" s="13" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="R98" s="13"/>
       <c r="U98" s="1">
@@ -7561,7 +7579,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
         <v>158</v>
       </c>
@@ -7597,7 +7615,7 @@
       <c r="O99" s="12"/>
       <c r="P99" s="12"/>
       <c r="Q99" s="13" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="R99" s="13"/>
       <c r="U99" s="1">
@@ -7605,7 +7623,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
         <v>159</v>
       </c>
@@ -7639,7 +7657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
         <v>160</v>
       </c>
@@ -7677,7 +7695,7 @@
       <c r="O101" s="12"/>
       <c r="P101" s="12"/>
       <c r="Q101" s="13" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="R101" s="13" t="s">
         <v>161</v>
@@ -7687,7 +7705,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="102" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
         <v>162</v>
       </c>
@@ -7721,17 +7739,17 @@
       <c r="O102" s="12"/>
       <c r="P102" s="12"/>
       <c r="Q102" s="13" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="R102" s="13" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="U102" s="1">
         <f t="shared" si="1"/>
         <v>0.72</v>
       </c>
     </row>
-    <row r="103" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
         <v>163</v>
       </c>
@@ -7769,7 +7787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A104" s="25" t="s">
         <v>166</v>
       </c>
@@ -7807,7 +7825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A105" s="25" t="s">
         <v>169</v>
       </c>
@@ -7845,7 +7863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A106" s="25" t="s">
         <v>170</v>
       </c>
@@ -7883,7 +7901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A107" s="38" t="s">
         <v>172</v>
       </c>
@@ -7921,7 +7939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A108" s="38" t="s">
         <v>173</v>
       </c>
@@ -7959,7 +7977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
         <v>176</v>
       </c>
@@ -7993,7 +8011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
         <v>178</v>
       </c>
@@ -8027,7 +8045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
         <v>179</v>
       </c>
@@ -8065,7 +8083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
         <v>180</v>
       </c>
@@ -8099,7 +8117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A113" s="25" t="s">
         <v>181</v>
       </c>
@@ -8137,7 +8155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A114" s="38" t="s">
         <v>183</v>
       </c>
@@ -8175,7 +8193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
         <v>184</v>
       </c>
@@ -8209,7 +8227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
         <v>185</v>
       </c>
@@ -8245,7 +8263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
         <v>187</v>
       </c>
@@ -8279,7 +8297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
         <v>167</v>
       </c>
@@ -8315,7 +8333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
         <v>189</v>
       </c>
@@ -8353,7 +8371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
         <v>190</v>
       </c>
@@ -8385,7 +8403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
         <v>191</v>
       </c>
@@ -8423,7 +8441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
         <v>192</v>
       </c>
@@ -8461,7 +8479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A123" s="25" t="s">
         <v>193</v>
       </c>
@@ -8499,7 +8517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A124" s="25" t="s">
         <v>194</v>
       </c>
@@ -8537,7 +8555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A125" s="25" t="s">
         <v>195</v>
       </c>
@@ -8575,7 +8593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A126" s="38" t="s">
         <v>196</v>
       </c>
@@ -8613,7 +8631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A127" s="38" t="s">
         <v>197</v>
       </c>
@@ -8647,7 +8665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A128" s="25" t="s">
         <v>198</v>
       </c>
@@ -8685,7 +8703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
         <v>199</v>
       </c>
@@ -8721,7 +8739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
         <v>202</v>
       </c>
@@ -8757,7 +8775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
         <v>204</v>
       </c>
@@ -8793,7 +8811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
         <v>206</v>
       </c>
@@ -8829,7 +8847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
         <v>208</v>
       </c>
@@ -8865,7 +8883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
         <v>200</v>
       </c>
@@ -8899,7 +8917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
         <v>210</v>
       </c>
@@ -8937,7 +8955,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
         <v>213</v>
       </c>
@@ -8973,7 +8991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
         <v>214</v>
       </c>
@@ -9009,7 +9027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A138" s="10" t="s">
         <v>216</v>
       </c>
@@ -9045,7 +9063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A139" s="10" t="s">
         <v>217</v>
       </c>
@@ -9081,7 +9099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="10" t="s">
         <v>219</v>
       </c>
@@ -9117,7 +9135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A141" s="10" t="s">
         <v>220</v>
       </c>
@@ -9153,7 +9171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:21" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:21" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="10" t="s">
         <v>552</v>
       </c>
@@ -9180,14 +9198,14 @@
       <c r="P142" s="12"/>
       <c r="Q142" s="13"/>
       <c r="R142" s="13" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="U142" s="1">
         <f>MIN(F142:P142)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A143" s="10" t="s">
         <v>223</v>
       </c>
@@ -9223,7 +9241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A144" s="10" t="s">
         <v>225</v>
       </c>
@@ -9259,7 +9277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A145" s="10" t="s">
         <v>226</v>
       </c>
@@ -9293,7 +9311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A146" s="10" t="s">
         <v>228</v>
       </c>
@@ -9329,7 +9347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A147" s="10" t="s">
         <v>230</v>
       </c>
@@ -9365,7 +9383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A148" s="10" t="s">
         <v>231</v>
       </c>
@@ -9401,7 +9419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A149" s="10" t="s">
         <v>232</v>
       </c>
@@ -9437,7 +9455,7 @@
       <c r="O149" s="12"/>
       <c r="P149" s="12"/>
       <c r="Q149" s="13" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="R149" s="13"/>
       <c r="U149" s="1">
@@ -9445,7 +9463,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A150" s="10" t="s">
         <v>233</v>
       </c>
@@ -9481,7 +9499,7 @@
       <c r="O150" s="12"/>
       <c r="P150" s="12"/>
       <c r="Q150" s="13" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="R150" s="13"/>
       <c r="U150" s="1">
@@ -9489,7 +9507,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="151" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A151" s="25" t="s">
         <v>235</v>
       </c>
@@ -9525,7 +9543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A152" s="10" t="s">
         <v>239</v>
       </c>
@@ -9561,7 +9579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A153" s="10" t="s">
         <v>242</v>
       </c>
@@ -9597,7 +9615,7 @@
       <c r="O153" s="12"/>
       <c r="P153" s="12"/>
       <c r="Q153" s="13" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="R153" s="13" t="s">
         <v>238</v>
@@ -9607,7 +9625,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="154" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A154" s="10" t="s">
         <v>244</v>
       </c>
@@ -9645,7 +9663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A155" s="10" t="s">
         <v>245</v>
       </c>
@@ -9681,7 +9699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A156" s="10" t="s">
         <v>248</v>
       </c>
@@ -9711,7 +9729,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A157" s="10" t="s">
         <v>234</v>
       </c>
@@ -9749,7 +9767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A158" s="10" t="s">
         <v>250</v>
       </c>
@@ -9785,7 +9803,7 @@
       <c r="O158" s="12"/>
       <c r="P158" s="12"/>
       <c r="Q158" s="13" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="R158" s="13"/>
       <c r="U158" s="1">
@@ -9793,7 +9811,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="159" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A159" s="10" t="s">
         <v>251</v>
       </c>
@@ -9831,7 +9849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A160" s="10" t="s">
         <v>252</v>
       </c>
@@ -9864,14 +9882,14 @@
         <v>243</v>
       </c>
       <c r="R160" s="13" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="U160" s="1">
         <f t="shared" si="2"/>
         <v>0.13</v>
       </c>
     </row>
-    <row r="161" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A161" s="10" t="s">
         <v>253</v>
       </c>
@@ -9907,7 +9925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A162" s="10" t="s">
         <v>255</v>
       </c>
@@ -9943,7 +9961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A163" s="10" t="s">
         <v>257</v>
       </c>
@@ -9979,7 +9997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A164" s="10" t="s">
         <v>259</v>
       </c>
@@ -10017,7 +10035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A165" s="10" t="s">
         <v>260</v>
       </c>
@@ -10057,7 +10075,7 @@
       <c r="O165" s="12"/>
       <c r="P165" s="12"/>
       <c r="Q165" s="13" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="R165" s="13" t="s">
         <v>161</v>
@@ -10067,7 +10085,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="166" spans="1:21" ht="66" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A166" s="25" t="s">
         <v>261</v>
       </c>
@@ -10101,17 +10119,17 @@
       <c r="O166" s="12"/>
       <c r="P166" s="12"/>
       <c r="Q166" s="14" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="R166" s="13" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="U166" s="1">
         <f>MIN(F166:P166)</f>
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="167" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A167" s="10" t="s">
         <v>262</v>
       </c>
@@ -10147,17 +10165,17 @@
       <c r="O167" s="12"/>
       <c r="P167" s="12"/>
       <c r="Q167" s="13" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="R167" s="13" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="U167" s="1">
         <f t="shared" si="2"/>
         <v>2.7</v>
       </c>
     </row>
-    <row r="168" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A168" s="10" t="s">
         <v>263</v>
       </c>
@@ -10193,7 +10211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A169" s="10" t="s">
         <v>264</v>
       </c>
@@ -10229,7 +10247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A170" s="10" t="s">
         <v>266</v>
       </c>
@@ -10267,7 +10285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:21" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:21" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="10" t="s">
         <v>267</v>
       </c>
@@ -10303,17 +10321,17 @@
       <c r="O171" s="12"/>
       <c r="P171" s="12"/>
       <c r="Q171" s="13" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="R171" s="13" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="U171" s="1">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A172" s="10" t="s">
         <v>268</v>
       </c>
@@ -10351,7 +10369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A173" s="10" t="s">
         <v>270</v>
       </c>
@@ -10389,7 +10407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A174" s="10" t="s">
         <v>271</v>
       </c>
@@ -10427,7 +10445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A175" s="10" t="s">
         <v>272</v>
       </c>
@@ -10463,7 +10481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A176" s="10" t="s">
         <v>274</v>
       </c>
@@ -10495,7 +10513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A177" s="10" t="s">
         <v>276</v>
       </c>
@@ -10529,7 +10547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A178" s="10" t="s">
         <v>277</v>
       </c>
@@ -10563,7 +10581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A179" s="10" t="s">
         <v>278</v>
       </c>
@@ -10597,7 +10615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A180" s="10" t="s">
         <v>279</v>
       </c>
@@ -10633,7 +10651,7 @@
       <c r="O180" s="12"/>
       <c r="P180" s="12"/>
       <c r="Q180" s="13" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="R180" s="13" t="s">
         <v>56</v>
@@ -10643,7 +10661,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A181" s="10" t="s">
         <v>280</v>
       </c>
@@ -10677,7 +10695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A182" s="10" t="s">
         <v>282</v>
       </c>
@@ -10711,7 +10729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A183" s="25" t="s">
         <v>283</v>
       </c>
@@ -10743,7 +10761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A184" s="10" t="s">
         <v>285</v>
       </c>
@@ -10779,7 +10797,7 @@
       <c r="O184" s="12"/>
       <c r="P184" s="12"/>
       <c r="Q184" s="13" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="R184" s="13" t="s">
         <v>161</v>
@@ -10789,7 +10807,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A185" s="10" t="s">
         <v>286</v>
       </c>
@@ -10823,7 +10841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A186" s="10" t="s">
         <v>287</v>
       </c>
@@ -10859,7 +10877,7 @@
       <c r="O186" s="12"/>
       <c r="P186" s="12"/>
       <c r="Q186" s="13" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="R186" s="13"/>
       <c r="U186" s="1">
@@ -10867,7 +10885,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A187" s="25" t="s">
         <v>288</v>
       </c>
@@ -10899,12 +10917,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A188" s="10" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B188" s="10" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C188" s="11">
         <v>3268879</v>
@@ -10930,7 +10948,7 @@
         <v>290</v>
       </c>
       <c r="R188" s="13" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="S188" s="1">
         <v>33</v>
@@ -10943,12 +10961,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A189" s="10" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B189" s="10" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C189" s="11">
         <v>39001020</v>
@@ -10974,7 +10992,7 @@
         <v>290</v>
       </c>
       <c r="R189" s="13" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="S189" s="1">
         <v>33</v>
@@ -10987,12 +11005,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A190" s="10" t="s">
         <v>291</v>
       </c>
       <c r="B190" s="10" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C190" s="11">
         <v>35822469</v>
@@ -11016,7 +11034,7 @@
       <c r="P190" s="12"/>
       <c r="Q190" s="13"/>
       <c r="R190" s="13" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="S190" s="1">
         <v>33</v>
@@ -11029,12 +11047,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A191" s="10" t="s">
         <v>292</v>
       </c>
       <c r="B191" s="10" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C191" s="11">
         <v>67562394</v>
@@ -11058,7 +11076,7 @@
       <c r="P191" s="12"/>
       <c r="Q191" s="13"/>
       <c r="R191" s="13" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="S191" s="1">
         <v>33</v>
@@ -11071,12 +11089,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A192" s="10" t="s">
         <v>293</v>
       </c>
       <c r="B192" s="10" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C192" s="11">
         <v>55673897</v>
@@ -11100,7 +11118,7 @@
       <c r="P192" s="12"/>
       <c r="Q192" s="13"/>
       <c r="R192" s="13" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="S192" s="1">
         <v>33</v>
@@ -11113,12 +11131,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A193" s="10" t="s">
         <v>294</v>
       </c>
       <c r="B193" s="10" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C193" s="11">
         <v>39227286</v>
@@ -11142,7 +11160,7 @@
       <c r="P193" s="12"/>
       <c r="Q193" s="13"/>
       <c r="R193" s="13" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="S193" s="1">
         <v>33</v>
@@ -11155,12 +11173,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A194" s="10" t="s">
         <v>295</v>
       </c>
       <c r="B194" s="10" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C194" s="11">
         <v>70648269</v>
@@ -11184,7 +11202,7 @@
       <c r="P194" s="12"/>
       <c r="Q194" s="13"/>
       <c r="R194" s="13" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="S194" s="1">
         <v>33</v>
@@ -11197,12 +11215,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A195" s="10" t="s">
         <v>296</v>
       </c>
       <c r="B195" s="10" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C195" s="11">
         <v>57653857</v>
@@ -11226,7 +11244,7 @@
       <c r="P195" s="12"/>
       <c r="Q195" s="13"/>
       <c r="R195" s="13" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="S195" s="1">
         <v>33</v>
@@ -11239,12 +11257,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A196" s="10" t="s">
         <v>297</v>
       </c>
       <c r="B196" s="10" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C196" s="11">
         <v>57117449</v>
@@ -11268,7 +11286,7 @@
       <c r="P196" s="12"/>
       <c r="Q196" s="13"/>
       <c r="R196" s="13" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="S196" s="1">
         <v>33</v>
@@ -11281,12 +11299,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A197" s="10" t="s">
         <v>298</v>
       </c>
       <c r="B197" s="10" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C197" s="11">
         <v>19408743</v>
@@ -11310,7 +11328,7 @@
       <c r="P197" s="12"/>
       <c r="Q197" s="13"/>
       <c r="R197" s="13" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="S197" s="1">
         <v>33</v>
@@ -11323,12 +11341,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A198" s="10" t="s">
         <v>299</v>
       </c>
       <c r="B198" s="10" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C198" s="11">
         <v>72918219</v>
@@ -11352,7 +11370,7 @@
       <c r="P198" s="12"/>
       <c r="Q198" s="13"/>
       <c r="R198" s="13" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="S198" s="1">
         <v>33</v>
@@ -11365,12 +11383,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A199" s="10" t="s">
         <v>300</v>
       </c>
       <c r="B199" s="10" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C199" s="11">
         <v>40321764</v>
@@ -11394,7 +11412,7 @@
       <c r="P199" s="12"/>
       <c r="Q199" s="13"/>
       <c r="R199" s="13" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="S199" s="1">
         <v>33</v>
@@ -11407,12 +11425,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A200" s="10" t="s">
         <v>301</v>
       </c>
       <c r="B200" s="10" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C200" s="11">
         <v>57117416</v>
@@ -11438,7 +11456,7 @@
         <v>290</v>
       </c>
       <c r="R200" s="13" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="S200" s="1">
         <v>33</v>
@@ -11451,12 +11469,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A201" s="10" t="s">
         <v>302</v>
       </c>
       <c r="B201" s="10" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C201" s="11">
         <v>60851345</v>
@@ -11480,7 +11498,7 @@
       <c r="P201" s="12"/>
       <c r="Q201" s="13"/>
       <c r="R201" s="13" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="S201" s="1">
         <v>33</v>
@@ -11493,12 +11511,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A202" s="10" t="s">
         <v>303</v>
       </c>
       <c r="B202" s="10" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C202" s="11">
         <v>57117314</v>
@@ -11524,7 +11542,7 @@
         <v>290</v>
       </c>
       <c r="R202" s="13" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="S202" s="1">
         <v>33</v>
@@ -11537,12 +11555,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A203" s="10" t="s">
         <v>304</v>
       </c>
       <c r="B203" s="10" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C203" s="11">
         <v>1746016</v>
@@ -11566,7 +11584,7 @@
       <c r="P203" s="12"/>
       <c r="Q203" s="13"/>
       <c r="R203" s="13" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="S203" s="1">
         <v>33</v>
@@ -11579,12 +11597,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A204" s="10" t="s">
         <v>305</v>
       </c>
       <c r="B204" s="10" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C204" s="11">
         <v>51207319</v>
@@ -11608,7 +11626,7 @@
       <c r="P204" s="12"/>
       <c r="Q204" s="13"/>
       <c r="R204" s="13" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="S204" s="1">
         <v>33</v>
@@ -11621,7 +11639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A205" s="10" t="s">
         <v>306</v>
       </c>
@@ -11665,7 +11683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A206" s="10" t="s">
         <v>309</v>
       </c>
@@ -11697,7 +11715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A207" s="10" t="s">
         <v>310</v>
       </c>
@@ -11739,17 +11757,17 @@
       <c r="O207" s="12"/>
       <c r="P207" s="12"/>
       <c r="Q207" s="13" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="R207" s="13" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="U207" s="1">
         <f t="shared" si="3"/>
         <v>1.3</v>
       </c>
     </row>
-    <row r="208" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A208" s="10" t="s">
         <v>311</v>
       </c>
@@ -11787,7 +11805,7 @@
       <c r="O208" s="12"/>
       <c r="P208" s="12"/>
       <c r="Q208" s="13" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="R208" s="13" t="s">
         <v>22</v>
@@ -11797,7 +11815,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A209" s="10" t="s">
         <v>312</v>
       </c>
@@ -11811,7 +11829,7 @@
         <v>2.5000000000000002E-6</v>
       </c>
       <c r="E209" s="12">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="F209" s="12">
         <v>140</v>
@@ -11835,14 +11853,16 @@
       <c r="O209" s="12"/>
       <c r="P209" s="12"/>
       <c r="Q209" s="13" t="s">
-        <v>767</v>
-      </c>
-      <c r="R209" s="13"/>
+        <v>766</v>
+      </c>
+      <c r="R209" s="13" t="s">
+        <v>859</v>
+      </c>
       <c r="U209" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="210" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A210" s="10" t="s">
         <v>313</v>
       </c>
@@ -11878,7 +11898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A211" s="10" t="s">
         <v>315</v>
       </c>
@@ -11914,7 +11934,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="212" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A212" s="10" t="s">
         <v>316</v>
       </c>
@@ -11950,7 +11970,7 @@
       <c r="O212" s="12"/>
       <c r="P212" s="12"/>
       <c r="Q212" s="13" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="R212" s="13"/>
       <c r="U212" s="1">
@@ -11958,7 +11978,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="213" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A213" s="10" t="s">
         <v>317</v>
       </c>
@@ -11996,7 +12016,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="214" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A214" s="10" t="s">
         <v>318</v>
       </c>
@@ -12032,7 +12052,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A215" s="10" t="s">
         <v>319</v>
       </c>
@@ -12064,7 +12084,7 @@
       <c r="O215" s="12"/>
       <c r="P215" s="12"/>
       <c r="Q215" s="13" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="R215" s="13"/>
       <c r="U215" s="1">
@@ -12072,7 +12092,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="216" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A216" s="10" t="s">
         <v>320</v>
       </c>
@@ -12100,23 +12120,25 @@
       <c r="K216" s="12">
         <v>90</v>
       </c>
-      <c r="L216" s="12"/>
+      <c r="L216" s="12">
+        <v>0.72</v>
+      </c>
       <c r="M216" s="12"/>
       <c r="N216" s="12"/>
       <c r="O216" s="12"/>
       <c r="P216" s="12"/>
       <c r="Q216" s="13" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="R216" s="13" t="s">
-        <v>739</v>
+        <v>861</v>
       </c>
       <c r="U216" s="1">
         <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="217" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="217" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A217" s="10" t="s">
         <v>321</v>
       </c>
@@ -12150,7 +12172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A218" s="10" t="s">
         <v>322</v>
       </c>
@@ -12186,7 +12208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A219" s="10" t="s">
         <v>324</v>
       </c>
@@ -12230,7 +12252,7 @@
       <c r="O219" s="12"/>
       <c r="P219" s="12"/>
       <c r="Q219" s="13" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="R219" s="13" t="s">
         <v>325</v>
@@ -12240,7 +12262,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A220" s="25" t="s">
         <v>329</v>
       </c>
@@ -12280,7 +12302,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="221" spans="1:21" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:21" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="25" t="s">
         <v>334</v>
       </c>
@@ -12313,14 +12335,14 @@
         <v>48</v>
       </c>
       <c r="R221" s="13" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="U221" s="1">
         <f>MIN(F221:P221)</f>
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="222" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A222" s="25" t="s">
         <v>333</v>
       </c>
@@ -12360,7 +12382,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:21" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:21" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="25" t="s">
         <v>335</v>
       </c>
@@ -12391,14 +12413,14 @@
         <v>336</v>
       </c>
       <c r="R223" s="13" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="U223" s="1">
         <f t="shared" si="3"/>
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="224" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A224" s="25" t="s">
         <v>338</v>
       </c>
@@ -12438,7 +12460,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="225" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A225" s="10" t="s">
         <v>339</v>
       </c>
@@ -12474,7 +12496,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A226" s="25" t="s">
         <v>342</v>
       </c>
@@ -12512,7 +12534,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="227" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A227" s="25" t="s">
         <v>343</v>
       </c>
@@ -12552,7 +12574,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A228" s="25" t="s">
         <v>344</v>
       </c>
@@ -12590,7 +12612,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="229" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A229" s="10" t="s">
         <v>345</v>
       </c>
@@ -12628,7 +12650,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="230" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A230" s="10" t="s">
         <v>347</v>
       </c>
@@ -12668,7 +12690,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A231" s="25" t="s">
         <v>349</v>
       </c>
@@ -12708,7 +12730,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A232" s="38" t="s">
         <v>350</v>
       </c>
@@ -12746,7 +12768,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A233" s="10" t="s">
         <v>353</v>
       </c>
@@ -12784,7 +12806,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A234" s="10" t="s">
         <v>354</v>
       </c>
@@ -12822,7 +12844,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="235" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A235" s="10" t="s">
         <v>356</v>
       </c>
@@ -12860,7 +12882,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="236" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A236" s="10" t="s">
         <v>358</v>
       </c>
@@ -12896,7 +12918,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="237" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A237" s="10" t="s">
         <v>359</v>
       </c>
@@ -12934,7 +12956,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A238" s="10" t="s">
         <v>361</v>
       </c>
@@ -12974,7 +12996,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="239" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A239" s="38" t="s">
         <v>365</v>
       </c>
@@ -13014,7 +13036,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="240" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A240" s="25" t="s">
         <v>366</v>
       </c>
@@ -13054,7 +13076,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="241" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A241" s="25" t="s">
         <v>367</v>
       </c>
@@ -13092,7 +13114,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="242" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A242" s="25" t="s">
         <v>370</v>
       </c>
@@ -13122,7 +13144,7 @@
       <c r="O242" s="12"/>
       <c r="P242" s="12"/>
       <c r="Q242" s="14" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="R242" s="13" t="s">
         <v>328</v>
@@ -13132,7 +13154,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A243" s="25" t="s">
         <v>371</v>
       </c>
@@ -13172,7 +13194,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="244" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A244" s="25" t="s">
         <v>372</v>
       </c>
@@ -13212,7 +13234,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="245" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A245" s="25" t="s">
         <v>373</v>
       </c>
@@ -13246,15 +13268,15 @@
         <v>328</v>
       </c>
     </row>
-    <row r="246" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="25" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B246" s="10" t="s">
         <v>327</v>
       </c>
       <c r="C246" s="26" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="D246" s="12"/>
       <c r="E246" s="12">
@@ -13274,13 +13296,13 @@
       <c r="O246" s="12"/>
       <c r="P246" s="12"/>
       <c r="Q246" s="14" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="R246" s="13" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="247" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A247" s="10" t="s">
         <v>374</v>
       </c>
@@ -13318,7 +13340,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="248" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A248" s="10" t="s">
         <v>375</v>
       </c>
@@ -13352,7 +13374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A249" s="10" t="s">
         <v>376</v>
       </c>
@@ -13386,7 +13408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A250" s="10" t="s">
         <v>377</v>
       </c>
@@ -13424,7 +13446,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="251" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A251" s="10" t="s">
         <v>378</v>
       </c>
@@ -13458,7 +13480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A252" s="10" t="s">
         <v>379</v>
       </c>
@@ -13494,7 +13516,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="253" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A253" s="10" t="s">
         <v>381</v>
       </c>
@@ -13528,7 +13550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A254" s="10" t="s">
         <v>382</v>
       </c>
@@ -13560,7 +13582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A255" s="10" t="s">
         <v>383</v>
       </c>
@@ -13592,7 +13614,7 @@
       <c r="O255" s="12"/>
       <c r="P255" s="12"/>
       <c r="Q255" s="13" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="R255" s="13" t="s">
         <v>738</v>
@@ -13602,7 +13624,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="256" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A256" s="10" t="s">
         <v>385</v>
       </c>
@@ -13642,17 +13664,17 @@
       <c r="O256" s="12"/>
       <c r="P256" s="12"/>
       <c r="Q256" s="13" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="R256" s="13" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="U256" s="1">
         <f t="shared" si="4"/>
         <v>0.13</v>
       </c>
     </row>
-    <row r="257" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A257" s="10" t="s">
         <v>386</v>
       </c>
@@ -13694,7 +13716,7 @@
       <c r="O257" s="12"/>
       <c r="P257" s="12"/>
       <c r="Q257" s="13" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="R257" s="13" t="s">
         <v>22</v>
@@ -13704,7 +13726,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="258" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A258" s="10" t="s">
         <v>387</v>
       </c>
@@ -13748,7 +13770,7 @@
       <c r="O258" s="12"/>
       <c r="P258" s="12"/>
       <c r="Q258" s="13" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="R258" s="13" t="s">
         <v>22</v>
@@ -13758,7 +13780,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="259" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A259" s="10" t="s">
         <v>388</v>
       </c>
@@ -13792,7 +13814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A260" s="10" t="s">
         <v>389</v>
       </c>
@@ -13826,7 +13848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A261" s="25" t="s">
         <v>390</v>
       </c>
@@ -13862,7 +13884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A262" s="25" t="s">
         <v>393</v>
       </c>
@@ -13898,7 +13920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A263" s="25" t="s">
         <v>395</v>
       </c>
@@ -13936,7 +13958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A264" s="25" t="s">
         <v>396</v>
       </c>
@@ -13974,7 +13996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A265" s="38" t="s">
         <v>397</v>
       </c>
@@ -14012,7 +14034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A266" s="38" t="s">
         <v>398</v>
       </c>
@@ -14048,7 +14070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A267" s="10" t="s">
         <v>391</v>
       </c>
@@ -14082,7 +14104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A268" s="10" t="s">
         <v>400</v>
       </c>
@@ -14118,7 +14140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A269" s="25" t="s">
         <v>402</v>
       </c>
@@ -14156,7 +14178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A270" s="25" t="s">
         <v>403</v>
       </c>
@@ -14192,7 +14214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A271" s="25" t="s">
         <v>404</v>
       </c>
@@ -14228,7 +14250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A272" s="25" t="s">
         <v>405</v>
       </c>
@@ -14264,7 +14286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A273" s="10" t="s">
         <v>406</v>
       </c>
@@ -14300,7 +14322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A274" s="10" t="s">
         <v>407</v>
       </c>
@@ -14336,7 +14358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A275" s="10" t="s">
         <v>408</v>
       </c>
@@ -14376,7 +14398,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="276" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A276" s="10" t="s">
         <v>409</v>
       </c>
@@ -14412,7 +14434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A277" s="10" t="s">
         <v>410</v>
       </c>
@@ -14448,7 +14470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A278" s="25" t="s">
         <v>413</v>
       </c>
@@ -14486,7 +14508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A279" s="25" t="s">
         <v>415</v>
       </c>
@@ -14522,7 +14544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A280" s="25" t="s">
         <v>416</v>
       </c>
@@ -14558,7 +14580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A281" s="25" t="s">
         <v>418</v>
       </c>
@@ -14596,7 +14618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A282" s="25" t="s">
         <v>419</v>
       </c>
@@ -14632,7 +14654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A283" s="25" t="s">
         <v>420</v>
       </c>
@@ -14668,7 +14690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A284" s="25" t="s">
         <v>421</v>
       </c>
@@ -14706,7 +14728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A285" s="10" t="s">
         <v>423</v>
       </c>
@@ -14742,7 +14764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A286" s="10" t="s">
         <v>426</v>
       </c>
@@ -14778,7 +14800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A287" s="10" t="s">
         <v>428</v>
       </c>
@@ -14814,7 +14836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A288" s="10" t="s">
         <v>429</v>
       </c>
@@ -14850,7 +14872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:22" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A289" s="10" t="s">
         <v>431</v>
       </c>
@@ -14886,7 +14908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:22" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A290" s="10" t="s">
         <v>433</v>
       </c>
@@ -14922,7 +14944,7 @@
       <c r="O290" s="12"/>
       <c r="P290" s="12"/>
       <c r="Q290" s="13" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="R290" s="13"/>
       <c r="U290" s="1">
@@ -14930,7 +14952,7 @@
         <v>5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="291" spans="1:22" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A291" s="10" t="s">
         <v>434</v>
       </c>
@@ -14966,7 +14988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:22" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A292" s="10" t="s">
         <v>424</v>
       </c>
@@ -15002,7 +15024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:22" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A293" s="10" t="s">
         <v>436</v>
       </c>
@@ -15038,7 +15060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:22" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A294" s="10" t="s">
         <v>438</v>
       </c>
@@ -15074,7 +15096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:22" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A295" s="10" t="s">
         <v>439</v>
       </c>
@@ -15110,7 +15132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:22" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A296" s="10" t="s">
         <v>441</v>
       </c>
@@ -15146,7 +15168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:22" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A297" s="10" t="s">
         <v>442</v>
       </c>
@@ -15182,7 +15204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:22" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A298" s="10" t="s">
         <v>443</v>
       </c>
@@ -15224,7 +15246,7 @@
       <c r="O298" s="12"/>
       <c r="P298" s="12"/>
       <c r="Q298" s="13" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="R298" s="13" t="s">
         <v>444</v>
@@ -15234,7 +15256,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="299" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A299" s="10" t="s">
         <v>445</v>
       </c>
@@ -15266,7 +15288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:22" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A300" s="10" t="s">
         <v>446</v>
       </c>
@@ -15304,7 +15326,7 @@
       <c r="O300" s="12"/>
       <c r="P300" s="12"/>
       <c r="Q300" s="13" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="R300" s="13" t="s">
         <v>161</v>
@@ -15314,7 +15336,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="301" spans="1:22" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A301" s="10" t="s">
         <v>447</v>
       </c>
@@ -15352,7 +15374,7 @@
       <c r="O301" s="12"/>
       <c r="P301" s="12"/>
       <c r="Q301" s="13" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="R301" s="48" t="s">
         <v>736</v>
@@ -15363,7 +15385,7 @@
       </c>
       <c r="V301" s="46"/>
     </row>
-    <row r="302" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A302" s="10" t="s">
         <v>448</v>
       </c>
@@ -15395,17 +15417,17 @@
       <c r="O302" s="12"/>
       <c r="P302" s="12"/>
       <c r="Q302" s="13" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="R302" s="13" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="U302" s="1">
         <f t="shared" si="4"/>
         <v>0.21</v>
       </c>
     </row>
-    <row r="303" spans="1:22" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A303" s="10" t="s">
         <v>449</v>
       </c>
@@ -15445,17 +15467,17 @@
       <c r="O303" s="12"/>
       <c r="P303" s="12"/>
       <c r="Q303" s="13" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="R303" s="13" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="U303" s="1">
         <f t="shared" si="4"/>
         <v>64</v>
       </c>
     </row>
-    <row r="304" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A304" s="10" t="s">
         <v>450</v>
       </c>
@@ -15491,7 +15513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A305" s="10" t="s">
         <v>452</v>
       </c>
@@ -15527,7 +15549,7 @@
       <c r="O305" s="12"/>
       <c r="P305" s="12"/>
       <c r="Q305" s="13" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="R305" s="13" t="s">
         <v>161</v>
@@ -15537,7 +15559,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="306" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A306" s="10" t="s">
         <v>453</v>
       </c>
@@ -15573,7 +15595,7 @@
       <c r="O306" s="12"/>
       <c r="P306" s="12"/>
       <c r="Q306" s="13" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="R306" s="13"/>
       <c r="U306" s="1">
@@ -15581,7 +15603,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="307" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A307" s="10" t="s">
         <v>454</v>
       </c>
@@ -15623,17 +15645,17 @@
       <c r="O307" s="12"/>
       <c r="P307" s="12"/>
       <c r="Q307" s="13" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="R307" s="13" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="U307" s="1">
         <f t="shared" si="4"/>
         <v>7.2</v>
       </c>
     </row>
-    <row r="308" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A308" s="10" t="s">
         <v>455</v>
       </c>
@@ -15675,7 +15697,7 @@
       <c r="O308" s="12"/>
       <c r="P308" s="12"/>
       <c r="Q308" s="13" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="R308" s="13" t="s">
         <v>456</v>
@@ -15685,7 +15707,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="309" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A309" s="10" t="s">
         <v>457</v>
       </c>
@@ -15719,7 +15741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A310" s="10" t="s">
         <v>458</v>
       </c>
@@ -15753,7 +15775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:21" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:21" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A311" s="25" t="s">
         <v>459</v>
       </c>
@@ -15791,7 +15813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:21" ht="66" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A312" s="25" t="s">
         <v>462</v>
       </c>
@@ -15829,7 +15851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:21" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A313" s="10" t="s">
         <v>464</v>
       </c>
@@ -15861,7 +15883,7 @@
       <c r="O313" s="12"/>
       <c r="P313" s="12"/>
       <c r="Q313" s="13" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="R313" s="13" t="s">
         <v>465</v>
@@ -15871,7 +15893,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="314" spans="1:21" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A314" s="10" t="s">
         <v>466</v>
       </c>
@@ -15909,7 +15931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:21" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:21" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="10" t="s">
         <v>460</v>
       </c>
@@ -15938,14 +15960,14 @@
       <c r="P315" s="12"/>
       <c r="Q315" s="13"/>
       <c r="R315" s="13" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="U315" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:21" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A316" s="10" t="s">
         <v>468</v>
       </c>
@@ -15983,7 +16005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:21" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A317" s="10" t="s">
         <v>469</v>
       </c>
@@ -16019,7 +16041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="10" t="s">
         <v>471</v>
       </c>
@@ -16053,7 +16075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A319" s="10" t="s">
         <v>474</v>
       </c>
@@ -16089,7 +16111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:21" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A320" s="10" t="s">
         <v>476</v>
       </c>
@@ -16127,7 +16149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:21" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A321" s="10" t="s">
         <v>478</v>
       </c>
@@ -16165,7 +16187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A322" s="10" t="s">
         <v>480</v>
       </c>
@@ -16201,7 +16223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A323" s="10" t="s">
         <v>482</v>
       </c>
@@ -16237,7 +16259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A324" s="10" t="s">
         <v>484</v>
       </c>
@@ -16271,7 +16293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A325" s="10" t="s">
         <v>485</v>
       </c>
@@ -16303,7 +16325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A326" s="10" t="s">
         <v>488</v>
       </c>
@@ -16337,7 +16359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A327" s="10" t="s">
         <v>489</v>
       </c>
@@ -16369,7 +16391,7 @@
       <c r="O327" s="12"/>
       <c r="P327" s="12"/>
       <c r="Q327" s="13" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="R327" s="13"/>
       <c r="U327" s="1">
@@ -16377,7 +16399,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="328" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A328" s="10" t="s">
         <v>490</v>
       </c>
@@ -16413,7 +16435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A329" s="10" t="s">
         <v>492</v>
       </c>
@@ -16447,7 +16469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A330" s="10" t="s">
         <v>493</v>
       </c>
@@ -16489,7 +16511,7 @@
       <c r="O330" s="12"/>
       <c r="P330" s="12"/>
       <c r="Q330" s="13" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="R330" s="13" t="s">
         <v>22</v>
@@ -16499,7 +16521,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="331" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A331" s="10" t="s">
         <v>494</v>
       </c>
@@ -16535,7 +16557,7 @@
       <c r="O331" s="12"/>
       <c r="P331" s="12"/>
       <c r="Q331" s="13" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="R331" s="13" t="s">
         <v>161</v>
@@ -16545,7 +16567,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="332" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A332" s="10" t="s">
         <v>495</v>
       </c>
@@ -16579,7 +16601,7 @@
       <c r="O332" s="12"/>
       <c r="P332" s="12"/>
       <c r="Q332" s="13" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="R332" s="13" t="s">
         <v>161</v>
@@ -16589,7 +16611,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="333" spans="1:21" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:21" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="10" t="s">
         <v>496</v>
       </c>
@@ -16623,17 +16645,17 @@
       <c r="O333" s="12"/>
       <c r="P333" s="12"/>
       <c r="Q333" s="13" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="R333" s="13" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="U333" s="1">
         <f t="shared" si="5"/>
         <v>0.47</v>
       </c>
     </row>
-    <row r="334" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A334" s="10" t="s">
         <v>498</v>
       </c>
@@ -16667,7 +16689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A335" s="10" t="s">
         <v>499</v>
       </c>
@@ -16699,7 +16721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A336" s="10" t="s">
         <v>501</v>
       </c>
@@ -16728,14 +16750,14 @@
       <c r="P336" s="12"/>
       <c r="Q336" s="13"/>
       <c r="R336" s="13" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="U336" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A337" s="10" t="s">
         <v>503</v>
       </c>
@@ -16764,14 +16786,14 @@
         <v>92</v>
       </c>
       <c r="R337" s="13" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="U337" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A338" s="10" t="s">
         <v>505</v>
       </c>
@@ -16800,14 +16822,14 @@
         <v>92</v>
       </c>
       <c r="R338" s="13" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="U338" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A339" s="10" t="s">
         <v>507</v>
       </c>
@@ -16836,14 +16858,14 @@
         <v>92</v>
       </c>
       <c r="R339" s="13" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="U339" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A340" s="10" t="s">
         <v>509</v>
       </c>
@@ -16872,14 +16894,14 @@
       <c r="P340" s="12"/>
       <c r="Q340" s="13"/>
       <c r="R340" s="13" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="U340" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A341" s="10" t="s">
         <v>510</v>
       </c>
@@ -16908,14 +16930,14 @@
         <v>92</v>
       </c>
       <c r="R341" s="13" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="U341" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A342" s="10" t="s">
         <v>512</v>
       </c>
@@ -16948,9 +16970,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A343" s="57" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B343" s="10" t="s">
         <v>502</v>
@@ -16974,13 +16996,13 @@
       <c r="O343" s="12"/>
       <c r="P343" s="12"/>
       <c r="Q343" s="13" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="R343" s="13" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="344" spans="1:21" x14ac:dyDescent="0.25">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="344" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A344" s="10" t="s">
         <v>513</v>
       </c>
@@ -17009,10 +17031,10 @@
         <v>514</v>
       </c>
       <c r="R344" s="13" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="345" spans="1:21" x14ac:dyDescent="0.25">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="345" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A345" s="10" t="s">
         <v>515</v>
       </c>
@@ -17041,10 +17063,10 @@
         <v>514</v>
       </c>
       <c r="R345" s="13" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="346" spans="1:21" x14ac:dyDescent="0.25">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="346" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A346" s="10" t="s">
         <v>516</v>
       </c>
@@ -17073,10 +17095,10 @@
         <v>514</v>
       </c>
       <c r="R346" s="13" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="347" spans="1:21" x14ac:dyDescent="0.25">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="347" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A347" s="10" t="s">
         <v>517</v>
       </c>
@@ -17105,10 +17127,10 @@
         <v>514</v>
       </c>
       <c r="R347" s="13" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="348" spans="1:21" x14ac:dyDescent="0.25">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="348" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A348" s="10" t="s">
         <v>518</v>
       </c>
@@ -17137,10 +17159,10 @@
         <v>514</v>
       </c>
       <c r="R348" s="13" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="349" spans="1:21" x14ac:dyDescent="0.25">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="349" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A349" s="10" t="s">
         <v>519</v>
       </c>
@@ -17169,10 +17191,10 @@
         <v>514</v>
       </c>
       <c r="R349" s="13" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="350" spans="1:21" x14ac:dyDescent="0.25">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="350" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A350" s="10" t="s">
         <v>520</v>
       </c>
@@ -17201,10 +17223,10 @@
         <v>514</v>
       </c>
       <c r="R350" s="13" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="351" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="351" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A351" s="10" t="s">
         <v>521</v>
       </c>
@@ -17231,14 +17253,14 @@
         <v>48</v>
       </c>
       <c r="R351" s="13" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="U351" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A352" s="10" t="s">
         <v>523</v>
       </c>
@@ -17267,14 +17289,14 @@
         <v>48</v>
       </c>
       <c r="R352" s="13" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="U352" s="1">
         <f>MIN(F352:P352)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A353" s="10" t="s">
         <v>525</v>
       </c>
@@ -17282,7 +17304,7 @@
         <v>526</v>
       </c>
       <c r="C353" s="24" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D353" s="12">
         <v>4.8000000000000001E-5</v>
@@ -17303,14 +17325,14 @@
         <v>48</v>
       </c>
       <c r="R353" s="13" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="U353" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A354" s="10" t="s">
         <v>527</v>
       </c>
@@ -17339,14 +17361,14 @@
         <v>48</v>
       </c>
       <c r="R354" s="13" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="U354" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A355" s="10" t="s">
         <v>528</v>
       </c>
@@ -17373,14 +17395,14 @@
         <v>48</v>
       </c>
       <c r="R355" s="13" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="U355" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A356" s="10" t="s">
         <v>530</v>
       </c>
@@ -17409,14 +17431,14 @@
       <c r="P356" s="12"/>
       <c r="Q356" s="13"/>
       <c r="R356" s="13" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="U356" s="1">
         <f>MIN(F356:P356)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A357" s="10" t="s">
         <v>532</v>
       </c>
@@ -17445,18 +17467,18 @@
         <v>336</v>
       </c>
       <c r="R357" s="13" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="358" spans="1:21" x14ac:dyDescent="0.25">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="358" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A358" s="10" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B358" s="10" t="s">
         <v>531</v>
       </c>
       <c r="C358" s="51" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D358" s="12">
         <v>4.8000000000000001E-5</v>
@@ -17474,13 +17496,13 @@
       <c r="O358" s="12"/>
       <c r="P358" s="12"/>
       <c r="Q358" s="13" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="R358" s="13" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="359" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="359" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A359" s="10" t="s">
         <v>533</v>
       </c>
@@ -17509,10 +17531,10 @@
         <v>336</v>
       </c>
       <c r="R359" s="13" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="360" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="360" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A360" s="10" t="s">
         <v>534</v>
       </c>
@@ -17541,14 +17563,14 @@
       <c r="P360" s="12"/>
       <c r="Q360" s="13"/>
       <c r="R360" s="13" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="U360" s="1">
         <f>MIN(F360:P360)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A361" s="25" t="s">
         <v>535</v>
       </c>
@@ -17577,14 +17599,14 @@
         <v>92</v>
       </c>
       <c r="R361" s="13" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="U361" s="1">
         <f>MIN(F361:P361)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A362" s="25" t="s">
         <v>537</v>
       </c>
@@ -17613,10 +17635,10 @@
         <v>336</v>
       </c>
       <c r="R362" s="13" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="363" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="363" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A363" s="10" t="s">
         <v>538</v>
       </c>
@@ -17645,14 +17667,14 @@
       <c r="P363" s="12"/>
       <c r="Q363" s="13"/>
       <c r="R363" s="13" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="U363" s="1">
         <f>MIN(F363:P363)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A364" s="10" t="s">
         <v>539</v>
       </c>
@@ -17681,14 +17703,14 @@
       <c r="P364" s="12"/>
       <c r="Q364" s="13"/>
       <c r="R364" s="13" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="U364" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A365" s="10" t="s">
         <v>541</v>
       </c>
@@ -17717,14 +17739,14 @@
       <c r="P365" s="12"/>
       <c r="Q365" s="13"/>
       <c r="R365" s="13" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="U365" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A366" s="10" t="s">
         <v>542</v>
       </c>
@@ -17758,7 +17780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A367" s="10" t="s">
         <v>545</v>
       </c>
@@ -17787,14 +17809,14 @@
         <v>546</v>
       </c>
       <c r="R367" s="13" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="U367" s="1">
         <f>MIN(F367:P367)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A368" s="10" t="s">
         <v>607</v>
       </c>
@@ -17823,10 +17845,10 @@
         <v>609</v>
       </c>
       <c r="R368" s="13" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="369" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="369" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A369" s="25" t="s">
         <v>547</v>
       </c>
@@ -17855,14 +17877,14 @@
         <v>48</v>
       </c>
       <c r="R369" s="13" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="U369" s="1">
         <f>MIN(F369:P369)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A370" s="10" t="s">
         <v>548</v>
       </c>
@@ -17891,14 +17913,14 @@
       <c r="P370" s="12"/>
       <c r="Q370" s="13"/>
       <c r="R370" s="13" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="U370" s="1">
         <f>MIN(F370:P370)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A371" s="10" t="s">
         <v>549</v>
       </c>
@@ -17929,14 +17951,14 @@
         <v>546</v>
       </c>
       <c r="R371" s="13" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="U371" s="1">
         <f>MIN(F371:P371)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A372" s="10" t="s">
         <v>551</v>
       </c>
@@ -17965,14 +17987,14 @@
       <c r="P372" s="12"/>
       <c r="Q372" s="13"/>
       <c r="R372" s="13" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="U372" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A373" s="10" t="s">
         <v>553</v>
       </c>
@@ -17999,10 +18021,10 @@
       <c r="P373" s="12"/>
       <c r="Q373" s="13"/>
       <c r="R373" s="13" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="374" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="374" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A374" s="10" t="s">
         <v>555</v>
       </c>
@@ -18031,10 +18053,10 @@
         <v>336</v>
       </c>
       <c r="R374" s="13" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="375" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="375" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A375" s="10" t="s">
         <v>556</v>
       </c>
@@ -18063,14 +18085,14 @@
       <c r="P375" s="12"/>
       <c r="Q375" s="13"/>
       <c r="R375" s="13" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="U375" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A376" s="10" t="s">
         <v>557</v>
       </c>
@@ -18099,14 +18121,14 @@
       <c r="P376" s="12"/>
       <c r="Q376" s="13"/>
       <c r="R376" s="13" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="U376" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A377" s="10" t="s">
         <v>558</v>
       </c>
@@ -18133,10 +18155,10 @@
       <c r="P377" s="12"/>
       <c r="Q377" s="13"/>
       <c r="R377" s="13" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="378" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="378" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A378" s="10" t="s">
         <v>560</v>
       </c>
@@ -18165,18 +18187,18 @@
         <v>336</v>
       </c>
       <c r="R378" s="13" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="379" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="379" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A379" s="10" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B379" s="10" t="s">
         <v>531</v>
       </c>
       <c r="C379" s="11" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="D379" s="12">
         <v>4.8000000000000001E-5</v>
@@ -18194,13 +18216,13 @@
       <c r="O379" s="12"/>
       <c r="P379" s="12"/>
       <c r="Q379" s="13" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="R379" s="13" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="380" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="380" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A380" s="10" t="s">
         <v>561</v>
       </c>
@@ -18229,10 +18251,10 @@
         <v>336</v>
       </c>
       <c r="R380" s="13" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="381" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="381" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A381" s="10" t="s">
         <v>562</v>
       </c>
@@ -18261,14 +18283,14 @@
         <v>92</v>
       </c>
       <c r="R381" s="13" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="U381" s="1">
         <f>MIN(F381:P381)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A382" s="25" t="s">
         <v>564</v>
       </c>
@@ -18297,14 +18319,14 @@
         <v>48</v>
       </c>
       <c r="R382" s="13" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="U382" s="1">
         <f>MIN(F382:P382)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A383" s="10" t="s">
         <v>565</v>
       </c>
@@ -18338,7 +18360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A384" s="10" t="s">
         <v>566</v>
       </c>
@@ -18372,7 +18394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A385" s="10" t="s">
         <v>567</v>
       </c>
@@ -18399,14 +18421,14 @@
         <v>48</v>
       </c>
       <c r="R385" s="13" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="U385" s="1">
         <f t="shared" ref="U385:U464" si="6">MIN(F385:P385)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A386" s="10" t="s">
         <v>569</v>
       </c>
@@ -18437,14 +18459,14 @@
         <v>571</v>
       </c>
       <c r="R386" s="13" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="U386" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A387" s="10" t="s">
         <v>572</v>
       </c>
@@ -18471,14 +18493,14 @@
         <v>48</v>
       </c>
       <c r="R387" s="13" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="U387" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A388" s="10" t="s">
         <v>574</v>
       </c>
@@ -18507,14 +18529,14 @@
       <c r="P388" s="12"/>
       <c r="Q388" s="13"/>
       <c r="R388" s="13" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="U388" s="1">
         <f>MIN(F388:P388)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A389" s="10" t="s">
         <v>576</v>
       </c>
@@ -18543,14 +18565,14 @@
       <c r="P389" s="12"/>
       <c r="Q389" s="13"/>
       <c r="R389" s="13" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="U389" s="1">
         <f>MIN(F389:P389)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A390" s="10" t="s">
         <v>577</v>
       </c>
@@ -18579,14 +18601,14 @@
       <c r="P390" s="12"/>
       <c r="Q390" s="13"/>
       <c r="R390" s="13" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="U390" s="1">
         <f>MIN(F390:P390)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A391" s="10" t="s">
         <v>578</v>
       </c>
@@ -18615,14 +18637,14 @@
       <c r="P391" s="12"/>
       <c r="Q391" s="13"/>
       <c r="R391" s="13" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="U391" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A392" s="10" t="s">
         <v>579</v>
       </c>
@@ -18651,14 +18673,14 @@
       <c r="P392" s="12"/>
       <c r="Q392" s="13"/>
       <c r="R392" s="13" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="U392" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A393" s="10" t="s">
         <v>580</v>
       </c>
@@ -18687,14 +18709,14 @@
       <c r="P393" s="12"/>
       <c r="Q393" s="13"/>
       <c r="R393" s="13" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="U393" s="1">
         <f>MIN(F393:P393)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A394" s="10" t="s">
         <v>581</v>
       </c>
@@ -18721,14 +18743,14 @@
         <v>48</v>
       </c>
       <c r="R394" s="13" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="U394" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A395" s="10" t="s">
         <v>583</v>
       </c>
@@ -18757,14 +18779,14 @@
       <c r="P395" s="12"/>
       <c r="Q395" s="13"/>
       <c r="R395" s="13" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="U395" s="1">
         <f t="shared" ref="U395:U403" si="7">MIN(F395:P395)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A396" s="10" t="s">
         <v>585</v>
       </c>
@@ -18793,22 +18815,22 @@
         <v>92</v>
       </c>
       <c r="R396" s="13" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="U396" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A397" s="10" t="s">
+        <v>791</v>
+      </c>
+      <c r="B397" s="10" t="s">
+        <v>792</v>
+      </c>
+      <c r="C397" s="11" t="s">
         <v>793</v>
-      </c>
-      <c r="B397" s="10" t="s">
-        <v>794</v>
-      </c>
-      <c r="C397" s="11" t="s">
-        <v>795</v>
       </c>
       <c r="D397" s="12">
         <v>9.6000000000000002E-4</v>
@@ -18826,13 +18848,13 @@
       <c r="O397" s="12"/>
       <c r="P397" s="12"/>
       <c r="Q397" s="13" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="R397" s="13" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="398" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="398" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A398" s="10" t="s">
         <v>587</v>
       </c>
@@ -18861,14 +18883,14 @@
       <c r="P398" s="12"/>
       <c r="Q398" s="13"/>
       <c r="R398" s="13" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="U398" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A399" s="10" t="s">
         <v>588</v>
       </c>
@@ -18897,14 +18919,14 @@
       <c r="P399" s="12"/>
       <c r="Q399" s="13"/>
       <c r="R399" s="13" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="U399" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:21" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:21" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="10" t="s">
         <v>589</v>
       </c>
@@ -18935,14 +18957,14 @@
         <v>591</v>
       </c>
       <c r="R400" s="13" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="U400" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A401" s="10" t="s">
         <v>592</v>
       </c>
@@ -18971,14 +18993,14 @@
       <c r="P401" s="12"/>
       <c r="Q401" s="13"/>
       <c r="R401" s="13" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="U401" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:21" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:21" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="10" t="s">
         <v>593</v>
       </c>
@@ -19009,14 +19031,14 @@
         <v>594</v>
       </c>
       <c r="R402" s="13" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="U402" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A403" s="10" t="s">
         <v>595</v>
       </c>
@@ -19045,14 +19067,14 @@
       <c r="P403" s="12"/>
       <c r="Q403" s="13"/>
       <c r="R403" s="13" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="U403" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A404" s="10" t="s">
         <v>597</v>
       </c>
@@ -19079,14 +19101,14 @@
         <v>48</v>
       </c>
       <c r="R404" s="13" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="U404" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A405" s="10" t="s">
         <v>599</v>
       </c>
@@ -19115,14 +19137,14 @@
       <c r="P405" s="12"/>
       <c r="Q405" s="13"/>
       <c r="R405" s="13" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="U405" s="1">
         <f t="shared" ref="U405:U410" si="8">MIN(F405:P405)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A406" s="10" t="s">
         <v>601</v>
       </c>
@@ -19151,14 +19173,14 @@
       <c r="P406" s="12"/>
       <c r="Q406" s="13"/>
       <c r="R406" s="13" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="U406" s="1">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A407" s="10" t="s">
         <v>602</v>
       </c>
@@ -19187,14 +19209,14 @@
       <c r="P407" s="12"/>
       <c r="Q407" s="13"/>
       <c r="R407" s="13" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="U407" s="1">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A408" s="10" t="s">
         <v>603</v>
       </c>
@@ -19225,14 +19247,14 @@
         <v>591</v>
       </c>
       <c r="R408" s="13" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="U408" s="1">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A409" s="10" t="s">
         <v>605</v>
       </c>
@@ -19263,14 +19285,14 @@
         <v>591</v>
       </c>
       <c r="R409" s="13" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="U409" s="1">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A410" s="10" t="s">
         <v>606</v>
       </c>
@@ -19299,14 +19321,14 @@
         <v>48</v>
       </c>
       <c r="R410" s="13" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="U410" s="1">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A411" s="10" t="s">
         <v>610</v>
       </c>
@@ -19335,14 +19357,14 @@
       <c r="P411" s="12"/>
       <c r="Q411" s="13"/>
       <c r="R411" s="13" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="U411" s="1">
         <f>MIN(F411:P411)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A412" s="10" t="s">
         <v>612</v>
       </c>
@@ -19371,14 +19393,14 @@
       <c r="P412" s="12"/>
       <c r="Q412" s="13"/>
       <c r="R412" s="13" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="U412" s="1">
         <f>MIN(F412:P412)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A413" s="10" t="s">
         <v>613</v>
       </c>
@@ -19407,14 +19429,14 @@
       <c r="P413" s="12"/>
       <c r="Q413" s="13"/>
       <c r="R413" s="13" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="U413" s="1">
         <f>MIN(F413:P413)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:21" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A414" s="10" t="s">
         <v>614</v>
       </c>
@@ -19445,14 +19467,14 @@
         <v>615</v>
       </c>
       <c r="R414" s="13" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="U414" s="1">
         <f>MIN(F414:P414)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A415" s="10" t="s">
         <v>616</v>
       </c>
@@ -19479,14 +19501,14 @@
         <v>48</v>
       </c>
       <c r="R415" s="13" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="U415" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:21" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:21" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="10" t="s">
         <v>611</v>
       </c>
@@ -19517,14 +19539,14 @@
         <v>591</v>
       </c>
       <c r="R416" s="13" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="U416" s="1">
         <f>MIN(F416:P416)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A417" s="10" t="s">
         <v>618</v>
       </c>
@@ -19553,14 +19575,14 @@
         <v>92</v>
       </c>
       <c r="R417" s="13" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="U417" s="1">
         <f>MIN(F417:P417)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="10" t="s">
         <v>621</v>
       </c>
@@ -19589,14 +19611,14 @@
       <c r="P418" s="12"/>
       <c r="Q418" s="13"/>
       <c r="R418" s="13" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="U418" s="1">
         <f>MIN(F418:P418)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A419" s="10" t="s">
         <v>622</v>
       </c>
@@ -19625,19 +19647,19 @@
       <c r="P419" s="12"/>
       <c r="Q419" s="13"/>
       <c r="R419" s="13" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="U419" s="1">
         <f>MIN(F419:P419)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:21" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:21" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="10" t="s">
         <v>623</v>
       </c>
       <c r="B420" s="10" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C420" s="11">
         <v>218019</v>
@@ -19661,14 +19683,14 @@
       <c r="P420" s="12"/>
       <c r="Q420" s="13"/>
       <c r="R420" s="13" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="U420" s="1">
         <f>MIN(F420:P420)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A421" s="10" t="s">
         <v>625</v>
       </c>
@@ -19695,14 +19717,14 @@
         <v>48</v>
       </c>
       <c r="R421" s="13" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="U421" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A422" s="10" t="s">
         <v>627</v>
       </c>
@@ -19731,14 +19753,14 @@
         <v>48</v>
       </c>
       <c r="R422" s="13" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="U422" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A423" s="10" t="s">
         <v>629</v>
       </c>
@@ -19772,7 +19794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A424" s="10" t="s">
         <v>630</v>
       </c>
@@ -19808,7 +19830,7 @@
       <c r="O424" s="12"/>
       <c r="P424" s="12"/>
       <c r="Q424" s="13" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="R424" s="13" t="s">
         <v>631</v>
@@ -19818,7 +19840,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="425" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A425" s="10" t="s">
         <v>632</v>
       </c>
@@ -19852,7 +19874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A426" s="10" t="s">
         <v>633</v>
       </c>
@@ -19873,7 +19895,7 @@
       <c r="J426" s="12"/>
       <c r="K426" s="12"/>
       <c r="L426" s="12">
-        <v>0.23</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="M426" s="12"/>
       <c r="N426" s="12"/>
@@ -19883,14 +19905,14 @@
         <v>634</v>
       </c>
       <c r="R426" s="13" t="s">
-        <v>56</v>
+        <v>862</v>
       </c>
       <c r="U426" s="1">
         <f t="shared" si="6"/>
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="427" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="427" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A427" s="10" t="s">
         <v>635</v>
       </c>
@@ -19932,7 +19954,7 @@
       <c r="O427" s="12"/>
       <c r="P427" s="12"/>
       <c r="Q427" s="13" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="R427" s="13" t="s">
         <v>22</v>
@@ -19942,7 +19964,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="428" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A428" s="10" t="s">
         <v>636</v>
       </c>
@@ -19976,7 +19998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A429" s="10" t="s">
         <v>637</v>
       </c>
@@ -20010,7 +20032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A430" s="10" t="s">
         <v>638</v>
       </c>
@@ -20042,7 +20064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A431" s="10" t="s">
         <v>639</v>
       </c>
@@ -20070,7 +20092,7 @@
       </c>
       <c r="R431" s="13"/>
     </row>
-    <row r="432" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A432" s="10" t="s">
         <v>642</v>
       </c>
@@ -20098,7 +20120,7 @@
       </c>
       <c r="R432" s="13"/>
     </row>
-    <row r="433" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A433" s="10" t="s">
         <v>644</v>
       </c>
@@ -20124,7 +20146,7 @@
       </c>
       <c r="R433" s="13"/>
     </row>
-    <row r="434" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A434" s="10" t="s">
         <v>645</v>
       </c>
@@ -20150,7 +20172,7 @@
       </c>
       <c r="R434" s="13"/>
     </row>
-    <row r="435" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A435" s="25" t="s">
         <v>646</v>
       </c>
@@ -20186,7 +20208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A436" s="10" t="s">
         <v>649</v>
       </c>
@@ -20224,7 +20246,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="437" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A437" s="10" t="s">
         <v>653</v>
       </c>
@@ -20262,7 +20284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A438" s="10" t="s">
         <v>656</v>
       </c>
@@ -20300,7 +20322,7 @@
       <c r="O438" s="12"/>
       <c r="P438" s="12"/>
       <c r="Q438" s="13" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="R438" s="13" t="s">
         <v>657</v>
@@ -20310,7 +20332,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="439" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A439" s="10" t="s">
         <v>658</v>
       </c>
@@ -20348,7 +20370,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="440" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A440" s="10" t="s">
         <v>661</v>
       </c>
@@ -20386,7 +20408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A441" s="10" t="s">
         <v>664</v>
       </c>
@@ -20422,7 +20444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A442" s="10" t="s">
         <v>667</v>
       </c>
@@ -20458,7 +20480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A443" s="10" t="s">
         <v>669</v>
       </c>
@@ -20494,17 +20516,17 @@
       <c r="O443" s="12"/>
       <c r="P443" s="12"/>
       <c r="Q443" s="13" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="R443" s="13" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="U443" s="1">
         <f t="shared" si="6"/>
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="444" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A444" s="10" t="s">
         <v>671</v>
       </c>
@@ -20540,7 +20562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A445" s="10" t="s">
         <v>674</v>
       </c>
@@ -20576,7 +20598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A446" s="10" t="s">
         <v>670</v>
       </c>
@@ -20610,7 +20632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A447" s="10" t="s">
         <v>675</v>
       </c>
@@ -20644,7 +20666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A448" s="10" t="s">
         <v>676</v>
       </c>
@@ -20678,7 +20700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A449" s="10" t="s">
         <v>678</v>
       </c>
@@ -20712,17 +20734,17 @@
       <c r="O449" s="12"/>
       <c r="P449" s="12"/>
       <c r="Q449" s="13" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="R449" s="13" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="U449" s="1">
         <f t="shared" si="6"/>
         <v>0.13</v>
       </c>
     </row>
-    <row r="450" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A450" s="10" t="s">
         <v>679</v>
       </c>
@@ -20758,7 +20780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A451" s="10" t="s">
         <v>680</v>
       </c>
@@ -20794,7 +20816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A452" s="10" t="s">
         <v>682</v>
       </c>
@@ -20828,7 +20850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A453" s="10" t="s">
         <v>684</v>
       </c>
@@ -20864,7 +20886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A454" s="25" t="s">
         <v>685</v>
       </c>
@@ -20900,7 +20922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A455" s="25" t="s">
         <v>687</v>
       </c>
@@ -20936,7 +20958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A456" s="10" t="s">
         <v>689</v>
       </c>
@@ -20980,7 +21002,7 @@
       <c r="O456" s="12"/>
       <c r="P456" s="12"/>
       <c r="Q456" s="13" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="R456" s="13" t="s">
         <v>22</v>
@@ -20990,7 +21012,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="457" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A457" s="10" t="s">
         <v>690</v>
       </c>
@@ -21024,7 +21046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A458" s="10" t="s">
         <v>691</v>
       </c>
@@ -21068,17 +21090,17 @@
       <c r="O458" s="12"/>
       <c r="P458" s="12"/>
       <c r="Q458" s="13" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="R458" s="13" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="U458" s="1">
         <f t="shared" si="6"/>
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="459" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A459" s="10" t="s">
         <v>692</v>
       </c>
@@ -21114,17 +21136,17 @@
       <c r="O459" s="12"/>
       <c r="P459" s="12"/>
       <c r="Q459" s="13" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="R459" s="13" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="U459" s="1">
         <f t="shared" si="6"/>
         <v>0.73</v>
       </c>
     </row>
-    <row r="460" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:21" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A460" s="10" t="s">
         <v>693</v>
       </c>
@@ -21161,24 +21183,22 @@
       <c r="L460" s="12">
         <v>7.5</v>
       </c>
-      <c r="M460" s="12">
-        <v>37</v>
-      </c>
+      <c r="M460" s="12"/>
       <c r="N460" s="12"/>
       <c r="O460" s="12"/>
       <c r="P460" s="12"/>
       <c r="Q460" s="13" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="R460" s="13" t="s">
-        <v>786</v>
+        <v>863</v>
       </c>
       <c r="U460" s="1">
         <f t="shared" si="6"/>
         <v>7.5</v>
       </c>
     </row>
-    <row r="461" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A461" s="10" t="s">
         <v>694</v>
       </c>
@@ -21212,7 +21232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:21" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:21" ht="108.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A462" s="10" t="s">
         <v>695</v>
       </c>
@@ -21252,17 +21272,17 @@
       <c r="O462" s="12"/>
       <c r="P462" s="12"/>
       <c r="Q462" s="13" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="R462" s="13" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="U462" s="1">
         <f t="shared" si="6"/>
         <v>410</v>
       </c>
     </row>
-    <row r="463" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A463" s="10" t="s">
         <v>696</v>
       </c>
@@ -21298,7 +21318,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="464" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A464" s="10" t="s">
         <v>697</v>
       </c>
@@ -21332,7 +21352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A465" s="10" t="s">
         <v>698</v>
       </c>
@@ -21372,17 +21392,17 @@
       <c r="O465" s="12"/>
       <c r="P465" s="12"/>
       <c r="Q465" s="13" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="R465" s="13" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="U465" s="1">
         <f>MIN(F465:P465)</f>
         <v>18</v>
       </c>
     </row>
-    <row r="466" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A466" s="10" t="s">
         <v>699</v>
       </c>
@@ -21416,7 +21436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A467" s="10" t="s">
         <v>700</v>
       </c>
@@ -21460,7 +21480,7 @@
       <c r="O467" s="12"/>
       <c r="P467" s="12"/>
       <c r="Q467" s="13" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="R467" s="13" t="s">
         <v>701</v>
@@ -21470,7 +21490,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="468" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A468" s="10" t="s">
         <v>702</v>
       </c>
@@ -21503,14 +21523,14 @@
         <v>703</v>
       </c>
       <c r="R468" s="13" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="U468" s="1">
         <f>MIN(F468:P468)</f>
         <v>2000</v>
       </c>
     </row>
-    <row r="469" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A469" s="10" t="s">
         <v>704</v>
       </c>
@@ -21548,7 +21568,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="470" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A470" s="10" t="s">
         <v>707</v>
       </c>
@@ -21582,7 +21602,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="471" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A471" s="27" t="s">
         <v>708</v>
       </c>
@@ -21620,7 +21640,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="472" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A472" s="10" t="s">
         <v>709</v>
       </c>
@@ -21660,7 +21680,7 @@
       <c r="O472" s="12"/>
       <c r="P472" s="12"/>
       <c r="Q472" s="13" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="R472" s="13"/>
       <c r="U472" s="1">
@@ -21668,7 +21688,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="473" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A473" s="36" t="s">
         <v>710</v>
       </c>
@@ -21702,7 +21722,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="474" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A474" s="38" t="s">
         <v>326</v>
       </c>
@@ -21731,14 +21751,14 @@
         <v>218</v>
       </c>
       <c r="R474" s="13" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="U474" s="1">
         <f t="shared" ref="U474:U480" si="9">MIN(F474:P474)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A475" s="25" t="s">
         <v>330</v>
       </c>
@@ -21765,14 +21785,14 @@
         <v>332</v>
       </c>
       <c r="R475" s="13" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="U475" s="1">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A476" s="10" t="s">
         <v>337</v>
       </c>
@@ -21799,14 +21819,14 @@
         <v>89</v>
       </c>
       <c r="R476" s="13" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="U476" s="1">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A477" s="10" t="s">
         <v>340</v>
       </c>
@@ -21833,14 +21853,14 @@
         <v>89</v>
       </c>
       <c r="R477" s="13" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="U477" s="1">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A478" s="25" t="s">
         <v>341</v>
       </c>
@@ -21867,14 +21887,14 @@
         <v>89</v>
       </c>
       <c r="R478" s="13" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="U478" s="1">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A479" s="38" t="s">
         <v>733</v>
       </c>
@@ -21901,14 +21921,14 @@
         <v>735</v>
       </c>
       <c r="R479" s="13" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="U479" s="1">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A480" s="10" t="s">
         <v>362</v>
       </c>
@@ -21935,14 +21955,14 @@
         <v>364</v>
       </c>
       <c r="R480" s="13" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="U480" s="1">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A481" s="10" t="s">
         <v>713</v>
       </c>
@@ -21966,7 +21986,7 @@
       </c>
       <c r="R481" s="13"/>
     </row>
-    <row r="482" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A482" s="10" t="s">
         <v>714</v>
       </c>
@@ -21990,7 +22010,7 @@
       </c>
       <c r="R482" s="13"/>
     </row>
-    <row r="483" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A483" s="10" t="s">
         <v>715</v>
       </c>
@@ -22014,7 +22034,7 @@
       </c>
       <c r="R483" s="13"/>
     </row>
-    <row r="484" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A484" s="10" t="s">
         <v>716</v>
       </c>
@@ -22038,7 +22058,7 @@
       </c>
       <c r="R484" s="13"/>
     </row>
-    <row r="485" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A485" s="10" t="s">
         <v>717</v>
       </c>
@@ -22062,7 +22082,7 @@
       </c>
       <c r="R485" s="13"/>
     </row>
-    <row r="486" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A486" s="10" t="s">
         <v>718</v>
       </c>
@@ -22086,7 +22106,7 @@
       </c>
       <c r="R486" s="13"/>
     </row>
-    <row r="487" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A487" s="10" t="s">
         <v>719</v>
       </c>
@@ -22110,7 +22130,7 @@
       </c>
       <c r="R487" s="13"/>
     </row>
-    <row r="488" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A488" s="10" t="s">
         <v>720</v>
       </c>
@@ -22134,7 +22154,7 @@
       </c>
       <c r="R488" s="13"/>
     </row>
-    <row r="489" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A489" s="10" t="s">
         <v>721</v>
       </c>
@@ -22158,7 +22178,7 @@
       </c>
       <c r="R489" s="13"/>
     </row>
-    <row r="490" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A490" s="10" t="s">
         <v>722</v>
       </c>
@@ -22182,7 +22202,7 @@
       </c>
       <c r="R490" s="13"/>
     </row>
-    <row r="491" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A491" s="10" t="s">
         <v>723</v>
       </c>
@@ -22206,7 +22226,7 @@
       </c>
       <c r="R491" s="13"/>
     </row>
-    <row r="492" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A492" s="10" t="s">
         <v>724</v>
       </c>
@@ -22230,7 +22250,7 @@
       </c>
       <c r="R492" s="13"/>
     </row>
-    <row r="493" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A493" s="10" t="s">
         <v>725</v>
       </c>
@@ -22254,7 +22274,7 @@
       </c>
       <c r="R493" s="13"/>
     </row>
-    <row r="494" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A494" s="10" t="s">
         <v>726</v>
       </c>
@@ -22278,7 +22298,7 @@
       </c>
       <c r="R494" s="13"/>
     </row>
-    <row r="495" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A495" s="10" t="s">
         <v>727</v>
       </c>
@@ -22302,7 +22322,7 @@
       </c>
       <c r="R495" s="13"/>
     </row>
-    <row r="496" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A496" s="10" t="s">
         <v>728</v>
       </c>
@@ -22326,7 +22346,7 @@
       </c>
       <c r="R496" s="13"/>
     </row>
-    <row r="497" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A497" s="10" t="s">
         <v>729</v>
       </c>
@@ -22350,7 +22370,7 @@
       </c>
       <c r="R497" s="13"/>
     </row>
-    <row r="498" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A498" s="10" t="s">
         <v>731</v>
       </c>
@@ -22374,7 +22394,7 @@
       </c>
       <c r="R498" s="13"/>
     </row>
-    <row r="499" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:18" x14ac:dyDescent="0.2">
       <c r="Q499" s="34"/>
     </row>
   </sheetData>
@@ -22382,7 +22402,7 @@
   <pageMargins left="0.17" right="0.17" top="0.47" bottom="0.57999999999999996" header="0" footer="0"/>
   <pageSetup paperSize="5" scale="59" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;L&amp;F&amp;C&amp;P&amp;RDecember 19, 2018</oddFooter>
+    <oddFooter>&amp;L&amp;F&amp;C&amp;P&amp;RJune 9, 2021</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/resources/Dose_Response_Library.xlsx
+++ b/resources/Dose_Response_Library.xlsx
@@ -1,24 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://scainccloud-my.sharepoint.com/personal/jmozier_scainc_com/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_HEM4\HEM4\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{5344C5FF-60C8-4168-925D-D22D7ABCBEC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5972D414-4777-43C9-98A3-CC1580259732}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B759BCC0-A51D-4A4B-84D2-324EE7605D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="25410" windowHeight="14205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dose Response Value Library" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Dose Response Value Library'!$A$1:$U$1</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Dose Response Value Library'!$A$1:$U$473</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Dose Response Value Library'!$A:$A,'Dose Response Value Library'!$1:$1</definedName>
     <definedName name="Z_02F25025_575C_44AE_898B_73D9FC4E52EB_.wvu.Cols" localSheetId="0" hidden="1">'Dose Response Value Library'!$S:$U</definedName>
     <definedName name="Z_02F25025_575C_44AE_898B_73D9FC4E52EB_.wvu.FilterData" localSheetId="0" hidden="1">'Dose Response Value Library'!$A$1:$U$1</definedName>
     <definedName name="Z_02F25025_575C_44AE_898B_73D9FC4E52EB_.wvu.PrintArea" localSheetId="0" hidden="1">'Dose Response Value Library'!$A$1:$U$473</definedName>
@@ -3169,108 +3167,107 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="39" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="38" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="37" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="37" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3709,32 +3706,32 @@
       <selection pane="bottomLeft" activeCell="M62" sqref="M62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" style="45" customWidth="1"/>
-    <col min="3" max="3" width="14" style="46" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="36.88671875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="30.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14" style="45" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" style="7" customWidth="1"/>
     <col min="5" max="5" width="11" style="7" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="47" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" style="47" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" style="47" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="47" customWidth="1"/>
-    <col min="10" max="11" width="9.7109375" style="47" customWidth="1"/>
-    <col min="12" max="12" width="10" style="47" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" style="47" customWidth="1"/>
-    <col min="14" max="15" width="9.28515625" style="47" customWidth="1"/>
-    <col min="16" max="16" width="11" style="47" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" style="46" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" style="46" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" style="46" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" style="46" customWidth="1"/>
+    <col min="10" max="11" width="9.6640625" style="46" customWidth="1"/>
+    <col min="12" max="12" width="10" style="46" customWidth="1"/>
+    <col min="13" max="13" width="9.44140625" style="46" customWidth="1"/>
+    <col min="14" max="15" width="9.33203125" style="46" customWidth="1"/>
+    <col min="16" max="16" width="11" style="46" customWidth="1"/>
     <col min="17" max="17" width="24" style="8" customWidth="1"/>
-    <col min="18" max="18" width="34.7109375" style="8" customWidth="1"/>
-    <col min="19" max="19" width="10.85546875" style="7" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="34.6640625" style="8" customWidth="1"/>
+    <col min="19" max="19" width="10.88671875" style="7" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="7" style="7" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="9.140625" style="7" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="9.109375" style="7" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="13" style="8" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="7"/>
+    <col min="23" max="16384" width="9.109375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="1" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3799,7 +3796,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>21</v>
       </c>
@@ -3853,7 +3850,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>23</v>
       </c>
@@ -3887,7 +3884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>25</v>
       </c>
@@ -3923,7 +3920,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>26</v>
       </c>
@@ -3963,7 +3960,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" ht="66" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>27</v>
       </c>
@@ -3997,7 +3994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" ht="66" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>29</v>
       </c>
@@ -4031,7 +4028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" ht="66" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>30</v>
       </c>
@@ -4065,7 +4062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>31</v>
       </c>
@@ -4099,7 +4096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>32</v>
       </c>
@@ -4133,7 +4130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>33</v>
       </c>
@@ -4167,7 +4164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>35</v>
       </c>
@@ -4201,7 +4198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>36</v>
       </c>
@@ -4245,7 +4242,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>37</v>
       </c>
@@ -4285,7 +4282,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>38</v>
       </c>
@@ -4335,7 +4332,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>39</v>
       </c>
@@ -4369,7 +4366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>40</v>
       </c>
@@ -4403,7 +4400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>41</v>
       </c>
@@ -4441,7 +4438,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>43</v>
       </c>
@@ -4475,7 +4472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>45</v>
       </c>
@@ -4525,7 +4522,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>47</v>
       </c>
@@ -4557,7 +4554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>49</v>
       </c>
@@ -4591,7 +4588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>50</v>
       </c>
@@ -4625,7 +4622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>51</v>
       </c>
@@ -4659,7 +4656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>53</v>
       </c>
@@ -4693,7 +4690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>54</v>
       </c>
@@ -4727,7 +4724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" ht="66" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>55</v>
       </c>
@@ -4761,7 +4758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>57</v>
       </c>
@@ -4795,7 +4792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>58</v>
       </c>
@@ -4847,7 +4844,7 @@
         <v>7.1000000000000005E-5</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>59</v>
       </c>
@@ -4901,7 +4898,7 @@
         <v>7.1000000000000005E-5</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>60</v>
       </c>
@@ -4933,7 +4930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>61</v>
       </c>
@@ -4967,7 +4964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>62</v>
       </c>
@@ -5001,7 +4998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>63</v>
       </c>
@@ -5035,7 +5032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>64</v>
       </c>
@@ -5069,7 +5066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>65</v>
       </c>
@@ -5103,7 +5100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>66</v>
       </c>
@@ -5137,7 +5134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>67</v>
       </c>
@@ -5177,7 +5174,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>69</v>
       </c>
@@ -5211,7 +5208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>71</v>
       </c>
@@ -5243,7 +5240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>72</v>
       </c>
@@ -5275,7 +5272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>73</v>
       </c>
@@ -5309,7 +5306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>74</v>
       </c>
@@ -5361,7 +5358,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>75</v>
       </c>
@@ -5395,7 +5392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>76</v>
       </c>
@@ -5439,7 +5436,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>77</v>
       </c>
@@ -5473,7 +5470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>78</v>
       </c>
@@ -5527,7 +5524,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>79</v>
       </c>
@@ -5563,7 +5560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>81</v>
       </c>
@@ -5615,7 +5612,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="50" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>82</v>
       </c>
@@ -5663,7 +5660,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="51" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>83</v>
       </c>
@@ -5711,7 +5708,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>84</v>
       </c>
@@ -5755,7 +5752,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>85</v>
       </c>
@@ -5791,7 +5788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>87</v>
       </c>
@@ -5829,7 +5826,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>88</v>
       </c>
@@ -5867,7 +5864,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>90</v>
       </c>
@@ -5905,7 +5902,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>93</v>
       </c>
@@ -5943,7 +5940,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>94</v>
       </c>
@@ -5981,7 +5978,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>95</v>
       </c>
@@ -6019,7 +6016,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>96</v>
       </c>
@@ -6063,7 +6060,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>98</v>
       </c>
@@ -6101,7 +6098,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>99</v>
       </c>
@@ -6141,7 +6138,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="63" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
         <v>102</v>
       </c>
@@ -6181,7 +6178,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
         <v>104</v>
       </c>
@@ -6221,7 +6218,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="65" spans="1:22" s="22" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:22" s="22" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A65" s="17" t="s">
         <v>106</v>
       </c>
@@ -6264,7 +6261,7 @@
       </c>
       <c r="V65" s="23"/>
     </row>
-    <row r="66" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:22" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>108</v>
       </c>
@@ -6304,7 +6301,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:22" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:22" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>111</v>
       </c>
@@ -6348,7 +6345,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="68" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:22" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>112</v>
       </c>
@@ -6392,7 +6389,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="69" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>114</v>
       </c>
@@ -6444,7 +6441,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:22" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:22" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>115</v>
       </c>
@@ -6478,7 +6475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:22" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>116</v>
       </c>
@@ -6512,7 +6509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>117</v>
       </c>
@@ -6552,7 +6549,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="73" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:22" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>118</v>
       </c>
@@ -6590,7 +6587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>119</v>
       </c>
@@ -6626,7 +6623,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:22" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>122</v>
       </c>
@@ -6664,7 +6661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:22" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>124</v>
       </c>
@@ -6702,7 +6699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:22" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>126</v>
       </c>
@@ -6740,7 +6737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>130</v>
       </c>
@@ -6772,7 +6769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:22" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>131</v>
       </c>
@@ -6812,7 +6809,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="1:22" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:22" ht="66" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>132</v>
       </c>
@@ -6846,7 +6843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>133</v>
       </c>
@@ -6888,7 +6885,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>134</v>
       </c>
@@ -6922,7 +6919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
         <v>135</v>
       </c>
@@ -6960,7 +6957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>136</v>
       </c>
@@ -7008,7 +7005,7 @@
         <v>3.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>138</v>
       </c>
@@ -7040,7 +7037,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>140</v>
       </c>
@@ -7078,7 +7075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
         <v>141</v>
       </c>
@@ -7116,7 +7113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
         <v>142</v>
       </c>
@@ -7154,7 +7151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>144</v>
       </c>
@@ -7188,7 +7185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>145</v>
       </c>
@@ -7222,7 +7219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>146</v>
       </c>
@@ -7274,7 +7271,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="92" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>147</v>
       </c>
@@ -7322,7 +7319,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="93" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
         <v>148</v>
       </c>
@@ -7362,7 +7359,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
         <v>151</v>
       </c>
@@ -7394,7 +7391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>152</v>
       </c>
@@ -7428,7 +7425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>153</v>
       </c>
@@ -7462,7 +7459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>154</v>
       </c>
@@ -7516,7 +7513,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>155</v>
       </c>
@@ -7556,7 +7553,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>156</v>
       </c>
@@ -7600,7 +7597,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>157</v>
       </c>
@@ -7634,7 +7631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>158</v>
       </c>
@@ -7682,7 +7679,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="102" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>160</v>
       </c>
@@ -7726,7 +7723,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="103" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>161</v>
       </c>
@@ -7764,7 +7761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="s">
         <v>164</v>
       </c>
@@ -7802,7 +7799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A105" s="9" t="s">
         <v>167</v>
       </c>
@@ -7840,7 +7837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A106" s="9" t="s">
         <v>168</v>
       </c>
@@ -7878,7 +7875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A107" s="25" t="s">
         <v>170</v>
       </c>
@@ -7916,7 +7913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A108" s="25" t="s">
         <v>171</v>
       </c>
@@ -7954,7 +7951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
         <v>174</v>
       </c>
@@ -7988,7 +7985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
         <v>176</v>
       </c>
@@ -8022,7 +8019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
         <v>177</v>
       </c>
@@ -8060,7 +8057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>178</v>
       </c>
@@ -8094,7 +8091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A113" s="9" t="s">
         <v>179</v>
       </c>
@@ -8132,7 +8129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A114" s="25" t="s">
         <v>181</v>
       </c>
@@ -8170,7 +8167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
         <v>182</v>
       </c>
@@ -8204,7 +8201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
         <v>183</v>
       </c>
@@ -8240,7 +8237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
         <v>185</v>
       </c>
@@ -8274,7 +8271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
         <v>165</v>
       </c>
@@ -8310,7 +8307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
         <v>187</v>
       </c>
@@ -8348,7 +8345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
         <v>188</v>
       </c>
@@ -8380,7 +8377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
         <v>189</v>
       </c>
@@ -8418,7 +8415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
         <v>190</v>
       </c>
@@ -8456,7 +8453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A123" s="9" t="s">
         <v>191</v>
       </c>
@@ -8494,7 +8491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A124" s="9" t="s">
         <v>192</v>
       </c>
@@ -8532,7 +8529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A125" s="9" t="s">
         <v>193</v>
       </c>
@@ -8570,7 +8567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A126" s="25" t="s">
         <v>194</v>
       </c>
@@ -8608,7 +8605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A127" s="25" t="s">
         <v>195</v>
       </c>
@@ -8642,7 +8639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A128" s="9" t="s">
         <v>196</v>
       </c>
@@ -8680,7 +8677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
         <v>197</v>
       </c>
@@ -8716,7 +8713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>200</v>
       </c>
@@ -8752,7 +8749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
         <v>202</v>
       </c>
@@ -8788,7 +8785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
         <v>204</v>
       </c>
@@ -8824,7 +8821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
         <v>206</v>
       </c>
@@ -8860,7 +8857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
         <v>198</v>
       </c>
@@ -8894,7 +8891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
         <v>208</v>
       </c>
@@ -8932,7 +8929,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
         <v>211</v>
       </c>
@@ -8968,7 +8965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
         <v>212</v>
       </c>
@@ -9004,7 +9001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
         <v>214</v>
       </c>
@@ -9040,7 +9037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
         <v>215</v>
       </c>
@@ -9076,7 +9073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
         <v>217</v>
       </c>
@@ -9112,7 +9109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
         <v>218</v>
       </c>
@@ -9148,7 +9145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:21" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:21" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
         <v>550</v>
       </c>
@@ -9182,7 +9179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
         <v>221</v>
       </c>
@@ -9218,7 +9215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
         <v>223</v>
       </c>
@@ -9254,7 +9251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
         <v>224</v>
       </c>
@@ -9288,7 +9285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
         <v>226</v>
       </c>
@@ -9324,7 +9321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
         <v>228</v>
       </c>
@@ -9360,7 +9357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
         <v>229</v>
       </c>
@@ -9396,7 +9393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
         <v>230</v>
       </c>
@@ -9440,7 +9437,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
         <v>231</v>
       </c>
@@ -9484,7 +9481,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="151" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A151" s="9" t="s">
         <v>233</v>
       </c>
@@ -9520,7 +9517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
         <v>237</v>
       </c>
@@ -9556,7 +9553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
         <v>240</v>
       </c>
@@ -9602,7 +9599,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="154" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
         <v>242</v>
       </c>
@@ -9640,7 +9637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
         <v>243</v>
       </c>
@@ -9676,7 +9673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
         <v>246</v>
       </c>
@@ -9706,7 +9703,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
         <v>232</v>
       </c>
@@ -9744,7 +9741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
         <v>248</v>
       </c>
@@ -9788,7 +9785,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="159" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
         <v>249</v>
       </c>
@@ -9826,7 +9823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
         <v>250</v>
       </c>
@@ -9866,7 +9863,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="161" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
         <v>251</v>
       </c>
@@ -9902,7 +9899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
         <v>253</v>
       </c>
@@ -9938,7 +9935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
         <v>255</v>
       </c>
@@ -9974,7 +9971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
         <v>257</v>
       </c>
@@ -10012,7 +10009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
         <v>258</v>
       </c>
@@ -10062,7 +10059,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="166" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:21" ht="66" x14ac:dyDescent="0.25">
       <c r="A166" s="9" t="s">
         <v>259</v>
       </c>
@@ -10106,7 +10103,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="167" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
         <v>260</v>
       </c>
@@ -10152,7 +10149,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="168" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
         <v>261</v>
       </c>
@@ -10188,7 +10185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
         <v>262</v>
       </c>
@@ -10224,7 +10221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
         <v>264</v>
       </c>
@@ -10262,7 +10259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:21" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:21" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
         <v>265</v>
       </c>
@@ -10308,7 +10305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
         <v>266</v>
       </c>
@@ -10346,7 +10343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
         <v>268</v>
       </c>
@@ -10384,7 +10381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
         <v>269</v>
       </c>
@@ -10422,7 +10419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
         <v>270</v>
       </c>
@@ -10458,7 +10455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
         <v>272</v>
       </c>
@@ -10490,7 +10487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
         <v>274</v>
       </c>
@@ -10524,7 +10521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
         <v>275</v>
       </c>
@@ -10558,7 +10555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
         <v>276</v>
       </c>
@@ -10592,7 +10589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
         <v>277</v>
       </c>
@@ -10638,7 +10635,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
         <v>278</v>
       </c>
@@ -10672,7 +10669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
         <v>280</v>
       </c>
@@ -10706,7 +10703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A183" s="9" t="s">
         <v>281</v>
       </c>
@@ -10738,7 +10735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
         <v>283</v>
       </c>
@@ -10784,7 +10781,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
         <v>284</v>
       </c>
@@ -10818,7 +10815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
         <v>285</v>
       </c>
@@ -10862,7 +10859,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A187" s="9" t="s">
         <v>286</v>
       </c>
@@ -10894,7 +10891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
         <v>834</v>
       </c>
@@ -10938,7 +10935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
         <v>835</v>
       </c>
@@ -10982,7 +10979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
         <v>289</v>
       </c>
@@ -11024,7 +11021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
         <v>290</v>
       </c>
@@ -11066,7 +11063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
         <v>291</v>
       </c>
@@ -11108,7 +11105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
         <v>292</v>
       </c>
@@ -11150,7 +11147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
         <v>293</v>
       </c>
@@ -11192,7 +11189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
         <v>294</v>
       </c>
@@ -11234,7 +11231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
         <v>295</v>
       </c>
@@ -11276,7 +11273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
         <v>296</v>
       </c>
@@ -11318,7 +11315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
         <v>297</v>
       </c>
@@ -11360,7 +11357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
         <v>298</v>
       </c>
@@ -11402,7 +11399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
         <v>299</v>
       </c>
@@ -11446,7 +11443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
         <v>300</v>
       </c>
@@ -11488,7 +11485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
         <v>301</v>
       </c>
@@ -11532,7 +11529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
         <v>302</v>
       </c>
@@ -11574,7 +11571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
         <v>303</v>
       </c>
@@ -11616,7 +11613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A205" s="4" t="s">
         <v>304</v>
       </c>
@@ -11660,7 +11657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
         <v>307</v>
       </c>
@@ -11692,7 +11689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
         <v>308</v>
       </c>
@@ -11744,7 +11741,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="208" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
         <v>309</v>
       </c>
@@ -11792,7 +11789,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A209" s="4" t="s">
         <v>310</v>
       </c>
@@ -11839,7 +11836,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="210" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A210" s="4" t="s">
         <v>311</v>
       </c>
@@ -11875,7 +11872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="s">
         <v>313</v>
       </c>
@@ -11911,7 +11908,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="212" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
         <v>314</v>
       </c>
@@ -11955,7 +11952,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="213" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A213" s="4" t="s">
         <v>315</v>
       </c>
@@ -11993,7 +11990,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="214" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A214" s="4" t="s">
         <v>316</v>
       </c>
@@ -12029,7 +12026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A215" s="4" t="s">
         <v>317</v>
       </c>
@@ -12069,7 +12066,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="216" spans="1:21" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:21" ht="66" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
         <v>318</v>
       </c>
@@ -12115,7 +12112,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="217" spans="1:21" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:21" ht="66" x14ac:dyDescent="0.25">
       <c r="A217" s="4" t="s">
         <v>319</v>
       </c>
@@ -12149,7 +12146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A218" s="4" t="s">
         <v>320</v>
       </c>
@@ -12185,7 +12182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="s">
         <v>322</v>
       </c>
@@ -12239,7 +12236,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A220" s="9" t="s">
         <v>327</v>
       </c>
@@ -12279,7 +12276,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="221" spans="1:21" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:21" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="9" t="s">
         <v>332</v>
       </c>
@@ -12319,7 +12316,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="222" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A222" s="9" t="s">
         <v>331</v>
       </c>
@@ -12359,7 +12356,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:21" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:21" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="9" t="s">
         <v>333</v>
       </c>
@@ -12397,7 +12394,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="224" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A224" s="9" t="s">
         <v>336</v>
       </c>
@@ -12437,7 +12434,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="225" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A225" s="4" t="s">
         <v>337</v>
       </c>
@@ -12473,7 +12470,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A226" s="9" t="s">
         <v>340</v>
       </c>
@@ -12511,7 +12508,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="227" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A227" s="9" t="s">
         <v>341</v>
       </c>
@@ -12551,7 +12548,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A228" s="9" t="s">
         <v>342</v>
       </c>
@@ -12589,7 +12586,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="229" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A229" s="4" t="s">
         <v>343</v>
       </c>
@@ -12627,7 +12624,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="230" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A230" s="4" t="s">
         <v>345</v>
       </c>
@@ -12667,7 +12664,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A231" s="9" t="s">
         <v>347</v>
       </c>
@@ -12707,7 +12704,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A232" s="25" t="s">
         <v>348</v>
       </c>
@@ -12745,7 +12742,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A233" s="4" t="s">
         <v>351</v>
       </c>
@@ -12783,7 +12780,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A234" s="4" t="s">
         <v>352</v>
       </c>
@@ -12821,7 +12818,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="235" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A235" s="4" t="s">
         <v>354</v>
       </c>
@@ -12859,7 +12856,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="236" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A236" s="4" t="s">
         <v>356</v>
       </c>
@@ -12895,7 +12892,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="237" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A237" s="4" t="s">
         <v>357</v>
       </c>
@@ -12933,7 +12930,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A238" s="4" t="s">
         <v>359</v>
       </c>
@@ -12973,7 +12970,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="239" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A239" s="25" t="s">
         <v>363</v>
       </c>
@@ -13013,7 +13010,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="240" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A240" s="9" t="s">
         <v>364</v>
       </c>
@@ -13053,7 +13050,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="241" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A241" s="9" t="s">
         <v>365</v>
       </c>
@@ -13091,7 +13088,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="242" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A242" s="9" t="s">
         <v>368</v>
       </c>
@@ -13131,7 +13128,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A243" s="9" t="s">
         <v>369</v>
       </c>
@@ -13171,7 +13168,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="244" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A244" s="9" t="s">
         <v>370</v>
       </c>
@@ -13211,7 +13208,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="245" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A245" s="9" t="s">
         <v>371</v>
       </c>
@@ -13245,7 +13242,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="246" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="9" t="s">
         <v>791</v>
       </c>
@@ -13279,7 +13276,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="247" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A247" s="4" t="s">
         <v>372</v>
       </c>
@@ -13317,7 +13314,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="248" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A248" s="4" t="s">
         <v>373</v>
       </c>
@@ -13351,7 +13348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:21" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:21" ht="66" x14ac:dyDescent="0.25">
       <c r="A249" s="4" t="s">
         <v>374</v>
       </c>
@@ -13385,7 +13382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:21" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:21" ht="66" x14ac:dyDescent="0.25">
       <c r="A250" s="4" t="s">
         <v>375</v>
       </c>
@@ -13423,7 +13420,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="251" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A251" s="4" t="s">
         <v>376</v>
       </c>
@@ -13457,7 +13454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A252" s="4" t="s">
         <v>377</v>
       </c>
@@ -13493,7 +13490,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="253" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A253" s="4" t="s">
         <v>379</v>
       </c>
@@ -13529,7 +13526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A254" s="4" t="s">
         <v>380</v>
       </c>
@@ -13561,7 +13558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A255" s="4" t="s">
         <v>381</v>
       </c>
@@ -13603,7 +13600,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="256" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A256" s="4" t="s">
         <v>383</v>
       </c>
@@ -13653,7 +13650,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="257" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A257" s="4" t="s">
         <v>384</v>
       </c>
@@ -13705,7 +13702,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="258" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A258" s="4" t="s">
         <v>385</v>
       </c>
@@ -13759,7 +13756,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="259" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A259" s="4" t="s">
         <v>386</v>
       </c>
@@ -13793,7 +13790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A260" s="4" t="s">
         <v>387</v>
       </c>
@@ -13827,7 +13824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A261" s="9" t="s">
         <v>388</v>
       </c>
@@ -13863,7 +13860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A262" s="9" t="s">
         <v>391</v>
       </c>
@@ -13899,7 +13896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A263" s="9" t="s">
         <v>393</v>
       </c>
@@ -13937,7 +13934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A264" s="9" t="s">
         <v>394</v>
       </c>
@@ -13975,7 +13972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A265" s="25" t="s">
         <v>395</v>
       </c>
@@ -14013,7 +14010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A266" s="25" t="s">
         <v>396</v>
       </c>
@@ -14049,7 +14046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A267" s="4" t="s">
         <v>389</v>
       </c>
@@ -14083,7 +14080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A268" s="4" t="s">
         <v>398</v>
       </c>
@@ -14119,7 +14116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A269" s="9" t="s">
         <v>400</v>
       </c>
@@ -14157,7 +14154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A270" s="9" t="s">
         <v>401</v>
       </c>
@@ -14193,7 +14190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A271" s="9" t="s">
         <v>402</v>
       </c>
@@ -14229,7 +14226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A272" s="9" t="s">
         <v>403</v>
       </c>
@@ -14265,7 +14262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A273" s="4" t="s">
         <v>404</v>
       </c>
@@ -14301,7 +14298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A274" s="4" t="s">
         <v>405</v>
       </c>
@@ -14337,7 +14334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A275" s="4" t="s">
         <v>406</v>
       </c>
@@ -14377,7 +14374,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="276" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A276" s="4" t="s">
         <v>407</v>
       </c>
@@ -14413,7 +14410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A277" s="4" t="s">
         <v>408</v>
       </c>
@@ -14449,7 +14446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A278" s="9" t="s">
         <v>411</v>
       </c>
@@ -14487,7 +14484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A279" s="9" t="s">
         <v>413</v>
       </c>
@@ -14523,7 +14520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A280" s="9" t="s">
         <v>414</v>
       </c>
@@ -14559,7 +14556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A281" s="9" t="s">
         <v>416</v>
       </c>
@@ -14597,7 +14594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A282" s="9" t="s">
         <v>417</v>
       </c>
@@ -14633,7 +14630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A283" s="9" t="s">
         <v>418</v>
       </c>
@@ -14669,7 +14666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A284" s="9" t="s">
         <v>419</v>
       </c>
@@ -14707,7 +14704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A285" s="4" t="s">
         <v>421</v>
       </c>
@@ -14743,7 +14740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A286" s="4" t="s">
         <v>424</v>
       </c>
@@ -14779,7 +14776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A287" s="4" t="s">
         <v>426</v>
       </c>
@@ -14815,7 +14812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A288" s="4" t="s">
         <v>427</v>
       </c>
@@ -14851,7 +14848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:22" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A289" s="4" t="s">
         <v>429</v>
       </c>
@@ -14887,7 +14884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:22" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A290" s="4" t="s">
         <v>431</v>
       </c>
@@ -14931,7 +14928,7 @@
         <v>5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="291" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:22" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A291" s="4" t="s">
         <v>432</v>
       </c>
@@ -14967,7 +14964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:22" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A292" s="4" t="s">
         <v>422</v>
       </c>
@@ -15003,7 +15000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:22" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A293" s="4" t="s">
         <v>434</v>
       </c>
@@ -15039,7 +15036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:22" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A294" s="4" t="s">
         <v>436</v>
       </c>
@@ -15075,7 +15072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:22" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A295" s="4" t="s">
         <v>437</v>
       </c>
@@ -15111,7 +15108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:22" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A296" s="4" t="s">
         <v>439</v>
       </c>
@@ -15147,7 +15144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:22" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A297" s="4" t="s">
         <v>440</v>
       </c>
@@ -15183,7 +15180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:22" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A298" s="4" t="s">
         <v>441</v>
       </c>
@@ -15235,7 +15232,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="299" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A299" s="4" t="s">
         <v>443</v>
       </c>
@@ -15267,7 +15264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:22" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A300" s="4" t="s">
         <v>444</v>
       </c>
@@ -15315,7 +15312,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="301" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:22" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A301" s="4" t="s">
         <v>445</v>
       </c>
@@ -15364,7 +15361,7 @@
       </c>
       <c r="V301" s="33"/>
     </row>
-    <row r="302" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A302" s="4" t="s">
         <v>446</v>
       </c>
@@ -15406,7 +15403,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="303" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:22" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A303" s="4" t="s">
         <v>447</v>
       </c>
@@ -15456,7 +15453,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="304" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A304" s="4" t="s">
         <v>448</v>
       </c>
@@ -15492,7 +15489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A305" s="4" t="s">
         <v>450</v>
       </c>
@@ -15538,7 +15535,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="306" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A306" s="4" t="s">
         <v>451</v>
       </c>
@@ -15582,7 +15579,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="307" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A307" s="4" t="s">
         <v>452</v>
       </c>
@@ -15634,7 +15631,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="308" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A308" s="4" t="s">
         <v>453</v>
       </c>
@@ -15686,7 +15683,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="309" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A309" s="4" t="s">
         <v>455</v>
       </c>
@@ -15720,7 +15717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A310" s="4" t="s">
         <v>456</v>
       </c>
@@ -15754,7 +15751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:21" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:21" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A311" s="9" t="s">
         <v>457</v>
       </c>
@@ -15792,7 +15789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:21" ht="66" x14ac:dyDescent="0.25">
       <c r="A312" s="9" t="s">
         <v>460</v>
       </c>
@@ -15830,7 +15827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:21" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A313" s="4" t="s">
         <v>462</v>
       </c>
@@ -15872,7 +15869,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="314" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:21" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A314" s="4" t="s">
         <v>464</v>
       </c>
@@ -15910,7 +15907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:21" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:21" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="4" t="s">
         <v>458</v>
       </c>
@@ -15946,7 +15943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:21" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A316" s="4" t="s">
         <v>466</v>
       </c>
@@ -15984,7 +15981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:21" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A317" s="4" t="s">
         <v>467</v>
       </c>
@@ -16020,7 +16017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="4" t="s">
         <v>469</v>
       </c>
@@ -16054,7 +16051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A319" s="4" t="s">
         <v>472</v>
       </c>
@@ -16090,7 +16087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:21" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A320" s="4" t="s">
         <v>474</v>
       </c>
@@ -16128,7 +16125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:21" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A321" s="4" t="s">
         <v>476</v>
       </c>
@@ -16166,7 +16163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A322" s="4" t="s">
         <v>478</v>
       </c>
@@ -16202,7 +16199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A323" s="4" t="s">
         <v>480</v>
       </c>
@@ -16238,7 +16235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A324" s="4" t="s">
         <v>482</v>
       </c>
@@ -16272,7 +16269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A325" s="4" t="s">
         <v>483</v>
       </c>
@@ -16304,7 +16301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A326" s="4" t="s">
         <v>486</v>
       </c>
@@ -16338,7 +16335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A327" s="4" t="s">
         <v>487</v>
       </c>
@@ -16378,7 +16375,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="328" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A328" s="4" t="s">
         <v>488</v>
       </c>
@@ -16414,7 +16411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:21" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:21" ht="66" x14ac:dyDescent="0.25">
       <c r="A329" s="4" t="s">
         <v>490</v>
       </c>
@@ -16448,7 +16445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A330" s="4" t="s">
         <v>491</v>
       </c>
@@ -16500,7 +16497,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="331" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A331" s="4" t="s">
         <v>492</v>
       </c>
@@ -16546,7 +16543,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="332" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A332" s="4" t="s">
         <v>493</v>
       </c>
@@ -16590,7 +16587,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="333" spans="1:21" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:21" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="4" t="s">
         <v>494</v>
       </c>
@@ -16634,7 +16631,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="334" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A334" s="4" t="s">
         <v>496</v>
       </c>
@@ -16668,7 +16665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A335" s="4" t="s">
         <v>497</v>
       </c>
@@ -16700,7 +16697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A336" s="4" t="s">
         <v>499</v>
       </c>
@@ -16736,7 +16733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A337" s="4" t="s">
         <v>501</v>
       </c>
@@ -16772,7 +16769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A338" s="4" t="s">
         <v>503</v>
       </c>
@@ -16808,7 +16805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A339" s="4" t="s">
         <v>505</v>
       </c>
@@ -16844,7 +16841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A340" s="4" t="s">
         <v>507</v>
       </c>
@@ -16880,7 +16877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A341" s="4" t="s">
         <v>508</v>
       </c>
@@ -16916,7 +16913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A342" s="4" t="s">
         <v>510</v>
       </c>
@@ -16949,7 +16946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A343" s="7" t="s">
         <v>852</v>
       </c>
@@ -16981,7 +16978,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="344" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A344" s="4" t="s">
         <v>511</v>
       </c>
@@ -17013,7 +17010,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="345" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A345" s="4" t="s">
         <v>513</v>
       </c>
@@ -17045,7 +17042,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="346" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A346" s="4" t="s">
         <v>514</v>
       </c>
@@ -17077,7 +17074,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="347" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A347" s="4" t="s">
         <v>515</v>
       </c>
@@ -17109,7 +17106,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="348" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A348" s="4" t="s">
         <v>516</v>
       </c>
@@ -17141,7 +17138,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="349" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A349" s="4" t="s">
         <v>517</v>
       </c>
@@ -17173,7 +17170,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="350" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A350" s="4" t="s">
         <v>518</v>
       </c>
@@ -17205,7 +17202,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="351" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A351" s="4" t="s">
         <v>519</v>
       </c>
@@ -17239,7 +17236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A352" s="4" t="s">
         <v>521</v>
       </c>
@@ -17275,7 +17272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A353" s="4" t="s">
         <v>523</v>
       </c>
@@ -17311,7 +17308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A354" s="4" t="s">
         <v>525</v>
       </c>
@@ -17347,7 +17344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A355" s="4" t="s">
         <v>526</v>
       </c>
@@ -17381,7 +17378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A356" s="4" t="s">
         <v>528</v>
       </c>
@@ -17417,7 +17414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A357" s="4" t="s">
         <v>530</v>
       </c>
@@ -17449,7 +17446,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="358" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A358" s="4" t="s">
         <v>836</v>
       </c>
@@ -17481,7 +17478,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="359" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A359" s="4" t="s">
         <v>531</v>
       </c>
@@ -17513,7 +17510,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="360" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A360" s="4" t="s">
         <v>532</v>
       </c>
@@ -17549,7 +17546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A361" s="9" t="s">
         <v>533</v>
       </c>
@@ -17585,7 +17582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A362" s="9" t="s">
         <v>535</v>
       </c>
@@ -17617,7 +17614,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="363" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A363" s="4" t="s">
         <v>536</v>
       </c>
@@ -17653,7 +17650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A364" s="4" t="s">
         <v>537</v>
       </c>
@@ -17689,7 +17686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A365" s="4" t="s">
         <v>539</v>
       </c>
@@ -17725,7 +17722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A366" s="4" t="s">
         <v>540</v>
       </c>
@@ -17759,7 +17756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A367" s="4" t="s">
         <v>543</v>
       </c>
@@ -17795,7 +17792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A368" s="4" t="s">
         <v>605</v>
       </c>
@@ -17827,7 +17824,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="369" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A369" s="9" t="s">
         <v>545</v>
       </c>
@@ -17863,7 +17860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A370" s="4" t="s">
         <v>546</v>
       </c>
@@ -17899,7 +17896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A371" s="4" t="s">
         <v>547</v>
       </c>
@@ -17937,7 +17934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A372" s="4" t="s">
         <v>549</v>
       </c>
@@ -17973,7 +17970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A373" s="4" t="s">
         <v>551</v>
       </c>
@@ -18003,7 +18000,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="374" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A374" s="4" t="s">
         <v>553</v>
       </c>
@@ -18035,7 +18032,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="375" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A375" s="4" t="s">
         <v>554</v>
       </c>
@@ -18071,7 +18068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A376" s="4" t="s">
         <v>555</v>
       </c>
@@ -18107,7 +18104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A377" s="4" t="s">
         <v>556</v>
       </c>
@@ -18137,7 +18134,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="378" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A378" s="4" t="s">
         <v>558</v>
       </c>
@@ -18169,7 +18166,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="379" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A379" s="4" t="s">
         <v>785</v>
       </c>
@@ -18201,7 +18198,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="380" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A380" s="4" t="s">
         <v>559</v>
       </c>
@@ -18233,7 +18230,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="381" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A381" s="4" t="s">
         <v>560</v>
       </c>
@@ -18269,7 +18266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A382" s="9" t="s">
         <v>562</v>
       </c>
@@ -18305,7 +18302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A383" s="4" t="s">
         <v>563</v>
       </c>
@@ -18339,7 +18336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A384" s="4" t="s">
         <v>564</v>
       </c>
@@ -18373,7 +18370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A385" s="4" t="s">
         <v>565</v>
       </c>
@@ -18407,7 +18404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A386" s="4" t="s">
         <v>567</v>
       </c>
@@ -18445,7 +18442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A387" s="4" t="s">
         <v>570</v>
       </c>
@@ -18479,7 +18476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A388" s="4" t="s">
         <v>572</v>
       </c>
@@ -18515,7 +18512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A389" s="4" t="s">
         <v>574</v>
       </c>
@@ -18551,7 +18548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A390" s="4" t="s">
         <v>575</v>
       </c>
@@ -18587,7 +18584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A391" s="4" t="s">
         <v>576</v>
       </c>
@@ -18623,7 +18620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A392" s="4" t="s">
         <v>577</v>
       </c>
@@ -18659,7 +18656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A393" s="4" t="s">
         <v>578</v>
       </c>
@@ -18695,7 +18692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A394" s="4" t="s">
         <v>579</v>
       </c>
@@ -18729,7 +18726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A395" s="4" t="s">
         <v>581</v>
       </c>
@@ -18765,7 +18762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A396" s="4" t="s">
         <v>583</v>
       </c>
@@ -18801,7 +18798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A397" s="4" t="s">
         <v>788</v>
       </c>
@@ -18833,7 +18830,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="398" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A398" s="4" t="s">
         <v>585</v>
       </c>
@@ -18869,7 +18866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A399" s="4" t="s">
         <v>586</v>
       </c>
@@ -18905,7 +18902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:21" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:21" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="4" t="s">
         <v>587</v>
       </c>
@@ -18943,7 +18940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A401" s="4" t="s">
         <v>590</v>
       </c>
@@ -18979,7 +18976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:21" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:21" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="4" t="s">
         <v>591</v>
       </c>
@@ -19017,7 +19014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A403" s="4" t="s">
         <v>593</v>
       </c>
@@ -19053,7 +19050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A404" s="4" t="s">
         <v>595</v>
       </c>
@@ -19087,7 +19084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A405" s="4" t="s">
         <v>597</v>
       </c>
@@ -19123,7 +19120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A406" s="4" t="s">
         <v>599</v>
       </c>
@@ -19159,7 +19156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A407" s="4" t="s">
         <v>600</v>
       </c>
@@ -19195,7 +19192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A408" s="4" t="s">
         <v>601</v>
       </c>
@@ -19233,7 +19230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A409" s="4" t="s">
         <v>603</v>
       </c>
@@ -19271,7 +19268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A410" s="4" t="s">
         <v>604</v>
       </c>
@@ -19307,7 +19304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A411" s="4" t="s">
         <v>608</v>
       </c>
@@ -19343,7 +19340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A412" s="4" t="s">
         <v>610</v>
       </c>
@@ -19379,7 +19376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A413" s="4" t="s">
         <v>611</v>
       </c>
@@ -19415,7 +19412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:21" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A414" s="4" t="s">
         <v>612</v>
       </c>
@@ -19453,7 +19450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A415" s="4" t="s">
         <v>614</v>
       </c>
@@ -19487,7 +19484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:21" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:21" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="4" t="s">
         <v>609</v>
       </c>
@@ -19525,7 +19522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A417" s="4" t="s">
         <v>616</v>
       </c>
@@ -19561,7 +19558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="4" t="s">
         <v>619</v>
       </c>
@@ -19597,7 +19594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A419" s="4" t="s">
         <v>620</v>
       </c>
@@ -19633,7 +19630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:21" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:21" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="4" t="s">
         <v>621</v>
       </c>
@@ -19669,7 +19666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A421" s="4" t="s">
         <v>623</v>
       </c>
@@ -19703,7 +19700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A422" s="4" t="s">
         <v>625</v>
       </c>
@@ -19739,7 +19736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A423" s="4" t="s">
         <v>627</v>
       </c>
@@ -19773,7 +19770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A424" s="4" t="s">
         <v>628</v>
       </c>
@@ -19819,7 +19816,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="425" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A425" s="4" t="s">
         <v>630</v>
       </c>
@@ -19853,7 +19850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A426" s="4" t="s">
         <v>631</v>
       </c>
@@ -19891,7 +19888,7 @@
         <v>9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="427" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A427" s="4" t="s">
         <v>633</v>
       </c>
@@ -19943,7 +19940,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="428" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A428" s="4" t="s">
         <v>634</v>
       </c>
@@ -19977,7 +19974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A429" s="4" t="s">
         <v>635</v>
       </c>
@@ -20011,7 +20008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A430" s="4" t="s">
         <v>636</v>
       </c>
@@ -20043,7 +20040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A431" s="4" t="s">
         <v>637</v>
       </c>
@@ -20071,7 +20068,7 @@
       </c>
       <c r="R431" s="6"/>
     </row>
-    <row r="432" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A432" s="4" t="s">
         <v>640</v>
       </c>
@@ -20099,7 +20096,7 @@
       </c>
       <c r="R432" s="6"/>
     </row>
-    <row r="433" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A433" s="4" t="s">
         <v>642</v>
       </c>
@@ -20125,7 +20122,7 @@
       </c>
       <c r="R433" s="6"/>
     </row>
-    <row r="434" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A434" s="4" t="s">
         <v>643</v>
       </c>
@@ -20151,7 +20148,7 @@
       </c>
       <c r="R434" s="6"/>
     </row>
-    <row r="435" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A435" s="9" t="s">
         <v>644</v>
       </c>
@@ -20187,7 +20184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A436" s="4" t="s">
         <v>647</v>
       </c>
@@ -20225,7 +20222,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="437" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A437" s="4" t="s">
         <v>651</v>
       </c>
@@ -20263,7 +20260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A438" s="4" t="s">
         <v>654</v>
       </c>
@@ -20311,7 +20308,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="439" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A439" s="4" t="s">
         <v>656</v>
       </c>
@@ -20349,7 +20346,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="440" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A440" s="4" t="s">
         <v>659</v>
       </c>
@@ -20387,7 +20384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A441" s="4" t="s">
         <v>662</v>
       </c>
@@ -20423,7 +20420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A442" s="4" t="s">
         <v>665</v>
       </c>
@@ -20459,7 +20456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:21" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:21" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A443" s="4" t="s">
         <v>667</v>
       </c>
@@ -20503,7 +20500,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="444" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A444" s="4" t="s">
         <v>669</v>
       </c>
@@ -20539,7 +20536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A445" s="4" t="s">
         <v>672</v>
       </c>
@@ -20575,7 +20572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A446" s="4" t="s">
         <v>668</v>
       </c>
@@ -20609,7 +20606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A447" s="4" t="s">
         <v>673</v>
       </c>
@@ -20643,7 +20640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A448" s="4" t="s">
         <v>674</v>
       </c>
@@ -20677,7 +20674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A449" s="4" t="s">
         <v>676</v>
       </c>
@@ -20721,7 +20718,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="450" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A450" s="4" t="s">
         <v>677</v>
       </c>
@@ -20757,7 +20754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A451" s="4" t="s">
         <v>678</v>
       </c>
@@ -20793,7 +20790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A452" s="4" t="s">
         <v>680</v>
       </c>
@@ -20827,7 +20824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A453" s="4" t="s">
         <v>682</v>
       </c>
@@ -20863,7 +20860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A454" s="9" t="s">
         <v>683</v>
       </c>
@@ -20899,7 +20896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A455" s="9" t="s">
         <v>685</v>
       </c>
@@ -20935,7 +20932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A456" s="4" t="s">
         <v>687</v>
       </c>
@@ -20989,7 +20986,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="457" spans="1:21" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:21" ht="66" x14ac:dyDescent="0.25">
       <c r="A457" s="4" t="s">
         <v>688</v>
       </c>
@@ -21023,7 +21020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:21" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A458" s="4" t="s">
         <v>689</v>
       </c>
@@ -21077,7 +21074,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="459" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A459" s="4" t="s">
         <v>690</v>
       </c>
@@ -21123,7 +21120,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="460" spans="1:21" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:21" ht="66" x14ac:dyDescent="0.25">
       <c r="A460" s="4" t="s">
         <v>691</v>
       </c>
@@ -21175,7 +21172,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="461" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A461" s="4" t="s">
         <v>692</v>
       </c>
@@ -21209,7 +21206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:21" ht="108.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:21" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="4" t="s">
         <v>693</v>
       </c>
@@ -21259,7 +21256,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="463" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A463" s="4" t="s">
         <v>694</v>
       </c>
@@ -21295,7 +21292,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="464" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A464" s="4" t="s">
         <v>695</v>
       </c>
@@ -21329,7 +21326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A465" s="4" t="s">
         <v>696</v>
       </c>
@@ -21379,7 +21376,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="466" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A466" s="4" t="s">
         <v>697</v>
       </c>
@@ -21413,7 +21410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:21" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A467" s="4" t="s">
         <v>698</v>
       </c>
@@ -21467,7 +21464,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="468" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A468" s="4" t="s">
         <v>700</v>
       </c>
@@ -21507,7 +21504,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="469" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A469" s="4" t="s">
         <v>702</v>
       </c>
@@ -21545,7 +21542,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="470" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A470" s="4" t="s">
         <v>705</v>
       </c>
@@ -21579,7 +21576,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="471" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A471" s="39" t="s">
         <v>706</v>
       </c>
@@ -21617,7 +21614,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="472" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A472" s="4" t="s">
         <v>707</v>
       </c>
@@ -21665,7 +21662,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="473" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A473" s="41" t="s">
         <v>708</v>
       </c>
@@ -21699,7 +21696,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="474" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A474" s="25" t="s">
         <v>324</v>
       </c>
@@ -21735,7 +21732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A475" s="9" t="s">
         <v>328</v>
       </c>
@@ -21769,7 +21766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A476" s="4" t="s">
         <v>335</v>
       </c>
@@ -21803,7 +21800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A477" s="4" t="s">
         <v>338</v>
       </c>
@@ -21837,7 +21834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A478" s="9" t="s">
         <v>339</v>
       </c>
@@ -21871,7 +21868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A479" s="25" t="s">
         <v>731</v>
       </c>
@@ -21905,7 +21902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A480" s="4" t="s">
         <v>360</v>
       </c>
@@ -21939,7 +21936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A481" s="4" t="s">
         <v>711</v>
       </c>
@@ -21963,7 +21960,7 @@
       </c>
       <c r="R481" s="6"/>
     </row>
-    <row r="482" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A482" s="4" t="s">
         <v>712</v>
       </c>
@@ -21987,7 +21984,7 @@
       </c>
       <c r="R482" s="6"/>
     </row>
-    <row r="483" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A483" s="4" t="s">
         <v>713</v>
       </c>
@@ -22011,7 +22008,7 @@
       </c>
       <c r="R483" s="6"/>
     </row>
-    <row r="484" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A484" s="4" t="s">
         <v>714</v>
       </c>
@@ -22035,7 +22032,7 @@
       </c>
       <c r="R484" s="6"/>
     </row>
-    <row r="485" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A485" s="4" t="s">
         <v>715</v>
       </c>
@@ -22059,7 +22056,7 @@
       </c>
       <c r="R485" s="6"/>
     </row>
-    <row r="486" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A486" s="4" t="s">
         <v>716</v>
       </c>
@@ -22083,7 +22080,7 @@
       </c>
       <c r="R486" s="6"/>
     </row>
-    <row r="487" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A487" s="4" t="s">
         <v>717</v>
       </c>
@@ -22107,7 +22104,7 @@
       </c>
       <c r="R487" s="6"/>
     </row>
-    <row r="488" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A488" s="4" t="s">
         <v>718</v>
       </c>
@@ -22131,7 +22128,7 @@
       </c>
       <c r="R488" s="6"/>
     </row>
-    <row r="489" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A489" s="4" t="s">
         <v>719</v>
       </c>
@@ -22155,7 +22152,7 @@
       </c>
       <c r="R489" s="6"/>
     </row>
-    <row r="490" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A490" s="4" t="s">
         <v>720</v>
       </c>
@@ -22179,7 +22176,7 @@
       </c>
       <c r="R490" s="6"/>
     </row>
-    <row r="491" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A491" s="4" t="s">
         <v>721</v>
       </c>
@@ -22203,7 +22200,7 @@
       </c>
       <c r="R491" s="6"/>
     </row>
-    <row r="492" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A492" s="4" t="s">
         <v>722</v>
       </c>
@@ -22227,7 +22224,7 @@
       </c>
       <c r="R492" s="6"/>
     </row>
-    <row r="493" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A493" s="4" t="s">
         <v>723</v>
       </c>
@@ -22251,7 +22248,7 @@
       </c>
       <c r="R493" s="6"/>
     </row>
-    <row r="494" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A494" s="4" t="s">
         <v>724</v>
       </c>
@@ -22275,7 +22272,7 @@
       </c>
       <c r="R494" s="6"/>
     </row>
-    <row r="495" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A495" s="4" t="s">
         <v>725</v>
       </c>
@@ -22299,7 +22296,7 @@
       </c>
       <c r="R495" s="6"/>
     </row>
-    <row r="496" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A496" s="4" t="s">
         <v>726</v>
       </c>
@@ -22323,7 +22320,7 @@
       </c>
       <c r="R496" s="6"/>
     </row>
-    <row r="497" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A497" s="4" t="s">
         <v>727</v>
       </c>
@@ -22347,7 +22344,7 @@
       </c>
       <c r="R497" s="6"/>
     </row>
-    <row r="498" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A498" s="4" t="s">
         <v>729</v>
       </c>
@@ -22371,13 +22368,13 @@
       </c>
       <c r="R498" s="6"/>
     </row>
-    <row r="499" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="Q499" s="48"/>
+    <row r="499" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q499" s="47"/>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>
   <pageMargins left="0.17" right="0.17" top="0.47" bottom="0.57999999999999996" header="0" footer="0"/>
-  <pageSetup paperSize="5" scale="57" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="5" scale="62" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;L&amp;F&amp;C&amp;P&amp;ROctober 25, 2022</oddFooter>
   </headerFooter>

--- a/resources/Dose_Response_Library.xlsx
+++ b/resources/Dose_Response_Library.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_HEM4\HEM4\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://scainccloud-my.sharepoint.com/personal/jmozier_scainc_com/Documents/Projects/ASRA-RIS-BasePeriod/HEM4_HEM5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296BCBA1-A4F7-40D2-98F8-5061F720BB13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C8A4702-D671-4436-86AA-93B15A43F381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="345" windowWidth="16320" windowHeight="13695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dose Response Value Library" sheetId="1" r:id="rId1"/>
@@ -2965,22 +2965,22 @@
       <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.77734375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="30.44140625" customWidth="1"/>
+    <col min="1" max="1" width="36.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" customWidth="1"/>
     <col min="3" max="3" width="14" style="26" customWidth="1"/>
     <col min="4" max="4" width="21" style="6" customWidth="1"/>
     <col min="5" max="5" width="11" style="6" customWidth="1"/>
-    <col min="6" max="6" width="8.77734375" style="27" customWidth="1"/>
-    <col min="7" max="7" width="9.21875" style="27" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" style="27" customWidth="1"/>
-    <col min="9" max="9" width="9.21875" style="27" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="27" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="27" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" style="27" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="27" customWidth="1"/>
     <col min="10" max="10" width="12" style="27" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="6"/>
+    <col min="11" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="48.3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="48.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3012,7 +3012,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -3044,7 +3044,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -3064,7 +3064,7 @@
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -3084,7 +3084,7 @@
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -3108,7 +3108,7 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
@@ -3128,7 +3128,7 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -3148,7 +3148,7 @@
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
@@ -3168,7 +3168,7 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
@@ -3190,7 +3190,7 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
@@ -3212,7 +3212,7 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>18</v>
       </c>
@@ -3234,7 +3234,7 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>20</v>
       </c>
@@ -3256,7 +3256,7 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>21</v>
       </c>
@@ -3282,7 +3282,7 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
@@ -3306,7 +3306,7 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>23</v>
       </c>
@@ -3336,7 +3336,7 @@
       </c>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>24</v>
       </c>
@@ -3358,7 +3358,7 @@
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>25</v>
       </c>
@@ -3380,7 +3380,7 @@
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>26</v>
       </c>
@@ -3402,7 +3402,7 @@
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>28</v>
       </c>
@@ -3424,7 +3424,7 @@
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>30</v>
       </c>
@@ -3452,7 +3452,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>31</v>
       </c>
@@ -3470,7 +3470,7 @@
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>32</v>
       </c>
@@ -3492,7 +3492,7 @@
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>33</v>
       </c>
@@ -3514,7 +3514,7 @@
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>34</v>
       </c>
@@ -3536,7 +3536,7 @@
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>36</v>
       </c>
@@ -3558,7 +3558,7 @@
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>37</v>
       </c>
@@ -3578,7 +3578,7 @@
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>38</v>
       </c>
@@ -3598,7 +3598,7 @@
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>39</v>
       </c>
@@ -3620,7 +3620,7 @@
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>40</v>
       </c>
@@ -3652,7 +3652,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>41</v>
       </c>
@@ -3684,7 +3684,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>42</v>
       </c>
@@ -3704,7 +3704,7 @@
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>43</v>
       </c>
@@ -3726,7 +3726,7 @@
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>44</v>
       </c>
@@ -3748,7 +3748,7 @@
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>45</v>
       </c>
@@ -3768,7 +3768,7 @@
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>46</v>
       </c>
@@ -3788,7 +3788,7 @@
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>47</v>
       </c>
@@ -3810,7 +3810,7 @@
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>48</v>
       </c>
@@ -3832,7 +3832,7 @@
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>49</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>51</v>
       </c>
@@ -3880,7 +3880,7 @@
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>53</v>
       </c>
@@ -3898,7 +3898,7 @@
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>54</v>
       </c>
@@ -3916,7 +3916,7 @@
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>55</v>
       </c>
@@ -3938,7 +3938,7 @@
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>56</v>
       </c>
@@ -3970,7 +3970,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>57</v>
       </c>
@@ -3992,7 +3992,7 @@
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>58</v>
       </c>
@@ -4018,7 +4018,7 @@
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>59</v>
       </c>
@@ -4040,7 +4040,7 @@
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
         <v>60</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>61</v>
       </c>
@@ -4094,7 +4094,7 @@
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>62</v>
       </c>
@@ -4126,7 +4126,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>63</v>
       </c>
@@ -4154,7 +4154,7 @@
       </c>
       <c r="J50" s="4"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>64</v>
       </c>
@@ -4184,7 +4184,7 @@
       </c>
       <c r="J51" s="4"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>65</v>
       </c>
@@ -4210,7 +4210,7 @@
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>66</v>
       </c>
@@ -4232,7 +4232,7 @@
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>67</v>
       </c>
@@ -4254,7 +4254,7 @@
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>68</v>
       </c>
@@ -4274,7 +4274,7 @@
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>69</v>
       </c>
@@ -4294,7 +4294,7 @@
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>71</v>
       </c>
@@ -4316,7 +4316,7 @@
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>72</v>
       </c>
@@ -4338,7 +4338,7 @@
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>73</v>
       </c>
@@ -4360,7 +4360,7 @@
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>74</v>
       </c>
@@ -4384,7 +4384,7 @@
       </c>
       <c r="J60" s="4"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>76</v>
       </c>
@@ -4406,7 +4406,7 @@
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>77</v>
       </c>
@@ -4430,7 +4430,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
         <v>79</v>
       </c>
@@ -4454,7 +4454,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
         <v>80</v>
       </c>
@@ -4478,7 +4478,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="65" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="13" t="s">
         <v>82</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>84</v>
       </c>
@@ -4528,7 +4528,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>86</v>
       </c>
@@ -4554,7 +4554,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>87</v>
       </c>
@@ -4580,7 +4580,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>88</v>
       </c>
@@ -4610,7 +4610,7 @@
       </c>
       <c r="J69" s="4"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>89</v>
       </c>
@@ -4630,7 +4630,7 @@
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>90</v>
       </c>
@@ -4650,7 +4650,7 @@
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>91</v>
       </c>
@@ -4678,7 +4678,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>92</v>
       </c>
@@ -4700,7 +4700,7 @@
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>93</v>
       </c>
@@ -4724,7 +4724,7 @@
       </c>
       <c r="J74" s="4"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>95</v>
       </c>
@@ -4746,7 +4746,7 @@
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>97</v>
       </c>
@@ -4768,7 +4768,7 @@
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>99</v>
       </c>
@@ -4790,7 +4790,7 @@
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>101</v>
       </c>
@@ -4808,7 +4808,7 @@
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>102</v>
       </c>
@@ -4832,7 +4832,7 @@
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>103</v>
       </c>
@@ -4852,7 +4852,7 @@
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>104</v>
       </c>
@@ -4878,7 +4878,7 @@
       </c>
       <c r="J81" s="4"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>105</v>
       </c>
@@ -4900,7 +4900,7 @@
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
         <v>106</v>
       </c>
@@ -4922,7 +4922,7 @@
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>107</v>
       </c>
@@ -4948,7 +4948,7 @@
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>108</v>
       </c>
@@ -4970,7 +4970,7 @@
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>110</v>
       </c>
@@ -4992,7 +4992,7 @@
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
         <v>111</v>
       </c>
@@ -5014,7 +5014,7 @@
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
         <v>112</v>
       </c>
@@ -5036,7 +5036,7 @@
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>114</v>
       </c>
@@ -5056,7 +5056,7 @@
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>115</v>
       </c>
@@ -5078,7 +5078,7 @@
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>116</v>
       </c>
@@ -5110,7 +5110,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
         <v>117</v>
       </c>
@@ -5140,7 +5140,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
         <v>118</v>
       </c>
@@ -5162,7 +5162,7 @@
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="s">
         <v>120</v>
       </c>
@@ -5180,7 +5180,7 @@
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
         <v>121</v>
       </c>
@@ -5202,7 +5202,7 @@
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
         <v>122</v>
       </c>
@@ -5224,7 +5224,7 @@
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
         <v>123</v>
       </c>
@@ -5256,7 +5256,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
         <v>124</v>
       </c>
@@ -5280,7 +5280,7 @@
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
         <v>125</v>
       </c>
@@ -5306,7 +5306,7 @@
       <c r="I99" s="4"/>
       <c r="J99" s="4"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
         <v>126</v>
       </c>
@@ -5328,7 +5328,7 @@
       <c r="I100" s="4"/>
       <c r="J100" s="4"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
         <v>127</v>
       </c>
@@ -5356,7 +5356,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
         <v>128</v>
       </c>
@@ -5382,7 +5382,7 @@
       </c>
       <c r="J102" s="4"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
         <v>129</v>
       </c>
@@ -5404,7 +5404,7 @@
       <c r="I103" s="4"/>
       <c r="J103" s="4"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="s">
         <v>130</v>
       </c>
@@ -5426,7 +5426,7 @@
       <c r="I104" s="4"/>
       <c r="J104" s="4"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="7" t="s">
         <v>132</v>
       </c>
@@ -5448,7 +5448,7 @@
       <c r="I105" s="4"/>
       <c r="J105" s="4"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="7" t="s">
         <v>133</v>
       </c>
@@ -5470,7 +5470,7 @@
       <c r="I106" s="4"/>
       <c r="J106" s="4"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" s="18" t="s">
         <v>134</v>
       </c>
@@ -5492,7 +5492,7 @@
       <c r="I107" s="4"/>
       <c r="J107" s="4"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" s="18" t="s">
         <v>135</v>
       </c>
@@ -5514,7 +5514,7 @@
       <c r="I108" s="4"/>
       <c r="J108" s="4"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
         <v>137</v>
       </c>
@@ -5532,7 +5532,7 @@
       <c r="I109" s="4"/>
       <c r="J109" s="4"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
         <v>138</v>
       </c>
@@ -5550,7 +5550,7 @@
       <c r="I110" s="4"/>
       <c r="J110" s="4"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
         <v>139</v>
       </c>
@@ -5572,7 +5572,7 @@
       <c r="I111" s="4"/>
       <c r="J111" s="4"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
         <v>140</v>
       </c>
@@ -5594,7 +5594,7 @@
       <c r="I112" s="4"/>
       <c r="J112" s="4"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="7" t="s">
         <v>141</v>
       </c>
@@ -5616,7 +5616,7 @@
       <c r="I113" s="4"/>
       <c r="J113" s="4"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="18" t="s">
         <v>142</v>
       </c>
@@ -5638,7 +5638,7 @@
       <c r="I114" s="4"/>
       <c r="J114" s="4"/>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
         <v>143</v>
       </c>
@@ -5660,7 +5660,7 @@
       <c r="I115" s="4"/>
       <c r="J115" s="4"/>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
         <v>144</v>
       </c>
@@ -5682,7 +5682,7 @@
       <c r="I116" s="4"/>
       <c r="J116" s="4"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
         <v>145</v>
       </c>
@@ -5700,7 +5700,7 @@
       <c r="I117" s="4"/>
       <c r="J117" s="4"/>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
         <v>131</v>
       </c>
@@ -5722,7 +5722,7 @@
       <c r="I118" s="4"/>
       <c r="J118" s="4"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
         <v>147</v>
       </c>
@@ -5744,7 +5744,7 @@
       <c r="I119" s="4"/>
       <c r="J119" s="4"/>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
         <v>148</v>
       </c>
@@ -5762,7 +5762,7 @@
       <c r="I120" s="4"/>
       <c r="J120" s="4"/>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
         <v>149</v>
       </c>
@@ -5784,7 +5784,7 @@
       <c r="I121" s="4"/>
       <c r="J121" s="4"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
         <v>150</v>
       </c>
@@ -5806,7 +5806,7 @@
       <c r="I122" s="4"/>
       <c r="J122" s="4"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="7" t="s">
         <v>151</v>
       </c>
@@ -5828,7 +5828,7 @@
       <c r="I123" s="4"/>
       <c r="J123" s="4"/>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="7" t="s">
         <v>152</v>
       </c>
@@ -5850,7 +5850,7 @@
       <c r="I124" s="4"/>
       <c r="J124" s="4"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" s="7" t="s">
         <v>153</v>
       </c>
@@ -5872,7 +5872,7 @@
       <c r="I125" s="4"/>
       <c r="J125" s="4"/>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" s="18" t="s">
         <v>154</v>
       </c>
@@ -5894,7 +5894,7 @@
       <c r="I126" s="4"/>
       <c r="J126" s="4"/>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" s="18" t="s">
         <v>155</v>
       </c>
@@ -5912,7 +5912,7 @@
       <c r="I127" s="4"/>
       <c r="J127" s="4"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="7" t="s">
         <v>156</v>
       </c>
@@ -5934,7 +5934,7 @@
       <c r="I128" s="4"/>
       <c r="J128" s="4"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
         <v>157</v>
       </c>
@@ -5954,7 +5954,7 @@
       <c r="I129" s="4"/>
       <c r="J129" s="4"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
         <v>159</v>
       </c>
@@ -5974,7 +5974,7 @@
       <c r="I130" s="4"/>
       <c r="J130" s="4"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
         <v>161</v>
       </c>
@@ -5994,7 +5994,7 @@
       <c r="I131" s="4"/>
       <c r="J131" s="4"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
         <v>163</v>
       </c>
@@ -6014,7 +6014,7 @@
       <c r="I132" s="4"/>
       <c r="J132" s="4"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
         <v>165</v>
       </c>
@@ -6034,7 +6034,7 @@
       <c r="I133" s="4"/>
       <c r="J133" s="4"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
         <v>158</v>
       </c>
@@ -6056,7 +6056,7 @@
       <c r="I134" s="4"/>
       <c r="J134" s="4"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
         <v>167</v>
       </c>
@@ -6078,7 +6078,7 @@
       </c>
       <c r="J135" s="4"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
         <v>169</v>
       </c>
@@ -6098,7 +6098,7 @@
       <c r="I136" s="4"/>
       <c r="J136" s="4"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
         <v>170</v>
       </c>
@@ -6118,7 +6118,7 @@
       <c r="I137" s="4"/>
       <c r="J137" s="4"/>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
         <v>172</v>
       </c>
@@ -6138,7 +6138,7 @@
       <c r="I138" s="4"/>
       <c r="J138" s="4"/>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
         <v>173</v>
       </c>
@@ -6158,7 +6158,7 @@
       <c r="I139" s="4"/>
       <c r="J139" s="4"/>
     </row>
-    <row r="140" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
         <v>174</v>
       </c>
@@ -6178,7 +6178,7 @@
       <c r="I140" s="4"/>
       <c r="J140" s="4"/>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
         <v>175</v>
       </c>
@@ -6198,7 +6198,7 @@
       <c r="I141" s="4"/>
       <c r="J141" s="4"/>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
         <v>452</v>
       </c>
@@ -6218,7 +6218,7 @@
       <c r="I142" s="4"/>
       <c r="J142" s="4"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
         <v>177</v>
       </c>
@@ -6240,7 +6240,7 @@
       <c r="I143" s="4"/>
       <c r="J143" s="4"/>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
         <v>178</v>
       </c>
@@ -6260,7 +6260,7 @@
       <c r="I144" s="4"/>
       <c r="J144" s="4"/>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
         <v>179</v>
       </c>
@@ -6282,7 +6282,7 @@
       <c r="I145" s="4"/>
       <c r="J145" s="4"/>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
         <v>181</v>
       </c>
@@ -6304,7 +6304,7 @@
       <c r="I146" s="4"/>
       <c r="J146" s="4"/>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
         <v>182</v>
       </c>
@@ -6326,7 +6326,7 @@
       <c r="I147" s="4"/>
       <c r="J147" s="4"/>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
         <v>183</v>
       </c>
@@ -6348,7 +6348,7 @@
       <c r="I148" s="4"/>
       <c r="J148" s="4"/>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
         <v>184</v>
       </c>
@@ -6374,7 +6374,7 @@
       <c r="I149" s="4"/>
       <c r="J149" s="4"/>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
         <v>185</v>
       </c>
@@ -6400,7 +6400,7 @@
       <c r="I150" s="4"/>
       <c r="J150" s="4"/>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" s="7" t="s">
         <v>187</v>
       </c>
@@ -6420,7 +6420,7 @@
       <c r="I151" s="4"/>
       <c r="J151" s="4"/>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
         <v>189</v>
       </c>
@@ -6440,7 +6440,7 @@
       <c r="I152" s="4"/>
       <c r="J152" s="4"/>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
         <v>191</v>
       </c>
@@ -6466,7 +6466,7 @@
       <c r="I153" s="4"/>
       <c r="J153" s="4"/>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
         <v>192</v>
       </c>
@@ -6488,7 +6488,7 @@
       <c r="I154" s="4"/>
       <c r="J154" s="4"/>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
         <v>193</v>
       </c>
@@ -6508,7 +6508,7 @@
       <c r="I155" s="4"/>
       <c r="J155" s="4"/>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
         <v>194</v>
       </c>
@@ -6528,7 +6528,7 @@
       <c r="I156" s="4"/>
       <c r="J156" s="4"/>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
         <v>186</v>
       </c>
@@ -6550,7 +6550,7 @@
       <c r="I157" s="4"/>
       <c r="J157" s="4"/>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
         <v>195</v>
       </c>
@@ -6576,7 +6576,7 @@
       <c r="I158" s="4"/>
       <c r="J158" s="4"/>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
         <v>196</v>
       </c>
@@ -6598,7 +6598,7 @@
       <c r="I159" s="4"/>
       <c r="J159" s="4"/>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
         <v>197</v>
       </c>
@@ -6622,7 +6622,7 @@
       </c>
       <c r="J160" s="4"/>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
         <v>198</v>
       </c>
@@ -6642,7 +6642,7 @@
       <c r="I161" s="4"/>
       <c r="J161" s="4"/>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
         <v>200</v>
       </c>
@@ -6662,7 +6662,7 @@
       <c r="I162" s="4"/>
       <c r="J162" s="4"/>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
         <v>202</v>
       </c>
@@ -6682,7 +6682,7 @@
       <c r="I163" s="4"/>
       <c r="J163" s="4"/>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
         <v>204</v>
       </c>
@@ -6704,7 +6704,7 @@
       <c r="I164" s="4"/>
       <c r="J164" s="4"/>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
         <v>205</v>
       </c>
@@ -6734,7 +6734,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" s="7" t="s">
         <v>206</v>
       </c>
@@ -6760,7 +6760,7 @@
       </c>
       <c r="J166" s="4"/>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
         <v>207</v>
       </c>
@@ -6786,7 +6786,7 @@
       <c r="I167" s="4"/>
       <c r="J167" s="4"/>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
         <v>208</v>
       </c>
@@ -6808,7 +6808,7 @@
       <c r="I168" s="4"/>
       <c r="J168" s="4"/>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
         <v>209</v>
       </c>
@@ -6828,7 +6828,7 @@
       <c r="I169" s="4"/>
       <c r="J169" s="4"/>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
         <v>211</v>
       </c>
@@ -6850,7 +6850,7 @@
       <c r="I170" s="4"/>
       <c r="J170" s="4"/>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
         <v>212</v>
       </c>
@@ -6876,7 +6876,7 @@
       <c r="I171" s="4"/>
       <c r="J171" s="4"/>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
         <v>213</v>
       </c>
@@ -6898,7 +6898,7 @@
       <c r="I172" s="4"/>
       <c r="J172" s="4"/>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
         <v>215</v>
       </c>
@@ -6920,7 +6920,7 @@
       <c r="I173" s="4"/>
       <c r="J173" s="4"/>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="s">
         <v>216</v>
       </c>
@@ -6942,7 +6942,7 @@
       <c r="I174" s="4"/>
       <c r="J174" s="4"/>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
         <v>217</v>
       </c>
@@ -6962,7 +6962,7 @@
       <c r="I175" s="4"/>
       <c r="J175" s="4"/>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
         <v>219</v>
       </c>
@@ -6980,7 +6980,7 @@
       <c r="I176" s="4"/>
       <c r="J176" s="4"/>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
         <v>221</v>
       </c>
@@ -7002,7 +7002,7 @@
       <c r="I177" s="4"/>
       <c r="J177" s="4"/>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="s">
         <v>222</v>
       </c>
@@ -7024,7 +7024,7 @@
       <c r="I178" s="4"/>
       <c r="J178" s="4"/>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
         <v>223</v>
       </c>
@@ -7046,7 +7046,7 @@
       <c r="I179" s="4"/>
       <c r="J179" s="4"/>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
         <v>224</v>
       </c>
@@ -7070,7 +7070,7 @@
       <c r="I180" s="4"/>
       <c r="J180" s="4"/>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
         <v>225</v>
       </c>
@@ -7092,7 +7092,7 @@
       <c r="I181" s="4"/>
       <c r="J181" s="4"/>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="s">
         <v>227</v>
       </c>
@@ -7114,7 +7114,7 @@
       <c r="I182" s="4"/>
       <c r="J182" s="4"/>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183" s="7" t="s">
         <v>228</v>
       </c>
@@ -7132,7 +7132,7 @@
       <c r="I183" s="4"/>
       <c r="J183" s="4"/>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
         <v>230</v>
       </c>
@@ -7160,7 +7160,7 @@
       </c>
       <c r="J184" s="4"/>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
         <v>231</v>
       </c>
@@ -7182,7 +7182,7 @@
       <c r="I185" s="4"/>
       <c r="J185" s="4"/>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
         <v>232</v>
       </c>
@@ -7208,7 +7208,7 @@
       <c r="I186" s="4"/>
       <c r="J186" s="4"/>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187" s="7" t="s">
         <v>233</v>
       </c>
@@ -7226,7 +7226,7 @@
       <c r="I187" s="4"/>
       <c r="J187" s="4"/>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
         <v>619</v>
       </c>
@@ -7248,7 +7248,7 @@
       <c r="I188" s="4"/>
       <c r="J188" s="4"/>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
         <v>620</v>
       </c>
@@ -7270,7 +7270,7 @@
       <c r="I189" s="4"/>
       <c r="J189" s="4"/>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190" s="4" t="s">
         <v>235</v>
       </c>
@@ -7292,7 +7292,7 @@
       <c r="I190" s="4"/>
       <c r="J190" s="4"/>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="s">
         <v>236</v>
       </c>
@@ -7314,7 +7314,7 @@
       <c r="I191" s="4"/>
       <c r="J191" s="4"/>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
         <v>237</v>
       </c>
@@ -7336,7 +7336,7 @@
       <c r="I192" s="4"/>
       <c r="J192" s="4"/>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="s">
         <v>238</v>
       </c>
@@ -7358,7 +7358,7 @@
       <c r="I193" s="4"/>
       <c r="J193" s="4"/>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="s">
         <v>239</v>
       </c>
@@ -7380,7 +7380,7 @@
       <c r="I194" s="4"/>
       <c r="J194" s="4"/>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195" s="4" t="s">
         <v>240</v>
       </c>
@@ -7402,7 +7402,7 @@
       <c r="I195" s="4"/>
       <c r="J195" s="4"/>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196" s="4" t="s">
         <v>241</v>
       </c>
@@ -7424,7 +7424,7 @@
       <c r="I196" s="4"/>
       <c r="J196" s="4"/>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197" s="4" t="s">
         <v>242</v>
       </c>
@@ -7446,7 +7446,7 @@
       <c r="I197" s="4"/>
       <c r="J197" s="4"/>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A198" s="4" t="s">
         <v>243</v>
       </c>
@@ -7468,7 +7468,7 @@
       <c r="I198" s="4"/>
       <c r="J198" s="4"/>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A199" s="4" t="s">
         <v>244</v>
       </c>
@@ -7490,7 +7490,7 @@
       <c r="I199" s="4"/>
       <c r="J199" s="4"/>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A200" s="4" t="s">
         <v>245</v>
       </c>
@@ -7512,7 +7512,7 @@
       <c r="I200" s="4"/>
       <c r="J200" s="4"/>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A201" s="4" t="s">
         <v>246</v>
       </c>
@@ -7534,7 +7534,7 @@
       <c r="I201" s="4"/>
       <c r="J201" s="4"/>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A202" s="4" t="s">
         <v>247</v>
       </c>
@@ -7556,7 +7556,7 @@
       <c r="I202" s="4"/>
       <c r="J202" s="4"/>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A203" s="4" t="s">
         <v>248</v>
       </c>
@@ -7578,7 +7578,7 @@
       <c r="I203" s="4"/>
       <c r="J203" s="4"/>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A204" s="4" t="s">
         <v>249</v>
       </c>
@@ -7600,7 +7600,7 @@
       <c r="I204" s="4"/>
       <c r="J204" s="4"/>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205" s="4" t="s">
         <v>250</v>
       </c>
@@ -7622,7 +7622,7 @@
       <c r="I205" s="4"/>
       <c r="J205" s="4"/>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A206" s="4" t="s">
         <v>252</v>
       </c>
@@ -7640,7 +7640,7 @@
       <c r="I206" s="4"/>
       <c r="J206" s="4"/>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A207" s="4" t="s">
         <v>253</v>
       </c>
@@ -7672,7 +7672,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A208" s="4" t="s">
         <v>254</v>
       </c>
@@ -7700,7 +7700,7 @@
       </c>
       <c r="J208" s="4"/>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A209" s="4" t="s">
         <v>255</v>
       </c>
@@ -7726,7 +7726,7 @@
       <c r="I209" s="4"/>
       <c r="J209" s="4"/>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A210" s="4" t="s">
         <v>256</v>
       </c>
@@ -7748,7 +7748,7 @@
       <c r="I210" s="4"/>
       <c r="J210" s="4"/>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A211" s="4" t="s">
         <v>257</v>
       </c>
@@ -7770,7 +7770,7 @@
       <c r="I211" s="4"/>
       <c r="J211" s="4"/>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A212" s="4" t="s">
         <v>258</v>
       </c>
@@ -7796,7 +7796,7 @@
       <c r="I212" s="4"/>
       <c r="J212" s="4"/>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A213" s="4" t="s">
         <v>259</v>
       </c>
@@ -7822,7 +7822,7 @@
       </c>
       <c r="J213" s="4"/>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A214" s="4" t="s">
         <v>260</v>
       </c>
@@ -7844,7 +7844,7 @@
       <c r="I214" s="4"/>
       <c r="J214" s="4"/>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A215" s="4" t="s">
         <v>261</v>
       </c>
@@ -7868,7 +7868,7 @@
       <c r="I215" s="4"/>
       <c r="J215" s="4"/>
     </row>
-    <row r="216" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
         <v>262</v>
       </c>
@@ -7894,7 +7894,7 @@
       </c>
       <c r="J216" s="4"/>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A217" s="4" t="s">
         <v>263</v>
       </c>
@@ -7914,7 +7914,7 @@
       <c r="I217" s="4"/>
       <c r="J217" s="4"/>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A218" s="4" t="s">
         <v>264</v>
       </c>
@@ -7936,7 +7936,7 @@
       <c r="I218" s="4"/>
       <c r="J218" s="4"/>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A219" s="4" t="s">
         <v>265</v>
       </c>
@@ -7968,7 +7968,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A220" s="7" t="s">
         <v>268</v>
       </c>
@@ -7992,7 +7992,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A221" s="7" t="s">
         <v>272</v>
       </c>
@@ -8016,7 +8016,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A222" s="7" t="s">
         <v>271</v>
       </c>
@@ -8040,7 +8040,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A223" s="7" t="s">
         <v>273</v>
       </c>
@@ -8062,7 +8062,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A224" s="7" t="s">
         <v>275</v>
       </c>
@@ -8086,7 +8086,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A225" s="4" t="s">
         <v>276</v>
       </c>
@@ -8108,7 +8108,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A226" s="7" t="s">
         <v>279</v>
       </c>
@@ -8130,7 +8130,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A227" s="7" t="s">
         <v>280</v>
       </c>
@@ -8154,7 +8154,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A228" s="7" t="s">
         <v>281</v>
       </c>
@@ -8176,7 +8176,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A229" s="4" t="s">
         <v>282</v>
       </c>
@@ -8200,7 +8200,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A230" s="4" t="s">
         <v>283</v>
       </c>
@@ -8224,7 +8224,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A231" s="7" t="s">
         <v>284</v>
       </c>
@@ -8248,7 +8248,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A232" s="18" t="s">
         <v>285</v>
       </c>
@@ -8270,7 +8270,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A233" s="4" t="s">
         <v>287</v>
       </c>
@@ -8292,7 +8292,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A234" s="4" t="s">
         <v>288</v>
       </c>
@@ -8316,7 +8316,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A235" s="4" t="s">
         <v>289</v>
       </c>
@@ -8340,7 +8340,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A236" s="4" t="s">
         <v>290</v>
       </c>
@@ -8364,7 +8364,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A237" s="4" t="s">
         <v>291</v>
       </c>
@@ -8388,7 +8388,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A238" s="4" t="s">
         <v>292</v>
       </c>
@@ -8410,7 +8410,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A239" s="18" t="s">
         <v>295</v>
       </c>
@@ -8434,7 +8434,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A240" s="7" t="s">
         <v>296</v>
       </c>
@@ -8458,7 +8458,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A241" s="7" t="s">
         <v>297</v>
       </c>
@@ -8480,7 +8480,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A242" s="7" t="s">
         <v>299</v>
       </c>
@@ -8504,7 +8504,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A243" s="7" t="s">
         <v>300</v>
       </c>
@@ -8528,7 +8528,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A244" s="7" t="s">
         <v>301</v>
       </c>
@@ -8552,7 +8552,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A245" s="7" t="s">
         <v>302</v>
       </c>
@@ -8574,7 +8574,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A246" s="7" t="s">
         <v>617</v>
       </c>
@@ -8596,7 +8596,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A247" s="4" t="s">
         <v>303</v>
       </c>
@@ -8618,7 +8618,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A248" s="4" t="s">
         <v>304</v>
       </c>
@@ -8640,7 +8640,7 @@
       <c r="I248" s="4"/>
       <c r="J248" s="4"/>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A249" s="4" t="s">
         <v>305</v>
       </c>
@@ -8660,7 +8660,7 @@
       <c r="I249" s="4"/>
       <c r="J249" s="4"/>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A250" s="4" t="s">
         <v>306</v>
       </c>
@@ -8684,7 +8684,7 @@
       </c>
       <c r="J250" s="4"/>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A251" s="4" t="s">
         <v>307</v>
       </c>
@@ -8706,7 +8706,7 @@
       <c r="I251" s="4"/>
       <c r="J251" s="4"/>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A252" s="4" t="s">
         <v>308</v>
       </c>
@@ -8726,7 +8726,7 @@
       <c r="I252" s="4"/>
       <c r="J252" s="4"/>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A253" s="4" t="s">
         <v>309</v>
       </c>
@@ -8748,7 +8748,7 @@
       <c r="I253" s="4"/>
       <c r="J253" s="4"/>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A254" s="4" t="s">
         <v>310</v>
       </c>
@@ -8766,7 +8766,7 @@
       <c r="I254" s="4"/>
       <c r="J254" s="4"/>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A255" s="4" t="s">
         <v>311</v>
       </c>
@@ -8790,7 +8790,7 @@
       <c r="I255" s="4"/>
       <c r="J255" s="4"/>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A256" s="4" t="s">
         <v>313</v>
       </c>
@@ -8820,7 +8820,7 @@
       </c>
       <c r="J256" s="4"/>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A257" s="4" t="s">
         <v>314</v>
       </c>
@@ -8852,7 +8852,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A258" s="4" t="s">
         <v>315</v>
       </c>
@@ -8884,7 +8884,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A259" s="4" t="s">
         <v>316</v>
       </c>
@@ -8906,7 +8906,7 @@
       <c r="I259" s="4"/>
       <c r="J259" s="4"/>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A260" s="4" t="s">
         <v>317</v>
       </c>
@@ -8926,7 +8926,7 @@
       <c r="I260" s="4"/>
       <c r="J260" s="4"/>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A261" s="7" t="s">
         <v>318</v>
       </c>
@@ -8946,7 +8946,7 @@
       <c r="I261" s="4"/>
       <c r="J261" s="4"/>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A262" s="7" t="s">
         <v>320</v>
       </c>
@@ -8966,7 +8966,7 @@
       <c r="I262" s="4"/>
       <c r="J262" s="4"/>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A263" s="7" t="s">
         <v>321</v>
       </c>
@@ -8988,7 +8988,7 @@
       <c r="I263" s="4"/>
       <c r="J263" s="4"/>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A264" s="7" t="s">
         <v>322</v>
       </c>
@@ -9010,7 +9010,7 @@
       <c r="I264" s="4"/>
       <c r="J264" s="4"/>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A265" s="18" t="s">
         <v>323</v>
       </c>
@@ -9032,7 +9032,7 @@
       <c r="I265" s="4"/>
       <c r="J265" s="4"/>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A266" s="18" t="s">
         <v>324</v>
       </c>
@@ -9052,7 +9052,7 @@
       <c r="I266" s="4"/>
       <c r="J266" s="4"/>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A267" s="4" t="s">
         <v>319</v>
       </c>
@@ -9074,7 +9074,7 @@
       <c r="I267" s="4"/>
       <c r="J267" s="4"/>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A268" s="4" t="s">
         <v>326</v>
       </c>
@@ -9094,7 +9094,7 @@
       <c r="I268" s="4"/>
       <c r="J268" s="4"/>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A269" s="7" t="s">
         <v>327</v>
       </c>
@@ -9116,7 +9116,7 @@
       <c r="I269" s="4"/>
       <c r="J269" s="4"/>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A270" s="7" t="s">
         <v>328</v>
       </c>
@@ -9136,7 +9136,7 @@
       <c r="I270" s="4"/>
       <c r="J270" s="4"/>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A271" s="7" t="s">
         <v>329</v>
       </c>
@@ -9156,7 +9156,7 @@
       <c r="I271" s="4"/>
       <c r="J271" s="4"/>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A272" s="7" t="s">
         <v>330</v>
       </c>
@@ -9176,7 +9176,7 @@
       <c r="I272" s="4"/>
       <c r="J272" s="4"/>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A273" s="4" t="s">
         <v>331</v>
       </c>
@@ -9198,7 +9198,7 @@
       <c r="I273" s="4"/>
       <c r="J273" s="4"/>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A274" s="4" t="s">
         <v>332</v>
       </c>
@@ -9220,7 +9220,7 @@
       <c r="I274" s="4"/>
       <c r="J274" s="4"/>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A275" s="4" t="s">
         <v>333</v>
       </c>
@@ -9246,7 +9246,7 @@
       </c>
       <c r="J275" s="4"/>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A276" s="4" t="s">
         <v>334</v>
       </c>
@@ -9266,7 +9266,7 @@
       <c r="I276" s="4"/>
       <c r="J276" s="4"/>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A277" s="4" t="s">
         <v>335</v>
       </c>
@@ -9288,7 +9288,7 @@
       <c r="I277" s="4"/>
       <c r="J277" s="4"/>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A278" s="7" t="s">
         <v>336</v>
       </c>
@@ -9310,7 +9310,7 @@
       <c r="I278" s="4"/>
       <c r="J278" s="4"/>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A279" s="7" t="s">
         <v>337</v>
       </c>
@@ -9330,7 +9330,7 @@
       <c r="I279" s="4"/>
       <c r="J279" s="4"/>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A280" s="7" t="s">
         <v>338</v>
       </c>
@@ -9350,7 +9350,7 @@
       <c r="I280" s="4"/>
       <c r="J280" s="4"/>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A281" s="7" t="s">
         <v>340</v>
       </c>
@@ -9372,7 +9372,7 @@
       <c r="I281" s="4"/>
       <c r="J281" s="4"/>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A282" s="7" t="s">
         <v>341</v>
       </c>
@@ -9392,7 +9392,7 @@
       <c r="I282" s="4"/>
       <c r="J282" s="4"/>
     </row>
-    <row r="283" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A283" s="7" t="s">
         <v>342</v>
       </c>
@@ -9412,7 +9412,7 @@
       <c r="I283" s="4"/>
       <c r="J283" s="4"/>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A284" s="7" t="s">
         <v>343</v>
       </c>
@@ -9434,7 +9434,7 @@
       <c r="I284" s="4"/>
       <c r="J284" s="4"/>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A285" s="4" t="s">
         <v>344</v>
       </c>
@@ -9454,7 +9454,7 @@
       <c r="I285" s="4"/>
       <c r="J285" s="4"/>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A286" s="4" t="s">
         <v>346</v>
       </c>
@@ -9474,7 +9474,7 @@
       <c r="I286" s="4"/>
       <c r="J286" s="4"/>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A287" s="4" t="s">
         <v>348</v>
       </c>
@@ -9496,7 +9496,7 @@
       <c r="I287" s="4"/>
       <c r="J287" s="4"/>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A288" s="4" t="s">
         <v>349</v>
       </c>
@@ -9516,7 +9516,7 @@
       <c r="I288" s="4"/>
       <c r="J288" s="4"/>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A289" s="4" t="s">
         <v>351</v>
       </c>
@@ -9536,7 +9536,7 @@
       <c r="I289" s="4"/>
       <c r="J289" s="4"/>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A290" s="4" t="s">
         <v>353</v>
       </c>
@@ -9564,7 +9564,7 @@
         <v>5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A291" s="4" t="s">
         <v>354</v>
       </c>
@@ -9584,7 +9584,7 @@
       <c r="I291" s="4"/>
       <c r="J291" s="4"/>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A292" s="4" t="s">
         <v>345</v>
       </c>
@@ -9606,7 +9606,7 @@
       <c r="I292" s="4"/>
       <c r="J292" s="4"/>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A293" s="4" t="s">
         <v>356</v>
       </c>
@@ -9626,7 +9626,7 @@
       <c r="I293" s="4"/>
       <c r="J293" s="4"/>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A294" s="4" t="s">
         <v>358</v>
       </c>
@@ -9648,7 +9648,7 @@
       <c r="I294" s="4"/>
       <c r="J294" s="4"/>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A295" s="4" t="s">
         <v>359</v>
       </c>
@@ -9668,7 +9668,7 @@
       <c r="I295" s="4"/>
       <c r="J295" s="4"/>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A296" s="4" t="s">
         <v>361</v>
       </c>
@@ -9688,7 +9688,7 @@
       <c r="I296" s="4"/>
       <c r="J296" s="4"/>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A297" s="4" t="s">
         <v>362</v>
       </c>
@@ -9710,7 +9710,7 @@
       <c r="I297" s="4"/>
       <c r="J297" s="4"/>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A298" s="4" t="s">
         <v>363</v>
       </c>
@@ -9742,7 +9742,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A299" s="4" t="s">
         <v>364</v>
       </c>
@@ -9762,7 +9762,7 @@
       <c r="I299" s="4"/>
       <c r="J299" s="4"/>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A300" s="4" t="s">
         <v>365</v>
       </c>
@@ -9790,7 +9790,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A301" s="4" t="s">
         <v>366</v>
       </c>
@@ -9818,7 +9818,7 @@
       </c>
       <c r="J301" s="4"/>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A302" s="4" t="s">
         <v>367</v>
       </c>
@@ -9842,7 +9842,7 @@
       <c r="I302" s="4"/>
       <c r="J302" s="4"/>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A303" s="4" t="s">
         <v>368</v>
       </c>
@@ -9872,7 +9872,7 @@
       </c>
       <c r="J303" s="4"/>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A304" s="4" t="s">
         <v>369</v>
       </c>
@@ -9894,7 +9894,7 @@
       <c r="I304" s="4"/>
       <c r="J304" s="4"/>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A305" s="4" t="s">
         <v>370</v>
       </c>
@@ -9922,7 +9922,7 @@
       </c>
       <c r="J305" s="4"/>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A306" s="4" t="s">
         <v>371</v>
       </c>
@@ -9948,7 +9948,7 @@
       <c r="I306" s="4"/>
       <c r="J306" s="4"/>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A307" s="4" t="s">
         <v>372</v>
       </c>
@@ -9978,7 +9978,7 @@
       </c>
       <c r="J307" s="4"/>
     </row>
-    <row r="308" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A308" s="4" t="s">
         <v>373</v>
       </c>
@@ -10010,7 +10010,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A309" s="4" t="s">
         <v>374</v>
       </c>
@@ -10032,7 +10032,7 @@
       <c r="I309" s="4"/>
       <c r="J309" s="4"/>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A310" s="4" t="s">
         <v>375</v>
       </c>
@@ -10054,7 +10054,7 @@
       <c r="I310" s="4"/>
       <c r="J310" s="4"/>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A311" s="7" t="s">
         <v>376</v>
       </c>
@@ -10076,7 +10076,7 @@
       <c r="I311" s="4"/>
       <c r="J311" s="37"/>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A312" s="7" t="s">
         <v>378</v>
       </c>
@@ -10098,7 +10098,7 @@
       <c r="I312" s="4"/>
       <c r="J312" s="37"/>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A313" s="4" t="s">
         <v>379</v>
       </c>
@@ -10122,7 +10122,7 @@
       <c r="I313" s="4"/>
       <c r="J313" s="37"/>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A314" s="4" t="s">
         <v>380</v>
       </c>
@@ -10144,7 +10144,7 @@
       <c r="I314" s="4"/>
       <c r="J314" s="37"/>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A315" s="4" t="s">
         <v>377</v>
       </c>
@@ -10166,7 +10166,7 @@
       <c r="I315" s="4"/>
       <c r="J315" s="37"/>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A316" s="4" t="s">
         <v>381</v>
       </c>
@@ -10188,7 +10188,7 @@
       <c r="I316" s="4"/>
       <c r="J316" s="37"/>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A317" s="4" t="s">
         <v>382</v>
       </c>
@@ -10210,7 +10210,7 @@
       <c r="I317" s="4"/>
       <c r="J317" s="37"/>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A318" s="4" t="s">
         <v>383</v>
       </c>
@@ -10230,7 +10230,7 @@
       <c r="I318" s="4"/>
       <c r="J318" s="37"/>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A319" s="4" t="s">
         <v>385</v>
       </c>
@@ -10252,7 +10252,7 @@
       <c r="I319" s="4"/>
       <c r="J319" s="37"/>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A320" s="4" t="s">
         <v>386</v>
       </c>
@@ -10274,7 +10274,7 @@
       <c r="I320" s="4"/>
       <c r="J320" s="37"/>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A321" s="4" t="s">
         <v>387</v>
       </c>
@@ -10296,7 +10296,7 @@
       <c r="I321" s="4"/>
       <c r="J321" s="37"/>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A322" s="4" t="s">
         <v>388</v>
       </c>
@@ -10318,7 +10318,7 @@
       <c r="I322" s="4"/>
       <c r="J322" s="4"/>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A323" s="4" t="s">
         <v>389</v>
       </c>
@@ -10340,7 +10340,7 @@
       <c r="I323" s="4"/>
       <c r="J323" s="4"/>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A324" s="4" t="s">
         <v>390</v>
       </c>
@@ -10362,7 +10362,7 @@
       <c r="I324" s="4"/>
       <c r="J324" s="4"/>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A325" s="4" t="s">
         <v>391</v>
       </c>
@@ -10380,7 +10380,7 @@
       <c r="I325" s="4"/>
       <c r="J325" s="4"/>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A326" s="4" t="s">
         <v>394</v>
       </c>
@@ -10402,7 +10402,7 @@
       <c r="I326" s="4"/>
       <c r="J326" s="4"/>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A327" s="4" t="s">
         <v>395</v>
       </c>
@@ -10426,7 +10426,7 @@
       <c r="I327" s="4"/>
       <c r="J327" s="4"/>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A328" s="4" t="s">
         <v>396</v>
       </c>
@@ -10446,7 +10446,7 @@
       <c r="I328" s="4"/>
       <c r="J328" s="4"/>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A329" s="4" t="s">
         <v>397</v>
       </c>
@@ -10466,7 +10466,7 @@
       <c r="I329" s="4"/>
       <c r="J329" s="4"/>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A330" s="4" t="s">
         <v>398</v>
       </c>
@@ -10498,7 +10498,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A331" s="4" t="s">
         <v>399</v>
       </c>
@@ -10526,7 +10526,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A332" s="4" t="s">
         <v>400</v>
       </c>
@@ -10552,7 +10552,7 @@
       </c>
       <c r="J332" s="4"/>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A333" s="4" t="s">
         <v>401</v>
       </c>
@@ -10576,7 +10576,7 @@
       <c r="I333" s="4"/>
       <c r="J333" s="4"/>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A334" s="4" t="s">
         <v>402</v>
       </c>
@@ -10598,7 +10598,7 @@
       <c r="I334" s="4"/>
       <c r="J334" s="4"/>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A335" s="4" t="s">
         <v>403</v>
       </c>
@@ -10616,7 +10616,7 @@
       <c r="I335" s="4"/>
       <c r="J335" s="4"/>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A336" s="4" t="s">
         <v>405</v>
       </c>
@@ -10638,7 +10638,7 @@
       <c r="I336" s="4"/>
       <c r="J336" s="4"/>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A337" s="4" t="s">
         <v>407</v>
       </c>
@@ -10658,7 +10658,7 @@
       <c r="I337" s="4"/>
       <c r="J337" s="4"/>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A338" s="4" t="s">
         <v>409</v>
       </c>
@@ -10678,7 +10678,7 @@
       <c r="I338" s="4"/>
       <c r="J338" s="4"/>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A339" s="4" t="s">
         <v>411</v>
       </c>
@@ -10698,7 +10698,7 @@
       <c r="I339" s="4"/>
       <c r="J339" s="4"/>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A340" s="4" t="s">
         <v>413</v>
       </c>
@@ -10720,7 +10720,7 @@
       <c r="I340" s="4"/>
       <c r="J340" s="4"/>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A341" s="4" t="s">
         <v>414</v>
       </c>
@@ -10740,7 +10740,7 @@
       <c r="I341" s="4"/>
       <c r="J341" s="4"/>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A342" s="4" t="s">
         <v>416</v>
       </c>
@@ -10762,7 +10762,7 @@
       <c r="I342" s="4"/>
       <c r="J342" s="4"/>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A343" s="6" t="s">
         <v>624</v>
       </c>
@@ -10782,7 +10782,7 @@
       <c r="I343" s="4"/>
       <c r="J343" s="4"/>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A344" s="4" t="s">
         <v>417</v>
       </c>
@@ -10802,7 +10802,7 @@
       <c r="I344" s="4"/>
       <c r="J344" s="4"/>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A345" s="4" t="s">
         <v>418</v>
       </c>
@@ -10822,7 +10822,7 @@
       <c r="I345" s="4"/>
       <c r="J345" s="4"/>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A346" s="4" t="s">
         <v>419</v>
       </c>
@@ -10842,7 +10842,7 @@
       <c r="I346" s="4"/>
       <c r="J346" s="4"/>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A347" s="4" t="s">
         <v>420</v>
       </c>
@@ -10862,7 +10862,7 @@
       <c r="I347" s="4"/>
       <c r="J347" s="4"/>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A348" s="4" t="s">
         <v>421</v>
       </c>
@@ -10882,7 +10882,7 @@
       <c r="I348" s="4"/>
       <c r="J348" s="4"/>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A349" s="4" t="s">
         <v>422</v>
       </c>
@@ -10902,7 +10902,7 @@
       <c r="I349" s="4"/>
       <c r="J349" s="4"/>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A350" s="4" t="s">
         <v>423</v>
       </c>
@@ -10922,7 +10922,7 @@
       <c r="I350" s="4"/>
       <c r="J350" s="4"/>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A351" s="4" t="s">
         <v>424</v>
       </c>
@@ -10940,7 +10940,7 @@
       <c r="I351" s="4"/>
       <c r="J351" s="4"/>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A352" s="4" t="s">
         <v>426</v>
       </c>
@@ -10960,7 +10960,7 @@
       <c r="I352" s="4"/>
       <c r="J352" s="4"/>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A353" s="4" t="s">
         <v>428</v>
       </c>
@@ -10980,7 +10980,7 @@
       <c r="I353" s="4"/>
       <c r="J353" s="4"/>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A354" s="4" t="s">
         <v>430</v>
       </c>
@@ -11000,7 +11000,7 @@
       <c r="I354" s="4"/>
       <c r="J354" s="4"/>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A355" s="4" t="s">
         <v>431</v>
       </c>
@@ -11018,7 +11018,7 @@
       <c r="I355" s="4"/>
       <c r="J355" s="4"/>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A356" s="4" t="s">
         <v>433</v>
       </c>
@@ -11040,7 +11040,7 @@
       <c r="I356" s="4"/>
       <c r="J356" s="4"/>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A357" s="4" t="s">
         <v>435</v>
       </c>
@@ -11060,7 +11060,7 @@
       <c r="I357" s="4"/>
       <c r="J357" s="4"/>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A358" s="4" t="s">
         <v>621</v>
       </c>
@@ -11080,7 +11080,7 @@
       <c r="I358" s="4"/>
       <c r="J358" s="4"/>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A359" s="4" t="s">
         <v>436</v>
       </c>
@@ -11100,7 +11100,7 @@
       <c r="I359" s="4"/>
       <c r="J359" s="4"/>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A360" s="4" t="s">
         <v>437</v>
       </c>
@@ -11122,7 +11122,7 @@
       <c r="I360" s="4"/>
       <c r="J360" s="4"/>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A361" s="7" t="s">
         <v>438</v>
       </c>
@@ -11142,7 +11142,7 @@
       <c r="I361" s="4"/>
       <c r="J361" s="4"/>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A362" s="7" t="s">
         <v>440</v>
       </c>
@@ -11162,7 +11162,7 @@
       <c r="I362" s="4"/>
       <c r="J362" s="4"/>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A363" s="4" t="s">
         <v>441</v>
       </c>
@@ -11184,7 +11184,7 @@
       <c r="I363" s="4"/>
       <c r="J363" s="4"/>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A364" s="4" t="s">
         <v>442</v>
       </c>
@@ -11206,7 +11206,7 @@
       <c r="I364" s="4"/>
       <c r="J364" s="4"/>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A365" s="4" t="s">
         <v>444</v>
       </c>
@@ -11228,7 +11228,7 @@
       <c r="I365" s="4"/>
       <c r="J365" s="4"/>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A366" s="4" t="s">
         <v>445</v>
       </c>
@@ -11248,7 +11248,7 @@
       <c r="I366" s="4"/>
       <c r="J366" s="4"/>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A367" s="4" t="s">
         <v>447</v>
       </c>
@@ -11268,7 +11268,7 @@
       <c r="I367" s="4"/>
       <c r="J367" s="4"/>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A368" s="4" t="s">
         <v>504</v>
       </c>
@@ -11288,7 +11288,7 @@
       <c r="I368" s="4"/>
       <c r="J368" s="4"/>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A369" s="7" t="s">
         <v>448</v>
       </c>
@@ -11308,7 +11308,7 @@
       <c r="I369" s="4"/>
       <c r="J369" s="4"/>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A370" s="4" t="s">
         <v>449</v>
       </c>
@@ -11330,7 +11330,7 @@
       <c r="I370" s="4"/>
       <c r="J370" s="4"/>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A371" s="4" t="s">
         <v>450</v>
       </c>
@@ -11350,7 +11350,7 @@
       <c r="I371" s="4"/>
       <c r="J371" s="4"/>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A372" s="4" t="s">
         <v>451</v>
       </c>
@@ -11372,7 +11372,7 @@
       <c r="I372" s="4"/>
       <c r="J372" s="4"/>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A373" s="4" t="s">
         <v>453</v>
       </c>
@@ -11392,7 +11392,7 @@
       <c r="I373" s="4"/>
       <c r="J373" s="4"/>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A374" s="4" t="s">
         <v>455</v>
       </c>
@@ -11412,7 +11412,7 @@
       <c r="I374" s="4"/>
       <c r="J374" s="4"/>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A375" s="4" t="s">
         <v>456</v>
       </c>
@@ -11434,7 +11434,7 @@
       <c r="I375" s="4"/>
       <c r="J375" s="4"/>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A376" s="4" t="s">
         <v>457</v>
       </c>
@@ -11456,7 +11456,7 @@
       <c r="I376" s="4"/>
       <c r="J376" s="4"/>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A377" s="4" t="s">
         <v>458</v>
       </c>
@@ -11476,7 +11476,7 @@
       <c r="I377" s="4"/>
       <c r="J377" s="4"/>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A378" s="4" t="s">
         <v>460</v>
       </c>
@@ -11496,7 +11496,7 @@
       <c r="I378" s="4"/>
       <c r="J378" s="4"/>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A379" s="4" t="s">
         <v>611</v>
       </c>
@@ -11516,7 +11516,7 @@
       <c r="I379" s="4"/>
       <c r="J379" s="4"/>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A380" s="4" t="s">
         <v>461</v>
       </c>
@@ -11536,7 +11536,7 @@
       <c r="I380" s="4"/>
       <c r="J380" s="4"/>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A381" s="4" t="s">
         <v>462</v>
       </c>
@@ -11556,7 +11556,7 @@
       <c r="I381" s="4"/>
       <c r="J381" s="4"/>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A382" s="7" t="s">
         <v>464</v>
       </c>
@@ -11576,7 +11576,7 @@
       <c r="I382" s="4"/>
       <c r="J382" s="4"/>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A383" s="4" t="s">
         <v>465</v>
       </c>
@@ -11596,7 +11596,7 @@
       <c r="I383" s="4"/>
       <c r="J383" s="4"/>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A384" s="4" t="s">
         <v>466</v>
       </c>
@@ -11616,7 +11616,7 @@
       <c r="I384" s="4"/>
       <c r="J384" s="4"/>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A385" s="4" t="s">
         <v>467</v>
       </c>
@@ -11634,7 +11634,7 @@
       <c r="I385" s="4"/>
       <c r="J385" s="4"/>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A386" s="4" t="s">
         <v>469</v>
       </c>
@@ -11656,7 +11656,7 @@
       <c r="I386" s="4"/>
       <c r="J386" s="4"/>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A387" s="4" t="s">
         <v>471</v>
       </c>
@@ -11674,7 +11674,7 @@
       <c r="I387" s="4"/>
       <c r="J387" s="4"/>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A388" s="4" t="s">
         <v>473</v>
       </c>
@@ -11696,7 +11696,7 @@
       <c r="I388" s="4"/>
       <c r="J388" s="4"/>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A389" s="4" t="s">
         <v>475</v>
       </c>
@@ -11718,7 +11718,7 @@
       <c r="I389" s="4"/>
       <c r="J389" s="4"/>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A390" s="4" t="s">
         <v>476</v>
       </c>
@@ -11740,7 +11740,7 @@
       <c r="I390" s="4"/>
       <c r="J390" s="4"/>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A391" s="4" t="s">
         <v>477</v>
       </c>
@@ -11762,7 +11762,7 @@
       <c r="I391" s="4"/>
       <c r="J391" s="4"/>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A392" s="4" t="s">
         <v>478</v>
       </c>
@@ -11784,7 +11784,7 @@
       <c r="I392" s="4"/>
       <c r="J392" s="4"/>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A393" s="4" t="s">
         <v>479</v>
       </c>
@@ -11806,7 +11806,7 @@
       <c r="I393" s="4"/>
       <c r="J393" s="4"/>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A394" s="4" t="s">
         <v>480</v>
       </c>
@@ -11824,7 +11824,7 @@
       <c r="I394" s="4"/>
       <c r="J394" s="4"/>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A395" s="4" t="s">
         <v>482</v>
       </c>
@@ -11846,7 +11846,7 @@
       <c r="I395" s="4"/>
       <c r="J395" s="4"/>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A396" s="4" t="s">
         <v>484</v>
       </c>
@@ -11866,7 +11866,7 @@
       <c r="I396" s="4"/>
       <c r="J396" s="4"/>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A397" s="4" t="s">
         <v>614</v>
       </c>
@@ -11886,7 +11886,7 @@
       <c r="I397" s="4"/>
       <c r="J397" s="4"/>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A398" s="4" t="s">
         <v>486</v>
       </c>
@@ -11908,7 +11908,7 @@
       <c r="I398" s="4"/>
       <c r="J398" s="4"/>
     </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A399" s="4" t="s">
         <v>487</v>
       </c>
@@ -11930,7 +11930,7 @@
       <c r="I399" s="4"/>
       <c r="J399" s="4"/>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A400" s="4" t="s">
         <v>488</v>
       </c>
@@ -11952,7 +11952,7 @@
       <c r="I400" s="4"/>
       <c r="J400" s="4"/>
     </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A401" s="4" t="s">
         <v>490</v>
       </c>
@@ -11974,7 +11974,7 @@
       <c r="I401" s="4"/>
       <c r="J401" s="4"/>
     </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A402" s="4" t="s">
         <v>491</v>
       </c>
@@ -11996,7 +11996,7 @@
       <c r="I402" s="4"/>
       <c r="J402" s="4"/>
     </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A403" s="4" t="s">
         <v>492</v>
       </c>
@@ -12018,7 +12018,7 @@
       <c r="I403" s="4"/>
       <c r="J403" s="4"/>
     </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A404" s="4" t="s">
         <v>494</v>
       </c>
@@ -12036,7 +12036,7 @@
       <c r="I404" s="4"/>
       <c r="J404" s="4"/>
     </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A405" s="4" t="s">
         <v>496</v>
       </c>
@@ -12058,7 +12058,7 @@
       <c r="I405" s="4"/>
       <c r="J405" s="4"/>
     </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A406" s="4" t="s">
         <v>498</v>
       </c>
@@ -12080,7 +12080,7 @@
       <c r="I406" s="4"/>
       <c r="J406" s="4"/>
     </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A407" s="4" t="s">
         <v>499</v>
       </c>
@@ -12102,7 +12102,7 @@
       <c r="I407" s="4"/>
       <c r="J407" s="4"/>
     </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A408" s="4" t="s">
         <v>500</v>
       </c>
@@ -12124,7 +12124,7 @@
       <c r="I408" s="4"/>
       <c r="J408" s="4"/>
     </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A409" s="4" t="s">
         <v>502</v>
       </c>
@@ -12146,7 +12146,7 @@
       <c r="I409" s="4"/>
       <c r="J409" s="4"/>
     </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A410" s="4" t="s">
         <v>503</v>
       </c>
@@ -12166,7 +12166,7 @@
       <c r="I410" s="4"/>
       <c r="J410" s="4"/>
     </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A411" s="4" t="s">
         <v>506</v>
       </c>
@@ -12188,7 +12188,7 @@
       <c r="I411" s="4"/>
       <c r="J411" s="4"/>
     </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A412" s="4" t="s">
         <v>508</v>
       </c>
@@ -12210,7 +12210,7 @@
       <c r="I412" s="4"/>
       <c r="J412" s="4"/>
     </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A413" s="4" t="s">
         <v>509</v>
       </c>
@@ -12232,7 +12232,7 @@
       <c r="I413" s="4"/>
       <c r="J413" s="4"/>
     </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A414" s="4" t="s">
         <v>510</v>
       </c>
@@ -12254,7 +12254,7 @@
       <c r="I414" s="4"/>
       <c r="J414" s="4"/>
     </row>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A415" s="4" t="s">
         <v>511</v>
       </c>
@@ -12272,7 +12272,7 @@
       <c r="I415" s="4"/>
       <c r="J415" s="4"/>
     </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A416" s="4" t="s">
         <v>507</v>
       </c>
@@ -12294,7 +12294,7 @@
       <c r="I416" s="4"/>
       <c r="J416" s="4"/>
     </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A417" s="4" t="s">
         <v>513</v>
       </c>
@@ -12314,7 +12314,7 @@
       <c r="I417" s="4"/>
       <c r="J417" s="4"/>
     </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A418" s="4" t="s">
         <v>516</v>
       </c>
@@ -12336,7 +12336,7 @@
       <c r="I418" s="4"/>
       <c r="J418" s="4"/>
     </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A419" s="4" t="s">
         <v>517</v>
       </c>
@@ -12358,7 +12358,7 @@
       <c r="I419" s="4"/>
       <c r="J419" s="4"/>
     </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A420" s="4" t="s">
         <v>518</v>
       </c>
@@ -12380,7 +12380,7 @@
       <c r="I420" s="4"/>
       <c r="J420" s="4"/>
     </row>
-    <row r="421" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A421" s="4" t="s">
         <v>520</v>
       </c>
@@ -12398,7 +12398,7 @@
       <c r="I421" s="4"/>
       <c r="J421" s="4"/>
     </row>
-    <row r="422" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A422" s="4" t="s">
         <v>522</v>
       </c>
@@ -12418,7 +12418,7 @@
       <c r="I422" s="4"/>
       <c r="J422" s="4"/>
     </row>
-    <row r="423" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A423" s="4" t="s">
         <v>524</v>
       </c>
@@ -12440,7 +12440,7 @@
       <c r="I423" s="4"/>
       <c r="J423" s="4"/>
     </row>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A424" s="4" t="s">
         <v>525</v>
       </c>
@@ -12466,7 +12466,7 @@
       <c r="I424" s="4"/>
       <c r="J424" s="4"/>
     </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A425" s="4" t="s">
         <v>526</v>
       </c>
@@ -12488,7 +12488,7 @@
       <c r="I425" s="4"/>
       <c r="J425" s="4"/>
     </row>
-    <row r="426" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A426" s="4" t="s">
         <v>527</v>
       </c>
@@ -12508,7 +12508,7 @@
       <c r="I426" s="4"/>
       <c r="J426" s="4"/>
     </row>
-    <row r="427" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A427" s="4" t="s">
         <v>528</v>
       </c>
@@ -12540,7 +12540,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="428" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A428" s="4" t="s">
         <v>529</v>
       </c>
@@ -12562,7 +12562,7 @@
       <c r="I428" s="4"/>
       <c r="J428" s="4"/>
     </row>
-    <row r="429" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A429" s="4" t="s">
         <v>530</v>
       </c>
@@ -12584,7 +12584,7 @@
       <c r="I429" s="4"/>
       <c r="J429" s="4"/>
     </row>
-    <row r="430" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A430" s="4" t="s">
         <v>531</v>
       </c>
@@ -12602,7 +12602,7 @@
       <c r="I430" s="4"/>
       <c r="J430" s="4"/>
     </row>
-    <row r="431" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A431" s="4" t="s">
         <v>532</v>
       </c>
@@ -12620,7 +12620,7 @@
       <c r="I431" s="4"/>
       <c r="J431" s="4"/>
     </row>
-    <row r="432" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A432" s="4" t="s">
         <v>534</v>
       </c>
@@ -12638,7 +12638,7 @@
       <c r="I432" s="4"/>
       <c r="J432" s="4"/>
     </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A433" s="4" t="s">
         <v>536</v>
       </c>
@@ -12654,7 +12654,7 @@
       <c r="I433" s="4"/>
       <c r="J433" s="4"/>
     </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A434" s="4" t="s">
         <v>537</v>
       </c>
@@ -12670,7 +12670,7 @@
       <c r="I434" s="4"/>
       <c r="J434" s="4"/>
     </row>
-    <row r="435" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A435" s="7" t="s">
         <v>538</v>
       </c>
@@ -12690,7 +12690,7 @@
       <c r="I435" s="4"/>
       <c r="J435" s="4"/>
     </row>
-    <row r="436" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A436" s="4" t="s">
         <v>539</v>
       </c>
@@ -12712,7 +12712,7 @@
       </c>
       <c r="J436" s="4"/>
     </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A437" s="4" t="s">
         <v>541</v>
       </c>
@@ -12734,7 +12734,7 @@
       <c r="I437" s="4"/>
       <c r="J437" s="4"/>
     </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A438" s="4" t="s">
         <v>542</v>
       </c>
@@ -12764,7 +12764,7 @@
       </c>
       <c r="J438" s="4"/>
     </row>
-    <row r="439" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A439" s="4" t="s">
         <v>543</v>
       </c>
@@ -12786,7 +12786,7 @@
       </c>
       <c r="J439" s="4"/>
     </row>
-    <row r="440" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A440" s="4" t="s">
         <v>545</v>
       </c>
@@ -12808,7 +12808,7 @@
       <c r="I440" s="4"/>
       <c r="J440" s="4"/>
     </row>
-    <row r="441" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A441" s="4" t="s">
         <v>547</v>
       </c>
@@ -12828,7 +12828,7 @@
       <c r="I441" s="4"/>
       <c r="J441" s="4"/>
     </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A442" s="4" t="s">
         <v>549</v>
       </c>
@@ -12848,7 +12848,7 @@
       <c r="I442" s="4"/>
       <c r="J442" s="4"/>
     </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A443" s="4" t="s">
         <v>551</v>
       </c>
@@ -12874,7 +12874,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="444" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A444" s="4" t="s">
         <v>553</v>
       </c>
@@ -12894,7 +12894,7 @@
       <c r="I444" s="4"/>
       <c r="J444" s="4"/>
     </row>
-    <row r="445" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A445" s="4" t="s">
         <v>555</v>
       </c>
@@ -12916,7 +12916,7 @@
       <c r="I445" s="4"/>
       <c r="J445" s="4"/>
     </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A446" s="4" t="s">
         <v>552</v>
       </c>
@@ -12938,7 +12938,7 @@
       <c r="I446" s="4"/>
       <c r="J446" s="4"/>
     </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A447" s="4" t="s">
         <v>556</v>
       </c>
@@ -12958,7 +12958,7 @@
       <c r="I447" s="4"/>
       <c r="J447" s="4"/>
     </row>
-    <row r="448" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A448" s="4" t="s">
         <v>557</v>
       </c>
@@ -12978,7 +12978,7 @@
       <c r="I448" s="4"/>
       <c r="J448" s="4"/>
     </row>
-    <row r="449" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A449" s="4" t="s">
         <v>559</v>
       </c>
@@ -13002,7 +13002,7 @@
       <c r="I449" s="4"/>
       <c r="J449" s="4"/>
     </row>
-    <row r="450" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A450" s="4" t="s">
         <v>560</v>
       </c>
@@ -13022,7 +13022,7 @@
       <c r="I450" s="4"/>
       <c r="J450" s="4"/>
     </row>
-    <row r="451" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A451" s="4" t="s">
         <v>561</v>
       </c>
@@ -13042,7 +13042,7 @@
       <c r="I451" s="4"/>
       <c r="J451" s="4"/>
     </row>
-    <row r="452" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A452" s="4" t="s">
         <v>563</v>
       </c>
@@ -13062,7 +13062,7 @@
       <c r="I452" s="4"/>
       <c r="J452" s="4"/>
     </row>
-    <row r="453" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A453" s="4" t="s">
         <v>565</v>
       </c>
@@ -13084,7 +13084,7 @@
       <c r="I453" s="4"/>
       <c r="J453" s="4"/>
     </row>
-    <row r="454" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A454" s="7" t="s">
         <v>566</v>
       </c>
@@ -13104,7 +13104,7 @@
       <c r="I454" s="4"/>
       <c r="J454" s="4"/>
     </row>
-    <row r="455" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A455" s="7" t="s">
         <v>568</v>
       </c>
@@ -13124,7 +13124,7 @@
       <c r="I455" s="4"/>
       <c r="J455" s="4"/>
     </row>
-    <row r="456" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A456" s="4" t="s">
         <v>570</v>
       </c>
@@ -13156,7 +13156,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="457" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A457" s="4" t="s">
         <v>571</v>
       </c>
@@ -13176,7 +13176,7 @@
       <c r="I457" s="4"/>
       <c r="J457" s="4"/>
     </row>
-    <row r="458" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A458" s="4" t="s">
         <v>572</v>
       </c>
@@ -13208,7 +13208,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="459" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A459" s="4" t="s">
         <v>573</v>
       </c>
@@ -13236,7 +13236,7 @@
       </c>
       <c r="J459" s="4"/>
     </row>
-    <row r="460" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A460" s="4" t="s">
         <v>574</v>
       </c>
@@ -13266,7 +13266,7 @@
       </c>
       <c r="J460" s="4"/>
     </row>
-    <row r="461" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A461" s="4" t="s">
         <v>575</v>
       </c>
@@ -13288,7 +13288,7 @@
       <c r="I461" s="4"/>
       <c r="J461" s="4"/>
     </row>
-    <row r="462" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A462" s="4" t="s">
         <v>576</v>
       </c>
@@ -13318,7 +13318,7 @@
       </c>
       <c r="J462" s="4"/>
     </row>
-    <row r="463" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A463" s="4" t="s">
         <v>577</v>
       </c>
@@ -13342,7 +13342,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="464" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A464" s="4" t="s">
         <v>578</v>
       </c>
@@ -13362,7 +13362,7 @@
       <c r="I464" s="4"/>
       <c r="J464" s="4"/>
     </row>
-    <row r="465" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A465" s="4" t="s">
         <v>579</v>
       </c>
@@ -13392,7 +13392,7 @@
       </c>
       <c r="J465" s="4"/>
     </row>
-    <row r="466" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A466" s="4" t="s">
         <v>580</v>
       </c>
@@ -13414,7 +13414,7 @@
       <c r="I466" s="4"/>
       <c r="J466" s="4"/>
     </row>
-    <row r="467" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A467" s="4" t="s">
         <v>581</v>
       </c>
@@ -13446,7 +13446,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="468" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A468" s="4" t="s">
         <v>582</v>
       </c>
@@ -13470,7 +13470,7 @@
       </c>
       <c r="J468" s="4"/>
     </row>
-    <row r="469" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A469" s="4" t="s">
         <v>583</v>
       </c>
@@ -13494,7 +13494,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="470" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A470" s="4" t="s">
         <v>585</v>
       </c>
@@ -13518,7 +13518,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="471" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A471" s="21" t="s">
         <v>586</v>
       </c>
@@ -13542,7 +13542,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="472" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A472" s="4" t="s">
         <v>587</v>
       </c>
@@ -13570,7 +13570,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="473" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A473" s="22" t="s">
         <v>588</v>
       </c>
@@ -13588,7 +13588,7 @@
       <c r="I473" s="24"/>
       <c r="J473" s="23"/>
     </row>
-    <row r="474" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A474" s="18" t="s">
         <v>266</v>
       </c>
@@ -13608,7 +13608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A475" s="7" t="s">
         <v>269</v>
       </c>
@@ -13626,7 +13626,7 @@
       <c r="I475" s="4"/>
       <c r="J475" s="4"/>
     </row>
-    <row r="476" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A476" s="4" t="s">
         <v>274</v>
       </c>
@@ -13644,7 +13644,7 @@
       <c r="I476" s="4"/>
       <c r="J476" s="4"/>
     </row>
-    <row r="477" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A477" s="4" t="s">
         <v>277</v>
       </c>
@@ -13662,7 +13662,7 @@
       <c r="I477" s="4"/>
       <c r="J477" s="4"/>
     </row>
-    <row r="478" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A478" s="7" t="s">
         <v>278</v>
       </c>
@@ -13680,7 +13680,7 @@
       <c r="I478" s="4"/>
       <c r="J478" s="4"/>
     </row>
-    <row r="479" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A479" s="18" t="s">
         <v>608</v>
       </c>
@@ -13698,7 +13698,7 @@
       <c r="I479" s="4"/>
       <c r="J479" s="4"/>
     </row>
-    <row r="480" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A480" s="4" t="s">
         <v>293</v>
       </c>
@@ -13716,7 +13716,7 @@
       <c r="I480" s="4"/>
       <c r="J480" s="4"/>
     </row>
-    <row r="481" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A481" s="4" t="s">
         <v>590</v>
       </c>
@@ -13730,7 +13730,7 @@
       <c r="I481" s="25"/>
       <c r="J481" s="25"/>
     </row>
-    <row r="482" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A482" s="4" t="s">
         <v>591</v>
       </c>
@@ -13744,7 +13744,7 @@
       <c r="I482" s="25"/>
       <c r="J482" s="25"/>
     </row>
-    <row r="483" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A483" s="4" t="s">
         <v>592</v>
       </c>
@@ -13758,7 +13758,7 @@
       <c r="I483" s="25"/>
       <c r="J483" s="25"/>
     </row>
-    <row r="484" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A484" s="4" t="s">
         <v>593</v>
       </c>
@@ -13772,7 +13772,7 @@
       <c r="I484" s="25"/>
       <c r="J484" s="25"/>
     </row>
-    <row r="485" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A485" s="4" t="s">
         <v>594</v>
       </c>
@@ -13786,7 +13786,7 @@
       <c r="I485" s="25"/>
       <c r="J485" s="25"/>
     </row>
-    <row r="486" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A486" s="4" t="s">
         <v>595</v>
       </c>
@@ -13800,7 +13800,7 @@
       <c r="I486" s="25"/>
       <c r="J486" s="25"/>
     </row>
-    <row r="487" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A487" s="4" t="s">
         <v>596</v>
       </c>
@@ -13814,7 +13814,7 @@
       <c r="I487" s="25"/>
       <c r="J487" s="25"/>
     </row>
-    <row r="488" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A488" s="4" t="s">
         <v>597</v>
       </c>
@@ -13828,7 +13828,7 @@
       <c r="I488" s="25"/>
       <c r="J488" s="25"/>
     </row>
-    <row r="489" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A489" s="4" t="s">
         <v>598</v>
       </c>
@@ -13842,7 +13842,7 @@
       <c r="I489" s="25"/>
       <c r="J489" s="25"/>
     </row>
-    <row r="490" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A490" s="4" t="s">
         <v>599</v>
       </c>
@@ -13856,7 +13856,7 @@
       <c r="I490" s="25"/>
       <c r="J490" s="25"/>
     </row>
-    <row r="491" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A491" s="4" t="s">
         <v>600</v>
       </c>
@@ -13870,7 +13870,7 @@
       <c r="I491" s="25"/>
       <c r="J491" s="25"/>
     </row>
-    <row r="492" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A492" s="4" t="s">
         <v>601</v>
       </c>
@@ -13884,7 +13884,7 @@
       <c r="I492" s="25"/>
       <c r="J492" s="25"/>
     </row>
-    <row r="493" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A493" s="4" t="s">
         <v>602</v>
       </c>
@@ -13898,7 +13898,7 @@
       <c r="I493" s="25"/>
       <c r="J493" s="25"/>
     </row>
-    <row r="494" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A494" s="4" t="s">
         <v>603</v>
       </c>
@@ -13912,7 +13912,7 @@
       <c r="I494" s="25"/>
       <c r="J494" s="25"/>
     </row>
-    <row r="495" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A495" s="4" t="s">
         <v>604</v>
       </c>
@@ -13926,7 +13926,7 @@
       <c r="I495" s="25"/>
       <c r="J495" s="25"/>
     </row>
-    <row r="496" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A496" s="4" t="s">
         <v>605</v>
       </c>
@@ -13940,7 +13940,7 @@
       <c r="I496" s="25"/>
       <c r="J496" s="25"/>
     </row>
-    <row r="497" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A497" s="4" t="s">
         <v>606</v>
       </c>
@@ -13953,7 +13953,7 @@
       <c r="I497" s="25"/>
       <c r="J497" s="25"/>
     </row>
-    <row r="498" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A498" s="4" t="s">
         <v>607</v>
       </c>
@@ -13971,9 +13971,9 @@
   <phoneticPr fontId="23" type="noConversion"/>
   <printOptions gridLines="1"/>
   <pageMargins left="0.17" right="0.17" top="0.47" bottom="0.57999999999999996" header="0" footer="0"/>
-  <pageSetup paperSize="5" scale="72" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="5" scale="89" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;L&amp;F&amp;C&amp;P&amp;ROctober 22, 2024</oddFooter>
+    <oddFooter>&amp;L&amp;F&amp;C&amp;P&amp;RNovember 15, 2024</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
